--- a/기사데이터/토스/엑셀파일/news(토스, 2021.10.01~2021.10.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2021.10.01~2021.10.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2021.10.10.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>‘마지막 희망’ 토스도 대출 중단 가능성…“이젠 어디서” 아우성</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001475863?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>토스, 대출 한도 60% 도달…실수요자 불안감금융 당국의 강도 높은 가계 부채 관리에 시중은행과 인터넷전문은행 가릴 것 없이 대출 문이 속속 닫히고 있다. 신생 인터넷전문은행인 토스뱅크마저 금융 당국이 제시한 대출 한도를 빠르게 소진하면서 수일 내 대출을 중단할 수 있다는 전망이 나온다. 당국의 전방위적 대출 규제로 실수요자들의 불안감은 나날이 커지고 있다.10일 금융권에 따르면 토스뱅크에서 지난 5일 출범 이후 나흘간 실행된 신용대출(금리 연 2.76~15%) 금액은 3000억원 가량으로, 금융위원회가 제시한 한도(5000억원)의 60%에 도달했다. 8일까지 토스뱅크에서 사전 신청을 통해 대출 받은 고객 수는 45만명이다. 이 가운데 중저신용자 비율은 25% 정도다. 토스뱅크는 이번 연휴 기간에도 영업은 하지만, 신규 고객은 연휴 이후에 받기로 했다.대출 속도로 볼 때 토스뱅크는 다음 주 중 신용대출 5000억원 한도에 다다를 것으로 보인다. 한도를 넘어서면 토스뱅크도 결국 대출을 막을 수밖에 없을 것이라는 예상이 나온다. 다만 이날 토스뱅크 관계자는 “한도가 소진됐을 경우 대출을 중단할지 여부는 아직 결정되지 않았다”며 “여러 방안을 강구하고 있고, 당국과 협의도 계속 진행하고 있다”고 전했다.앞서 시중은행과 기존 인터넷전문은행에서 일부 대출 상품의 신규 취급이 중단되고, 대출 금리가 뛰면서 최저금리 연 2.76%인 토스에 수요가 몰린 것으로 풀이된다. 카카오뱅크는 지난 8일부터 연말까지 고신용자 신용대출과 일반 전·월세 보증금 대출, 직장인 사잇돌 대출을 중단하기로 했다. 케이뱅크도 개인 신용대출 한도를 연 소득 이내로 축소했다.시중은행은 당국이 제시한 가계대출 증가율 연 5%에 가까워지자 ‘대출 조이기’를 더욱 강화하고 있다. 지난 7일 현재 5대 은행의 가계대출 잔액은 약 703조4000억원으로 전년 말 대비 증가율은 4.97% 가량이다. NH농협은행은 부동산담보대출 신규 취급을 한시적으로 중단했다. KB국민은행과 하나은행은 주택담보대출, 신용대출 등 일부 상품에 대한 대환대출을 잠정 중단했다. 국민은행은 전세대출 한도를 임차 보증금 증액 범위 이내로 축소했고, 하나은행도 이달 15일부터 이를 적용할 방침이다. 우리은행은 지점별 가계대출 한도를 적용하고 있다. 이처럼 신용대출이 막히고 전세대출까지 일부 제한하는 은행이 생기면서, 실수요자의 불안감은 높아지고 있다. 특히 부동산 잔금 납부를 앞뒀거나 전세 세입자 등 대출 수요자들은 발만 동동 구르고 있다. 청와대 국민청원에는 실수요자를 위한 대출은 규제하지 말아달라는 내용의 글이 여럿 올라왔고, 많게는 수 만명의 동의를 얻고 있다.  일례로 경기도 일산에 사는 주부라고 밝힌 청원인은 “우리 가족은 평생을 무주택자로 살아왔다. 그러다 경기도 파주시 공공분양 청약에 당첨됐는데도, 모든 대출이 막힌 상황”이라고 호소했다. 그러면서 “태어날 때부터 ‘현금 부자’가 아닌 이상 어떻게 아파트를 현금 주고 살 수 있겠느냐”고 하며 대출 규제를 풀어줄 것을 요구했다.  이런 상황에서 금융위는 이달 중순 가계 부채 관리 방안을 추가로 발표할 계획이다. 총부채원리금상환비율(DSR) 규제 일정을 앞당기는 등의 방안이 검토되는 가운데, 전세대출 관련 규제는 여전히 고심 중인 것으로 전해졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>[일문일답]홍민택 토스뱅크 대표 "내년 전세대출 출시, 주담대 검토"</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010752063?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>기사내용 요약"신용카드 사업, 정부와 초기 단계 논의 시작""연 2% 통장, 충분히 감당 가능한 비용구조""토스뱅크, 타행들과 동일한 규제 환경 놓여""향후 5년간 1조원 증자 계획…변화도 가능""가상자산거래소와 연계, 구체적 계획 없어"[서울=뉴시스] 최선윤 기자 = 제3의 인터넷전문은행 토스뱅크가 5일 정식 출범했다. 홍민택 토스뱅크 대표는 내년 전세대출 상품을 출시하고, 주택담보대출 상품은 정책적·법적 부분에 대한 검토에 나선 상태라고 설명했다. 홍 대표는 이날 토스뱅크 출범 기자간담회에서 "구체적인 일정은 정해지지 않았지만 전세대출 상품을 내년 출시할 예정"이라며 "주택담보대출 상품의 경우엔 대출받는 과정들이 전부 비대면화 돼야 하기 때문에 정책적, 법적 부분에 대한 검토를 시작했고 실제 상품 출시 단계에서는 계약서나 오프라인에서 일어나는 활동들을 다 포용할 수 있도록 할 것"이라고 강조했다.토스뱅크는 신용카드 사업을 위한 초기 단계의 논의도 시작했다. 홍 대표는 "신용카드에서 파생되는 여신상품을 확장하고, 편익을 제공하는 데 관심이 있다"며 "신용카드 사업을 위해서는 먼저 라이선스를 획득해야 하기 때문에 정부와 초기 단계의 논의를 시작했다"고 밝혔다.다음은 홍 대표와의 일문일답.- 연 2% 통장이라는 파격적인 상품에 대한 시장의 관심이 뜨겁다. 지속가능성에 대한 의구심도 나온다. 언제까지 연 2% 금리를 제공할 것인가. 규모 제한은 없나."토스뱅크 통장은 사용자가 돈을 모으고 보관하기 위해 은행들에서 제공하는 가장 좋은 혜택이 무엇인지, 시간을 써서 찾지 않아도 되도록 설계됐고, 그 결과가 연 2% 이자이다. 연 2% 수신금리는 물론 다른 은행 대비 높지만 현재 조달 금리 대비 크게 높은 수준은 아니며, 충분히 감당 가능한 비용구조로 판단하고 있다. 토스뱅크는 시중은행으로 건전성과 수익성 등 다양한 사업적 지표에 대해 정부의 규제를 준수해야 하고, 이런 규제들을 모두 준수하며 2% 이자를 지속가능한 형태로 제공할 수 있도록 상품을 만들었다. 고객들에게 제약 없이 혜택을 돌려드리기 위해 다른 은행들은 풀어보려고 시도하지 않았던 문제를 풀었다고 생각한다. 앞으로도 이 혜택을 고객들에게 지속해서 제공할 수 있도록 최선을 다해 토스뱅크의 사업을 운영해 나가겠다."- 최근 대출총량규제 등 가계대출을 조이기 위한 정부 규제가 강화되고 있다. 토스뱅크도 이같은 규제를 받나. 그렇다면 올해 토스뱅크의 신용대출은 어느정도 규모로 이뤄지게 되나."토스뱅크 역시 시중은행으로서 다른 은행들과 동일한 규제 환경에 놓여 있다. 이에 따라 정부가 추진하는 정책적 방향에 협력해 나갈 방침이다. 이제 영업을 시작하는 시점에서 구체적 대출 규모에 대해서 예상하기는 조금 이른 것 같다. 영업 과정에서 정책 정책 뿐만 아니라 시장 경쟁 상황, 고객 수요와 공급에 따라 대출규모 목표는 유동적으로 변경될 수 있을 것으로 생각한다."- 토스뱅크의 대출 전략은 무엇인가. 연내 34.9% 등 토스뱅크의 중금리대출 목표가 타 인터넷은행 대비 높다는 평가도 있다. 올해 남은 3개월 동안 목표를 달성할 수 있을까."토스뱅크는 무엇보다 인터넷뱅크 본연의 미션인 중신용대출에 집중하는 데 우선순위를 두고 있다. 기존 인터넷뱅크가 프라임 대출에 치중했다는 평가에 대해서도 견지하고 있다. 여신 상품을 운용하는 과정에서 수익성과 건전성을 유지하며 정부의 정책적 방향에 부합하도록 노력할 예정이다.중금리대출 목표를 실현하기 위한 전략은 충분히 준비됐다고 판단한다. 금융과 비금융 대안 데이터를 포괄하는 토스뱅크의 신용평가모형을 기반으로 충분히 달성할 수 있으리라고 본다. 이제 출범하는 은행인만큼 제로부터 시작하기 때문에 비중을 조절하는데 보다 유리한 지점도 있다. 많은 중저신용자 고객들에게 안정적으로 여신을 공급해 나가고자 한다."- 토스뱅크의 신용대출 한도가 높아 시장수요가 몰릴 것으로 예상된다. 총 여신한도는 얼마나 되나. 연말까지 여신 규모는 어느정도로 예상하나. "홈페이지를 통해 공개한 2억7000만원 신용한도는 상품 운용 과정에서의 최대한도다. 토스뱅크는 최저금리 2.76%부터 15%까지 폭넓은 구간을 제공함으로 중저신용자까지 포용할 수 있을 것으로 본다. 연말까지 어느정도의 여신규모를 달성할수 있을지 시장에서 경쟁력을 증명해서 고객 끌어올 수 있을지 예측하기는 어렵지만 시장 반응과 정부 정책 방향에 협조해 나가면서 유연하게 대응하겠다."- 자본금 확충을 위한 증자시기와 방식, 규모는 어떻게 되나. "사업계획에서 증자계획은 향후 5년간 1조원 증자계획을 공유했었는데 이 부분이 베이스라고 봐주시면 된다. 시장에서 높은 수요와 모객이 흥행할 경우 등에도 대비가 돼 있고, 시장상황에 따라 변화할 수 있다. 중요한 것은 서비스를 중단없이 빠르게 더 큰 금액을 증자하는 경우에 대해서도 주주사들과 사전 협의가 돼 있다는 점이다."- 타 인터넷전문은행은 비대면 전세대출에서 인프라 부족 문제로 잔금일 직전 대출 불가 통보를 받기도 하는데, 이에 대한 대비책이 있나."토스뱅크는 출시시점에 신용대출, 마이너스 통장 가장 단순한 형태의 여신상품을 제공한다. 전세자금 대출 내년 출시를 계획하고 있고 출시되는 과정에서 사용자들에게 어떤 프로세스와 과정을 제공할지는 아직 미정이다. 시장에서 느끼는 불편이 인지하고 있고 개선해서 상품을 출시해 나갈 계획이다."- 토스뱅크 가입자가 신분증과 카드를 분실하면 명의도용 등의 문제가 일어날 수 있을 것 같다. 보안 대책이 궁금하다."토스뱅크는 기본적으로 원앱으로 운영하고 있어 토스(비바리퍼블리카)와 플랫폼을 공유하고 있다. 가입자 2000만명을 보유한 토스와 운영 보안 체계를 공유하고 있어 시장의 비대면 보안체계 중 가장 강력한 보안체계를 공유하고 있다. 여기에 물리적 관점 취약점 등을 계속 고도화해서 FDS 등을 통해 실제 사고로 이어지지 않도록 하겠다."- 신용대출 금리가 최저 2.76%로 다른 은행 대비 저금리다. 이런 대출을 제공할 수 있는 방법이 있나."최저금리와 최대한도는 바운더리라고 봐주시면 된다. 실제로 모든 사람들에게 미끼 상품처럼 제공되는 숫자가 아니고, 모든 사람들이 공정하게 평가받고 한도와 금리를 받아갈 수 있도록 설계됐다."- 중저신용자를 포괄하는 신용평가모형이라고 발표했다. 1금융권에서 대출 못받던 사람들 중 30%가 대출 받을 수 있는 이유가 있을까."TSS(토스스코어링시스템)는 신용평가모델을 완전히 새로운 방향에서 구축했다. 기존에는 1금융권에서 대출받으셨던 분들, 금융데이터가 있는 대출받았던 사람만이 추가 대출을 받을 수 있었다. 그래서 대출받을 수 있는 풀이 확장되기 어려웠다. 이런 성격의 금융데이터 뿐 아니라 실제 상환능력이 검증할 수 있도록, 결제 내역, 잔고 등 정보를 통해 상환능력이 검증될 수 있도록 신용평가 모형을 만들었다. 기존 4등급 이하인 경우에도 1~3등급까지 우량의 비중으로 편입될 수 있도록 기회를 발견했다는 점이 가장 차별적이다."- 토스뱅크 상장 계획이 있나. 만약 한다면 국내와 해외 중 어디를 생각하나."이제 막 영업을 시작하고 있어서 아직 상장계획까지는 구체적으로 확정된 바가 없다. 은행 본연의 서비스를 고객들에게 가장 필요한 형태로 제공하고 고객 편익을 제공하는 과정에서 상장을 고민해 볼 수 있을 것이다."- 토스뱅크도 가상자산거래소와 연계해 실명계좌 발급계획이나 제휴계획이 있나."아직까지 구체적인 계획이 없다. 현재 여신, 수신, 카드 시장에 안정적으로 안착하는데 전사 역량을 기울이고 있다."- 사전신청자 100만명 이상인데 모두가 통장 개설하는 데 얼마나 시간이 걸리나. "최대한 빠르게 100만명 모두에게 완전한 서비스 모두 제공하는걸 목표로 하고 있다. 10월 중으로, 100만명에게 서비스를 제공하려고 한다."- 사전신청자 대상 순차적으로 서비스를 출시하는 이유가 있나."토스뱅크는 사전신청자 뿐 아니라 모두에게 서비스를 제공할수 있는 전산 준비는 마친 상태다. (사전신청자 대상 순차 오픈은) 토스뱅크의 온전하고 완전한 서비스를 모두에게 제공하기 위한 전략적인 선택이다."- 후불결제서비스도 도입할 예정인가. 연체리스크 관리방안은 어떻게 되나."후불결제서비스는 아직 구체적으로 출시나 검토된 바 없다. 연체리스크 관리 방안은 폭넓은 중저신용자에게 여신을 제공하는 만큼 그에 맞는 사후관리 리스크 관리 체계가 구축돼 있다고 확신한다."- 신용대출 한도를 연봉 이내로 할 것인가. 마이너스통장 한도는 얼마나 되나."금융당국의 DTI 규제를 준수해 나갈 예정이다. 마이너스통장 한도는 개인의 신용도에 따라 다르며, 최대 1억5000만원이다．"</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>토스뱅크 정식 출범…사전신청 100만명 순차 오픈</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002256149?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>◆…토스뱅크 홍민택 대표가 5일 토스뱅크 정식 출범을 선언했다. 사진=토스뱅크 제공     토스뱅크가 ‘완전히 새로운 은행’을 선언하며 5일 정식 출범했다. 토스뱅크는 이날부터 사전신청에 참여한 고객을 시작으로 순차적인 서비스 개시에 나선다.   토스뱅크는 은행을 ‘고객이 돈을 모으고 불리는 곳이자 필요할 때 적절한 금리로 돈을 빌릴 수 있는 곳'으로 정의 내리고 고객 관점의 새로운 뱅킹 서비스를 구축했다. ▲고객이 고민할 필요 없는 가장 단순한 상품을 통해 ▲고객이 찾지 않아도 최고의 혜택을 먼저 제시하며 ▲기술 혁신을 통해 더 넓은 범위의 고객을 포용하는 은행을 추구한다고 설명했다.   ‘토스뱅크 신용대출’의 경우 최저 연 2.76%에서 최고 연15.00% (10월 5일 기준)로 폭넓은 금리를 제시한다. 고신용자는 물론 중·저신용자와 1300만 씬파일러(금융이력부족자)에게도 공정한 신용평가를 거쳐 합리적인 금리와 대출 한도를 제시한다는 계획이다.   토스뱅크는 대출 승인율을 끌어올리고, 기존 1금융권에서 대출받기 어려웠던 이들 중 30%가량을 ‘건전한 중·저신용자’로 발굴해 고객으로 포용할 계획이다. 사용한 만큼만 이자를 내는 ‘토스뱅크 마이너스통장’과 최대 300만원 한도의 ‘토스뱅크 비상금 대출'도 제공한다.   고객은 단 한번의 조회만으로 대출 한도와 금리를 확인하고, 한 번의 승인으로 대출을 실행할 수 있다. 토스뱅크는 ‘내 한도 관리 서비스'를 통해 고객의 신용도 변동에 따른 대출 금리와 한도 변화를 미리 알려준다. 또 대출 고객의 신용점수가 개선돼 금리를 낮출 수 있는 조건이 충족되면 토스뱅크가 먼저 ‘상시금리인하요구’를 실행하라는 알림을 보내준다.   홍민택 토스뱅크 대표는 “토스뱅크는 직장인·자영업자, 프라임·중금리 대출 등의 구분 없이 단 하나의 신용대출 상품을 통해 최적의 대출 금리와 한도를 제공한다”면서 ”중·저신용자를 포함해 폭넓은 고객을 포용하는 정책으로 은행의 문턱을 낮췄다”고 말했다.   지난달 10일 공개된 ‘토스뱅크 통장'은 만기나 최소 납입 금액 등 아무런 조건 없는 연 2% 이자를 지급하는 수시입출금 통장으로 큰 관심을 받았다. 토스뱅크는 기존 은행의 예금 상품을 ‘나눠서 보관하기’로, 적금은 ‘잔돈 모으기'와 ‘목돈 모으기'로 구현했다. 토스뱅크 통장에서 이 기능을 켜고 끌 수 있다. 이자는 연 2%로 모두 동일하며, 금액을 예치한 날로부터 일할 계산돼 매달 지급 받는다.   토스뱅크 사전신청에는 100만명이 넘는 고객이 몰렸다. 사전신청 고객은 순차적으로 알림 메시지를 받게 되며, 토스뱅크 가입 절차를 거친 뒤 통장 개설 및 신용대출 조회·실행, 체크카드 발급까지 모든 서비스를 이용할 수 있다. 사전신청에 참여하지 않은 고객의 경우 토스 앱 내 홈 화면 배너 또는 전체 탭의 ‘토스뱅크’ 페이지에서 진행할 수 있다.   토스뱅크 체크카드 또한 전월 실적 조건 없이 커피·패스트푸드·편의점·택시·대중교통 등 생활밀착형 5대 카테고리에서 결제하면 매달 최대 4만6500원을 현금으로 돌려준다. 해외에서는 온·오프라인 구분 없이 사용액의 3%를 즉시 캐시백한다. 또한 NFC(근거리 무선통신) 기술을 활용한 OTP 기능을 탑재해, 휴대폰 뒷면에 체크카드를 접촉하면 안전하고 손쉽게 고액 송금이 가능하도록 했다.   이날 출범식에서는 윤재옥 국회 정무위원장과 고승범 금융위원장이 축사를 맡아 토스뱅크의 혁신과 포용을 당부했다. 홍민택 대표는 토스뱅크를 스무 번째 은행이 아닌 새로운 은행으로 소개했다.   홍민택 대표는 “토스뱅크는 조금 더 나은 은행이 아닌 ‘새로운 은행'이 되고자 한다"며 “고객에게 전가됐던 제약들을 모두 없애고, 새로운 기술과 데이터를 활용해 고객에게 가장 좋은 혜택을 돌려드릴 수 있도록 앞으로도 노력하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2021.10.14.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>백기든 가계부채 관리대책</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002700939?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>文대통령 "전세 대출, 차질 없도록 세심한 관리"고승범 금융위원장 "전세 대출은 총량관리 목표 제외"고승범 금융위원회 위원장이 14일 오전 서울 여의도 금융투자협회에서 열린 투자자 교육 플랫폼 '알투플러스' 오픈 기념회에 참석한 뒤 취재진 질문에 답하고 있다./ 연합뉴스 제공    대출 절벽 우려에 실수요자까지 옥죄려던 정부가 한발 물러났다. 전세 대출과 집단대출 등 실수요자에 대해서는 대출 총량 규제의 예외를 적용하기로 했다. 부동산 가격 급등에 따른 피해를 서민층 등 실수요자에게 떠넘겨 강력한 반발이 불거졌기 때문이다.임대차3법 시행과 실기한 공급정책으로 부동산 가격 안정에 실패한 정부가 이번에는 무리한 가계부채 대책을 추진하려다 후퇴하는 모습이다.문재인 대통령은 14일 "서민 실수요자 대상 전세 대출과 잔금 대출이 일선 은행 지점 등에서 차질 없이 공급되도록 금융당국은 세심하게 관리하라"고 말했다.문 대통령의 발언은 이날 서민 실수요자 전세 대출이 중단되지 않도록 하겠다는 금융위원장의 발언과 관련해 이 같이 언급했다고 박경미 청와대 대변인이 서면 브리핑에서 전했다.이날 고승범 금융위원장은 기자들과 만나 "전세나 집단 대출이 중단되지 않도록 실수요자를 보호하겠다"며 "실수요자 전세 대출이 중단되는 일이 없도록 올해 4분기 중 전세 대출에 대해서는 유연하게 대응할 생각"이라고 밝혔다.고 위원장은 "실수요자가 이용하는 전세대출이 중단되는 일이 없도록 올해 4분기 중 전세 대출에 대해서는 총량 관리를 하는 데 있어 유연하게 대응하도록 할 생각"이라고 설명했다.그는 "전세 대출 증가로 인해 가계대출 잔액 증가율이 관리 목표(6%대)를 초과하더라도 용인하려고 한다"고 했다.이 같은 발언은 실수요자에 대해서도 상환능력 범위내에서 대출을 받도록 하겠다는 종전 입장에서 크게 물러난 것이다.고 위원장은 지난 6일 국정감사에서 '가계부채 증가율 목표를 달성하려면 전세대출을 조이고 집단대출도 막아야 하느냐'는 질문에 수긍하면서 "6.9%를 달성하려면 굉장한 노력이 필요한 상황이고 그렇게 노력하지 않으면 목표 달성이 현실적으로 어렵다"고 답했다.그렇지만 시중은행에 이어 지방은행, 토스뱅크 등으로 대출 중단 도미노 우려가 고조되자 전세대출을 포함하는 6%대 총량 관리 목표를 수정한 것이다.금융위는 이날 오후 주요 시중은행 여신담당 부행장들과 가계대출 관리 대책을 논의하기로 했다. 금융위는 빠르면 다음주 중 실수요자 보호 방안을 포함하는 가계부채 관리 대책을 내놓을 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2021.10.01.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>[단독] 토스·핀크, 결국 대출 중개업 등록…당국 압박에 백기</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002534202?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>금소법 이후 '대출 추천' 서비스 가능보험·펀드 등 상품 라이선스는 '아직'"기존사업 등록일뿐, 규제완화 필요"토스와 핀크가 대출 상품 대리·중개업자 등록을 완료하면서 대출 상품 비교·분석 서비스를 지속해서 제공할 수 있게 됐다. 사진은 서울 강남 소재 토스 본사 내부 전경(왼쪽)과 서울 을지로 소재 핀크 내부 전경(오른쪽) ⓒ각사[데일리안 = 김민석 기자] 토스와 핀크가 대출 상품 대리·중개업자 등록을 완료했다. 금융당국이 금융소비자보호법 도입과 함께 핀테크 기업에 플랫폼 내 금융상품 비교·분석 서비스를 제공하기 위해서 중개업자 등록을 우선하라고 주문해서다. 일각에선 다른 법의 적용을 받아야 하는 보험, 펀드 등에 대한 중개업무가 여전히 답보상태인 만큼 금융당국의 빠른 결단으로 소비자 불편을 최소화해야 한다고 주장하고 있다.1일 금융당국과 금융권에 따르면 모바일 금융 플랫폼 토스를 운영하는 비바리퍼블리카와 대출비교 서비스 업체인 핀크가 지난달 24일 금융감독원으로부터 전자금융방식의 대출성 금융상품 판매대리·중개업 등록을 완료했다. 카카오페이와 핀다 등 기업도 공식 등록을 마쳤다.금감원 소비자보호총괄국 관계자는 "토스, 핀크 등 혁신사업자를 대상으로 대출 상품의 판매만 대리·중개업 등록이 완료됐다"며 "보험, 펀드 등 상품은 관련법에 따라 결정될 방침이며, 개별법상 등록 요건이 되지 않으면 중개 업무를 영위하기가 어려울 것"이라고 설명했다.핀테크 기업은 지난달 25일 본격 시행된 금융소비자보호법 상 자사 플랫폼 내 금융상품 추천이 금지됐다. 금융위원회가 상품 추천 서비스를 '광고'가 아닌 '중개'로 판단했기 때문이다. 금융상품을 중개하려면 핀테크 기업은 금융당국에 중개업자 등록부터 우선 완료해야 한다.금소법 도입과 함께 보험, 카드, 펀드상품 추천서비스는 즉각 중단됐다. 보험업법 시행령 상 전자금융업자를 포함한 금감원 검사대상기관은 보험대리점 등록이 제한되서다. 이에 금융당국은 온라인 플랫폼의 대리점 등록을 허용하는 법 개정안을 추진하고 있다.이 같은 방안이 마련되기 전까지 핀테크 기업의 피해는 지속될 것으로 보인다. 금소법 도입 이후 보험 분석 서비스 업체인 '보맵'은 피팅 서비스를 중단했다. 핀크는 보험 추천 서비스를 카카오페이는 운전자·반려동물·휴대폰·해외여행자보험 등 판매를 중지했다.비바리퍼블리카(토스) 대출성 상품 금융상품판매대리·중개업 등록증 ⓒ비바리퍼블리카토스는 기존 신용카드 서비스에서 문제가 된 'OOO을 위한 신용카드 TOP 10' 문구 등을 삭제하면서 금소법 상 리스크를 제거했다. 펀드 정보제공 서비스 관해선 카카오페이가 펀드 상품명을 '특정 증권사 특정 펀드' 등 공식 명칭이 앞서 나오도록 했다. 핀테크 기업은 보험, 카드, 펀드와 관련한 대리·중개 라이선스를 신청해놓은 상황이다.하지만 대출 비교·추천 서비스는 얘기가 다르다. 금융당국은 대출 비교·추천 서비스 라이선스는 금소법에 의한 등록만 마무리하면 사업을 영위할 수 있는 것으로 해석했다. 소비자 편의가 조금이나마 개선된 셈이다. 아울러 금소법 시행 전부터 영업해왔던 대출 모집인 등록절차를 오는 24일까지 완료할 방침이다. 기존 대출모집인은 연내 협회 등록을 마무리할 계획이다.문제는 이번 등록이 금융당국의 압박으로 인한 것이라는 점이다. 당국 주문에 따라 핀테크 기업이 시간과 비용을 들여 등록을 완료했지만, 기존 사업을 영위하는데 만족해야 한다는 지적이다. 아울러 여전히 보험·펀드 등 기존에 영위하던 상품의 판매는 여전히 답보 상태다.핀테크 업계 관계자는 "금소법이 도입되면서 중개업자 등록이 현안으로 떠올랐지만 결국 등록을 완료하면 기존 업무를 다시 영위할 수 있는 것 뿐"이라며 "진짜 혁신을 위해서는 과도한 규제는 오히려 업계에 독이 될 가능성이 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2021.10.08.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>토스, 핀테크+모빌리티로 '한국판 그랩' 도전…카카오T와 맞짱</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004614223?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>토스 '타다' 전격인수차량호출 앱 결제 규모 연 6조핀테크 업체로는 유망 시장외부 결제수단 이용해야 하는배달·퀵서비스로 확장도 가능내년 상장 앞둔 쏘카로서도적자 누적 VCNC 매각 필요카카오 확장 주춤한 새 틈타연내 '타다 서비스' 새롭게 시작“사업모델이 고착화된 시장에 진출해 혁신적 서비스를 제시하는 것, 그게 토스가 창업 후 지속적으로 해온 일입니다. 이번 인수 역시 같은 맥락입니다.”토스 창업자 이승건 대표는 8일 타다를 인수하게 된 이유를 이렇게 설명했다. ‘포화 상태’ 소리를 듣던 은행, 증권, 보험 등에 진입해 새바람을 일으킨 경험을 모빌리티(이동수단) 시장에서 재현해 보이겠다는 것이다. 국내 차량 호출 앱 시장은 카카오가 꽉 잡고 있다. 카카오T 월간 이용자는 1016만 명으로 타다(9만 명)는 물론 SK·우버의 합작사업인 우티(86만 명)와도 격차를 크게 벌렸다. ○“교통+결제 얹으면 큰 시너지”토스 측 분석에 따르면 국내 소비자들은 택시비로 연간 12조원을 쓴다. 이 중 절반이 카카오T, 우티, 타다와 같은 차량 호출 앱을 매개로 이뤄진다. 결제·송금액 규모를 불리는 데 집중하고 있는 핀테크 기업들로선 군침을 흘릴 만한 시장이다. 하지만 카카오T에서는 카카오페이와 연동한 자동결제가 보편화돼 토스가 비집고 들어갈 틈이 없다. 후발주자 인수에 관심을 보이게 된 배경이다.세계적인 핀테크 기업들이 모빌리티와 적극적으로 결합해 성장했다는 점도 영향을 준 것으로 분석된다. 최근 모빌리티 플랫폼 기업이 금융회사와 공동 사업을 추진하는 게 글로벌 트렌드로 자리잡아가고 있다. 동남아시아 최대 사업자인 그랩은 2018년 그랩파이낸셜을 설립하며 금융업에 진출했고, 결제·쇼핑·예약·보험 등으로 영역을 확장하고 있다.토스 관계자는 “타다를 인수했다고 해서 모빌리티가 본업(本業)이 될 수는 없겠지만 핀테크 사업의 외연을 넓히는 데 큰 역할을 할 것”이라고 했다. 토스 운영업체 비바리퍼블리카는 타다 운영업체 VCNC 지분 60%를 확보해 경영권을 쥘 예정이다. VCNC의 기존 모회사 쏘카는 40% 지분을 남겨 협력 관계를 유지한다. ○쏘카는 타다를 왜 팔았나VCNC는 2011년 커플 전용 SNS ‘비트윈’을 개발한 업체로 2018년 쏘카에 인수됐다. 이후 모빌리티로 사업 아이템을 바꿔 호출 거부 없는 이동수단 ‘타다 베이직’으로 인기를 누렸다. 하지만 지난해 국회에서 일명 ‘타다 금지법’으로 불리는 여객운수법 개정안이 통과되며 VCNC는 타다 베이직 서비스를 종료해야 했다. 같은 해 10월 가맹택시 ‘타다 라이트’ 서비스를 선보이며 재기를 노렸지만 VCNC는 2020년 매출 59억원, 순손실 112억원을 냈다. 매출 109억원, 순이익 4억원을 기록한 2019년에 비해 악화된 수치다.내년 기업공개(IPO)를 준비하고 있던 쏘카는 결단을 내려야 했다. 쏘카는 지난해 사상 최고 매출(2598억원)을 기록했지만 VCNC의 적자 등이 반영되면서 599억원의 순손실을 냈다. 쏘카로선 가맹택시 수 확장, 앱 서비스 고도화 등 투자가 더 필요한 VCNC를 매각할 수밖에 없는 상황이었다. ○카카오 움츠릴 때, 발 넓힌 토스VCNC로서도 핀테크 서비스를 뒷받침할 수 있는 비바리퍼블리카와 한배를 타는 것이 더 유리하다는 분석이다. 차량 호출 플랫폼이 배달, 퀵서비스 등으로 확장할 때 모든 서비스에 적용할 수 있는 금융 결제수단이 필요하다. 외부 금융사에 의존하면 서비스 고도화의 핵심인 데이터를 직접 확보할 수 없게 된다. 금융업을 자체 운영하면 차량을 이용하는 승객과 기사들을 대상으로 대출, 보험 등 금융 서비스를 연계하는 기회도 모색할 수 있다.공교롭게도 카카오모빌리티의 사업 확장엔 제동이 세게 걸린 상황이다. 카카오가 정치권 비판을 의식해 몸을 사리는 가운데 카카오모빌리티도 예정돼 있던 전화 대리운전 업체 두 곳의 인수를 포기했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2021.10.12.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>저축은행 대출 18.9%가 대출비교 플랫폼 통해</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003386625?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>2년전 0.7%서 급증… “영업점 부족탓”빅테크(대형 기술기업)와 핀테크 등이 제공하는 대출 비교 플랫폼에 대한 저축은행의 영업 의존도가 갈수록 높아지고 있는 것으로 나타났다. 11일 국회 정무위원회 소속 윤창현 국민의힘 의원실이 금융감독원에서 받은 자료에 따르면 SBI, OK, 웰컴 등 10개 저축은행의 올해 1∼7월 신규 개인 대출(12조2215억 원) 가운데 18.9%(2조3081억 원)가 토스, 카카오페이, 핀다 등 대출 비교 플랫폼을 통해 이뤄진 것으로 집계됐다. 2019년 0.7%(871억 원)에 불과했던 비중이 1년 7개월여 만에 20% 수준까지 커진 셈이다. 금융권 관계자는 “영업점이 부족한 저축은행의 특성상 플랫폼 의존도가 높아질 수밖에 없다”고 했다. 올해 6월 말 현재 79개 저축은행의 국내 영업점 수는 304개로 KB국민, 신한, 하나, 우리 등 4대 시중은행의 국내 영업점 수(3257개)의 10분의 1 수준이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2021.10.13.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>토스뱅크, '파격대출' 중단 위기...대출한도 60% 소진</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002256819?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>나흘만에 3000억 대출...당국에 한도 8000억으로 증액 요청중금리대출 목표 34.9%, 현재 25% 수준      지난 5일 출범한 토스뱅크가 연말까지의 대출 총량 5000억원 가운데 3000억원 이상을 이미 소진한 것으로 확인됐다.   13일 금융권에 따르면 토스뱅크의 대출액이 출범 나흘 만에 3000억원을 돌파해 금융당국과 협의한 대출 총량(5000억원)의 60%를 넘겼다. 이에 토스뱅크는 금융당국에 “가계대출 한도를 5000억원에서 8000억원으로 늘려달라”고 요구한 것으로 전해졌다.   토스뱅크는 최저 금리 연 2.76%, 최대 한도 2억7000만원이라는 ‘파격 대출’을 내세우며 출범했다. 지난 8일 기준 토스뱅크의 대출 가운데 중금리대출 비중은 25% 정도다. 앞서 토스뱅크는 올해 전체 대출 중 34.9%를 중·저신용자에게 공급하겠다는 목표를 제시했다.   토스뱅크는 대출 중단을 막기 위해 지난 9~12일 사전신청 고객의 신규 가입을 중단했다. 13일 오전 사전 신청자 중 10만명에 한해 가입을 재개했지만 여전히 111만명이 대기 중인 상태다.   토스뱅크 관계자는 “가계대출 한도와 관련해 금융당국과 실무 협의 중”이라며 “토스뱅크가 중금리대출 목표를 높게 잡은 만큼 중·저신용자에게 공급하는 대출은 한도에서 제외할 것을 요청했다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2021.10.12.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>비아이매트릭스, 토스뱅크 정보계 시스템 구축</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002235849?sid=105</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>비아이매트릭스가 AUD 플랫폼으로 구축한 토스뱅크의 정보계 시스템이 9월에 성공적으로 오픈했다고 12일 밝혔다.이번 토스뱅크 정보계 구축 사업에서 비아이매트릭스는 기존에 수작업으로 진행했던 금융감독원 월 제출 금융 보고서 및 분기보고서 작성 업무를 포함한 데이터 분석 및 레포트 작성 업무 리소스를 크게 줄이고, 분석 리드 타임을 단축하여 업무 전반의 경쟁력을 높이는 것을 목표로 했다.이를 위해 ▲금융감독원용 대외보고서 작성 업무를 자동화하고, ▲현업 담당자가 직접 분석을 수행할 수 있는 셀프 BI 환경을 구축하고 ▲ 고객, 수신, 여신, 카드분석 등 분산된 여러 업무를 통합할 수 있는 통합분석 업무 환경을 구축했다.비아이매트릭스비아이매트릭스의 AUD플랫폼으로 업무시스템을 구축할 경우 각 현업 담당자들이 사용하던 엑셀 문서 양식과 업무 노하우를 그대로 시스템에 반영할 수 있다. 따라서 시스템 도입 후 담당자들이 기존에 수작업으로 진행했던 업무와의 이질감 없이 업무를 수행할 수 있다는 장점이 있다.이번에 구축한 토스뱅크 정보계 시스템에는 현업 담당자가 직접 분석 항목을 자유롭게 배치하며 직접 분석을 수행할 수 있는 다차원 분석 기능 외에도 다양한 형식의 파일 다운로드 기능, 차트 기능, 상세 데이터 조회 기능 등이 포함되어 있어 사용자 편의성이 크게 높아질 것으로 기대된다.그리고 EUC(End-User Computing)환경을 구축하여 분산된 여러 업무를 통합하여 분석하고 셀프BI가 가능한 업무환경을 제공하였다.비아이매트릭스는 지난 2016년 카카오뱅크에도 정보계 BI 시스템 구축 사업에 BI 솔루션을 공급했다. 정형 보고서, 비정형 보고서, 다차원 분석(OLAP)등이 가능한 통합 분석 환경을 구현하여 활용 목적별로 최적화된 정보와 분석 기능을 제공했으며, 적시 의사결정을 지원하는 대시보드 모니터링 기능을 제공했다. 같은 해, K뱅크 역시 전산 시스템 구축(정보계)사업에 OLAP 솔루션을 공급한 바 있다.비아이매트릭스는 인터넷전문은행 3사의 정보계시스템을 모두 구축하는 등 금융권 정보계시스템에서 강세를 보이고 있을 뿐 아니라 최근에는 금융감독원에 보고하는 대외보고서 자동 제작 솔루션 스마트 리포트를 출시하며, 금융업계의 디지털 트랜스포메이션을 지원하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2021.10.13.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>대책 발표도 안했는데…하나 둘 문 닫는 대출창구</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005059271?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>KB·우리·하나·농협 등 감축모드신한, 모집인 대출 제한 등 사전조치[이데일리 이승현 김유성 기자] 가계부채 추가대책 발표 전이지만 주요 시중은행은 이미 사실상 대출 문을 걸어잠그고 나섰다. 금융당국의 강력한 가계부채 감축 기조에 은행들이 충실히 보조를 맞추면서 연말까지 대출 한파는 불가피해졌다.지난 8월 NH농협은행이 신규 주택담보대출 등 부동산 관련 대출을 중단한 이후 은행권에선 연쇄적으로 대출 중단 또는 감축 움직임이 일고 있다. KB국민은행은 지난달 29일부터 전세자금대출 한도를 임차보증금 증액 범위로 제한해 취급하고 있다. 하나은행 역시 15일부터 같은 조치를 시행키로 했다. 하나은행은 또 연말까지 대출모집법인 6곳을 통한 대출 영업을 중단한다.우리은행과 국민은행은 전반적 관리를 더욱 촘촘히 하고 있다. 우리은행은 지난달부터 각 영업점마다 월별 한도를 정해 대출을 취급하고 있다. 그동안은 가계대출 상품별로 분기별 한도를 정했는데 대출관리 강화 차원에서 월별 영업점별로 기준을 바꾼 것이다. 영업점별 최저 한도는 5억원이며 많게는 수십억원을 배정했다.국민은행도 이달부터 연말까지 가계대출 신규취급 한도를 영업점별로 관리한다. 다만 집단대출(중도금 및 입주자 대출)과 보금자리론, 기금대출 등은 제외된다. 국민은행 관계자는 “한정된 대출 자원을 서민과 실수요자에게 지속적으로 공급하기 위해 연말까지 한시적으로 운영된다”고 말했다.주요 시중은행이 일제히 감축모드로 나선 건 올해 대출총량 규제 목표치인 연 6%에 근접했기 때문이다. 지난 9월 말 기준 5대 시중은행의 가계대출 잔액은 지난해 말에 비해 4.9% 늘었다. 은행별로는 농협은행 대출 증가율이 7.3%로 가장 높다. 이어 하나은행과 국민은행이 각각 5.2%와 4.9%로 집계된다. 우리은행 증가율은 4.0%다. 지금 브레이크를 걸어놓지 않으면 조만간 대출중단 사태가 벌어질 가능성이 있는 것이다.신한은행의 경우 지난 9월 기준 증가율이 3.0%로 상대적으로 여유가 있다. 다만 다른 은행에서 막힌 대출 수요가 일제히 몰릴 가능성이 높은 만큼 미리 준비를 하는 모습이다.신한은행은 이달부터 대출 모집인을 통한 전세대출 한도를 5000억원으로 제한했다. 기존에는 모집인 대출에 한도가 없었다. 모바일 등 비대면 대출이나 영업점 대출을 감축하기 전 사전적 조치로 해석된다.또 이날부터 비대면 신용대출에도 0.7~0.8%의 중도상환수수료를 새로 부과한다. 중도상환수수료 비용을 부과해 ‘빚투(빚내서 주식투자)’ 용도의 과도한 신용대출 수요를 줄여보겠다는 취지다. 신한은행 관계자는 “공모주 청약 등으로 신규 신용대출의 만기 전 해지가 많아서 가계대출 총량관리에 어려움을 겪고 있다”고 말했다.인터넷전문은행도 예외는 아니다. 카카오뱅크는 연말까지 고신용자 대상 신용대출과 직장인 사잇돌대출, 일반 전월세보증금대출 신규판매를 중단한다. 직접적 규제대상이 아닌 청년 전월세대출도 일일 신규신청 건수를 제한할 방침이다. 케이뱅크도 신용대출 한도를 차주의 연소득 이내로 제한했다. 지난 5일 출범한 토스뱅크는 올해 대출총량인 5000억원을 대부분 소진한 것으로 알려졌다.(사진=이데일리DB)</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2021.10.04.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>토스뱅크 내일 출범…소비자 유혹하는 대출 조건은</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/144/0000765294?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>[스포츠경향] ‘3호 인터넷 은행’ 토스뱅크가 5일 공식 서비스를 시작한다. 앞서 ‘조건 없는 연 2% 금리 통장’을 내세우며 인기몰이에 나선 토스뱅크는 사전 신청 고객만 100만명을 돌파하며 화제를 모았다. 4일 은행권 등에 따르면 토스뱅크는 사전 신청자를 대상으로 여·수신 상품 판매, 체크카드 발급 등 뱅킹 서비스를 5일부터 순차적으로 오픈한다.지난 2일 기준 뱅킹 서비스 사전 신청 고객이 100만명을 돌파한 토스뱅크는 예금, 적금, 수시입출금 등 구분을 없애고 단순하고 직관적이면서 파격적인 조건을 제공하는 수신 상품을 선보인다는 계획. 체크카드 역시 전월 실적 조건 없이 매달 최대 4만6500원의 캐시백을 제공하고 해외에서는 사용 금액의 3%를 즉시 캐시백하는 조건을 내걸었다.5일 공개될 신용대출 상품도 다른 은행에 비해 금리와 한도가 경쟁력 있는 수준으로 책정될 전망이다.먼저 금융당국의 가계대출 규제 강화로 한층 더 주목받고 있는 신용대출 상품의 최저 금리는 시중은행에서 가장 낮은 2.7%대, 최대 한도는 2억7000만원가량으로 각각 책정한다는 계획. 다만, 토스뱅크도 은행권에 공통으로 적용되고 있는 신용대출 한도 ‘연소득 이내’ 제한 조치를 도입할 것으로 보인다.최근 주요 시중은행의 일반 신용대출 금리가 3∼4%대 수준으로 이미 올라섰고 최대 한도가 ‘반 토막’ 수준으로 크게 줄어들어 사실상 은행에서 ‘억 단위’ 대출을 받기가 힘들어진 상황에서 이 같은 조건은 금융 소비자의 눈길을 끌기에 충분하다는 평가다.별도 중금리 대출 상품은 없는 대신 일반 신용대출과 마이너스통장 두 종류의 여신 상품을 내놓고, 정책금융 상품인 ‘사잇돌 대출’도 함께 출시할 것으로 알려졌다.토스뱅크는 주택담보대출, 전세대출, 소상공인 전용대출 상품도 이미 개발에 나선 상태로, 영업 시작 이후 금융시장 상황 등을 고려해 선보인다는 계획이다. 다만 관심을 끄는 주택담보대출, 전세대출 상품은 내년 이후에나 출시가 가능할 것으로 알려졌다. 여기에 다른 인터넷은행과 차별점인 ‘국내 거주 외국인 대상 뱅킹 서비스’도 연내 오픈할 예정이다.토스뱅크 관계자는 “금융당국이 하는 시장안정화 정책에 공감하고 있고, 그러한 방향성에 따라 영업을 할 것”이라고 했다.  토스뱅크 공식 출범에 따라 카카오뱅크와 케이뱅크 등 기존 인터넷은행과의 경쟁도 치열해질 것으로 보인다. 인터넷은행은 고객 수가 곧 경쟁력으로 이어지기 때문에 이미 1000만 이상의 고객을 확보하고 있는 토스뱅크의 등장으로 인터넷은행 간 경쟁은 ‘3파전’ 구도로 자리잡을 것이라는 전망이다. 현재 인터넷은행 1위인 카카오뱅크의 2분기 월간 활성 사용자 수(MAU)는 1400만명, 토스뱅크는 1100만명에 달한다. 케이뱅크의 MAU는 400만명 수준이다.이충진 기자 hot@kyunghyang.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>‘연2%대’ 신용대출...토뱅, 카뱅 겨냥 선전포고</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001895273?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>최저 2.76%·2억7000만원 한도사용한만큼 이자내는 마통 이어비금융데이터 포괄 신용도 평가카뱅은 6월부터 새 모형 적용중홍민택 토스뱅크 대표가 5일 토스뱅크 출범을 알리는 프레젠테이션을 진행하고 있다. [토스뱅크 SNS 캡쳐]토스뱅크는 출범과 동시에 연 2%대 금리 신용대출을 선보였다. 시중은행보다 낮은 금리로 대출이 가능할 수 있었던 이유로는 토스뱅크의 새로운 신용평가모형이 거론된다.5일 공개한 토스뱅크 신용대출 상품은 최저 연 2.76%, 2억7000만원 상당의 한도로 책정됐다. 사용한만큼만 이자를 내는 ‘토스뱅크 마이너스통장’과 최대 300만원 한도의 ‘토스뱅크 비상금 대출’도 함께 선보였다.토스뱅크는 고신용자는 물론이고 중·저신용자와 1300만 신파일러(금융이력부족자)에게도 공정한 신용평가를 거쳐 합리적인 금리와 대출 한도를 제시한다는 계획이다.토스뱅크는 자체 신용평가모형을 토대로 한도와 금리 수준을 결정한다. 업권 구분 없는 신용 데이터와 비금융 대안 데이터를 고루 분석한 결과다. 통상 신용평가는 신용평가(CB)사의 금융 데이터를 중심으로 이뤄지는데, 토스뱅크는 여기에 비금융 정보를 더해 신용평가를 진행한다. CB사가 가지고 있는 보유하고 있는 차량 가격, 부동산 가격 등 금융 정보에 주거, 통신, 카드 승인 내역 등 비금융 정보가 합산되는 식이다. 토스뱅크에 따르면 CB사 6,7 등급 이용자들을 토스뱅크 자체 신용평가모형으로 다시 분석했을 때 4등급이하 중신용자 중 30% 이상이 등급이 상향된 것으로 나타났다.토스뱅크 관계자는 “대출 승인율을 끌어올리고, 기존 1금융권에서 대출 받기 어려웠던 이들 중 약 30%를 ‘건전한 중·저신용자’로 발굴해 토스뱅크의 고객으로 포용할 것”이라고 말했다.토스뱅크의 경쟁 상대로 거론되는 카카오뱅크 역시 6월부터 새로운 신용평가 모형을 적용하고 있다. 카카오뱅크 신용평가 모형은 중·저신용자나 금융이력 부족 고객들을 위해 별도로 개발된 것으로 이동통신 3사가 보유한 통신 정보 등을 반영했다. 하반기 중에는 휴대폰 소액결제 정보와 개인 사업자 매출 데이터에 대한 분석 결과를, 내년에는 카카오 공동체가 보유한 비금융 정보를 추가할 예정이다. 박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2021.10.12.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>2금융권 대출 문턱도 높아졌다</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004615282?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>신규 카드론 못 받을 가능성저축은행도 대출 속도조절시중은행에서 대출받기가 어려워지자 고금리를 감수하고라도 카드론(장기카드대출)과 저축은행 대출을 찾는 사례가 늘고 있다. 그러나 이 같은 제2금융권 대출 문턱도 1금융권 못지않게 높아지고 있어 금융소비자들의 불편은 계속 커질 전망이다.금융감독원 금융통계정보시스템에 따르면 카드론과 현금서비스(단기카드대출) 등 신용카드사의 대출 잔액은 지난 6월 말 기준 39조6045억원으로, 전년 말 대비 6.2% 증가했다. 금융당국은 각 카드사에 가계대출 증가율 목표치(전년 대비 6% 내외)를 준수할 것을 요구하고 있다. 이를 감안할 때 신규 카드론이 사실상 닫히게 됐다는 평가다. 당국은 지난달 카드론 등 증가율이 10%를 웃도는 현대·롯데카드 임원들을 불러 경고하기도 했다.이 때문에 카드사들은 대출 심사를 깐깐하게 하거나 한도를 이전보다 축소하는 방식으로 대응하고 있다. 카드론 금리도 오름세다. 카드업계에 따르면 7개 전업 카드사(신한·삼성·KB국민·현대·롯데·우리·하나)의 지난 8월말 기준 카드대출 금리는 전월 대비 연 1~2%가량 올랐다. 카드사들이 카드론 공급을 줄이고 있는 만큼 서민들의 금리 부담도 뒤따르고 있다는 평가다.앞으로도 카드론 억제 기조는 이어질 것으로 보인다. 카드대출은 현재 총부채원리금상환비율(DSR) 규제에서 빠져 있다. 내년 7월부터 DSR에 편입될 예정인데 금융권에선 당국이 이 시기를 앞당길 수 있다는 얘기가 나온다.저축은행의 가계대출 증가율 목표치는 카드사(6%)보다 훨씬 높은 21.1%다. 하지만 저축은행 대출 공급량도 넉넉하지 않긴 마찬가지다. 금융통계정보시스템에 따르면 6월 말 기준 전국 79개 저축은행 가운데 17곳이 이미 전년 대비 21.1%를 넘어섰다. 15%를 넘긴 곳도 4곳이다. 저축은행 업계가 올초부터 중금리 대출 확대를 통해 공격적으로 여신 영업에 나섰기 때문이다.총량규제를 맞추기 위해 저축은행들도 대출 속도 조절에 나섰다. 8월부터 시중은행과 마찬가지로 신용대출 한도를 연소득 이내로 제한하기 시작했다. 최근 들어 신용대출이나 전세자금대출, 주택담보대출 판매를 중단한 저축은행도 나타났다. 토스 등 핀테크 플랫폼을 통한 대출상품 판매를 일시 중단하는 방식으로 대응하는 곳도 있다.저축은행별로 대출 공급 한도 소진율도 차이가 큰 편이다. 총자산 기준 1위 저축은행인 SBI저축은행은 현재 총량규제 선까지 한도가 여유 있게 남아 있는 것으로 알려졌다. 총량규제가 전년 대비 증가율 형식으로 적용되기 때문에 대형 저축은행들이 상대적으로 유리하다는 평가다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>영업 첫날부터 카뱅 주가 끌어내린 토스뱅크…금리 한도 유리</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004860602?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>토스뱅크 출범…카뱅·케뱅과 비교해보니은행 문턱 못넘은 중신용자연 2~15% 대출로 끌어모아수시 입출금통장 연2% 파격인터넷은행 최초 카드업 진출대출 몰릴땐 조기 소진될수도홍민택 토스뱅크 대표가 5일 온라인 기자간담회에서 "토스뱅크는 `완전히 새로운 은행`이 되겠다"고 선언했다.  [사진 제공 = 토스뱅크] 제3 인터넷전문은행인 토스뱅크가 5일 '완전히 새로운 은행'을 선언하며 본격적으로 출범했다. 이로써 카카오뱅크, 케이뱅크 등과 함께 인터넷은행 간 치열한 경쟁이 펼쳐질 전망이다.홍민택 토스뱅크 대표는 "고객이 고민할 필요 없는 가장 단순한 상품을 제공하고 최고의 혜택을 고객에게 먼저 제시하겠다"고 말했다. 인터넷은행 간 경쟁이 가장 치열하게 벌어질 공간으로 중금리 대출이 꼽힌다. 토스뱅크도 이 분야에 야심 차게 도전장을 내밀었다. 토스는 새로운 신용평가모형을 기반으로 올해 말까지 중·저신용자 대출 비중을 34%로 끌어올리는 게 목표다. 그동안 카카오·케이뱅크와 시중은행이 별도로 중금리 대출 상품을 내놓았다면, 토스뱅크는 단 하나의 신용대출 상품으로 고신용자는 물론 중·저신용자, 자영업자를 모두 끌어안는다. 그 대신 금리 폭을 연 2.76~15.00%로 넓혔다. 최고 한도도 다른 인터넷은행보다 많은 2억7000만원이다. 조민석 토스뱅크 데이터사이언스팀 리더는 "기존 1금융권에서 대출받기 어려웠던 이들 중 30% 이상이 토스뱅크 신용대출을 이용할 수 있을 것으로 예상된다"고 말했다.   카카오뱅크와 케이뱅크 역시 잇달아 중·저신용자 대출을 내놨다. 카카오뱅크는 새로운 신용평가모형을 도입했고, 지난 8월 신용점수 500점대도 신청할 수 있는 '중신용플러스 대출'을 선보였다. 케이뱅크는 이달 말까지 중·저신용자 고객을 위해 두 달치 이자를 돌려주는 행사를 진행한다. 카카오뱅크와 케이뱅크의 올해 중·저신용자 대출 목표치는 각각 20.8%, 21.5%다. 토스가 제시한 한도와 최저 금리는 다른 은행보다 유리하지만 실제 대출이 어떻게 이뤄질지에 대해서는 금융권이 촉각을 곤두세우고 있다.금융 상품을 놓고도 경쟁을 벌이고 있다. 토스뱅크는 인터넷은행 가운데 처음으로 신용카드 사업에 직접 진출한다. 홍 대표는 "신용카드에서 파생된 여신 상품을 확장하고 (소비자에게) 편익을 제공하는 데 관심이 있다"며 "라이선스를 획득하기 위해 정부와 초기 단계 논의를 시작했다"고 말했다. 이른바 '돈 되는' 데이터를 모아 신용평가모형을 고도화하겠다는 계획이다. 반면 카카오뱅크는 2017년 출범 당시 신용카드업 인가를 받겠다는 목표를 세웠다가 계획을 철회했다. 토스뱅크 여·수신 상품군도 타 은행과 차별화된다. 토스뱅크는 수신 상품과 신용대출 상품, 카드를 1개씩 선보였다. 수시입출금통장인 '토스뱅크 통장'은 금액과 기간 제한 없이 연 2% 금리를 주는 상품이다. 그 대신 고객은 자금 운용 목적에 따라 '나눠 보관하기' '잔돈 모으기' '목돈 모으기' 등 다양한 기능을 활용할 수 있다. 신용대출 상품도 단 한 개다. 최성희 토스뱅크 여신상품 프로덕트오너는 "A은행 대출 상품은 25개, B은행은 40개로 직업과 신용도에 따라 수많은 대출 상품이 존재해 (고객이) 상품을 직접 비교하고 발품을 팔아야 했다"며 "토스뱅크에서는 단 한 번 조회만으로 최고 수준 대출을 받는다"고 말했다. 체크카드는 매달 최대 4만6500원 상당 현금을 돌려준다. 토스뱅크의 대출 금리와 한도는 다른 인터넷은행과 비교하면 경쟁력이 높다. 카카오뱅크는 고금리 신용대출 한도를 5000만원(중신용자 1억원)으로 줄였고, 연말까지 마이너스통장 대출을 중단했다. 케이뱅크의 신용대출 최고 한도는 1억5000만원이다. 토스뱅크 역시 '연 소득 이내' 제한을 받긴 하지만, 최고 한도는 2억7000만원으로 여력이 있는 편이다. 다만 토스뱅크 역시 정부의 대출 규제로 이르면 이달 중 대출 한도가 동날 것으로 예상된다. 금융당국은 토스뱅크에 연말까지 가계대출을 5000억원으로 제한하라고 권고했다. 1인당 5000만원씩 대출을 받는다고 가정해도 불과 1만명이 대출을 받을 수 있다. 이날 기준 토스뱅크 사전신청자만 116만명에 이른다. 토스뱅크는 내년에 전세자금대출과 주택담보대출도 선보일 예정이다. 업계에서는 연 2% 금리를 주는 입출금통장의 지속 가능성에 의문을 제기하기도 한다. 출범 초기 마케팅으로 토스뱅크가 높은 금리를 지속하긴 어렵다는 지적이다. 홍 대표는 이에 대해 "연 2% 금리는 다른 은행보다 높지만, 현재 조달 금리 대비 크게 높은 수준은 아니고 충분히 감당할 수 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2021.10.07.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>'대출 조이기' 속 문 연 토스뱅크, 영업 3일만에 연간 대출한도 40% 내줘</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/088/0000724805?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>올해 한도 '5천억원 제한' 속에서 2천억원 이상 실행…타 은행 대출 묶이니 자금 수요 몰린 듯'3호 인터넷전문은행' 토스뱅크가 5일 공식 출범하고 여신과 수신 상품 판매를 시작했다. 사진은 이날 오전 강남구 토스뱅크 본사. 연합뉴스국내 3번째 인터넷전문은행으로 출범한 토스뱅크가 영업 3일 만에 연간 가계대출 한도 절반가량을 대출한 것으로 나타났다.7일 토스뱅크와 금융당국에 따르면 지난 5일 출범한 토스뱅크는 이날 오후까지 2천억원이 넘는 대출을 실행했다.토스뱅크는 앞서 출범을 앞둔 상황에서 금융당국에 "올해 말까지 신규대출을 5천억원 이내로 제한하겠다"고 알린 바 있다.지난해 이후 저금리 기조 속에서 국내 금융권의 가계대출이 급증했다 보니 토스뱅크 대출까지 가세하면 자칫 가계빚 폭탄이 터질 수 있다는 점을 고려했다.하지만 토스뱅크 출범 직후 대출 신청이 급격하게 몰리면서 3영업일 만에 연간 한도의 40%가 실행된 상황이다.현재 기존 시중은행은 물론이고 인터넷전문은행인 카카오뱅크와 케이뱅크도 엄격한 가계대출 조이기에 나선 상태다.이렇다 보니 상대적으로 신생이면서 대출이 자유로운 상태인 토스뱅크에 대출이 급한 이들 자금 수요가 몰린 것으로 풀이된다.토스뱅크는 출범하면서 최대한도 2억7천만원, 최저금리 연 2.7%의 신용대출을 제공하겠다고 밝힌 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2021.10.04.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>간편송금 착오 130억 중 95억 못돌려받아</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002699316?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>윤관석 의원실 제공    지난 5년간 토스, 카카오페이 등을 이용한 간편송금으로 130억원가량을 잘못 보내는 사고가 발생했고, 이 중 95억원이상이 미반환된 것으로 나타났다. 4일 국회 정무위원회 소속 윤관석 의원(더불어민주당)이 금융감독원으로부터 제출받은 자료에 따르면, 토스·카카오페이·네이버페이 등 간편송금 서비스를 이용하는 중 발생한 착오송금이 2017년 2억6379만원, 2197건에서 지난해 53억2334만원, 2만1595건으로 금액 기준 19.2배, 건수 기준 8.8배로 급격하게 증가한 것으로 조사됐다.착오송금이란 개인이 실수로 수취금융회사, 수취인 계좌번호 등을 잘못 입력해 이체된 거래다. 5년간 발생한 착오송금 129억4174만원, 5만5506건 중 95억3319만원(74%), 4만2316건(76%)이 주인에게 돌아가지 못했다.간편송금이란 모바일을 통해 보안카드나 OTP 없이 비밀번호 등 간편 인증수단을 이용해 송금하는 서비스다. 한국은행에 따르면 올해 상반기중 간편송금 하루 평균 이용실적은 4819억원, 407만건으로 2017년 상반기 대비 21배, 7배 증가했는데, 간편송금 이용이 늘어나면서 착오송금도 함께 증가한 것으로 보인다.2015년 간편송금 시장에 진출한 토스(비바리퍼블리카)의 경우, 5년간 85억3786만원, 3만6450건의 착오송금이 발생했고, 이중 63억7422만원(75%), 2만9,368건(81%)이 미반환됐다. 2017년 이후 착오송금액은 12배, 착오송금건은 5배 증가했다. 카카오페이는 4년간 43억701만원, 1만8,799건의 착오송금이 발생했고, 이중 31억1382만원(72%), 1만2811건(68%)가 미반환되었다. 네이버페이(네이버파이낸셜)는 2년간 9686만원, 257건의 착오송금이 발생했고, 이중 4,514만원(47%), 136건(53%)이 미반환됐다. 윤관석 의원은 "디지털금융이 발달하고 코로나19로 인한 비대면 금융거래가 증가하면서 덩달아 착오송금 규모도 급격하게 증가하고 있다"며 "간편송금업체는 금융소비자가 간편송금 서비스를 이용하는 과정에서 착오송금과 같은 실수를 줄일 수 있도록 지속적으로 시스템 개선할 필요가 있다"고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>[일문일답] 토스뱅크 "내년 전세자금대출 출시…신용카드도 준비"</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012653700?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>"연 2% 금리 예금통장, 충분히 감당할 수 있다""국내 거주 외국인 포용하겠다"홍민택 토스뱅크 대표5일 진행된 인터넷전문은행 토스뱅크 온라인 출범식에서 홍민택 토스뱅크 대표가 발언하고 있다. 2021.10.5. [토스뱅크 제공, 재판매 및 DB 금지] (서울=연합뉴스) 김연정 한혜원 기자 = 인터넷전문은행 토스뱅크의 홍민택 대표는 5일 "내년에 전세자금대출을 출시할 계획이며, 주택담보대출 출시도 검토하고 있다"고 밝혔다.     홍 대표는 이날 온라인으로 진행한 토스뱅크 출범식에서 이같이 밝혔다.     홍 대표는 이어 "국내 거주 외국인이 비대면 서비스를 이용하는 데 많은 제약이 있는 것으로 안다"며 "외국인을 중·저신용자 포용 관점에서 포용하려고 한다"고 밝혔다.     그는 또 "신용카드 사업 인가를 받고자 금융당국과 굉장히 초기 상태의 논의를 하고 있다"고 소개했다.     다음은 홍 대표와 일문일답.  -- 연 2% 금리를 제공하는 통장을 지속할 수 있느냐는 의문이 나온다.    ▲ 연 2% 금리는 다른 은행보다 높지만, 현재 조달금리와 대비해서는 크게 높은 수준이 아니며 충분히 감당할 수 있다. 시중은행으로서 준수해야 하는 건전성과 수익성 등 지표의 규제 수준을 준수하면서도 연 2% 금리를 유지할 수 있도록 설계했다.  -- 연내 중·저신용자 대출 비중 목표가 다른 인터넷전문은행보다 굉장히 높다. 올해 남은 3개월 안에 달성할 수 있나.     ▲ 토스뱅크는 무엇보다 인터넷전문은행 본연의 임무인 중저신용자 포용에 목적을 두고 있다. 이를 실현할 전략은 준비돼 있다고 생각한다. 토스의 신용평가모형으로 충분히 달성할 수 있고, 새로 시작하는 은행이어서 유리한 부분도 있다고 생각한다.  -- 앞선 인터넷전문은행과 차별화할 방법은.    ▲ 인터넷전문은행뿐 아니라 일반은행 모두와 비교되는 점은 서비스와 혜택이다. 고객이 노력해서 공부하고 시간을 쓰고 발품을 팔아야만 얻을 수 있었던, 백화점식으로 나열돼 있던 상품을 고객 중심으로 재편했다. 금리 인하를 신청하지 않아도, 내가 조건이 된다는 걸 알지 못했어도 인하 가능성을 알려주고 한도 증액 등의 기회를 준다.  -- 향후 증자와 상장 계획은.     ▲ 5년 내 1조원 증자가 목표다. 중단 없이 서비스를 제공하는 게 중요하기 때문에 필요하다면 더 빠르게 증자가 될 수 있도록 주주들과 협의가 돼 있다. 상장은 구체적으로 확정된 내용이 없다.  -- 전세자금대출과 주택담보대출 출시 계획은.     ▲ 현재는 신용대출, 마이너스대출 등 가장 낮은 단계의 대출을 제공하고 있지만 전세자금대출은 내년 출시 계획이다. 주택담보대출은 주택을 구매하는 단계 모두가 비대면 확인이 가능해야 하므로 정책적·법적 검토를 시작했고, 실제 계약서나 오프라인에서 일어나는 모든 활동을 다 포용할 수 있는 형태로 출시할 수 있을 거 같다. 토스뱅크 로고[토스뱅크 제공=연합뉴스] -- 국내 거주 외국인을 고객으로 포용하겠다고 했는데 어떻게 할 것인지.     ▲ 국내 거주 외국인이 실제 비대면 서비스를 이용하는 데 많은 제약이 있는 것으로 안다. 이런 제약을 중저신용자 포용 관점에서 포용하려고 한다. 정부와 규제·정책적 부분에서 소외되는 고객이 없도록 비대면 실명확인 체계를 확정하고 이들을 조만간 포용하는 서비스 출시할 수 있을 것이다.  -- 최저 연 2.7% 금리 신용대출이 어떻게 가능한가. 영업 초기에만 주는 금리가 아닌지.    ▲ 2억7천만원 최대한도와 연 2.7% 최저금리는 전체 신용상품의 최대 경계라고 할 수 있다. 모두에게 제공되는 것이 아니라, 모든 고객을 공정하게 평가해서 모든 범위를 제공할 수 있는 것이다.  -- 단 하나의 대출 상품으로 자영업자 대출까지 내줄 수 있나.     ▲ 별도 상품을 출시하는 게 아니라 고객이 가진 특성, 특성별로 제공할 수 있는 데이터로 별도 신용평가시스템에 태움으로써 하나의 상품으로 줄 수 있게 넓혀놨다.  -- 신용카드 출시 계획은.     ▲ 카드 등으로 여신상품을 확장하고 고객에게 편의를 제공하는 데 관심이 있다. 하지만 신용카드 사업을 하려면 사업 인가를 받아야 하고 이를 위해서 금융당국과 굉장히 초기 상태의 논의를 하고 있다. -- 가상자산 사업자와 실명확인 계좌 제휴 가능성은.    ▲ 아직은 구체적인 계획이 전혀 없다. 현재는 고객에게 제공되는 여신, 수신, 카드 서비스를 안정적으로 안착하는 데 전사의 역량을 집중할 것이다. -- 아직 사전 예금 신청자도 통장 개설이 안 됐는데 언제 모두 이용할 수 있나.    ▲ 이달 안에 여신 등 모든 서비스를 제공하려고 한다.  -- 일괄로 서비스를 개시하지 않고 사전신청자에게 순차 출시한 것은 접속과다, 전산시스템 수용 여력 등을 고려한 것인가.     ▲ 전산이나 시스템 준비는 모두 마친 상태지만, 토스뱅크의 온전하고 완전한 서비스를 모두에게 제공하기 위한 전략적 선택이다.  -- 보안 우려는 어떻게 보완했나.     ▲ 토스뱅크는 원-앱(한 가지 애플리케이션)으로, 기존 토스 앱을 운영하는 비바리퍼블리카와 플랫폼을 공유한다. 비바리퍼블리카가 2천만명 가입자를 기반으로 운영해온 보안 체계를 공유하고 있으며 가장 강력한 체계를 갖고 있다고 자신한다.     hye1@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2021.10.04.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>[포토]출격 앞둔 토스뱅크</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005051562?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>[이데일리 방인권 기자] 세번째 인터넷전문은행인 토스뱅크 공식 출범을 하루 앞둔 4일 서울 강남구 역삼동 토스뱅크 본사에서 직원들이 출입을 하고 있다.토스뱅크는 5일부터 사전 신청자를 대상으로 여·수신 상품 판매, 체크카드 발급 등 뱅킹 서비스를 순차적으로 오픈할 예정이다. 토스뱅크는 지난달 가입 기간, 예치 금액 등에 아무런 제한 없이 무조건 연 2% 이자를 지급하는 수시 입출금 통장을 선보인다고 밝히면서. 지난 2일 기준 뱅킹 서비스 사전신청 고객 100만명을 끌어모았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2021.10.07.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>[국감2021] 민형배 의원 “토스의 매출대비 보안투자, 전통 금융업권 10배 이상”</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002111308?sid=105</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이종현기자] 비바리퍼블리카(토스)의 매출대비 보안투자액이 전통적인 금융업권(은행·증권·카드)에 비해 10배 이상이라는 주장이 제기됐다.   7일 민형배 의원(더불어민주당)은 금융감독원으로부터 제출받은 금융업권별 매출액 대비 보안투자 현황에을 바탕으로, 카카오페이, 네이버파이낸셜, 비바리퍼블리카(토스), NHN페이코 등 4개 전자금융업자가 주요 은행·증권·카드사보다 매출대비 높은 비율의 보안투자를 진행하고 있다고 밝혔다.   4개 전자금융업자는 매출액 1조1542억원 중 2.41%인 156억원을 보안에 투자하고 있다. 은행, 증권사, 카드사는 매출액 대비 각각 0.28%, 0.27%, 0.41%를 보안에 투자한다. 은행·증권·카드 합산 매출액 292조5268억원 중 보안에 투자되는 금액은 3700억원으로, 0.32%가량이다.   전체 직원대비 보안인력에도 격차가 크다. 전자금융업자는 전체 직원의 3.53%를 보안 담당자로 두고 있다. 은행 0.68%, 증권 0.69%, 카드 1.25% 등(합산 0.88%)에 비해 크게 높다.   4개 전자금융업자 중 보안에 대한 투자가 높은 곳은 NHN페이코(3.54%), 토스(3.4%), 카카오페이(2.23%), 네이버파이낸셜(0.44%) 순이다. 보안 전담 인력은 토스(4.9%), 네이버파이낸셜(4.26%), 카카오페이(2.59%), NHN페이코(2.38%) 등이다.   핀테크 기업들은 보안 신뢰가 기업의 가장 큰 자산이기에 보안투자를 공격적으로 하고 있다고 전했다.    민 의원은 사전규제를 완화하고 사후처벌을 강화해야 한다는 주장을 펼쳤다. 해외 국가들은 보안사고시 매출액 대비 3% 내외의 강한 금전 제재를 부과하는 반면, 국내에서는 보안사고에 대한 조치가 경미하다고 피력했다.   그는 ”신생 핀테크, 빅테크 기업들의 보안 역량이 부족하지 않은 만큼 망분리 규제 등 과도하고 시대착오적인 사전규제보다는 보안 정책을 회사 자율에 맡겨야 할 것“이라며 ”다만 사후처벌과 고객배상액은 높이는 투 트랙 전략이 필요하다“고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2021.10.06.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>대출절벽 속 2.7억 내주는 토스뱅크, 파격 조건 지속할까</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000740679?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크가 대표가 지난 5일 열린 온라인 출범식에서 발언하고 있다./사진=토스뱅크케이뱅크와 카카오뱅크에 이어 국내 세번째 인터넷전문은행인 '토스뱅크'가 지난 5일 공식 출범했다. 토스뱅크는 첫날 1만명을 대상으로 사전신청 순으로 통장 개설·대출 신청, 체크카드 발급 등의 서비스를 진행했다. 토스뱅크는 최대 2억7000만원까지 한도가 나오는 연 2.76%의 신용대출을 앞세웠다. 은행권의 가계대출 제한조치가 이어지는 '대출 가뭄' 속 토스뱅크가 단비 역할을 할 수 있을 지 기대된다. 하지만 금융당국의 고강도 가계대출 규제에 토스뱅크도 예외 없이 '신용대출 연소득 이내'라는 가이드라인을 따라야 하는 만큼 토스뱅크가 낮춘 대출 문턱이 언제 높아질지는 미지수다. 토스뱅크는 지난 5일 '완전히 새로운 은행'을 선언하며 서비스를 시작했다. 토스뱅크는 지난달 10일부터 사전신청을 진행한 가운데 이날부터 순서대로 1만명에게 서비스를 공개했다. 토스뱅크 사전 신청에는 출범 직전까지 110만여명이 모였다. 토스뱅크는 이달 안에 사전 신청자들이 서비스를 이용할 수 있도록 한다는 계획이다. 사전 신청을 하지 못한 가입자는 다음달부터 서비스를 접할 수 있을 것으로 보인다.은행권에선 토스뱅크가 제시한 대출 금리와 한도에 관심이 쏠리고 있다. 시중은행 가운데 억대 신용대출·마이너스 통장을 취급하는 곳이 드물다. 5대 시중은행은 지난달부터 신용대출의 한도를 연소득 이내로 제한하고 마이너스통장 한도를 5000만원으로 축소했다. 토스뱅크의 신용대출 최대 한도는 2억7000만원, 마이너스통장의 경우 1억5000만원으로 시중은행보다 대폭 높다.여기에 카카오뱅크는 신용대출 최대한도를 5000만원으로 줄인 데 이어 이달부터 연말까지 마이너스통장 신규취급을 중단했다.케이뱅크는 지난 2일부터 일반 신용대출의 한도를 기존 2억5000만원에서 1억5000만원으로 1억원 축소하고 마이너스통장 대출 최대 한도도 1억5000만원에서 1억원으로 5000만원 줄였다.━금리 경쟁력 확보한 토스뱅크, 언제까지 이어지나━토스뱅크는 금리 경쟁력도 확보했다. 신용대출의 경우 최저 연 2.76%로 지난 8월 기준 5대 시중은행의 신용대출 평균금리(연 3.07~3.62%)보다 최대 0.86%포인트 낮다. 같은 기간 카카오뱅크의 신용대출 평균금리는 연 4.95%로 치솟았으며 케이뱅크 역시 연 4.27%로 4%대를 훌쩍 뛰어넘었다.다만 토스뱅크는 올 연말까지 중·저용자를 대상으로 한 중금리대출 비중을 전체 신용대출의 34.9%로 맞출 계획인만큼 고신용자에만 주력할 수 없는 상황이다. 최저 금리, 최대 한도로 고신용자가 과도하게 몰릴 경우 대출 한도를 축소하거나 금리 인상이 불가피할 것이라는 관측이다.토스뱅크는 대출뿐만 아니라 예금에서도 금리 혜택을 무기로 내세웠다. 토스뱅크는 아무런 조건 없이 수시입출금 통장에 돈을 맡기면 연 2%의 금리를 제공한다. 시중은행의 입출금통장 금리가 0%대인 점을 고려하면 파격적인 조건이다. 홍민택 토스뱅크 대표는 "다른 은행보다 예금금리가 높은 편이지만 조달금리보다 크게 높은 것은 아니다"며 "감당 가능한 비용으로 판단해 정부 규제를 모두 준수하면서 연 2% 금리를 지속가능한 형태로 제공할 수 있도록 노력하겠다"고 말했다.홍민택 대표는 "은행은 '원래 그럴 수 밖에 없다'는 여러 고정관념에 대해 ‘사용자가 원하는 것은 무엇인가’라는 근본적인 물음으로 돌아가 답을 찾고자 했다"며 "고객에게 전가됐던 제약들을 모두 없애고 새로운 기술과 데이터를 활용해 고객에게 가장 좋은 혜택을 돌려드릴 수 있도록 앞으로도 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2021.10.11.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>토스뱅크도 대출 중단 가능성↑…실수요자들 '발 동동'</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000109955?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>토스뱅크가 지난 5일 출범한 가운데 이미 토스뱅크 대출액이 3000억 원에 육박해 60%가 소진된 것으로 알려졌다. /토스뱅크 제공토스뱅크 대출액 3000억 원 육박…금융당국 제시 한도 60% 소진 금융권 대출 문이 속속 닫히고 있는 가운데 지난주 출범한 신생 인터넷전문은행 토스뱅크마저 당국이 제시한 대출 한도를 빠르게 소진하고 있는 것으로 알려졌다. 이에 토스뱅크마저 조만간 대출을 중단할 수도 있다는 전망이 나오면서 실수요자들의 걱정은 커지고 있다.11일 금융권에 따르면 토스뱅크가 지난 5일 출범한 가운데 8일까지 토스뱅크에서 사전 신청을 통해 대출받은 고객 수는 45만 명에 달하는 것으로 알려졌다. 사전신청자 일부에만 서비스를 오픈했는데도 이미 토스뱅크 대출액이 3000억 원에 육박해 60%가 소진된 것이다.대출 속도로 볼 때 며칠 내 5000억 원 한도가 동나면서 신용대출을 중단하게 될 가능성이 클 것으로 보인다. 금융당국이 제시한 한도를 넘어서면 대출을 막을 수밖에 없을 것이라는 관측이 지배적이다.앞서 금융당국은 시중은행에 올해 대출 증가율을 전년 대비 '6%대'로 묶도록 요구했으며 토스뱅크에도 연말까지 석 달간 신용대출 총량이 5000억 원을 넘기지 않도록 당부한 바 있다. 5000억 원의 총량 제한에는 중저신용자 대상 대출도 예외 없이 적용된다는 게 당국 설명이다.토스뱅크는 비중이 높은 중저신용자 대출에 한해 가계대출 총량규제에서 제외해달라고 요청하고 있지만 당국은 여전히 "토스뱅크의 안타까운 처지는 이해하지만 가계부채 관리에 예외는 없다"며 강경한 입장인 것으로 알려졌다.은행 대출 문턱이 높아지면서 실수요자들의 아우성은 커지고 있다. /더팩트 DB토스뱅크마저 대출 한도가 빠르게 소진되자 실수요자들의 불안감은 더욱 커지고 있다.이미 시중은행과 기존 인터넷전문은행에서는 일부 대출 상품의 신규 취급을 중단하고 있다. 카카오뱅크는 지난 8일부터 연말까지 고신용자 신용대출과 일반 전·월세 보증금 대출, 직장인 사잇돌 대출을 중단하기로 했다. 마이너스통장에 이어 신용대출까지 아예 막고 나선 은행은 카카오뱅크가 처음이다.케이뱅크도 지난 8일부터 개인 신용대출 한도를 연 소득 이내로 축소했다. 앞서 KB국민·신한·하나·우리·NH농협 등 5대 시중은행과 카카오뱅크, 토스뱅크도 도입한 연소득 이내 신용대출 제한이 '마지막 보루'였던 케이뱅크에까지 적용된 것이다.금융당국은 이달 중순 추가 가계대출 대책을 내놓겠다고 밝혔지만 실수요자들의 아우성은 커지고 있는 상황이다. 특히 부동산 잔금 납부를 앞뒀거나 전세 세입자 등 대출 수요자들은 발만 동동 구르고 있다.청와대 국민청원 게시판에는 '대출 규제'와 관련한 청원들이 줄을 잇고 있다. 지난 17일 올라온 '생애최초 주택구입 꿈 물거품 집단 대출 막혀 웁니다'라는 청원에는 10일 오후 9시 57분 기준 2만8688명이 동의하기도 했다.한 은행권 관계자는 "당국이 가계부채 관리를 타이트하게 조이고 있는데, 은행 입장에서는 (당국 기조를) 따라갈 수밖에 없다. 당국이 추가 가계대출 대책을 내놓겠다고 한 만큼 지켜봐야겠지만, 지금과 같은 상황이 지속된다면 카카오뱅크처럼 아예 대출을 막는 사례도 또 나올 수도 있을 것"이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2021.10.08.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>토스뱅크, 문 열리기도 전에…대출 이르면 오늘 소진</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010759022?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>기사내용 요약연중무휴 인터넷은행, 대출 중단 위기약 130만명은 아직 가입신청 대기 중3일 만에 5000억원 한도 중 절반 소진이르면 오늘 늦어도 주말께 한도 마감될듯 [서울=뉴시스] 박은비 기자 = 파격적인 조건을 내걸고 야심차게 출범한 인터넷전문은행 토스뱅크가 연간 대출 한도를 하루 이틀 내 소진할 가능성이 커 대출 영업을 중단할 상황에 놓였다. 당초 토스뱅크에 부여된 금액 자체가 크지 않아 업계에서는 예견된 수순이라는 반응이 나온다. 더군다나 연말을 앞두고 은행마다 각종 조이기 정책이 잇따라 나오면서 풍선 효과도 걷잡을 수 없는 분위기다.8일 은행권에 따르면 토스뱅크는 출범 3일차였던 전날 기준 가입신청대기 130만명, 계좌 개설 21만좌 이상으로 파악됐다. 130만명이 토스뱅크를 이용하고 싶다는 의사를 밝혔지만 아직 21만명 정도만 서비스를 이용하고 있다는 의미다. 사전신청 방식 때문에 신청자들의 불만이 많은데도 이렇게 순차 오픈을 선택한 건 가계대출 규제 속 시장 반응이 어느 정도일지 종잡을 수 없어서다.토스뱅크에서 전날 오후까지 실행된 신용대출 잔액은 대략 2000억원 이상이다. 다른 은행들은 올해 가계대출 목표가 전년 대비 증가율이지만 이제 막 출범한 토스뱅크에는 전년 실적이 없어 비교군이 없다. 하지만 금융당국과 협의한 연내 대출한도는 올해 5000억원으로 이 정도 속도면 얼마 안 가 금방 동날 것으로 보인다. 토스뱅크 대출신청은 연계기관 시스템 점검 등 일부 시간을 제외하면 365일 24시간 가능하다. 당국은 토스뱅크에도 신용대출을 연봉 수준 이하로 조정하고, 향후 발생할 대출 쏠림에 유의해달라고 전달한 상태다.[서울=뉴시스] 지난 7일 토스뱅크에 가입한 고객이 빌리기 탭에서 예상금리와 한도를 조회한 결과 빌릴 수 있는 신용대출 상품이 없다고 표시됐다. (사진=독자 제공) 2021.10.08. photo@newsis.com *재판매 및 DB 금지이 때문에 대기번호를 기다리다가 가입한 고객 중 대출 예상금리와 한도를 조회했을 때 빌릴 수 있는 신용대출 상품이 없다고 나오는 경우도 있는 것으로 나타났다. 토스뱅크는 내부 자체 토스스코어링시스템(TSS) 심사를 거쳐 대출을 승인한다. 이미 다른 은행에서 대출 받은 규모가 커도 그럴 수 있다는 게 토스뱅크 측 설명이다.단 한 번의 조회로 최고 수준의 대출을 받게 되고, 고신용자 중심의 기존 1금융권 은행과 비교해 확실히 다른 경험을 할 수 있다고 장담한 것에 비해 아쉬움이 크다는 평가가 나온다. 특히 토스뱅크는 연 2% 수시입출금통장, 최저 연 2.76% 신용대출 등 파격 조건으로 관심받았다.금융권 관계자는 "연말까지 3개월이나 남았는데 몇년을 벼르고 나온 토스뱅크 입장에서도 난감할 것"이라며 "신생이고 중저신용대출을 확대하라고 인가를 내줬으니 이런 어느 정도 감안할 것이라고 생각했다가 여지가 없어서 어떻게 해야 하나 대응책을 고심 중인 걸로 보인다"고 말했다.홍민택 토스뱅크 대표는 출범 간담회에서 "토스뱅크 역시 시중으로서 다른 은행들과 동일한 규제 환경에 놓여 있다"며 "이에 따라 정부가 추진하는 정책적 방향에 협력해 나갈 방침"이라고 밝혔다. 홍 대표는 또 "이제 영업을 시작하는 시점에서 구체적인 대출 규모에 대해 예상하기는 조금 이른 것 같다"며 "영업 과정에서 정책뿐만 아니라 시장 경쟁 상황, 고객 수요와 공급에 따라 대출규모 목표는 유동적으로 변경될 수 있을 것으로 생각한다"고 덧붙였다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2021.10.14.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>‘백신 인센티브’ 예방접종증명서, 이렇게 발급받으세요</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004723068?sid=102</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 광역시 최초로 인구수 대비 코로나19 백신 1차 예방접종률 70%를 달성한 부산시가 단계적 일상회복을 위한 준비에도 박차를 가한다.   14일 부산시의 ‘코로나19 예방접종 4분기 시행계획’에 따르면 4분기 백신 예방접종 대상자는 △미접종자 47만명 △12~17세 소아청소년 △임신부 △추가접종(부스터샷)이 진행되는 고위험군 등이다.   시는 이처럼 추가 예방접종 인원이 늘어나고 특히 예방접종 완료자를 대상으로 사적모임, 결혼식 참석 인원 확대 등 각종 인센티브가 적용되면서 예방접종자 확인이 무엇보다 중요해진 만큼 예방접종 증명 방법을 적극적으로 홍보한다는 계획이다.   공식적으로 코로나19 백신 접종을 증명할 수 있는 수단은 종이증명서, 전자증명서, 예방접종 스티커 3가지다. 종이증명서는 전국 읍면동 행정복지센터와 보건소, 예방접종센터, 접종한 의료기관에 직접 방문해서 발급받거나 정부24와 예방접종도우미 누리집에서 온라인으로 발급받을 수 있다. 종이증명서는 영문으로도 발급받을 수 있어 국외에서 접종 증빙 목적으로도 활용할 수 있다.   스마트폰에서 전자증명서 발급도 가능하다. ‘쿠브(COOV)’ 앱을 설치하고 본인인증을 거치면 된다. 네이버, 카카오, 토스, PASS 앱에서도 통합 QR 코드를 발급받으면 QR 체크인과 접종 증명을 동시에 할 수 있다.   종이증명서 발급이나 스마트폰 사용이 어려운 경우 신분증을 소지하고 인근 행정복지센터를 방문하면 신분증 뒷면에 부착하는 예방접종 스티커를 발급받을 수 있다. 주민등록증, 운전면허증, 장애인등록증, 외국인등록증, 국내거소신고증과 같은 주민등록번호와 주소가 표기된 카드 형태 신분증에 부착하면 된다.   조봉수 시 코로나19예방접종추진단 실무추진반장은 “4분기 예방접종이 원활하게 추진되고 있고 예방접종 완료자에 한해 모임 기준이 완화 적용되는 만큼 예방접종 증명에 대한 수요도 늘어날 전망”이라며 “앞으로도 우리 시는 단계적 일상회복을 위해 기초부터 차근차근 준비해나가겠다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2021.10.09.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>카카오페이는 중단한 보험 추천 서비스… 토스가 할 수 있는 이유</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000742061?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>금융당국의 핀테크사의 보험업에 대한 관리 감독이 강화된 가운데 명확한 기준 마련이 요구되고 있다./사진=뉴스1금융당국의 핀테크사 보험 사업에 대한 관리·감독이 본격 강화된 가운데 핀테크사의 보험 서비스에 대한 일률적인 서비스 허용 기준 마련이 요구되고 있다. 동일한 보험 추천 서비스를 진행했지만 카카오페이는 중단하고 토스는 이어갈 수 있는 것도 일률적인 기준 부재에 따른 것이란 지적이 나온다.  9일 금융권 등에 따르면 금융당국은 지난 9월 기본적으로 보험 비교·추천 서비스는 중개 행위에 해당되기에 금소법에 따른 인허가를 받아야 한다고 결론을 내린 상태다. 이에 카카오페이는 지난 9월 중순 카카오페이 앱에서 보험 추천 서비스를 중단했고, 법인보험대리점(GA)인 KP보험서비스에서만 보험 추천 서비스를 포함해 일상생활과 관련된 여행자보험, 운동보험 등 미니보험을 판매하는 중이다. 반면 토스는 보험 추천 서비스를 그대로 제공하고 있다.  금융당국 및 토스에 따르면 토스 앱에 보험 추천 서비스를 클릭한 뒤 토스인슈어런스(법인보험대리점) 페이지로 넘어가는 과정에 ‘토스인슈어런스로 이동 중`이라는 화면을 배치하면 문제가 없다는 것이다. 즉 소비자가 오인할 만한 소지가 없으면 토스 앱에서 보험 추천 서비스라는 항목을 운영하는 것을 허용한다는 의미다. 토스 관계자는 “연초부터  금융소비자보호법에 저촉될만한 사소한 부분까지 다 개편했다”고 말했다.  가입 혜택의 경우 제휴포인트나 지급 현금을 플랫폼 사업자가 아닌 상품을 제공한 금융사에서 내면 문제가 되지 않는다. 토스인슈어런스는 제휴 보험사에 제공해 왔다. 금융권 관계자는  “플랫폼 배너광고에 `5만원 지급`이라고 적혀있고 실제 금액을 금융사에서 지급한다면 금융사에서 현금 혜택을 제공한다는 사실을 광고하는 행위일 뿐으로 중개로 볼 수 없다”고 전했다.  금융당국은 또 전자금융업자 플랫폼에서 '보험상담'을 서비스로 표시하며 상담 의뢰 후 절차와 사후관리가 모두 플랫폼 내에서 관리된다는 점을 들어 사실상 '자문업'에 해당한다고 규정했다.  토스는 자사 플랫폼 내에서 직접 자문을 하지 않고, 설계사에게 '연계'만 제공한다는 문구를 삽입해 금융당국의 규제에서 벗어났다.  금융위에 따르면 올해 3월 25일부터 계도기간을 거쳐 지난 25일 시행된 금소법에서 법 적용대상을 3가지 영업유형(금융상품직접판매업, 금융상품판매대리·중개업, 금융상품자문업)으로 포괄 규정했다. 이에 따라 영업행위가 금소법 적용대상에 해당하는 경우 금소법 등 금융법령에 따라 금융위에 등록하거나 인·허가를 받아야 한다. 카카오페이 관계자는 “금융당국의 가이드라인에 맞춰 서비스를 개편해 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2021.10.04.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>간편송금으로 잘못 보낸 돈, 5년간 130억 원…74%는 미반환</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000108954?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>5년간 간편송금 서비스로 잘못 이체된 금액이 약 130억 원에 달하는 것으로 조사됐다. /비바리퍼블리카 제공윤관석 의원 자료…3년 만에 19.2배 늘어 최근 5년간 모바일 등을 이용한 간편송금 서비스로 잘못 이체된 금액이 약 130억 원에 달하는 것으로 나타났다.4일 국회 정무위원회 소속 윤관석 더불어민주당 의원이 금융감독원으로부터 제출받은 자료에 따르면 지난 2017년부터 올해 6월까지 토스·카카오페이·네이버페이 등 간편송금 서비스 이용 과정에서 발생한 착오송금은 모두 5만5506건으로 집계됐다. 금액으로는 약 129억4174만 원이다.연도별로 보면 △2017년 2197건·2억6379만 원 △2018년 6695건·10억6126억 원 △2019년 1만3843건·29억4785억 원 △2020년 2만1595건·53억2334억 원 등 가파르게 늘고 있다. 올 들어서도 6월까지 1만1176건에 33억4547억 원에 이른다.업체별로는 2015년 간편송금 시장에 처음 진입한 토스에서 5년간 3만6450건(85억3785만 원)의 착오 송금이 발생했다. 2017년 2197건(2억6379만 원)이던 착오송금은 지난해 1만3670건(34억7910만 원)으로 5.2배 증가했다.카카오페이는 4년간 1만8799건(43억701만 원)이, 네이버페이는 1년 반 동안 257건(9686만 원)이 잘못 이체됐다.5년간 발생한 착오송금 금액 가운데 74%(95억3319만 원)는 본래 주인에게 돌아가지 못했다.미반환된 금액은 토스 63억7421만 원(2만9386건), 카카오페이 31억1382만 원(1만2811건), 네이버페이 4514만 원(136건)이다.윤관석 의원은 "디지털금융이 발달하고 코로나19로 인한 비대면 금융거래가 증가하면서 착오송금 규모도 급격하게 증가하고 있다"면서 "간편송금업체는 금융소비자가 서비스 이용 과정에서 착오송금과 같은 실수를 줄일 수 있도록 지속적으로 시스템 개선할 필요가 있다"고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2021.10.14.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>부산시 "코로나19 예방접종증명서, 이렇게 발급받으세요"</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000628859?sid=102</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>종이·전자증명서·신분증 스티커 등 발급부산광역시가 내달로 예상되는 방역체계 전환(위드코로나)을 앞두고 일상회복을 위한 준비를 서두르고 있다.부산시는 4분기 예방접종 인원 확대와 백신 예방접종 완료자 인센티브 원활한 적용을 위해 '부산시 신종 코로나바이러스 감염증(코로나19) 예방접종 4분기 시행계획'을 수립하고, 예방접종 증명방법 홍보에 나선다고 14일 밝혔다.4분기 백신 예방접종 대상자는 ▲미접종자 47만 명과 ▲12~17세 소아청소년 ▲임신부 ▲추가접종(booster shot)이 진행되는 고위험군 등이다.코로나19 예방접종증명서 발급안내문. [사진=질병관리청]시는 계획에 따라 예방접종 증명서 발급 방법 홍보 안내문을 구·군 예방접종센터와 위탁의료기관, 구·군청 민원실, 행정복지센터 등에 비치하고, 예방접종센터와 위탁의료기관 등에 홍보 동영상을 배포하는 등 증명서 발급 방법을 적극 안내할 계획이다.공식적으로 코로나19 백신 접종을 증명할 수 있는 수단은 ▲종이증명서 ▲전자증명서 ▲예방접종 스티커 등 3가지다. 종이증명서는 전국 읍면동 행정복지센터와 보건소, 예방접종센터, 접종한 의료기관에 직접 방문해서 발급받거나 정부24 또는 예방접종도우미 누리집에서 온라인으로 발급받을 수 있다. 특히, 종이증명서는 영문으로도 발급받을 수 있어 국외에서 접종 증빙 목적으로 활용할 수 있다.스마트폰에서 전자증명서 발급도 가능하다. 쿠브(COOV) 애플리케이션을 설치하고, 본인인증을 거치면 된다. 아울러, 네이버·카카오·토스·PASS 등 애플리케이션에서도 통합 QR코드를 발급받으면, QR 체크인과 접종 증명을 동시에 할 수 있다.종이증명서 발급이나 스마트폰 사용이 어려운 경우, 신분증을 소지하고 인근 행정복지센터를 방문하면 신분증 뒷면에 부착하는 예방접종 스티커를 발급받을 수 있다. 주민등록증, 운전면허증, 장애인등록증, 외국인등록증, 국내거소신고증과 같은 주민등록번호와 주소가 표기된 카드 형태 신분증에 부착하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2021.10.04.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>토스뱅크, 5일 출범... ‘최저 대출금리 2.7%’</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000764520?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>국내 3번째 인터넷은행 ‘토스뱅크’가 5일 출범한다.4일 은행권에 따르면 토스뱅크는 5일부터 사전신청자를 대상으로 여·수신 상품 판매, 체크카드 발급 등 뱅킹 서비스를 차례대로 개시할 예정이다.토스뱅크가 제시한 신용대출 상품 자체 한도는 2억7000만원이다. 금리는 3일 기준 연 2.76∼15.00%다. 최근 시중 은행들의 일반 신용대출 금리가 3~4%대로 올랐으며 대출 한도가 연봉 이내로 크게 줄어든 만큼, 금융권 관계자들은 토스뱅크의 대출 상품이 소비자들로부터 주목 받을 수 있을 것으로 내다보고 있다. 다만 대출한도는 당국의 가계대출 규제를 일부 적용받아 한도를 연 소득 이내 범위로 제한할 것으로 보인다.토스뱅크 혜택        앞서 토스뱅크는 지난달 10일 서비스 사전 예약을 받고, 선착순으로 연 2%(세전 기준) 금리 계좌를 만들 수 있게 해주는 행사를 열었다. 2일 기준으로 사전신청한 금융소비자는 100만명을 넘어서며 초반 흥행에 성공했다.토스뱅크가 내놓은 체크카드는 실적조건 없이 매달 최대 4만6500원 환급(캐시백)을 제공하고 해외 사용금액 3%를 즉시 돌려준다.토스뱅크는 현재 주택담보대출, 전세대출, 소상공인 전용대출 상품도 개발하고 있다. 주택담보대출과 전세대출 상품은 2022년 이후에나 출시할 것으로 보인다.앞서 토스뱅크는 올 연말까지 전체 신용대출에서 중금리 대출 비중을 34.9%로 만들겠다는 계획을 금융당국에 제출했다. 인터넷은행 3사 가운데 토스뱅크의 중금리대출 비중 목표가 가장 높다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2021.10.10.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>5대 은행 대출 증가율 이미 5%… 대출 연쇄 중단 임박</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003645432?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>금융 당국이 정한 6%에 근접… 이달 중 전세대출 규제도 발표							5대 은행의 올해 가계대출 증가율이 금융 당국이 정한 6%에 근접하면서 연말 ‘대출 절벽’ 우려가 커지고 있다.10일 금융권에 따르면, KB국민·신한·하나·우리·NH농협 5대 은행의 지난 7일 기준 가계대출 잔액은 703조4416억원으로, 작년 12월 말(670조1539억원)과 비교해 4.97% 늘어났다. 연말까지 약 3개월이나 남았지만, 주요 시중 은행들의 올해 가계대출 증가율은 이미 연초 억제 목표로 잡은 5%에 이르렀다.    이에 따라 NH농협에 이어 다른 은행들도 연말까지 잇따라 일부 대출 창구를 아예 닫을 가능성이 커지고 있다.    사진은 10일 오후 서울 시내 한 은행 모습. /연합뉴스										이에 따라 NH농협은행 등을 비롯한 대형 은행들의 일부 대출 중단 등의 조치가 더 확산될 가능성이 높아졌다. 기존 은행들의 대출 중단, 축소로 대출 수요가 몰리는 ‘풍선 효과’가 발생하면서 지난 5일 문을 연 토스뱅크는 영업 개시 나흘 만에 연말까지 가능한 신용대출 총량(5000억원)의 60% 정도인 3000억원을 소진한 것으로 집계됐다.은행별 증가율을 보면 NH농협이 7.14%(126조3322억→135조3581억원)로 가장 높다. 하나은행이 5.23%(125조3511억→131조9115억원)로 다음이다. 가계대출 규모 1위인 KB국민은행은 지난달 말까지 4.90%였는데 5.06%로 증가했다. 우리은행(4.24%)도 이달 말이나 다음 달 초쯤이면 5%를 넘어설 전망이다. 신한은행만 3.16%로 여유가 있는 상황이다. 한 은행 관계자는 “금융위가 6% 한도를 6.9%까지 최대한 늘려서 적용해준다고 해도 연말 대출 시장 경색은 피하기 어려운 상황”이라고 말했다.이런 상황에서 금융위원회가 이달 중순쯤 전세 대출 규제 방안 등이 담긴 가계부채 보완 대책을 발표할 예정이라 대출 절벽에 대한 불안감이 커지고 있다. 문재인 대통령은 지난 6일 청와대 회의에서 “가계 부채 관리는 불가피한 상황이지만, 전세 대출 등 실수요자가 어려움을 겪지 않도록 정책 노력을 기울여 주기 바란다”고 말했다. 금융권에서는 문 대통령의 발언을 전세 대출에 대한 규제가 곧 발표될 것이라는 예고로 받아들이고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2021.10.06.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>(영상)`파격 대출`에 토스뱅크 137만명 계좌 신청</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005053613?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>이날 오전 11시 기준 가입자 137만명 육박파격적 대출상품·차별화한 조건에 가입자 몰려은행권 대출 총량 규제는 변수..공격적 경쟁 예고&lt;앵커&gt; 다음 소식입니다. 국내 세 번째 인터넷 전문은행인 토스뱅크가 어제 출범했는데요. 예상대로 가입자가 크게 몰렸다고요?&lt;기자&gt; 네. 토스뱅크가 지난 5일 정식 출범했는데요. 회사 측은 출범 첫날에만 가입자가 120만명을 넘어섰다고 밝혔습니다. 이는 사전신청자 116만명을 포함한 수치입니다. 오늘 오전 11시에는 누적 가입자가 137만명에 다가서면서 몸집을 지속 키우는 모습입니다.가입자가 이렇게 몰린 것은 토스뱅크 가 내건 파격적인 대출상품 덕분입니다. 토스뱅크는 신용대출 최고 한도 2억7000만원에 최저금리 연 2.76%, 마이너스 통장은 최대 1억5000만원 한도로 최저금리 3.26%를 제시했는데요.현재 은행권 기준으로 최고 한도와 가장 낮은 금리 수준을 내걸자 최근 대출에 목말라 있던 가입자들이 크게 몰린 것으로 보입니다. 여기에 토스뱅크는 만기 같은 조건 없이 연 2% 이자를 지급하는 입출금 통장은 물론 매달 최대 4만원 이상을 돌려받을 수 있는 체크카드와 같은 차별화한 상품을 선보이면서 가입자를 끌어모았습니다. 이같은 토스뱅크 인기에 대해 회사 측의 설명을 직접 들어보시죠.&lt;인터뷰&gt; 김동혁 토스뱅크 커뮤니케이션 매니저“토스뱅크는 고객들에게 직관적이고 편리한 서비스를 제공하고 있습니다. 고객들이 느끼게 될 최소화의 물리적, 심리적 장애도 없애려 했고요. 연 2% 금리 통장, 최저 금리, 최고 한도 토스뱅크 대출상품. 이러한 최대한의 혜택들이 고객 입장에서는 매력 요인으로 느껴지는 것 같습니다.”다만 일각에서는 연말까지 은행별 5000억원으로 제한된 대출 총량이 토스뱅크 인기에 변수가 될 수 있다고 지적했습니다. 이에 토스뱅크 측은 정부 규제를 적극 따르겠다며 신용대출 한도를 연소득 이내로 제한하겠다는 뜻을 밝혔습니다. 또 내년 이후 주택담보대출과 전세대출상품 추가 계획을 발표하며 공격적인 경쟁을 예고했습니다.지금까지 이데일리TV 김종호였습니다. 6일 이데일리TV 뉴스 방송.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2021.10.04.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>토스뱅크 나온다, 조건없는 연 2% 금리 통장</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010750315?sid=004</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 고범준 기자 = 금융당국의 가계대출 규제가 강화되고 있는 가운데 인터넷전문은행 토스뱅크가 오는 5일 공식 출범한다. 최저금리는 시중은행에서 가장 낮은 2.7%대, 최대 한도는 2억7천만원가량으로 책정될 전망이다. 토스뱅크는 내일부터 토스 애플리케이션을 통해 예금·대출 등의 은행 서비스를 시작할 예정이다. 사진은 4일 오전 서울 강남구 토스 뱅크 사무실이 입주해 있는 로비 모습. 2021.10.04. bjko@newsis.com[사진 영상 제보받습니다] 공감언론 뉴시스가 독자 여러분의 소중한 제보를 기다립니다. 뉴스 가치나 화제성이 있다고 판단되는 사진 또는 영상을 뉴시스 사진영상부(n-photo@newsis.com)로 보내주시면 적극 반영하겠습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>토스뱅크, 신용카드 사업에도 '눈길'… "여신상품 확장 관심"</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000740524?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>토스뱅크가 '완전히 새로운 은행'을 선언하며 공식 출범한 가운데, 향후 신용카드 사업 진출에 대한 가능성을 내비쳤다. 공격적인 사업확대로 여신상품 포트폴리오를 강화해 초반 흥행몰이를 잇겠다는 의지로 해석된다. 사진은 홍민택 토스뱅크 대표/사진=토스뱅크토스뱅크가 '완전히 새로운 은행'을 선언하며 공식 출범한 가운데 향후 신용카드 사업 진출에 대한 가능성을 내비쳤다. 공격적인 사업확대로 여신상품 포트폴리오를 강화해 초반 흥행몰이를 잇겠다는 의지로 해석된다.홍민택 토스뱅크 대표는 5일 열린 온라인 출범식에서 "토스뱅크는 신용판매, 카드에서 파생되는 여신상품까지 확장하고 고객에게 더 나은 편익을 제공하는 데 관심을 갖고 있다"고 말했다.이어 "신용카드 사업을 하려면 라이선스를 획득해야 해 현재 정부와 초기상태의 협의, 논의를 진행하고 있다"고 밝혔다. 아직 구체적인 사업 전략을 공유할 단계는 아니지만, 신용카드 사업에 확실히 관심이 있고, 정부와 논의를 시작했다는 입장이다.토스뱅크는 이날 고객 관점의 새로운 뱅킹 서비스를 선언했다. 고객이 고민할 필요 없이 토스뱅크가 고객에게 맞는 상품을 제품을 제안, 제공하는 식이다. 기존 고객이 발품을 팔던 수고를 토스뱅크가 대신해 최적화된 금융서비스를 선보인다는 포부다. 그 일환으로 최저금리 2.7%, 최대 대출 한도를 2억7000만원으로 내걸었고, 제약 조건 없이 혜택을 돌려주는 수시입출금 통장, 체크카드를 선보였다. 여기에 '내 한도 관리 서비스', '상시금리인하요구' 서비스도 제공한다. '토스뱅크 통장'은 만기나 최소 납입 금액 등 아무런 조건 없는 연 2% 이자를 지급하는 수시입출금 통장이며, 체크카드는 전월 실적 등의 조건을 없앤 게 강점이다. 더불어 NFC(근거리 무선통신) 기술을 활용한 OTP(일회용 비밀번호) 기능을 탑재해 휴대폰 뒷면에 체크카드를 접촉하면 고액 송금이 가능하도록 했다.홍 대표는 "연 2% 금리는 다른 은행보다 금리가 높지만 현재 조달금리보다 크게 높지는 않고 충분히 감당 가능한 비용으로 판단한다"며 "정부 규제 등을 고려해 연 2% 이자를 지속가능한 형태로 제공할 수 있게 상품을 만들었다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2021.10.12.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 'PCI-DSS·ISMS' 정보보호 인증 취득</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002537295?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>정보보호 관리 체계 고도화 일환서울 강남구 소재 토스페이먼츠 본사 전경 ⓒ비바리퍼블리카[데일리안 = 김민석 기자] 토스페이먼츠가 주요 정보보호 인증인 PCI-DSS와 ISMS의 취득을 성공했다고 12일 밝혔다.이번 인증 취득은 정보보호 관리 체계 고도화의 일환으로 진행됐다. 토스페이먼츠는 출범 1년여 만에 외부 컨설팅 없이 독자적으로 국내외 주요 정보보호 인증을 취득하게 됐다.이번에 토스페이먼츠가 취득한 ISMS(Information Security Management System)는 한국인터넷진흥원(KISA)이 주관하는 국내 최고 수준의 정보보호 관리체계 인증 중 하나다. 주요 정보자산을 보호하기 위해 수립·운영하는 정보보호 관리체계가 적합한지를 총 102개 항목을 기준으로 심사한다. 이를 모두 충족해야 취득할 수 있다.PCI-DSS(Payment Card Industry Data Security Standard)는 PCI보안표준위원회에서 주관하는 글로벌 카드사가 공동 개발한 카드 결제 부문 국제 정보보안표준 인증이다. 네트워크 보안, 카드 소유자 데이터 보호 등 12개의 주요 영역에서 415개 항목에 대한 심사를 통과해야 인증이 가능하다. 토스페이먼츠는 가장 높은 등급인 레벨1을 받았다.토스페이먼츠의 정보보호 예산과 인력도 늘고 있다. 지난해 8월 출범 당시 2명이었던 관련 인력은 현재 6명으로 3배 증가했다. 올해 책정된 정보보호 예산은 전체 IT 예산의 18% 수준인 약 24억원이다.김승현 정보보호 최고 책임자(CISO)는 "토스페이먼츠는 가맹점과 소비자 모두에게 안전한 결제 서비스 제공을 위해 물적, 인적 투자를 지속하고 있다"며 "향후 국제 표준 정보보호 인증인 ISO/IEC 27001 취득 등 보안 역량 강화를 위한 활동을 지속하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2021.10.14.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>"전세대출 중단 없고 한도 유연하게"…말 바꾼 금융당국</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000509138?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>[앵커] 고강도 가계부채 억제책에 이어 추가 대책까지 예고했던 금융당국이 갑자기 달라졌습니다. 실수요자 보호 차원이라며 연말까지 전세 대출 중단 사태는 없게 하겠다는 겁니다. 금과옥조 같던 가계부채 증가율 6%대 억제도 얽매이지 않겠다고 말을 바꿨습니다. 소재형 기자입니다.[기자] 그간 고강도 가계대출 억제책을 주도하던 금융당국이 돌연 입장을 선회했습니다.실수요자 보호를 위해 전세 대출이 닫히는 일이 없게 하겠다는 겁니다. &lt;고승범 / 금융위원장&gt; "연말까지 전세대출과 집단대출이 중단되는 일이 없도록 관리할 예정입니다."가계대출 증가율 목표치를 넘은 일부 금융기관들이 이미 대출을 틀어막았는데 이젠 올해 목표치를 넘어도 허용할 수 있다는 이야기도 했습니다.&lt;고승범 / 금융위원장&gt; "전세대출 증가로 인해서 (가계대출 증가폭이) 6%대 이상으로 증가하더라도 용인하려고 합니다."그러면서도 전반적 가계대출 억제 기조는 이어나간다는 방침을 언급했습니다.실제로 금융당국은 총부채 원리금 상환비율, DSR 규제 확대 조기 시행을 유력하게 검토하고 있습니다.그간 일부 고DSR 차주를 대상으로는 DSR 규제가 적용되지 않아 왔습니다.&lt;고승범 / 금융위원장&gt; "가계부채 관리 측면에서 보자면 상환능력 범위 내에서 대출이 이뤄져야 된다 이런 원칙은 변함이 없고요."강력한 대출총량 규제로 대출 수요가 옮겨가는 풍선효과가 나타난 토스뱅크의 신용대출 한도 증액에 대해선 신중한 입장을 보였습니다.&lt;고승범 / 금융위원장&gt; "그 부분에 대해서는 면밀하게 검토하도록 하겠습니다."구체적인 방안을 담은 가계부채 보완 대책은 다음 주 발표될 예정입니다.연합뉴스TV 소재형입니다. (sojay@yna.co.kr)   연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2021.10.04.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>경기도민 10명 중 6명, 경기도 제공 마이데이터 서비스 '이용의향 있다'</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002973087?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>'경기알림톡' 등 경기도에서 제공하는 마이데이터 서비스에 대해 경기도민 10명 중 6명이 '이용 의향이 있다'고 밝혔다. 데이터 주권과 마이데이터 서비스 활성화가 일상에 미치는 영향에 대해서도 도민 절반가량은 '긍정적'인 반응을 보였다.경기도는 지난달 11일 도민 1000명을 대상으로 '데이터 주권과 마이데이터'를 주제로 여론조사를 실시했다고 4일 밝혔다. '데이터 주권'은 개인에게 개인정보에 대한 권리를 부여해 스스로 자신의 데이터가 어디서, 어떻게, 어떤 목적으로 사용될지 결정할 수 있는 권리를 뜻한다. '마이데이터'는 개인이 자신의 정보를 적극적으로 관리·통제하고, 신용이나 자산관리 등에 능동적으로 활용하는 일련의 과정을 말한다.경기알림톡 이용의향 현황먼저 경기도의 마이데이터 서비스인 '경기알림톡'에 대해서는 응답자의 절반이 넘는 58%가 '이용 의향이 있다'고 밝혔다. 도는 올해 4월부터 사용자 개개인에게 꼭 맞는 복지정보를 보여주고, 신청 시기가 되면 알림 메시지를 받을 수 있는 '경기알림톡' 서비스를 운영하고 있다. 참고로 '뱅크샐러드' '토스' 등 민간 마이데이터 서비스를 이용해본 적 있느냐는 물음에 응답자의 47%는 '이용 경험이 있다'고 답했다.마이데이터 서비스 이용 시 가장 받고싶은 혜택한편 마이데이터 서비스 이용 시 가장 받고 싶은 혜택은 '금전적 혜택'(22%)과 '맞춤형 서비스 추천 및 제공'(21%)인 것으로 나타났다. 마이데이터 서비스 이용 시 가장 우려되는 부분은 '개인정보 유출 등 보안문제'가 46%로 가장 많았고, 다음으로는 '내 정보를 어디까지 활용하는지 알 수 없다는 점'이 37%로 나타났다.데이터 주권과 마이데이터 서비스 활성화가 일상에 미치는 영향에 대한 조사에서는 48%가 '긍정적'이라고 답했다. '반반이다'는 26%, '부정적이다'는 14%로 나타났다.데이터주권 및 마이데이터 활성화 영향응답자들은 경기도가 지난 9월 18일 개최한 데이터 주권 국제포럼에 대해 68%가 '잘했다'며 긍정적인 반응을 보였다. 세계 최초로 '데이터 주권'을 주제로 열린 '데이터 주권 국제포럼'은 코로나19 확산으로 전면 온라인으로 개최했을 뿐 아니라 첫 행사임에도 5개 해외 지방정부와 3개 국제기구가 함께 했으며, 3만4000여명이 참여하는 등 뜨거운 관심을 모았다.도 관계자는 “이번 조사로 데이터 주권과 마이데이터에 대한 긍정적인 인식과 필요성에 대한 도민들의 공감대가 형성되고 있는 것을 확인했다”면서 “데이터 주권 국제포럼의 주제처럼 '공정한 데이터 세상'을 만들기 위해 사용자 중심의 마이데이터 플랫폼을 구축하고 도민이 걱정 없이 마이데이터 서비스를 이용하고 공정하게 혜택을 누릴 수 있도록 돕겠다”고 말했다.이번 조사는 도가 여론조사기관인 케이스탯리서치에 의뢰해 9월 11일 18세 이상 도민 1000명을 대상으로 전화조사 방식으로 진행했다. 신뢰수준 95%, 표본오차 ±3.1%포인트다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>머니투데이 오프라인 헤드라인-5일</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004652129?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>[종합]대한항공+아시아나 심사, 9개국 '연착''7만전자' 용산은 알고 있었다혼자 '1억 미만' 269채 쇼핑, 다주택자에 판 깔아준 정부11월부터 '위드 코로나'…내수 회복땐 '성장률 4.2%' 청신호공정위 올해 '결합' 승인해도 난제 산적…연내 이륙 힘들듯"에너지 사용 줄이면 포인트 환급 '그린카드' 늘려야"[기획]폐플라스틱 태워 시멘트 생산…골칫거리 '쓰레기산' 없앤다韓 폐기물 활용 유럽 절반 수준…'쓰레기 시멘트' 폄훼도[the300]이재명 '대장동 논란' 첫 유감 표명…유동규 측근설 선긋기남북 통신선 55일만에 복원…경색된 관계회복도 진전될까[오피니언]진정한 기업 가치는 직원 행복서 시작된다거절당한 것들의 극적인 반전[국제]"내년에도 반도체난…車·폰 고통 지속"헝다그룹株, 홍콩증시 거래 정지[산업]G80이 효자…제네시스, 반도체 수급난 뚫고 韓·美서 '질주'위기의 대형마트, 창고형 할인점 목맨다화질은 물론 눈도 편한 TV…LGD, 이유 있는 OLED 자신감[금융]'제3 인뱅' 토스뱅크 오늘 출범가계대출 막힌 은행, 기업대출로 활로 모색[바이오]현행 거리두기 2주 더…'빨간날 후폭풍' 넘어야 위드 코로나"임신부, 위중증률 6배↑ 임신성당뇨 있어도 가능"[유니콘 팩토리]"미친놈 소리 들으며 치매약 도전…증상 개선은 물론 예방도"7문제만 풀어도 수능점수 예측…AI 수학선생의 오차없는 학습[ICT·과학]"작가 발굴하고 작품 조율…웹툰PD, 'K웹툰' 이끄는 전략가"백기든 네이버…체불임금 87억 지급[사회]디지털 수사 '원석'…사이버 잠입 '개시'대장동 의혹, 실타래 풀릴까[정책사회·문화]NPO에 200억…朴, 특정단체 몰아줬다문화재 수리기술자 '불법자격 대여'…문화재청, 봐주기 논란[건설 부동산]"세종시도 '최장 5년' 실거주 의무화 검토"집값 하락시 매물 투매땐 지방發 부동산 위기 뇌관[스타뉴스]멤버 첫 솔로앨범 'OPEN'…아이즈원 응원 큰 에너지 얻어검은태양, 4회 연속 광고 '완판'[증권]역대급 실적 전망에도…'6개월 최저점' 두근대지 않는 증시반도체서 이차전지株로…실리콘 음극재 터치에 시장 '엄지척'</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2021.10.11.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>[경제 톡톡톡]마지노선 5%에 걸린 5대 은행…대출 찾아 헤매는 실수요자</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/449/0000216085?sid=115</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>1. 지난 7일 기준으로 국내 5대 시중은행의 가계대출은 703조4400억 원. 작년 12월 말보다 4.9% 늘어난 규모인데요. 연초 금융당국이 제시한 증가율 목표인 5%의 턱밑까지 올라왔습니다. 그러자 시중은행들은 영업점별로 월별 대출 금액을 정해놓고 대출을 중단하는 등 앞다퉈 규제에 나섰습니다. 토스뱅크 등 인터넷은행도 이르면 이번 주부터 빗장을 걸어잠글 거란 전망이 나옵니다. 당장 대출 받아야 하는 실수요자들은 답답함을 호소합니다. [이모 씨 / 40대 실수요자] "서민은 왜 이렇게 심각하게 대출 규제를 할까. 저희가 가진 게 뭐가 있겠습니까. 어디서든 대출을 최대한 당겨 써야 하지 않을까요. 2. 집주인에게서 전세보증금을 돌려받지 못한 피해자 3명 중 2명이 20, 30대 세입자인 것으로 나타났습니다.  국회 국토교통위원회 소속 김상훈 의원이 주택도시보증공사(HUG)로부터 제출받은 자료에 따르면, 상습적으로 보증금을 돌려주지 않아 관리 대상에 오른 집주인은 지난 8월 말 기준 129명입니다.  이들이 반환하지 않은 보증금은 2160건, 4284억원 규모인데요. 이들에게 피해를 본 임차인 중 2030세대가 1459건으로 전체의 67.6%를 차지했습니다. 1인당 평균 피해액은 1억9718만원으로 집계됐습니다. 3. 프랑스 명품 브랜드 샤넬이 일부 인기 상품에 한해 1인당 1년에 한 점 씩만 살 수 있도록 국내 소비자의 구매를 제한하기로 했습니다. 올 들어 세 차례나 주요 제품의 가격을 올린 데 이어 구매 제한 정책까지 실시하는 건데요. 이번 조치는 한 사람이 특정 상품을 대량으로 독점하는 것을 막기 위해 마련된 것으로 알려졌습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2021.10.11.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>“연말 연쇄 대출 중단 우려, 실수요자 발동동”</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/382/0000937800?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>5대 시중은행 대출 증가율 5% 임박전세자금 대출 9개월 만에 15.68% 상승KB·우리, 지점별로 대출 한도 지정토스뱅크도 대출잔액 60%에 육박“수요 지속되면 대출 한시 중단될 것”정부의 고강도 대출 규제에 연말 은행권의 연쇄적 대출 중단이 현실화될 수 있다는 우려가 나오고 있다. 주요 시중은행의 가계대출 증가율이 금융당국 목표치(5~6%)의 턱밑까지 차올라 대출 한도가 점점 줄고 있기 때문이다. 문제는 당장 가을 이사시즌을 맞아 자금이 필요한 실수요자들이 대출 절벽에 내몰리고 있는 점이다.가계대출 증가율 4.97% 상승  7일 기준 KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행의 가계대출 잔액은 703조4416억 원으로 집계됐다. 지난해 연말 670조1539억 원 대비 4.97% 늘어난 규모로, 금융 당국이 제시한 증가율 목표(5¤6%)에 임박한 수치다. 은행별로 보면 NH농협은행의 증가율이 7.14%(126조3322억→135조3581억 원)로 가장 높았다. 다만 11월말까지 일부 주택담보대출의 취급을 중단하면서 9월말 대비 증가율이 0.14%p 감소했다. 하나은행은 9월말 대비 0.04%p 상승한 5.23%(125조3511억→131조9115억 원)로 집계됐다. 9월말까지 4.89%로 4%대를 유지했던 KB국민은행도 일주일 만에 0.17%p 상승한 5.06%(161조8557억→170조0402억 원)를 기록하며 5%대를 넘겼다. 우리은행과 신한은행은 9월말 대비 각각 0.2%p, 0.14%p 오른 4.24%(130조3528억→135조8842억 원), 3.16%(126조2621억→130조2476억 원)으로 집계됐다. 종류별로는 올해 들어 5대 은행의 주택담보대출(전세자금대출 포함)이 5.09%(473조7849억→497조8958억원), 신용대출이 10.14%(117조5013억→129조4215억원) 불었다. 특히 전세자금대출이 9개월여 만에 105조2127억 원에서 121조7112억원으로 15.68% 늘었다.대출 문턱 높이는 은행권 이처럼 가계대출 증가세가 꺾이지 않자 은행들은 대출 문턱을 높이고 있다. 하나은행은 15일부터 전세대출 한도를 ‘임차보증금(전셋값) 증액 범위 내’로 제한하기로 했다. 전셋값이 1억 원 올랐으면 1억 원 내에서만 대출을 받을 수 있다는 얘기다. KB국민은행과 우리은행은 최근 지점별로 대출 한도를 정해놓고 한도가 바닥나면 해당 지점의 추가 대출을 중단하도록 했다. 5일 출범한 토스뱅크의 경우 영업 개시 일주일도 되지 않아 대출잔액이 전체 대출 한도의 60%인 3000억 원에 육박한 것으로 알려지면서 조만간 대출 중단이 불가피해 보인다. 금융권에서는 이런 강력한 조치에도 가계대출 속도가 충분히 떨어지지 않을 경우, 은행들이 속속 신규 가계대출을 연말까지 중단할 것이라는 전망이 나오고 있다. 8월 NH농협은행이 주택담보대출 등 부동산 관련 신규 대출을 전면 중단한 데 이어, 카카오뱅크가 8일부터 고신용자 대상 신용대출, 일반 전·월세보증금대출, 직장인 사잇돌대출 등의 신규 대출을 중단한 것이 대표적 예다. 이 같은 무차별적인 대출 규제에 대해 실수요자들의 아우성이 커지고 있는 상황이다. 특히 부동산 잔금 납부를 앞뒀거나 전세 세입자 등 대출 수요자들은 발만 동동 구르고 있다. 11월 이사를 앞둔 직장인 A씨(34)는 “지난주 집 매매 가계약을 했고 11월 잔금을 치러야 하는데 전세자금대출이 막혀 큰일이다. 은행에서는 11월 초에 한도를 알아보고 연락을 준다는데 어디서 융통을 해야 하나 막막하다”고 토로했다. 청와대 국민청원 게시판에는 ‘생애최초 주택구입 꿈 물거품 집단 대출 막혀 웁니다’, ‘전세대출 규제 제발 생각해주세요’ 등 대출 규제와 관련한 청원들이 줄을 잇고 있다.은행권의 한 관계자는 “집값, 전셋값 상승으로 주택담보대출, 전세자금대출 수요는 기본적으로 계속 늘어날 수밖에 없다. 이런 상황에서 한 은행이 강하게 가계대출을 줄이면, 풍선효과 탓에 다른 은행들로 수요가 몰려 경쟁적으로 대출을 축소하다가 결국 가계대출을 한시적으로 중단할 수밖에 없을 것”이라고 전망했다.정정욱 기자 jjay@donga.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2021.10.13.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>한도 높은 인뱅 찾았는데…대출금리도 높네</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004982326?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>은행 대출 제한에 인뱅 찾는 대출 수요자 늘어높은 금리에 쏟아지는 불만…'울며 겨자먹기' 신세국내 굴지의 대기업에 재직 중인 한영훈(45·가명)은 최근 신용한도대출(마이너스통장)을 개설하려다 깜짝 놀랐다. 가계부채 규제에 따른 대출 한도 축소와 이자 부담 증가라는 ‘이중고’를 몸소 체험했기 때문이다. 고액 연봉자인 한 씨는 1억원 정도의 마이너스통장 개설을 목적으로 했지만, 주요 시중은행 한도가 모두 5000만원으로 축소된 탓에 인터넷전문은행을 찾았고 결국 시중은행보다 1%포인트나 높은 4%대 금리로 대출을 받게 됐다.가계부채 총량한도 관리에서 비교적 자유로운 인터넷은행으로 대출 수요자의 관심이 쏠리고 있다. 주요 시중은행들이 한도를 일괄적으로 대폭 축소하고 나선 것에 따른 풍선효과다. 다만 인터넷은행의 대출 금리가 시중은행에 비해 눈에 띄게 높아 이자 부담이 커진 것은 차주 입장에서 큰 부담으로 작용한다는 분석이다.13일 금융권에 따르면 시중은행의 잇따른 대출 제한으로 대출 수요자들이 인터넷은행으로 쏠리는 ‘풍선효과’가 더욱 뚜렷해지고 있다.가장 대표적인 곳은 지난주 출범한 토스뱅크다. 영업 개시 나흘 만인 지난 8일 기준 연간 대출한도 5000억원의 60%(3000억원)를 소진한 것으로 알려졌다. 토스뱅크 가입을 대기하는 인원은 현재 120만명에 달하고 있고 현재 속도를 감안할 때 출범 일주일여 만에 대출 영업이 중단될 것이란 분석도 나온다.이는 출범 효과로 총량규제를 적용받지 않아 다른 곳에 비해 대출이 비교적 쉽다는 점이 꼽힌다. 토스뱅크의 마통 한도는 최대 1억5000만원에 달한다.올해부터 정상 영업을 시작한 케이뱅크도 대출 수요자들 사이에서 인기가 높다. 총량 규제에서 비껴 서 있어 아직 대출 여력이 상당한 것으로 평가된다. 케이뱅크는 지난 2일부터 마통 한도를 기존 1억5000만원에서 1억원으로 줄였지만 주요 시중은행에 비해 아직도 2배나 높은 한도를 자랑한다.반면 카카오뱅크는 상황이 다르다. 올해 상반기부터 이미 상당한 풍선효과가 발생한 탓에 이달들어 대출 문턱을 아예 닫은 상태다. 다만 고신용자 대출을 줄이는 대신 중금리대출 취급 확대에 주력하고 있다.문제는 이처럼 인터넷은행에 대출 수요자들이 몰리고 있지만 ‘높은 금리’를 둘러싼 불만이 쏟아지고 있다는 점이다. 인터넷은행의 경우 지점과 인건비 등에서 시중은행에 비해 고정비 절감이 큰데 소비자에게 이자 부담을 과하게 전가하고 있다는 지적이다.은행연합회에 따르면 케이뱅크·카카오뱅크가 지난 8월 취급한 마통 평균 금리는 각각 3.91%, 4.29%로 집계됐다. 이는 5대 시중은행 평균 금리(약 3.5%) 보다 0.4%포인트에서 0.8%포인트 높은 수치다. 마통 최저금리 3.26%를 제시한 토스뱅크 역시 대부분의 차주가 4~5%대 금리를 적용받은 것으로 전해진다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2021.10.08.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>토스, 타다 전격 인수…모빌리티 사업 진출</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012649954?sid=105</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>타다 운영사 지분 60% 인수…"결제 사업과 시너지 기대"[연합뉴스 자료사진]    (서울=연합뉴스) 홍지인 기자 = 핀테크 서비스 토스가 타다를 전격 인수하고 모빌리티 시장에 진출한다.    토스 운영사 비바리퍼블리카는 쏘카가 보유한 타다 운영사 VCNC 지분 60%를 인수하기로 하고 3사 간 양해 각서(MOU)를 체결했다고 8일 밝혔다.    타다는 현재 개인·법인 택시 플랫폼 가맹사업 '타다 라이트'를 운영 중이다. 승합차 호출 서비스를 2018년 선보이며 이름을 알렸으나, 지난해 4월 이른바 '타다 금지법'으로 불린 여객자동차운송사업법 개정을 계기로 서비스를 중단했다.    토스는 "타다 인수를 통해 토스 결제 등 금융 비즈니스의 외연을 확장하고 모빌리티 서비스 이용자와 산업 종사자의 선택폭을 넓힘으로써 건전한 성장과 혁신을 이어간다는 전략"이라고 밝혔다.    양사는 타다가 신주를 발행하면 토스가 인수하는 방식으로 이달 중 주식 인수 계약을 마무리할 계획이다.     회사 관계자는 "토스가 투자한 금액은 모두 타다의 성장을 위해 쓰여질 예정"이라고 말했다.     타다 브랜드와 이정행 대표는 그대로 유지된다.    토스 이승건 대표는 "국내 택시 시장 규모는 연간 매출액 기준 약 12조 원에 달하고 절반 정도가 호출 앱을 통해 이뤄지고 있다"며 "토스의 결제사업 등 여러 금융서비스와 시너지가 기대된다"고 말했다.    박재욱 쏘카 대표는 "금융 혁신을 주도하고 있는 토스와 손잡고 새로운 도전에 나서게 됐다"며 "토스와 함께 기존 산업간 경계를 넘어서는 혁신적인 서비스를 선보여 새롭게 도약하고자 한다"고 말했다.토스[비바리퍼블리카 제공]    ljungberg@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2021.10.07.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>김연경 선수 ·이승건 대표 '포니정 영리더상' 수상</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004720071?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>만 40세 이하 젊은 혁신가 응원포니정재단 상금 5000만원 수여  포니정재단은 우리 사회의 젊은 혁신가에게 수여하는 제2회 '포니정 영리더상' 수상자로 김연경 배구선수와 이승건 비바리퍼블리카 대표를 선정했다.   김철수 포니정재단 이사장은 "포니정재단은 우리 사회에 미래 지향적 방향을 제시하고 있는 만 40세 이하 젊은 혁신가를 응원하는 포니정 영리더상을 수여하고 있다"며 "지난해 제1회 수상자로 유통업계에 혁신적인 서비스를 도입한 마켓컬리의 김슬아 대표를 선정한 데 이어, 올해 제2회 수상자로 김연경 배구 선수와 이승건 비바리퍼블리카 대표를 선정했다"고 7일 밝혔다.   김 이사장은 "김연경 선수는 한국 배구를 넘어 세계적으로 인정받는 실력과 함께 리더십을 갖추어 청년 세대의 귀감이 되며, 이승건 대표는 국내 최대 핀테크 서비스인 토스(Toss)를 통해 기존에 없던 핀테크 분야를 개척한 놀라운 혁신을 보여줬다는 게 선정 이유"라며 축하 인사를 전했다.   김연경 선수는 1988년생으로 2004년부터 청소년 국가대표로 발탁된 이후 계속해서 정상의 자리를 지키며 한국 배구의 새 역사를 쓰고 있다. 올해 개최된 2020 도쿄올림픽에서도 한국 여자배구 4강을 이끈 주역으로서 보여준 다정하고 에너지 넘치는 리더십도 화제가 되면서 젊은 세대에게 새로운 리더로 주목받고 있다.   국내 최대 핀테크 서비스인 토스를 제공하는 비바리퍼블리카의 이승건 대표이사는 1982년생으로 서울대 치의학과를 졸업 후 안정적인 치과의사 생활을 포기하고 새로운 창업 시도를 거듭해 온 일화로 유명하다. 특히 8번의 창업 시도 끝에 2015년 탄생한 토스는 국내에 없던 간편송금 서비스로 핀테크, 나아가 금융 업계 전반을 혁신한 사례로 꼽히고 있으며, 현재는 월 사용자 1400만명에 달하는 국내 1위 모바일 금융 플랫폼으로 거듭났다.   한편 포니정 영리더상은 젊은 혁신가를 응원하기 위해 지난해 신설된 제2의 포니정 혁신상이다. 현대자동차 설립자인 '포니정(PONY 鄭)' 고 정세영 HDC그룹(전 현대산업개발) 명예회장의 혁신과 도전 정신을 이어가기 위해 우리 사회에 긍정적인 변화를 일으킨 만 40세 이하의 혁신가 2인을 선정해 상금 5000만원과 상패를 수여하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2021.10.12.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>핀테크 대출 플랫폼, 이번엔 금융당국 대출총량규제에 '식은땀'</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005650548?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>카페 토스 등 10개사 대출모집인 등록으로 금소법 규제 넘었지만금융권 대출문턱 계속 높아져 대출실행률 낮아져…수수료 수익↓© News1 최수아 디자이너(서울=뉴스1) 서상혁 기자 = 대출모집인 자격을 획득하면서 금융소비자보호법 규제에서 자유로워진 핀테크 대출비교 플랫폼들이 이번엔 금융당국의 '대출총량규제' 벽을 만났다. 이들 업체는 플랫폼을 통해 대출이 성사되면 받는 수수료를 주된 수익원으로 삼는데, 금융권의 대출 문턱이 갈수록 높아지고 있어서 영업난이 불가피한 상황이다.대출비교플랫폼이란 은행, 저축은행, 카드, 캐피탈 등 금융회사의 신용대출, 전세자금대출, 주택담보대출 등 상품의 금리를 비교해주는 서비스를 말한다. 플랫폼에 연소득 등 기본적인 정보만 입력하면 각 금융사 홈페이지나 영업점을 방문하지 않아도 각 사의 조건을 비교할 수 있다. 카카오페이, 토스, NHN페이코, 뱅크샐러드, 핀크 등 12개 핀테크 업체가 관련 서비스를 제공하고 있다. 12일 금융권에 따르면 현재까지 금융당국에 판매대리·중개업자(대출 모집인)로 등록한 핀테크 업체는 토스, 카카오페이, 마이뱅크, 뱅크샐러드, NHN페이코, 핀다, 핀크, 팀윙크, 한국금융솔루션 등 10개사인 것으로 알려졌다. 금융소비자보호법(금소법) 계도기간이 지난달 24일 끝나면서 금융당국에 판매대리·중개업자로 등록한 업체만 대출 상품을 중개할 수 있다. 이들 10개 업체는 대출 중개와 관련해 금소법 규제에서 자유로워진 것이다. 그런데 이번엔 금융당국의 고강도 가계대출 규제가 이들 업체에 악재로 떠올랐다. 금융권이 턱밑까지 차오른 대출 한도를 관리하기 위해 대출 문턱을 계속 높이고 있어서 대출비교플랫폼을 통한 대출 실행률은 갈수록 떨어지고 있다. 하나은행과 경남은행은 아예 대출비교플랫폼을 통한 연계대출 접수를 중단했다.KB국민·신한·하나·우리·NH농협 등 5대 은행의 지난 7일 기준 가계대출 잔액은 703조4416억원으로 집계됐다. 지난해말 670조1539억원 대비 4.96% 증가했다. 연말까지 대출여력은 금융당국이 정한 증가율 하한인 5%까지 약 2200억원, 상한인 6%까지는 6조9216억원에 불과한 상황이다. 이들 플랫폼 업체의 의존도가 높은 2금융권의 대출 여력도 얼마 남지 않았다. 대출비교플랫폼은 평균 26개 금융회사와 제휴를 맺고 있는데, 이중 저축은행 등 2금융권의 비중이 80%에 달한다.핀테크업계 관계자는 "보통 플랫폼 수수료는 '금리연계형'이라 고금리 상품일수록 수수료를 많이 받는다"며 "고금리 업권이 대출을 조이고 있어 수익에 영향이 클 것"이라고 말했다. 또 다른 관계자는 "대출을 알아보기 위해 플랫폼에 접속하는 이용자들을 다른 금융 서비스로 유도하는 전략이 필요해 보인다"고 했다.저축은행의 경우 9월 셋째주 기준 가계대출 잔액이 지난해말 대비 18% 늘었다. 총량 목표치인 21.1%까지 약 9000억원 밖에 한도가 남지 않았다. 올해 상반기 기준 총량 목표치를 초과한 저축은행은 전체 79개사 중 19개사이며 나머지 업체들도 풍선효과를 차단하기 위해 문턱을 높일 수밖에 없다. 금융당국은 이르면 이번주중 '가계부채 보완대책'을 발표할 예정이다. 현재로선 갚을 능력 범위내에서 빚을 지게 하기 위해 총부채원리금상환비율(DSR)의 규제 강도를 높이는 방향이 유력하다. 현행 60%인 2금융권 차주별 DSR 비율을 은행권과 동일한 40%로 낮추거나 DSR 산정 시 전세자금대출도 포함시키는 내용 등이 거론된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>'신용 최대 2.7억·마통 1.5억'…토스뱅크 본격 출항</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000004059?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>[포토]사전신청 100만명 순차 오픈토스뱅크가 공식 출범하는 5일 오전 서울 역삼동 토스뱅크에 한 직원이 업무를 보고 있다./사진=이명근 기자 qwe123@제3호 인터넷전문은행인 토스뱅크가 5일 공식 출범했다. 카카오뱅크와 케이뱅크에 이어 세 번째로 출범하는 인터넷은행이다.토스뱅크는 지난달 서비스 사전 예약을 통해 가입 기간, 예치 금액 등에 관계없이 연 2% 이자를 주는 수시입출금 통장을 선보였다. 사전 신청자가 100만명을 넘어서며 관심을 받고 있다.토스뱅크가 공식 출범하는 5일 오전 서울 역삼동 토스뱅크 사무실에서 첫 회의를 알리는 문구가 보이고 있다./사진=이명근 기자 qwe123@토스뱅크는 이날부터 토스 어플리케이션(앱) 안에서 뱅킹서비스를 시작, 예금을 받고 대출을 내준다.앞서 토스뱅크는 신용대출 금리를 연 2.76~15%로 잡고 최대 대출한도를 2억7000만원으로 공지했다. 마이너스통장 금리는 연 3.26~13.1%, 한도는 최소 100만원에서 최대 1억5천만원이다. 공식출범하는 토스뱅크/사진=이명근 기자 qwe123@최근 시중은행과 인터넷은행들이 신용대출 한도를 연소득 이내로 줄이고 대출금리를 속속 올리는 상황에서 유리한 대출 조건이라는 평가다.토스뱅크는 신생 은행인만큼 금융당국의 고강도 가계대출 규제에선 제외될 것으로 예상된다. 제3호 인터넷전문은행 토스뱅크 5일 공식 출범/사진=이명근 기자 qwe123@분주한 토스뱅크/사진=이명근 기자 qwe123@/사진=이명근 기자 qwe123@</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2021.10.10.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>토스, 타다 인수로 12월부터 우티와 택시호출 2·3위 경쟁</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012649222?sid=105</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>토스 "가맹택시에 집중"…1위 카카오T와는 격차 커모빌리티 플랫폼 업계 (PG)[권도윤 제작] 일러스트    (서울=연합뉴스) 채새롬 기자 = 카카오모빌리티가 독주해 온 국내 모빌리티 업계에 경쟁의 전운이 감돌고 있다.    최근 금융 플랫폼 토스가 모빌리티 스타트업 '타다'를 인수해 이 업계에 뛰어들었으며, 연말에 새로 출범하는 우버·티맵모빌리티의 합작사 '우티'도 고객 확대에 적극적으로 나설 전망이다.    10일 업계에 따르면 토스 운영사 비바리퍼블리카는 쏘카가 보유한 타다 운영사 VCNC 지분 60%를 인수하기로 했다. 토스는 12월 중 타다 서비스를 리뉴얼해 선보일 계획이다.     현재 국내 모빌리티 시장은 카카오가 사실상 장악하고 있으며, 2위인 우티나 3위인 타다와 큰 격차를 유지하고 있다. 빅데이터 분석 플랫폼 모바일인덱스에 따르면 올해 8월 기준 택시 호출 앱의 월간활성이용자수(MAU)는 카카오T가 1천16만명이었고, 우티는 86만명, 타다는 9만명이었다.     1위는 물론이고 2위와도 큰 차로 뒤지고 있는 타다를 인수키로 한 토스는 모빌리티 시장에서 적극적으로 경쟁하기보다 토스 결제 등 금융 사업의 외연을 확장하겠다는 입장을 공식적으로 내놓고 있다.    하지만 의미있는 성과를 위해 시장점유율을 확보하는 것이 필수적인 만큼, 공격적인 프로모션으로 사용자를 늘리려는 시도를 할 수밖에 없을 것으로 예상된다.    토스는 당분간 타다 브랜드와 앱을 그대로 유지한 채 플랫폼의 가맹사업을 확장하는 데 주력할 계획이다. 카카오모빌리티·우티처럼 중개 사업이나 대리운전 시장에 진출하는 것은 고려하고 있지 않다고 설명했다.     토스는 서울지역 기준 콜 발생시 5분내 배차를 목표로 삼고 있다. 이를 위해 인수 직후부터 운행 대수 확대에 집중할 것으로 보인다. 토스증권이 첫 계좌개설 고객에게 주식 1주를 지급하는 이벤트로 폭발적 반응을 얻었던 것처럼 소비자 대상 대규모 프로모션도 진행할 것으로 전망된다.     토스 관계자는 "타다가 승차 경험의 질을 바꿨다는 평가를 받아왔는데, 서비스 질을 유지하기 위해 가맹사업을 늘리는 것에 집중하려고 한다"며 "기사와 이용자 모두 기존 업체와 다르다고 느낄 수 있는 혜택을 준비하겠다"고 말했다.    기존 업체인 카카오모빌리티와 우티는 토스의 등장에 긴장하는 모양새다.     특히 통합 앱 출시를 앞둔 우티는 발등에 불이 떨어졌다.     우티는 연내 출시할 우버와 티맵모빌리티 통합 앱의 베타 테스터를 이달 말까지 운영 중이다.     베타테스터는 서울 내 이동 시 우티 앱으로 결제되는 택시 요금을 30% 할인받는다. 우티 역시 그동안 확보한 투자액을 바탕으로 통합 앱 출시 시점에 맞춰 프로모션 공세를 펼칠 것으로 예상된다.     업계 관계자는 "토스는 여러 분야에서 공격적인 프로모션을 하는 것으로 유명하다"며 "젊은 세대가 많이 사용하는 토스 결제와 타다의 시너지가 있을 것으로 예상돼 모빌리티 시장 영향을 예의주시하고 있다"고 말했다.    업계 다른 관계자는 "그동안 모빌리티 시장 플레이어가 카카오, 티맵밖에 없다시피 했는데 토스가 뛰어들면서 업계가 활성화될 것으로 기대된다"며 "이용자 입장에서도 선택권이 확대돼 긍정적일 것"이라고 말했다.    srchae@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2021.10.10.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>116만명 줄섰는데…토스뱅크, 예금도 막힐 판</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004614496?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>'年 2% 통장' 못 받을 수도총량규제로 대출한도 60% 소진 신용대출 막힐땐 '역마진' 불가피영업중단 여부, 금융당국에 달려토스 "금융위와 협의 지속할 것"당국 "가계대출 규제엔 예외 없어"‘3호 인터넷은행’ 토스뱅크가 사전 신청자를 대상으로 단계적으로 진행해오던 연 2.0% 금리의 수시입출금식 예금통장 발급을 조만간 중단할 수밖에 없다는 전망이 나오고 있다.금융당국의 가계대출 총량규제로 출범 1주일 만에 ‘대출 올스톱’ 위기에 놓였기 때문이다. 대출이자로 수익을 내지 못하는 상태에서 예금이자 부담만 더 늘면 토스뱅크의 건전성에 큰 문제가 생기게 된다. 즉 금융당국이 토스뱅크의 가계대출 한도를 추가로 늘려주지 않는 한 하염없이 대기 중인 사전 신청자 116만여 명의 상당수가 연말까지도 계좌를 개설하지 못할 것이란 관측이다. 사전 신청자 116만여 명 대기 중10일 토스뱅크에 따르면 이날 오전 11시 현재 대기 중인 수시입출금식통장 사전 신청자 수는 116만여 명에 달하는 것으로 집계됐다. 지난달부터 받은 사전 신청자 150만 명 중 40만 명이 토스뱅크의 수시입출금식 통장을 이용 중이다. 이 통장은 납입한도·기간 등 조건 없이 하루만 맡겨도 2금융권 정기예금 수준인 연 2.0%의 금리를 주는 파격적인 혜택으로 화제를 모았다.토스뱅크의 사전 신청자 수는 출범 전날인 지난 4일 106만 명에서 최근 150만 명까지 불어났다. 이에 토스뱅크는 출범 첫날에만 15만 명의 사전 신청자가 계좌를 열었다. 당초 전원에게 출범 첫날 서비스를 할 예정이었지만 가계대출 총량규제를 적용받으면서 순차적으로 서비스하게 됐다는 설명이다. 그나마 추가 발급량도 점차 줄어드는 추세다.연 2.0% 수시입출금식 통장은 지난달 출시를 예고했을 때부터 은행권에서 지속가능하지 않다는 지적을 받았다. 대출은 만기가 정해져 있는 반면 수시입출금식 통장은 언제든 빠져나갈 수 있는 자금이기 때문에 유동성 관리가 어렵다는 이유에서다. 또 대출금리는 1금융권 수준이지만 예금금리는 2금융권 수준이어서 ‘역마진’이 날 것이란 우려도 나왔다. 토스뱅크는 자체 개발한 신용평가모델로 금리가 상대적으로 높은 중저신용대출 비중을 다른 은행에 비해 높게 가져가면서 발생한 이자이익을 고금리 예금상품으로 돌릴 계획이었다. 실제 토스뱅크가 당국에 약속한 연말 중저신용대출 비중은 34.9%로 카카오뱅크나 케이뱅크보다 높다. 앞서 나간 대출액 가운데 25% 이상은 중저신용대출로 알려졌다. 다음주 대출 중단…예금도 뒤따를 듯문제는 가계대출 총량규제로 중저신용대출조차 한도가 바닥나고 있다는 점이다. 지난 8일 기준 토스뱅크가 신규 취급한 신용대출 잔액은 3000억원으로 당국이 요구한 총액(5000억원)의 60%에 달한다. 이 속도라면 다음주 초부터 더 이상 대출을 내줄 수 없게 될 전망이다. 토스뱅크가 사전 신청자를 대상으로 계속 계좌를 개설하면 대출금리로 얻는 수익 없이 예금이자만 비용으로 부담하게 된다. 연 2.0% 금리 수시입출금식 통장 발급도 중단할 것이란 전망이 유력한 이유다.납입한도가 없다는 점도 토스뱅크로서는 부담이다. 앞서 통장을 개설한 기존 고객이 계좌에 거액을 입금하면 예금이자를 내주는 부담도 함께 커진다. 토스뱅크는 정식 출범 전 신청을 마친 100만 명가량의 사전 신청자에게 가급적 이달 내 서비스를 하겠다고 밝힌 바 있다. 토스뱅크 측은 “계획대로 고객들에게 서비스를 열 수 있도록 당국과 협의를 지속할 것”이라고 밝혔다.토스뱅크의 영업 중단 여부는 사실상 금융당국이 결정권을 쥐고 있다는 지적도 나온다. 토스뱅크는 비중이 높은 중저신용자 대출에 한해 가계대출 총량규제에서 제외해달라고 요청하고 있지만 당국은 여전히 “토스뱅크의 안타까운 처지는 이해하지만 가계부채 관리에 예외는 없다”며 강경한 입장인 것으로 전해졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2021.10.07.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>[이슈분석] 대출규제, 실수요자도 예외없다…가상자산 과세도 유예없다</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000259999?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>■ 경제와이드 모닝벨 '이슈분석' -  이정환 한양대 경제금융대학 교수어제(6일) 기획재정부와 금융위원회에 대한 국정감사가 진행됐습니다. 단연 화두를 꼽자면 가계부채 관리와 가상자산 시장 규제였는데요. 가계부채 저승사자를 자청한 고승범 금융위원장은 국감에서도 강도 높은 대출규제 의지를 다시 드러냈습니다. 홍남기 부총리는 가상자산 세금 유예 없고 내년부터 부과하겠다는 입장 재확인했습니다. 전문가와 함께 금융권 국감 이슈 살펴보겠습니다.Q. 올해 국정감사는 대장동 이슈가 장악했다고 해도 과언이 아닐 것 같습니다. 거의 모든 상임위에서 대장동 특혜 논란을 놓고 여야가 충돌하고 있는데요. 어제 기재부 국감에서는 대장동 사업과 관련해 적법하게 세금이 납부됐는지가 도마 위에 올랐습니다. 어떤 이슈라도 대장동 공방과 연결 짓고 있어요. 이런 상황 어떻게 보시나요?- 국정감사 사흘째, 상임위 곳곳 '대장동 특혜' 충돌- 금융위·기재부 국감서 대장동 쟁점…개발 이익 논란- 홍남기 "용인하기 어려운 이익은 사회적 공감 안 돼"- 부동산 개발 이익 제한 지적에 "보조 장치 검토 가능"- 野, 대장동 관련 개인·법인 적법 납세에 의문 제기- 홍남기 "국세청, 다른 사례와 비교 관찰하고 있을 것"- 세금회피용 개인유사법인 과세제도 도입 필요성 강조- 홍남기 "세금 회피하기 위한 1인 주주 법인 우후죽순"Q. 가계대출과 관련해 고강도 조이기를 예고하고 있는 고승범 금융위원장이 국감에 처음 출석했는데요. 전날 홍남기 부총리가 이달 초순에 가계부채 관리 방안이 나오게 될 거라고 예고한 것에 이어 추가 가계부채 관리대책을 마련 중이라고 밝혔어요. 지금은 가계부채를 어떻게 억제할지보다는실수요자들과 서민들의 피해를 어떻게 줄일지가 주가 돼야 할 텐데요. 고 위원장은 실수요자 대출이 별도로 있지 않다는 입장인 것 같아요?- 금융위, 정무위에 업무보고…금융위 본격 국감 돌입- 코로나 장기화, 서민·소상공인 경제 어려움 가중 호소- 고승범 "가계부채, 세계에서 가장 빠른 수준 증가세"- 가계부채, 경제·금융 위험요인 작용 우려에 대응 중- 6%대 가계부채 증가율 관리 노력…"추가대책 마련 중"- 실수요자도 상환 범위 내 대출 제한 필요성 강조- 고승범 "가계부채 늘어나는 것 대부분 실수요자 대출"Q. 고 위원장은 담보가 확실한 전세보증금 대출까지도 막아야 한다는 입장인데 반발이 상당할 것으로 보여요?- 전세대출·집단대출 제한 필요성 질문에 고승범 "네"- 고승범 "전세·집단대출, 실수요자 보호 들여다볼 것"- 가계대출 규제 관련 불만 지적…"향후 문제 커질 것"- 與 "내 담보로 대출하겠다는데 실수요자 불만 많아"- 고승범 "노력하지 않으면 정부 목표치 달성할 수 없어"- 코로나發 완화 정책에 가계대출 폭증…증가세 지속- 실수요 보호·가계부채 동시 관리 위해 보완대책 마련- 고승범 "가계부채 관리 강화 추세는 계속 가져갈 것"Q. 한동안 하향하던 가상자산 시장이 이번 주 들어 다시금 움직이고 있습니다. 특금법이 본격적으로 개시하면서 빅4 거래소를 제외한 나머지 거래소들은 한화마켓이 닫히거나 아예 폐업 수순을 밟고 있습니다. 시중은행에서 책임 부담에 실명계좌를 내주지 않기 때문인데요. 야권에서는 거래소 문턱을 낮춰야 한다는 목소리가 큽니다. 하지만 고 위원장은 은행 책임은 당연하다는 입장이에요?- 다시 움직이는 가상자산…비트코인 6600만 원 선 돌파- 美SEC, 파월 의장에 이어 "가상자산 거래 금지 안 해"- 겐슬러 "美, 中과 같은 가상자산 금지 조치 안 할 것"- 글로벌 증시 '덜컥'…가상자산 시장으로 유동성 '무브'- 가상자산 자금세탁 관련 실명계좌 심사 은행 역할 강조- 실명계좌 거부로 거래소 줄폐업…투자자 피해 우려- 고승범 "코인마켓 거래소, 요건 갖추면 원화 거래 가능"- 명확한 지침 없는 금융당국…은행에 책임 전가 지적- 고승범 "실명계좌 발급은 국제 기준…바꿀 순 없어"- 빅4 거래소 독과점 우려…"업권법 논의 적극 참여할 것"Q. 내년부터 가상자산에 대한 소득세가 과세됩니다. 정부가 가상자산의 금융 가치는 인정하지 않으면서 제도권으로 묶어두는 것에 대해 논란이 많지만 계획대로 과세를 시작한다는 방침입니다. 그런데 기본 공제 금액을 두고 주식과 형평성 문제가 제기되고 있어요. 반면 투자자에 대한 보호는 전무하다는 지적이에요?- 내년 1월부터 가상자산 양도차익 20% 소득세 부과- 연 250만 원 이상 가상자산 양도차익 기타소득 분류- 내년 1월 가상자산 과세 계획…홍남기 "유예 어려워"- 가상자산 관리시스템 불안정…일부, 과세 유예 주장- 野 "소득 있는 곳에 과세 동의…국민 자산 보호 먼저"- 홍남기 "법적 안전성·정책 신뢰성 등에 유예 어려워"Q. 이번 국감 전체 키워드 중 하나가 플랫폼입니다. 금융권에서도 플랫폼 문제가 자유로울 수는 없는데요. 중금리 대출 등과 함께 혁신을 기대했던 인터넷 뱅킹이 결국 시중은행과 다를 것 없지만 규제에서는 자유롭다는 지적은 계속되어 왔습니다. 어제 토스뱅크가 출범했는데 번호표 논란도 있었고요. 더불어 네이버와 카카오와 같은 빅테크 기업의 금융 진출 확대 논란 역시 도마 위에 올랐어요?- 토스뱅크 5일 출범…인터넷 전문은행 혁신성 도마 위- 토스뱅크 번호표 논란…사전신청 110만 명 순차 서비스- 사전신청에 친구 초대 시 순위 조정…새치기 논란- 野 "인터넷은행, 번호표 없어야…토스뱅크 줄세우기"- 인터넷은행 4년째…중신용자 중금리대출 효과 '미비'- 인터넷은행 도입에 금융권 메기효과·일자리 확대 기대- 3년간 시중은행 영업정 300곳 이상 폐점…일자리 축소- 野 "인터넷은행이 거꾸로 시중은행 잡아먹는 공룡돼"- 고승범 "중금리대출 기대 못 미쳐…보호자 보호 고민"- 빅테크의 금융업 논란…'동일 기능 동일 규제' 재확인- 고승범 "빅테크 금융업 진출, 금융 안정 차원서 고려"Q. 큰 이슈가 되지 못하고 있지만 증권 관련 최대 화두 중의 하나가 라임, 옵티머스 등 사모펀드 환매 중단사태입니다. 아직도 후속조치가 제대로 이뤄지지 않고 있으면서 자칫 수많은 피해자만 양산한 채로 끝나는 것 아니냐는 우려의 목소리가 큰데요. 금융회사가 내부통제를 소홀히 한 것을 두고 제재하고 있는데 이게 적절한지 얘기들이 많아요? 고 위원장이 즉답은 피했어요?- 증권 관련 최대 화두는 사모펀드 환매 중단 사태- 고승범 "금융회사 내부통제 제도, 실질 작동 방법 고민"- DLF 대량 손실·사모펀드 사태 등에 내부통제 문제 대두- 금융위 업무자료, 피해자 보상 등 사모펀드 관련 최대- 3월부터 청약철회권·설명의무 등 금소법 제정·시행- 분조위 사모펀드 수습 공정성 논란…중립성 확보 필요Q. 대장동 이슈에 묻히다 보니 올해 금융권 관련 국감에 시중은행들 CEO의 일반증인 채택이 거의 불발됐습니다. 거의 유일하게 지난해에 이어 올해도 윤종원 IBK기업은행장이 증인석에 서게 되는데요. 향후 일정과 마지막 종합감사 등에 증인 채택이 아예 불가능한 건 아니지만 금융권에서는 안도하는 분위기입니다. 맹탕국회 논란을 피할 수 없을 듯 보여요?- 시중은행장 국감 증인 명단 제외…금융권 안도 한숨- 일부, '사모펀드 사태' 등에 금융권 증인 카드 '만지작'- 사모펀드- 우리 손태승·가상자산- NH 권준학 등 신청- 윤종원, 작년 이어 올해 국감 출석…15일 정무위 예정- IBK, 디스커버리 핀테크 글로벌 채권 펀드 투자자 갈등- 윤종원, 작년 국감서 "불완전 판매책임 회피하지 않아"- '금융사 CEO' 빠진 금융권 국감…맹탕 감사 우려도(자세한 내용은 동영상을 시청하시기 바랍니다.)[네이버에서 SBS Biz 뉴스 구독하기!]https://media.naver.com/channel/promotion?oid=374</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2021.10.06.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>‘팽창 가속’ 수도권 ‘소멸 직전’ 지방, 두 번째 분단 [절반의 한국 ①]</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003101929?sid=102</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>[경향신문] 프롤로그지난달 3일 경기 용인시 광교산 정상에서 내려다본 판교테크노밸리(가운데)가 어둠에 싸인 산등성이와 뚜렷하게 대비된다. 판교는 스타트업들의 ‘남방한계선’으로 통한다. 사진 아래 태봉산 기슭의 송전탑들이 마치 전방 철책처럼 보인다. 권도현 기자국가균형발전 정책 시행 20년 청년 일자리·주거 집중 더 심화판교·기흥이 ‘취업 남방한계선’서울과 경기, 인천 등 수도권 인구가 2019년(2592만5799명)을 기점으로 대한민국 전체 인구(5184만9861명)의 절반을 넘어섰다. 1970년 28.7%이던 수도권 인구 비중은 50년 동안 21.3%포인트 늘어났다. 지역내총생산(GRDP)의 수도권 비중도 52.1%(2020년 현재)였다. 국토 면적의 12.1%에 불과한 수도권이 경제력도, 인구도 비수도권을 앞지르면서 한국은 머리만 과도하게 커진 ‘가분수’가 됐다. 경제협력개발기구(OECD) 국가들(영국 12.5%, 일본 28%)에 비해 수도권 집중도가 압도적이다. 국가균형발전 정책이 시작된 지 20년째, ‘수도권 일극주의’는 오히려 공고화되고 있다.  노무현 전 대통령은 대선 후보 시절이던 2002년 행정수도 건설을 공약했고, 2003년 출범한 국가균형발전위원회를 통해 공공기관 지방 이전, 혁신도시 건설을 추진했다. 하지만 기업정책은 거꾸로 갔다. 2006년 수도권정비계획법 시행령을 풀어 경기 파주에 LG디스플레이 공장을 짓도록 허용했다. 이명박 정부는 본격적으로 수도권 공장 신증설 규제의 빗장을 해제했고, 박근혜 정부는 수도권 규제 대상에서 접경지역(경기 북부)을 뺐다. 문재인 정부도 해외에서 국내로 귀환하는 제조기업의 입지 제한을 풀었다. 균형발전 명목으로 재정 지출은 늘렸지만 정작 일자리를 창출하는 기업들의 수도권 집중은 정부가 방치·조장한 것이다.2010년대 중반 ‘4차 산업혁명’의 구호가 등장하자 ‘비수도권 제조공장, 수도권 연구·개발’이라는 공간분업의 마지노선도 허물어졌다. SK하이닉스가 2019년 경기 용인에 반도체클러스터를 짓기로 한 것은 결정타였다. 그 결과 판교, 기흥에는 DMZ 못지않게 삼엄한 ‘취업 남방한계선’이 그어졌다.정부의 지방분권 정책은 지방의 자강(自彊)을 막는 ‘분할통치’였다. 예산을 쥔 중앙정부가 공모사업을 통해 지자체를 길들이고, 경쟁을 부추겼다. 지역 나눠먹기식 혁신도시 지정 탓에 투입재정 대비 효과는 미미했고, 균형발전은 ‘예산 잡아먹는 하마’라는 편견만 커졌다.  남북 분단보다 수도권 대 비수도권의 ‘두번째 분단’이 이제 한국 사회의 주요 모순이 됐다. 주거, 취업을 비롯해 한국 사회가 당면한 모든 문제들이 이 모순과 연관돼 있다. 판교와 강남은 하루가 다르게 부풀어 오르지만 지방은 영양실조에 걸려 있다. 농어촌은 ‘소멸’위기에, 지방 제조업 도시들은 ‘러스트벨트’화될 조짐이 뚜렷하다. 청년들은 일과 기회를 찾아 수도권으로 몰려들지만, 취업·주거난에 결혼도 출산도 엄두를 못 낸다. 그런데도 정부는 집값이 폭등하는 수도권에 국비 십수조원을 들여 광역급행철도(GTX)를 건설하고 있다. 균형발전의 허울 아래 수도권 팽창정책은 가속화하고 있다. 경향신문 기획취재팀은 위기에 빠진 ‘절반의 한국’ 비수도권의 실태를 10회에 걸쳐 연재한다. 수도권 블랙홀에 빨려 들어가는 지방의 현실, 그로부터 벗어나려는 모색들을 살펴봤다. 판교라는 ‘남방한계선’지난 9월26일 드론으로 촬영한 경기 성남시 판교신도시 전경. 2009년 첫 입주를 시작한 판교테크노밸리는 인재와 자본을 끌어들이며 10여년 만에 ‘대한민국 스타트업 수도’로 성장했다. 서울 강남과 가깝다는 지리적 이점과 ‘4차 산업혁명’의 산업구조 재편이 빚어낸 결과다. 권도현 기자사무직은 ‘판교라인’기술직은 ‘기흥라인’이 취업 마지노선“판교 직장인들의 중고거래 서비스로 출발했으니 판교로 가야 한다고 생각했죠. 처음엔 판교테크노밸리에 공간이 없어 백현동 카페거리 상가 2층에 사무실을 냈습니다. 1층 고깃집의 냄새를 맡으며 1년 반 동안 있었어요. 함께 고기를 굽다 첫 투자 연락을 받았는데 그날 고기 맛이 무척 좋았던 기억이 납니다.”성남 삼평동 판교테크노밸리 강남서 가장 가까운 산업단지‘일+삶터’ 2009년 첫 기업 입주 테헤란밸리 IT 기업들 건너오며‘한국판 실리콘밸리’ 위상 굳혀 중고거래가 ‘국민앱’이 될 거라고 누가 상상이나 했을까. 지역기반 중고거래 플랫폼 ‘당근마켓’은 창업 6년 만에 누적 가입자 2100만명에 추정 기업가치 3조원의 유니콘 기업으로 성장했다. 김용현·김재현 공동대표가 카카오에서 일할 당시 사내 장터에서 착안한 서비스다. “게시판에 중고물품 거래글이 올라왔는데 반응이 뜨거웠어요. 물건이 좋고 가격도 쌌거든요. 사내 거래다보니 믿음도 갔고요.” 정우람 당근마켓 서비스부문 총괄(40)은 당근마켓 6번째 창업 멤버다. “판교신도시가 ‘핫하다’는 이미지가 있어 입소문을 타니 분당, 죽전으로 금방 퍼져나가더라고요.”판교서 성공해 강남으로…정우람 당근마켓 서비스 총괄 창업 초기에는 지방·서울 차이 없지만 성장단계에선 인재 확보가 최우선 개발자가 중시하는 것‘뛰어난 동료’지난 8월 당근마켓은 1789억원의 시리즈 D 투자(스타트업 성장 단계에 따라 시드머니로부터 시리즈 A·B·C·D로 구분)를 유치했다. 임직원 6명은 200여명으로 늘었다. 취업준비생들의 선망의 대상이라는 ‘네카라쿠배당토(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스)’에도 이름을 올렸다. 당근마켓의 현주소지는 강남 교보타워. 지난 8월19일 정씨와 만난 11층 사무실 창문 너머로 강남역 일대가 파노라마처럼 펼쳐졌다. 안락한 라운지에는 편의점 못지않게 군것질거리가 채워져 있다. 간식·식대 무제한, 자유로운 복장과 자율적 근태, 영어 닉네임으로 소통하는 조직 문화까지 스타트업의 전형이다. “개발자들은 뛰어난 동료를 특히 중시해요. 당근마켓은 인재의 밀도도 매우 높다고 자부합니다.” 비싼 임대료를 감수하고 이곳에 자리 잡은 이유가 궁금했다. “강남이 사람을 뽑기 제일 수월해요. 판교만 해도 서울 강북이나 인천이 집이면 출퇴근이 어렵잖아요.” 인재와 자본, 인프라가 몰려있는 수도권, 그중에서도 강남과 판교 말고 어디냐고 물으면 선뜻 답하기 어렵다. “창업 초기에는 지방과 서울 차이가 없겠지만, 성장 단계에선 인재 확보가 최우선이거든요.”‘스타트업 수도’ 판교신분당선 강남역에서 판교역까지 이동 시간은 14분. 강남 한복판을 출발해 청계산 터널 구간의 어둑함에 익숙해질 때쯤 판교역 도착을 알리는 방송이 나온다. 1번 출구로 나오면 판교 테크노밸리. 네이버와 카카오가 입주한다는 초대형 오피스빌딩이 한창 마무리 공사 중이었다. 횡단보도 건너편 판교테크노파크공원에는 번쩍이는 유리 빌딩들이 곧은 도로를 따라 줄지어 있다. 컴퓨터그래픽을 그대로 가져다 놓은 듯한 도시 공간에 반팔티, 반바지에 슬리퍼를 신고 느긋하게 오가는 직장인들이 ‘판교적’인 풍경을 연출한다.“고연봉 IB·컨설팅社도 싫다…‘인재 피라미드’ 맨 위에 스타트업”. 최고 직장으로 꼽히는 투자은행과 컨설팅회사에서 ‘판교’로 이직하는 흐름을 알리는 기사 제목이다. 창의적 업무 분위기에 성장 가능성, 수억·수십억원에 달하는 인센티브가 인재들을 빨아들이고 있다.“판교의 성공요인을 꼽자면 우선 지리적 장점이죠. 강남에서 가장 가까운 산업단지잖아요. ‘워라밸’을 추구하는 젊은 연구 인력들이 판교 아래로는 안 가려고 해요. 가족이 있으면 더 그렇고요.” 판교테크노밸리를 지원하는 경기도경제과학진흥원 연도현 팀장은 허허벌판이던 지난 10년 전부터 판교의 성장을 지켜봤다.  굴지의 대기업과 그 계열사 등 1697개 기업 매출액만 109조원 임직원 7만여명 중 2030이 63% 578억이던 판교공영주차장 부지 13년 만인 올봄 8377억에 매매‘대장아파트’도 30억 잠실 수준“초창기에 한국파스퇴르, GE 등 앵커 기업을 유치한 것이 기틀을 잡는 데 긴요했습니다. 판교 1700개 기업 중 대기업은 60여개입니다. 중소기업과 대기업의 연구·개발(R&amp;D) 협력이 쉽게 이뤄지죠. 공공기관, 관련기업, 투자사 등이 밀집해 있으니 하루에 몇번이고 사람들과 업무미팅을 잡을 수 있는 게 장점입니다.” &lt;직업의 지리학&gt;을 쓴 경제학자 엔리코 모레티가 강조하는 ‘집적효과’가 판교에서 극대화하고 있는 것이다. 집적효과는 우수 인재들이 밀집해 있으면 상호작용을 통해 더 큰 혁신이 일어나는 것을 가리킨다. 모레티가 미국 320개 대도시 노동자 110만명을 분석한 연구에 따르면 첨단기술 일자리가 1개 생기면, 부수적 일자리 5개가 창출된다. 실리콘밸리가 성공한 까닭이자, 세계 주요 도시들이 집값 상승·교통 체증 등 부작용에도 사람과 기업을 모으려는 이유다. 성남시 삼평동 판교테크노밸리는 2기 신도시인 판교신도시의 첨단산업단지로 조성됐다. 베드타운에 그친 1기 신도시와 달리 일터와 삶터를 합친 공간으로 짜였다. 2009년 첫 기업이 입주했고, 2015년 핵심 지원시설인 경기창조경제혁신센터가 문을 열며 사업이 일단락됐다. 강남 테헤란밸리의 IT기업들이 건너오면서 ‘한국판 실리콘밸리’ 위상을 굳혔다. 첨단 제조업이 자리 잡은 경기남부권과도 가까운 입지 조건은 판교의 매력을 높였다.‘2021년도 판교테크노밸리 입주기업 실태조사’에 따르면 입주기업 수는 1697개로 대기업 64개(3.8%), 중견기업 97개(5.7%), 중소기업 1487개(87.6%), 공공기관·협회 49개(2.8%) 순이다. 삼성·SK·한화·포스코 등 대기업의 계열사, 안랩·한글과컴퓨터 등 소프트웨어 업체, 카카오·엔씨소프트·넥슨·스마일게이트·네오위즈·NHN 등 게임업체들에 SK바이오팜·차병원그룹 등 바이오기업이 입주했다. 이들의 매출 합산액은 109조9000억원. 임직원 7만1967명 중 20~30대가 3분의 2에 이른다. 판교의 위상은 부동산에서도 확인된다. 2008년 578억원에 성남시에 팔렸던 판교공영주차장 부지가 올봄 엔씨소프트 제2사옥 부지로 8377억원에 매매됐다. 올여름 판교 ‘대장아파트’라는 판교푸르지오그랑블 집값이 30억원대로 잠실 대표단지 잠실엘스를 넘어섰다는 보도가 나왔다. 집값이 제자리걸음하며 뒷자리 ‘0’ 하나가 차이나는 지방 도시에선 별천지 같은 이야기다.“지난해부터 10년 전매제한이 풀리면서 기업들이 판교를 떠날지도 모른다는 말이 나왔지만, 지금도 공간이 부족해 2판교, 3판교 테크노밸리를 만드는 형편입니다.” 국내 자치단체부터 해외 개발도상국까지 매년 수백명이 판교를 찾는다. 그들의 관심사는 물론 ‘어떻게 제2의 판교를 만들 것인가’이다. “대기업들을 유치할 수 있을지, 특화 산업을 만들어낼지가 관건 아닐까요.” 고삐풀린 ‘수도권 집중’판교의 성공은 ‘4차 산업혁명’으로 산업구조가 재편되는 흐름과도 맞물린다. 10여년 전부터 대기업 인사담당자 사이에선 ‘취업 남방한계선’이라는 조어가 등장했다. ‘명문대를 졸업했거나 우수한 스펙의 취업준비생들이 양재·기흥 이남 근무를 기피한다’는 뜻이다. 최근에는 사무직은 판교까지만 간다고 ‘판교라인’, 기술직 엔지니어는 용인시 기흥이 마지노선이라고 해서 ‘기흥라인’이다. 화성 현대차 남양연구소, 평택 삼성반도체클러스터도 기흥라인에서 멀지 않다. “대기업 지방 근무직은 면접 때 애인이 있다고 하면 뽑지 않는다”는 말이 나온 지도 꽤 됐다. 지방근무를 1년도 못 버티고 퇴사한다는 것이다. 정착하기에는 수도권과 교육, 문화 격차가 크다는 게 기피 사유다.2008년 수도권 규제완화에 물꼬가 트이면서 수도권 집중에 드라이브가 걸렸다. 국내 30대 그룹 중 등기상 본사가 지방인 기업은 포스코(경북 포항), 현대중공업(울산), 카카오(제주), 하림(전북 익산) 4개뿐이다. 삼성중공업, 현대중공업, 두산중공업, SK케미칼, 한화테크윈 등은 이미 판교로 R&amp;D 기능을 옮겼다. 본사와 공장이 경기 이천으로 ‘기흥라인’ 외곽이던 SK하이닉스가 2019년 120조원 규모의 공장을 용인에 짓기로 한 것은 결정타였다. 연구소뿐 아니라 대기업의 제조 공장마저 지방을 떠나 수도권으로 향하게 만든 것이다. 그 결과 판교, 기흥에는 DMZ에 버금가는 ‘취업 남방한계선’이 그어졌다. 수도권이 부풀어 오르며 최근엔 ‘수청권(수도권+충청권)’이라는 말도 등장했다. 제조업 공장들이 경기도 접경인 충청도 북부를 따라 입주하며 수도권의 자장에 편입되고 있는 것이다. 전국의 시야에서 보면 비수도권이 새롭게 성장하는 대신 수도권이 ‘불건전한’ 팽창을 하고 있는 셈이다. 정부는 리쇼어링(제조기업 본국 회귀) 촉진을 위해 국내 복귀 기업에 수도권 부지를 우선 배정하고, 수도권에도 첨단산업이나 연구·개발센터가 옮겨오면 새롭게 각종 혜택을 주기로 했다. 한국의 거의 전 산업을 수도권에 몰아넣을 기세다. 그래픽 | 성덕환 기자 thekhan@kyunghyang.com수도권 블랙홀, 공장마저 빨아들이며 ‘수청권’ 비정상적 팽창국토연구원의 2019년 기업 28만4424곳 분석 결과 연구·개발비 지출을 통해 고용·매출 성장을 함께 달성한 ‘혁신성장기업’은 대부분 서울과 경기도 남부에 몰려 있었다. 남방한계선은 경기도와 인접한 천안 북구였으며, 서쪽은 안산 반월, 동쪽은 성남 중원 사이에 클러스터가 형성됐다. 이를 스타트업으로 좁히면 수도권 집중은 더욱 두드러진다. 스타트업얼라이언스의 ‘2019년 스타트업 주소 분석 트렌드 리포트’에 따르면 10억원 이상 투자를 받은 575개 스타트업 중 90%가 수도권, 80% 이상이 서울, 절반이 강남구·서초구, 3분의 1이 테헤란밸리 부근에 있다. 강남-판교-지방으로 이어지는 위계가 뚜렷하다. 2008년 수도권 규제완화 ‘물꼬’ SK하이닉스 용인 공장 건설은 수도권 쏠림 현상 ‘결정타’ 역할 2012년 설립된 카카오벤처스는 ICT 및 소프트웨어 기업에 투자하는 초기 투자 전문 벤처캐피털이다. 증권사 애널리스트로 일하다 2018년 합류한 장원열 수석 투자심사역(37)은 투자 기준에 대해 “학력이나 스펙보다는 ‘맨땅에 헤딩하는 실행력’이 중요하다”고 했다. 왓챠, 두나무, 당근마켓 등 좋은 성과를 내고 있는 기업들이 카카오벤처스 투자를 받았다. 9월 기준 누적 투자 기업은 205곳에 투자 금액은 3400억원이지만 지방 소재 스타트업은 손에 꼽을 정도다. “주소지는 상관없어요. 좋은 기업인데 지방이라고 투자 안 할 이유는 없으니까요.” 하지만 지방은 스타트업 숫자 자체가 적은 데다 수도권으로 옮겨온 곳도 많다. “모든 스타트업의 문제는 인력 확보입니다. 스타트업은 빠르게 몸집을 키워야 하니 인재 수요가 많고, 인력 확보에 가장 좋은 곳이 서울인 거죠. 한번에 30~40명씩 뽑느라 하루 종일 대표님이 면접만 본다는 회사도 있으니까요.” 혁신성장기업 대부분 수도권에 경기도 접한 천안, 한계선으로 10억원 이상 투자받은 스타트업 90%가 수도권에…집중 더 심해‘빨리 몸집 키우기’ 과제 풀려면 인력 밀집 지역서 시작해야 유리벤처캐피털과 액셀러레이터(투자와 보육을 함께하는 전문회사)들 역시 테헤란밸리에 몰려 있다. “요즘은 서울 성수동에도 스타트업들이 많아요. 판교 기업들은 이미 대기업이 됐잖아요. 초기 스타트업을 위한 공유오피스는 오히려 강남에 많죠.”카카오벤처스가 있는 판교메리어트호텔을 나오면 리치투게더센터라는 인상적인 이름의 건물과 마주친다. 이곳에 자리 잡은 부스트이뮨은 면역항암제를 개발하는 바이오스타트업이다. 지난 2월 창업한 이광희 대표(48)의 롤모델은 1976년 미국 샌프란시스코에서 창업한 세계 최초 바이오텍 제넨텍이다. “바이오텍은 연구자 출신 창업자들이 아이디어만으로 투자를 받아 성장해나가는 기업입니다.” 이 대표 등 3명이 근무하는 공유오피스에는 컴퓨터와 책상만 놓여 있다. 실험기구로 가득한 연구실과는 딴판인 ‘드라이 랩(Dry Lab)’이다. 자료를 분석해 새로운 과학적 지식을 만드는 사고 실험 공간이다. 부스트이뮨은 외주 실험을 통해 약물을 설계하는 단계다.이런 공간이라면 판교가 아니어도 괜찮지 않을까. “판교는 벤처캐피털이 있는 강남과 대형 제약사들이 있는 경기남부권 사이에 있어 최적의 장소죠. 스타트업은 인력이 적은 대신 경험이 풍부해야 합니다. 기업에 있다가 창업하는 경우가 많고, 경험 있는 인력 확보가 중요하니 기업 밀집 지역에서 시작하는 거죠.” 판교는 이미 공간이 다 차고 임대료도 강남급으로 오르면서 최근에는 송파구 문정동으로 바이오기업들이 모인다고 한다. 역시 ‘남방한계선’을 벗어나지 않는다.바이오는 스타트업에서도 가장 뜨거운 분야다. 2019년 바이오·의료 분야 신규 투자는 1조1033억원(25.8%)으로 2년 연속 1위였다. 바이오 중소·벤처기업 2496개 중 경기 665개, 서울 519개, 인천 67개로 수도권이 절반에 달했다. 바이오산업 메카인 대전은 206개, 충북 179개, 충남 111개였다.대구서 스타트업 창업, 박재식 온빛 대표개발자 구하기 어려워 본사는 대구에 둬도 영업이나 개발은 서울서 해야 하나 고민 지방 창업의 아쉬운 점‘기회의 격차’지난 8월 중소벤처기업부의 ‘K-바이오 랩허브’ 후보지로 대전과 충북 등을 제치고 인천 송도가 선정되면서 균형발전을 외면했다는 비판이 나왔다. 대전은 정부출연연구기관과 카이스트 등 연구 인프라가 잘 갖춰진 곳이라 충격이 컸다. 대전 바이오산업을 선도한 LG화학(LG생명과학)이 서울 마곡으로 옮기면서 인력 유출이 있던 터라 고민은 깊어지게 됐다.지방에서도 ‘판교’가 나올 수 있을까중기부는 지난 8월 스타트업 육성 전략을 담은 ‘중소기업 창업지원계획(2021~2023년)’을 내놨다. ‘제2벤처붐’이라고 할 만한 창업 열기를 성과로 잇기 위해 만든 최초의 법정계획이다. 이 계획에서도 수도권 집중에 대한 고민을 읽을 수 있다. 기술창업 현황을 보면 수도권은 2016년 11만254개(57.8%)에서 2020년 14만3135개(62.5%)로, 비수도권은 2016년 8만420개(42.2%)에서 2020년 8만5814개(37.5%)로 격차가 벌어졌다. 이장훈 중기부 창업정책총괄과 서기관은 “제조업 일자리는 정부 보조금 지원 등으로 성과를 만들 수 있지만, 스타트업은 민간의 혁신이 전제”라며 “정부가 펀드를 만들고 기반시설을 지원하는 정책만으로는 한계가 있다”고 밝혔다. 마강래 중앙대 도시계획부동산학과 교수는 “2013년 무렵 ‘4차 산업’이라는 대도시 지향의 혁신산업이 본격 등장하면서 수도권이 급성장했다”며 “고학력·고임금·고부가가치 일자리가 강남과 판교에 집중되면서 청년들의 수도권 쏠림 현상이 심화됐고, 비수도권은 경쟁력을 잃어가는 상황”이라고 지적했다.지방 스타트업의 요람은 창조경제혁신센터다. 박근혜 정권 당시 대기업과 17개 시·도를 짝지어 지역별 전문 산업을 육성하도록 한 정책이 조금씩 성과를 내고 있다. 2014년 출범한 대구창조경제혁신센터는 삼성전자의 협력으로 옛 제일모직 대구공장 터에 조성됐다. 삼성전자 사내 벤처 프로그램 C랩 등 지원체계가 잘 갖춰진 곳으로 평가된다. 과거 정치인들의 단골 방문지가 서문시장이었다면, 최근에는 여야 가리지 않고 센터를 방문한다.주기중 대구창조경제혁신센터 창업지원본부장(48)은 “지역의 기성 산업과 스타트업의 연계를 모색하고 있다”고 말했다. 자동차부품, 지능형 기계, 섬유기계 등이다. “원가·공기 절감 등 기존 산업을 고도화하는 스타트업을 육성해 시너지를 내는 것이죠. 서울에서 제조 창업은 어렵잖아요. 제조 기반도 없고 제품 쌓아놓을 야적장도 없지만 대구라면 주차장을 비워서라도 쌓아줄 겁니다. 설계부터 양산까지 지원 플랫폼을 구축해 기업들이 서울 가지 않고도 문제를 해결하도록 만들 겁니다.”여기도 가장 큰 고민거리는 사람이다. “경북대 등 지역 거점대학 졸업생들도 삼성에 취업하거나 서울로 가고 싶어 한다”는 것이다. 센터에서 육성한 헬스케어 스타트업 온빛은 이런 악조건과 싸우며 성장해왔다. 2017년 창업한 박재식 온빛 대표(32)는 병원 방문 없이 모바일로 증명서를 발급받고 실손보험 청구까지 가능한 ‘메디메디’ 앱을 개발했다. “증명서만 받으면 될 일인데 병원에 가야 하는 번거로움이 크잖아요. 병원마다 전산시스템이 달라 하나의 앱으로 연동하기 어려웠는데 우회 연결하는 기술을 개발했습니다.” ‘병원판 배달의민족’을 꿈꾼다는 메디메디를 도입한 병원은 200곳이 넘는다. 서비스를 확장해야 할 단계에 이르고 보니 서울에 사무실을 내야 할지 고민이 커지고 있다. “제가 직접 개발을 배워 헤쳐왔는데 한계가 있더라고요. 개발자를 구하는 데 어려움이 많습니다. 본사는 대구에 두더라도 영업이든 개발이든 서울에서 뭐라도 해야 하나 싶어요.” 지방에서 창업하는 이들에게 가장 큰 아쉬움을 묻자 ‘기회의 격차’라는 답이 돌아왔다. “생태계 자체가 작죠. 강이나 바다에 풀어놓으면 먹을 게 많은데 좁은 연못은 아무래도 적잖아요.” 수도권의 글로벌 경쟁력이 세계 최고라는 찬사가 나올수록 비수도권의 박탈감은 깊어진다. 지방에서도 ‘판교’, ‘네카라쿠배당토’가 나올 수 있을까. “얼토당토않은 생각을 해봐요. 정부가 지방에서 창업하면 1인당 1억원을 준다든지, 직원들 살 집을 준다든지…. 근데 그렇게 한들 바뀌겠어요?”센터 너머에는 삼성상회 건물과 삼성 창업주 이병철 회장 동상이 서 있다. 도로명 주소도 호암로 51. 대기업 유치와 개발사업에 매달리는 지방의 열망이 센터를 둘러보는 동안 어렴풋이 이해됐다. 기업은 자꾸만 수도권으로 떠나가고, 도심에도 빈집이 늘어가는 현실에서 나오는 절박함일 것이다. 동상을 바라보는 동안 ‘경제정의’라는 익숙한 관념과 ‘지역불균형의 부정의’라는 낯선 단어가 머릿속에서 교차했다.특별취재팀배문규·최민지(스포트라이트부)박채영·문광호(사회부)</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2021.10.10.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>전세대출 규제에 실수요자 전전긍긍…전세가는 또 올라</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003626882?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>은행 한도제한 본격화 ‘충격’“전세대출만은…” 국민청원까지 시중銀 대출잔액 한도 소진 토스마저 대출 중단 가능성     금융당국이 추가 전세대출 규제에 나설 것이라는 전망이 우세한 가운데 10일 서울 송파구 한 부동산중개소에 10억원을 호가하는 전세매물 전단지가 붙어 있다. 하상윤 기자    “지난주에 전세계약하고 전세자금대출 승인 떨어지길 기다리고 있는데 너무 답답하네요.”  50대 A씨는 올해 초 출산한 딸을 자주 보기 위해 서울 마포구에서 경기 김포시로 이사를 준비하고 있다. 지난해와 올해 전셋값이 급등하면서 현재 살던 집의 전세보증금을 합쳐도 2억여원이 더 필요한 상황이라 시중은행에 전세자금대출을 신청한 상태다. A씨는 “대출받는 데 전혀 문제가 없을 거라고 했던 은행 담당자 말을 믿고 계약을 마쳤는데, 갑자기 전세대출이 막힐지 모른다는 뉴스가 나와서 불안한 마음에 잠을 설쳤다”고 말했다.  10일 부동산 업계에 따르면, 정부는 이달 중순 발표하는 가계부채 보완대책에 전세대출 규제를 포함하는 방안을 검토하고 있다. 금융당국의 ‘대출 조이기’ 방침에 이미 NH농협은행이 전세대출을 포함해 모든 가계 담보대출을 중단했다. 최근에는 KB국민은행이 전세자금 대출 한도를 보증금의 증액 범위 내로 제한했고, 하나은행도 오는 15일부터 같은 조치를 시행할 예정인 것으로 알려졌다. 예를 들어 전세보증금이 4억원이고 2억원을 전세자금대출로 충당한 상태로 6억원 전세로 옮긴다고 하면, 예전에는 보증금에 80%에 해당하는 4억8000만원까지 대출이 가능했는데 이제는 기존 대출에서 보증금 증액분인 2억원을 합쳐 4억원까지만 빌려준다는 것이다.    청와대 국민청원 게시판과 부동산 커뮤니티 등에서는 전세대출 규제 강화 방침을 성토하는 여론이 들끓고 있다. 한 청원인은 자신을 경기권에 거주하는 30대 여성이라고 밝히며 ‘전세대출 규제 제발 생각해 주세요’라는 제목으로 청와대 국민청원 게시판에 글을 올렸다. 그는 “규제 시기와 재계약 시기가 겹친다는 이유만으로 계약금을 날리게 생겼다”면서 “지금껏 모은 재산의 절반을 날릴 수 없으므로 제2, 3금융권에 손을 벌리게 될 것 같다”고 호소했다.  대출규제 강화 소식에 전세계약을 서두르는 임차인이 늘어나면서 추석 연휴 기간 한풀 꺾였던 전셋값 상승세도 다시 강해지고 있다. 한국부동산원 조사에서 지난주 수도권 전셋값은 0.24% 올라 전주(0.21%)보다 상승폭이 커졌다.    올해 말 은행권 대출은 더욱 어려워질 전망이다. 이날 은행권에 따르면 국내 주요 은행의 올해 대출 한도는 거의 소진된 상황이다. 금융당국은 올해 시중은행의 대출 증가율 마지노선을 지난해 말 대비 최대 6%로 잡고 집중 관리 중인데, 이미 5대 시중은행의 증가율은 5%에 육박했다. 지난 7일 기준 대출 증가율은 △KB국민 5.06% △신한 3.16% △하나 5.23% △우리 4.24% △NH농협 7.14%로 평균은 4.97%다. 인터넷은행도 상황은 마찬가지여서 카카오뱅크가 고신용자에 대한 신용대출과 전월세보증금 대출 등을 이미 중단했고, 이제 막 출범한 토스뱅크도 조기 대출 중단에 나설 가능성이 큰 것으로 전해졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2021.10.01.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>카카오뱅크, 연말까지 마통 중단…토스뱅크는 다음주 출범</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000259409?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>[앵커]카카오뱅크가 연말까지 신규 마이너스통장 대출을 전격 중단하기로 했습니다.가계대출 증가율이 높다는 금융당국의 경고에 취해진 조치인데요.신윤철 기자와 대출 이야기 더 하겠습니다.카카오뱅크의 마스너스 통장을 언제부터 못 만들게 되는 건가요?[기자]오늘(1일)부터 연말까지입니다.대상자는 고신용자인데, 고신용자는 신용평가기관 코리아크레딧뷰(KCB) 기준 821점 이상의 고객입니다.중저신용대출은 실수요자를 보호하기 위해 그대로 유지되는데요.카카오뱅크는 지난달 초에도 신용대출 최대한도를 기존 7000만 원에서 5000만 원으로, 마이너스 통장의 최대한도를 5000만 원에서 3000만 원으로 줄인 바 있습니다.[앵커]1금융권에서 마이너스 통장 중단한 게 처음인 것 같은데요?[기자]과거 금액 등을 제한을 걸고 중단했던 사례가 있긴 한데, 카카오뱅크처럼 일괄적으로 신규 개설을 전부 중단한 건 이번이 처음입니다.[앵커]마이너스 통장 외에 추가조치도 가능하다고 봐야 하겠군요?[기자]그렇습니다.카카오뱅크는 고신용자 대상 신용대출이나 일반 전·월세 대출의 한도를 축소 또는 중단하는 것도 검토할 것으로 알려졌습니다.[앵커]이런 상황에서 다음 주 토스뱅크가 출범하죠. 대출 급한 분들 이쪽으로 몰릴 수도 있겠는데요?[기자]출범 첫해니, 금융당국의 대출 총량규제에서 자유로울 테고요.오픈 초반 공격적인 영업을 예고하면서 이목이 쏠리고 있습니다.지난달 말, 상품 라인업을 일부 공개했는데 신용대출의 한도를 최대 2억7000만 원, 금리는 연 2% 후반대에서 시작할 것으로 보입니다.시중은행 신용대출 금리가 3%대, 경쟁 인터넷 뱅크들이 4%대임을 감안하면 공격적인 출발입니다.다만 금융당국의 주문으로 토스뱅크는 전체 신용대출에서 중저신용자 비중을 연말까지 34.9%로 맞춰야 하는 점이 변수가 될 것으로 보입니다.[네이버에서 SBS Biz 뉴스 구독하기!]https://media.naver.com/channel/promotion?oid=374</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2021.10.09.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>'타다' 품은 '토스' 몸값 폭등..장외가치 18조</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005056099?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>금융과 모빌리티 시너지 기대감 반영돼부침에 빠진 케뱅과 카뱅 금융 성장주와 비교돼[이데일리 김유성 기자] 토스 운영사 비바리퍼블리카의 기업 가치가 연일 상승하고 있다. 토스뱅크 출범에 이어 ‘타다’ 운영사인 VCNC의 지분을 인수한다는 소식까지 나오면서 장외거래 주가가 올랐다. 8일 ‘서울거래소 비상장’에 따르면 비바리퍼블리카 기준가는 7일(10만4900원) 대비 2.57% 오른 10만7600원에 거래되고 있다. 비바리퍼블리카의 추정 기업 가치도 17조5665억원으로 올랐다. 서울거래소 비상장 캡처 화면이날(8일) 기준 하나금융지주의 시가총액 13조3908억원을 웃도는 수준으로 신한금융지주(20조1990억원)까지도 넘 볼 수 있는 가격이다. 실제 8일 기준 ‘팝니다’에 등록된 가장싼 안전거래 매물의 가격이 12만5000원이다. 서울거래소 비상장 관계자는 “타다 인수로 비바리퍼블리카의 모빌리티 사업 진출, 금융 서비스와의 시너지에 대한 기대 심리가 주가 상승을 견인하고 있다”고 말했다. 모빌리티 서비스와 금융의 시너지는 동남아 모빌리티 기업 ‘그랩’에서 찾아볼 수 있다. ‘아시아의 우버’로 시작한 그랩은 운전자들을 비롯해 그랩 이용자들에게 대출 서비스를 제공하면서 급성장했다. 올들어 그랩의 기업가치는 44조원까지 평가받고 있다. 폭넓은 사용자층과 성장성, 뉴욕증시 상장 가능성 면에서 높은 기업가치를 인정받았다. 반면 타다는 택시 업계의 반발과 이를 수용한 정치권의 결정으로 사업 규모를 대폭 축소해야만 했다. 결국 비바리퍼블리카에 인수되는 비운을 맞게 됐다. 한편 비상장 주식 거래가를 기준으로 한 케이뱅크의 추정 기업가치는 6조3492억원을 기록했다.  한때 우리금융지주(8조4455억원) 수준을 넘어서는 듯 했으나 최근들어 주춤한 모습이다. 카카오뱅크의 시가총액은 27조807억원으로 하락했다. 시총 40조원을 기록했던 것과 비교하면 한풀 꺾인 모습이다. 주가는 이달 들어서만 16%가 빠졌다. KB금융지주(22조9110억원)와의 시총 차이도 5조원 정도로 줄었다. 은행업권에서는 금융당국이 가계대출 규제를 강도높게 하면서 대출자산 확대가 어려워진 게 주요 요인으로 해석하고 있다. 주식 시장이 전체적으로 부진하면서 ‘금융 성장주’로 분류됐던 카카오뱅크가 직격탄을 맞았다는 풀이도 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2021.10.10.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>토스뱅크, 대출한도 60% 소진…이번주 신용대출 중단 가능성</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001122562?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>'3호 인터넷전문은행' 토스뱅크가 5일 공식 출범하고 여신과 수신 상품 판매를 시작했다. 사진은 서울 강남구 역삼동 토스뱅크 본사. 연합뉴스새로운 인터넷전문은행 토스뱅크가 영업 시작 4일 만에 대출한도 60%를 소진했다. 이르면 이번주 신용대출이 중단될 가능성이 크다.10일 금융권에 따르면 토스뱅크의 뱅킹 서비스 사전신청 고객은 신청자가 대거 몰리며 7일 오후 5시 기준 150만 명을 넘어섰다. 이는 조건 없이 연 2.0% 이자를 제공하는 수시입출금 통장, 시중은행에서 가장 낮은 수준인 최저 2.76% 금리의 신용대출이 관심을 모았기 때문이다. 아울러 금융권이 시중은행에서 가계대출을 조이면서 신생은행인 토스뱅크로 몰린 이유도 크다.토스뱅크는 사전신청자 150만명 중 40만명에게 서비스를 오픈했다. 예금·대출·카드 등 은행 서비스 이용이 가능한 인원이다. 이 가운데 정식 출범을 하기 전에 신청을 마친 100만명 가량의 고객에게는 가급적 이달 안에 서비스를 오픈할 수 있도록 한다는 계획이다.토스뱅크는 당초 사전 신청 고객에게 뱅킹 서비스를 모두 제공하려고 있으나 금융당국의 가계대출 조이기가 강화되고 신생 은행임에도 대출 총량 규제를 받게 되면서 여·수신 상품 가입 속도를 조정하게 됐다.금융당국은 시중은행에 올해 가계대출 증가율을 전년 대비 6%대로 제한하도록 요구했으며 토스뱅크에도 연말까지 석 달간 신용대출 총량이 5000억 원을 넘지 않도록 했다. 5000억 원의 총량 제한에는 중저신용자 대상 대출도 예외없이 적용된다.이미 토스뱅크의 대출액은 3000억 원에 육박해 60%가 소진된 것으로 알려졌다. 이 가운데 중저신용자 비중은 25% 이상인 것으로 알려졌다. 전체 신용대출에서 코리아크레딧뷰로(KCB) 기준 신용평점 하위 50%(820점 이하) 대출자에 나간 대출이 차지하는 비중이다.하지만 토스뱅크는 대출 가능한 총량이 묶인 탓에 오픈 첫 주 속도대로라면 당장 며칠 내 5000억 원이 동나면서 신용대출을 중단하게 될 가능성이 큰 상태다.토스뱅크는 시중은행에 비해 문턱을 낮춰 중저신용자를 적극 포항한다는 계획이었으나 금융시장 환경이 달라지면서 당초 구상했던 계획에 차질을 빚게 됐다. 당초 토스뱅크가 계획했던 올해 3개월간 대출 총량은 ‘조 단위’로 알려졌다. 그러나 금융위는 가계대출 제한 정책에 따라 5000억 원을 넘지 않도록 했다.현재 토스뱅크에 사전 가입신청을 했지만 아직 통장을 만들지 못한 고객들은 온라인 커뮤니티 등을 통해 “언제 통장을 만들 수 있냐”며 불만을 제기하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2021.10.15.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>실수요자 반발에… “전세·잔금대출 중단 없다”</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000260826?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>올 연말까지는 전세 대출과 아파트 잔금대출을 차질없이 받을 수 있을 것으로 보입니다. 현 고강도 대출 규제에 실수요자들까지 대출 절벽에 내몰린다는 지적을, 금융당국이 받아들인 건데요. 당장 일부 은행들은 그간 막았던 전세 대출을 다음 주 월요일부터 재개합니다. 박규준 기자 나와 있습니다. 실수요자들 숨통이 트이겠군요. 이제 전세 대출, 잔금대출 등을 차질없이 받을 수 있는 거죠?시중은행들이 대출을 중단하거나, 한도를 줄였던 전세 대출과 잔금대출을, 올 연말까지는 무리 없이 받게 될 것으로 보입니다.금융당국이 올해 가계대출 증가율을 작년 말 대비 6%대로 묶는 대출 규제에서, 전세 대출 등을 빼기로 했기 때문입니다.전세 대출만 보면 은행들은 약 8조 원의 대출 여력이 더 생기는 것으로 알려집니다.그럼 언제부터, 전세 대출 등이 가능한 건가요?일부 은행들은 다음 주 월요일, 18일부터 대출을 재개합니다.은행 대출 재개 현황 지난 8월 전세 대출을 중단했던 NH농협은행은 18일부터 전세 대출을 재개합니다.신한은행도 18일부터 대출모집인을 통한 전세 대출에 적용했던 한도 제한을 풀기로 했고요.우리은행도 각 지점에 전세 대출 한도를 추가로 배정하기로 했습니다.잔금대출도, 올해 말까지 입주하는 110여 주택 단지의 잔금을 내지 못하는 사례가 없도록 하겠다는 게 고승범 금융위원장의 입장입니다.신용대출, 주택담보대출은 기존대로 계속 조이는 건가요? 좀 바뀌나요?신용대출과 주담대는 지금대로 억제 기조가 유지됩니다.그것까지 풀어주면 6%대로 가계대출 증가율을 묶겠다는 금융당국의 정책 목표 자체가 무너질 수 있기 때문입니다.금융위원회가 토스뱅크의 대출 한도 3,000억 원 증액 요구를 최근 거부한 것도 같은 맥락으로 보입니다.토스뱅크는 출범 9일 만에 대출한도 5,000억 원이 모두 바닥나, 금융당국에 한도를 올려달라고 했지만 받아들여지지 않았습니다.금융위원회는 이번 달 가계부채 추가대책을 내놓기로 했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 대표 "연 2% 통장 지속 제공…전세대출은 내년 출시"</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002535158?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>100만 사전가입자 대상 서비스 확장금리 연 2% 통장·신용대출 상품 출시"주택담보대출 100% 비대면화 진행 중"홍민택 토스뱅크 대표가 5일 서비스 오픈 기자간담회에서 발언하고 있다. ⓒ토스뱅크[데일리안 = 김민석 기자] 홍민택 토스뱅크 대표가 "수시입출금 통장에 대한 연 2% 이자는 지속가능한 형태로 제공할 수 있게 상품을 만든 만큼 지속해서 혜택을 제공할 것이고, 전세대출은 내년에 출시할 예정이다"라고 강조했다.5일 토스뱅크는 온라인으로 공식 출범 기자간담회를 열고 사전신청 참여 고객을 시작으로 순차적인 서비스를 개시를 선언했다. 토스뱅크는 출범과 함께 수신·여신상품을 각각 하나씩만 출시했다.토스뱅크는 수신 상품으로는 만기·최소납입 금액 등 어떤 조건도 없이 금리 연 2%를 제공하는 '토스뱅크 통장'을 선뵀다. 단 하루만 맡겨도 이자가 지급된다는 점에서 입소문을 타 출시 전부터 100만명이 넘는 사전가입자가 몰린 상품이다.일각에선 토스뱅크가 연 2%에 달하는 고금리를 수시입출금 통장에 적용하면서 지속가능성이 높지 않은 것으로 전망했다. 고객에게 제공할 자본 마련이 어려운 데다, 이자비용으로 대규모 비용을 지불해야 해서다. 하지만 토스뱅크는 이 같은 금리혜택이 충분히 감당 가능한 비용구조에 포함된 것으로 보고 있다.홍민택 대표는 "연 2% 수신금리는 물론 다른 은행보다 높지만 현재 조달 금리 대비 크게 높은 수준은 아니며 감당 가능한 비용구조로 판단된다"며 "2% 이자를 지속가능한 형태로 제공할 수 있게 상품을 만든 만큼 이 혜택을 고객에게 지속 제공할 수 있게 최선을 다 하겠다"고 말했다.토스뱅크가 선택한 여신 상품은 신용대출이다. '토스뱅크 신용대출'은 최저 연 2.76%의 금리혜택과, 2억7000만원에 달하는 최대한도를 앞세워 출시 전부터 흥행에 성공했다. 아울러 토스뱅크는 신용대출 최고금리는 연 15.00%까지 넓혀 고신용자는 물론이고 중·저신용자와 1300만 신파일러(금융이력부족자)에게도 합리적인 대출을 제공할 계획이다.최근 금융당국이 가계대출을 옥죄고 있는 만큼 다른 여신 상품에 대한 관심도 고조되고 있다. 특히 최근 주목받고 있는 비대면 주택담보대출, 전세대출 등에 대한 출시 여부가 최대 관심사로 떠오른 상황이다.홍 대표는 "2022년 전세대출을 출시할 예정"이라며 "주택담보대출을 받는 과정이 다 비대면화 돼야 하는 만큼 정책적이고 법적 부분 검토를 시작했고, 실제 상품 출시 단계에서는 계약서나 오프라인에서 일어나는 활동을 다 포용할 수 있도록 하겠다"고 설명했다.이어 "하나의 신용대출로 자영업자 포용할 수 있는 만큼 금리와 한도의 스펙트럼을 확대 하겠다"고 덧붙였다.이외에 새로운 신용평가모델에 대한 설명도 나왔다. 금융데이터는 물론 비금융 대안 데이터를 활용한 토스스코어링시스템(TSS) 신용평가모델을 완전히 새로운 방향으로 구축해 실제 상환능력이 검증에 집중한다는 입장이다. 기존 4등급 이하인 경우에도 1~3등급까지 우량의 비중으로 편입될 수 있도록 기회를 줄 예정이다.홍 대표는 "토스뱅크는 직장인·자영업자, 프라임·중금리 대출 등 구분 없이 단 하나의 신용대출 상품으로 최적의 대출 금리와 한도를 제공한다"며 "TSS를 활용해 대출 승인율을 끌어올리고, 기존 1금융권에서 대출 받기 어려웠던 이들 중 약 30%를 건전한 중・저신용자로 발굴해 토스뱅크의 고객으로 포용한다는 계획이다"고 피력했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2021.10.13.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>토스뱅크, 신규가입 제한 닷새 만에 10만명에 추가 오픈</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001651837?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 토스뱅크가 대출 중단 사태를 우려해 신규 가입을 중단한 지 닷새 만에 사전 신청자 10만 명에게 추가로 문을 열었습니다.토스뱅크는 최근 금융당국과의 협의에서 올해 중저신용자 대출을 포함한 가계대출 한도를 5천억 원에서 8천억 원으로 늘려달라고 요구했지만, 금융당국은 아직 명확한 입장을 밝히지 않고 있는 것으로 알려졌습니다.지난 5일 출범한 토스뱅크의 대출액은 8일까지 이미 3천억 원에 육박해 금융당국이 정한 토스뱅크의 올해 대출 총량 5천억 원의 60%가 소진된 것으로 전해졌습니다.대출 중단 사태를 우려한 토스뱅크 측은 9일부터 나흘간 사전 신청 고객의 신규 가입을 중단했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2021.10.08.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>토스, 모빌리티 스타트업 타다 전격 인수…한국판 '그랩' 노린다</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002974189?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>토스가 모빌리티 스타트업 '타다'를 전격 인수한다.토스 운영사 비바리퍼블리카(대표 이승건)는 쏘카(대표 박재욱)가 보유한 타다 운영사 브이씨엔씨(이하 타다) 지분 60% 인수를 결정하고, 3사 간 양해 각서(MOU)를 체결했다고 8일 밝혔다. 인수가는 미공개다.타다는 지난 2018년 11인승 승합차를 통해 국내 '승차 호출' 서비스를 처음 선보인 회사다. 기존 택시 이용 경험을 혁신하며 170만 사용자를 확보하는 등 빠르게 성장했으나, 지난해 4월 '여객자동차운송사업법' 개정으로 기존 서비스를 중단했다. 현재 '타다 라이트'를 통해 개인 및 법인 택시 면허 보유자를 대상으로 '플랫폼 가맹사업'을 운영 중이다.토스는 타다 인수를 통해 토스 결제 등 금융 비즈니스의 외연을 확장하고, 모빌리티 서비스 이용자와 산업 종사자의 선택폭을 넓힘으로써 건전한 성장과 혁신을 이어간다는 전략이다.모빌리티 산업은 세계적으로 핀테크와 결합이 활발한 분야다. 차량 호출 서비스로 시작해 동남아 주요국에서 결제 및 금융사업을 확장 중인 그랩이 대표적 사례다.이번 인수는 타다가 신주를 발행하고, 토스가 인수하는 방식으로 이뤄지며, 토스가 투자한 금액은 모두 타다의 성장을 위해 사용될 예정이다. 2000만 토스 고객, 900만 쏘카-타다 고객을 대상으로 확장된 멤버십 서비스 및 다양한 혜택 제공으로 공동의 생태계 확장이 기대된다.토스는 이르면 10월 주식인수계약을 마무리하고, 올해 말 새롭게 리뉴얼 한 타다 서비스를 선보일 예정이다. 타다 브랜드는 물론, 지난 8월 타다 신규 대표이사에 선임된 전 이정행 최고기술책임자(CTO)의 대표이사직도 그대로 유지된다.토스 이승건 대표는 “국내 택시시장 규모는 연간 매출액 기준 약 12조원에 달하고, 절반 정도가 호출 앱을 통해 이루어지고 있어 토스의 결제사업 등 여러 금융서비스와 시너지가 기대된다”며 “토스는 창업 후 지속적으로 사업 모델이 고착화된 시장에 진출해 기업과 소비자 모두에게 편리하고 혁신적인 서비스를 제시해 왔으며, 이번 인수 역시 같은 맥락”이라고 강조했다.박재욱 쏘카 대표는 “금융 혁신을 주도하고 있는 토스와 손잡고 새로운 도전에 나서게 됐다”며 “토스와 함께 기존 산업간 경계를 넘어서는 혁신적인 서비스를 선보여 새롭게 도약하고자 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2021.10.01.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>월 최대 10만원 카드 캐시백…오늘부터 1·6년생 신청 가능</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011129644?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>늘어난 신용·체크카드 사용액의 10%를 사실상 현금으로 돌려주는 신용·체크카드 캐시백(상생소비지원금) 신청이 오늘(1일)부터 시작됩니다. 첫날인 오늘은 출생연도 뒷자리 1·6년생이 신청 가능하고, 롯데·비씨·삼성·신한·우리·하나·현대·KB국민·NH농협 등 9개 카드사 중 한 곳을 선택해 전담카드사로 신청할 수 있습니다. 본인 명의의 모든 카드의 실적을 집계한 뒤 실적에 따라 전담카드에 캐시백을 지급하는 구조이기 때문에 9개 카드사 중 한 곳의 카드를 반드시 보유해야 합니다. 씨티은행, KDB산업은행, 신한BC, BC카드 제휴금융투자업자(증권사), 산림조합중앙회, 카카오뱅크, 케이뱅크, 토스뱅크 카드 등은 전담카드로 지정할 수 없지만 2분기 사용 실적에는 포함됩니다. 전담카드사를 신청하게 되면 2일 내로 캐시백의 기준인 본인의 2분기 월평균 전체 카드 사용실적을 받아볼 수 있고, 이후 카드 소비에 따른 캐시백 발생액(누계)과 월별 카드사용실적도 매일 갱신된 내용으로 확인할 수 있습니다. 카드 캐시백은 월간 신용·체크카드 전체 사용액이 2분기 월평균 신용·체크카드 전체 사용액보다 3% 이상 늘어나면 초과분의 10%를 캐시백(현금성 충전금)으로 환급해주는 제도입니다. 예를 들어 2분기 월평균 사용액이 100만 원이고 10월 카드 사용액이 153만 원인 경우, 증가액 53만 원 중 3만 원(3%)을 제외한 50만 원의 10%인 5만 원을 캐시백으로 돌려줍니다. 제도 시행 대상은 만 19세 이상(2002년 12월 31일 이전 출생자)이면서 올해 2분기 중 본인 명의 신용·체크카드 사용실적이 있는 사람으로, 이번 달부터 두 달간 1인당 월 10만 원 한도로 시행됩니다. 캐시백이 발생할 경우 다음 달 15일에 전담카드사 카드에 현금성 충전금 형태로 자동 지급되며, 사용처 제한 없이 어디서나 쓸 수 있고 카드결제시 캐시백 충전금이 우선 사용됩니다. 오늘부터 첫 1주일간은 출생연도 뒷자리에 연동해 5부제로 신청을 받습니다. 태어난 연도 끝자리가 1·6년인 사람은 1일, 2·7년인 사람은 5일, 3·8년은 6일, 4·9년생은 7일, 5·0년생은 8일에 신청하면 됩니다. 이후에는 출생연도에 관계없이 사업 기간 전체에 걸쳐 신청할 수 있고, 캐시백은 신청 일자와 상관없이 10월 1일 사용분부터 인정됩니다. 코로나19 상황에서 부진한 대면 소비 활성화를 위해 고안된 제도라는 점을 감안해, 일부 업종과 품목은 사용액으로 인정되지 않습니다. 대형마트나 백화점, 쿠팡·G마켓·옥션 등 대형 온라인몰에서 소비한 카드 사용액은 캐시백 대상이 아니지만 기업형 슈퍼마켓(SSM)이나 배달앱, 스타벅스 등은 포함됩니다. 해외 카드사용과 계좌이체 등 현금결제, 간편결제(은행계좌 연동)는 제외되고, 대형 전자판매점, 명품전문매장과 신차 구입, 유흥업 사용액도 대상에서 빠집니다. 연회비나 세금, 보험료 등 비소비성 지출도 대상에 포함되지 않지만 여행·관광·전시·공연·문화·스포츠 등 전문 온라인몰에서 사용액은 인정합니다. GS수퍼마켓, 이마트에브리데이 등 기업형 슈퍼마켓은 소상공인·자영업자 운영 비중이 높다는 점을 감안해 대상에 포함됐고, 스타벅스나 이케아 등 외국계 대기업 매장도 형평성 차원에서 대상이 됐습니다. 배달의민족 등 배달 앱, 온라인 식자재몰인 마켓컬리, 한샘몰 등도 대상입니다. 상생소비지원금 대표번호(☎1688-0588·1670-0577) 통해 자세한 내용을 안내받을 수 있고, 각 카드사 콜센터에서도 제도 세부사항을 확인할 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>[특징주]카카오뱅크, 인터넷전문은행 경쟁 심화 우려에 약세</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001895069?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>[헤럴드경제=이태형 기자]5일 토스뱅크 출범으로 인터넷전문은행 간 경쟁이 치열해질 것으로 예상되면서 카카오뱅크 주가가 6% 이상 하락하고 있다.카카오뱅크는 5일 오전 10시 5분 현재 유가증권시장에서 4200원(6.41%) 내린 6만1300원에 거래되고 있다.이날 토스뱅크가 영업을 개시하면서 케이뱅크(2017년 4월), 카카오뱅크(2017년 7월)에 이어 국내 세 번째 인터넷전문은행이 출범했다.은경완 메리츠증권 연구원은 “자본력의 차이가 크고 타깃 고객층이 다른 만큼 기존 은행주에 미치는 영향은 제한적”이라며 “중금리대출 취급 강제로 신용대출 시장에서의 헤게모니를 상실한 카카오뱅크는 경쟁 강화 우려로 주가에 부담으로 작용하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>토스뱅크 정식 출범</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010750964?sid=004</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 홍민택 토스뱅크 대표가 5일 온라인으로 열린 토스뱅크 정식 출범 기자간담회에서 발언하고 있다. (사진=토스뱅크 제공) 2021.10.05. photo@newsis.com *재판매 및 DB 금지[사진 영상 제보받습니다] 공감언론 뉴시스가 독자 여러분의 소중한 제보를 기다립니다. 뉴스 가치나 화제성이 있다고 판단되는 사진 또는 영상을 뉴시스 사진영상부(n-photo@newsis.com)로 보내주시면 적극 반영하겠습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2021.10.10.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>토뱅, 2023년까지 44%… 중·저신용자 대출확대 목표 달성할까</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000742186?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>[머니S리포트-닻 올린 토스뱅크②] 호언장담 속 고객확보, 자본금 확충 등 과제 산적[편집자주]인터넷전문은행 삼국지가 막이 올랐다. 2017년 문을 열었던 케이뱅크와 카카오뱅크에 이어 토스뱅크가 지난 5일 세 번째로 인터넷전문은행 서비스를 시작했다. 토스뱅크는 기존 은행권보다 파격적인 혜택을 내세워 초기 흥행몰이에 성공했다는 평가를 받고 있다. 하지만 앞으로의 길은 험난할 것으로 예상된다. 중·저신용자 대출 비중을 2023년말까지 40%까지 달성해야 하고 향후 5년간 1조원 규모의 자본금을 확충해야 하는 숙제를 안고 있다. 여·수신 성장을 위해선 이용자 수를 확보하는 것도 관건이다. 무엇보다 정부의 가계대출 규제가 큰 부담이다. 정부 눈치에 결국, 지금의 파격적인 금리 혜택도 얼마 안 가 점차 줄여나갈 수밖에 없을 것이라는 게 업계의 분석이다. 지금의 개장 효과가 얼마나 이어지고 그 성과가 카카오뱅크를 뛰어넘을 수 있을지가 토스뱅크 위상을 가름할 것이라는 전망이다.홍민택 토스뱅크 대표/사진=토스뱅크◆기사 게재 순서(1) 2%대 억대 대출?… 토뱅은 카뱅과 다를까 (2) 토뱅, 2023년까지 44%… 중·저신용자 대출확대 목표 달성할까토스뱅크가 이달 초 닻을 올리며 인터넷은행이라는 망망대해를 항해한다. 목표는 명확하다. 더 좋은 금융 혜택을 더 많은 고객에게 제공한다는 포부다. 하지만 정부의 대출관리 압박, 중금리대출 확대, 이용자 확보, 자본금 확충 등 풀어내야 할 과제가 산적해있다. 이에 토스뱅크의 앞날이 '꽃길' 보다 '가시밭길'에 가까울 것이라는 시각도 나온다. 윤재옥 국회 정무위원회 위원장은 토스뱅크 출범식 축사를 통해 "토스뱅크가 나아가야 할 길이 순탄해 보이지만은 않다"고 평가한 것도 이 같은 이유에서다.━카뱅도 못지킨 약속… 토뱅은 "자신 있다"━토스뱅크는 인터넷은행의 출범 목표인 중금리대출 활성화에 주목해 중·저신용자 신용대출 비중을 올해 34.9%로 잡았다. 2022년 42%, 2023년엔 44%로 올려놓겠다는 계획이다. 카카오뱅크와 케이뱅크는 올해 20.8%, 21.5%, 2022년 각각 25%, 오는 2023년 목표치는 30%, 32%로 잡았다. 토스뱅크는 올해가 석 달도 남지 않은 상황이지만 카카오뱅크, 케이뱅크의 목표치를 연내 뛰어넘겠다는 포부다.하지만 이 호언장담엔 기대와 동시에 물음표가 뒤따르고 있다. 카카오뱅크의 약속이 '반쪽 성공'에 그치면서다. 카카오뱅크는 올해 초 중·저신용자 대출 확대를 약속했지만 설립 취지에 부합하지 못하고 고신용자를 통한 수익성 위주의 장사를 이어가고 있단 지적이 나왔다.실제 국회 정무위원회 소속 배진교(정의당·비례대표) 의원에 따르면 올 상반기 신용점수 900점 이상인 고신용자에 대한 신용대출, 전세자금대출 비중은 시중은행은 57.7%, 카카오뱅크는 이보다 높은 74.2%에 달했다. 또 카카오뱅크는 올 연말까지 중·저신용자 대출 비중을 20.8%까지 높인다고 금융당국과 약속했지만 지난 8월 말 기준 중신용자 대출 비중이 12.4%에 그쳤다. 앞서 금융당국과 인터넷은행은 지난 5월 2023년말까지 중·저신용자 신용대출 비중을 30%까지 올린다는 계획을 세운 바 있다.토스뱅크 관계자는 "기존 신용평가모형은 안전하게 이익을 얻을 수 있는 고신용자를 찾는데 목표를 두고 있지만 토스뱅크는 자체 신용평가모형 'TSS'를 구축해 중·저신용자, 사회초년생, 개인사업자 등 신용대출이 필요하지만 소외됐던 대상을 포괄할 수 있다"며 연내 목표치 도달에 자신감을 내비쳤다.━이미 둥지 튼 이용자… '원 앱'으로 잡는다━토스뱅크는 서비스 사전신청에만 고객 112만명이 몰리는 등 초반 흥행몰이에 성공했다는 평가가 나오지만 서비스 '지속 가능성'을 위해선 이용자 확보가 관건으로 지목된다. 후발주자로 뛰어든 만큼 이미 다른 인터넷은행에 둥지를 튼 고객의 가입을 유도하고 이탈을 방지하는 게 주요 과제로 지목된다.현재 인터넷은행 중 가장 많은 고객 수를 확보한 곳은 카카오뱅크로 2017년 7월 출범 당시 100만명이던 고객 수는 지난 8월말 기준 1717만명으로 17배 이상 뛰어올랐다. SNS(소셜네트워크서비스) 카카오톡 이용자를 끌어들인 게 주효했다. 반면 케이뱅크는 지난해 6월 가상화폐거래소 '업비트'와 제휴해 고객을 확보했다. 그 결과 2017년 4월 문을 연 이후 지난 2분기 처음으로 흑자전환에 성공했다. 고객유치에 따른 여·수신 확대가 실적 성장을 이끌었다.토스뱅크의 전략은 '원 앱'이다. 별도의 앱 없이 기존 토스 앱으로 은행 서비스를 이용할 수 있단 점을 강점으로 꼽는다. 토스 앱의 MAU(월간활성사용자수)는 1200만명에 달하는데 이들을 토스뱅크 고객으로 흡수해 몸집을 키운다는 전략이다.정준섭 NH투자증권 연구원은 "토스의 플랫폼 파워와 마케팅의 성과는 토스증권을 통해 충분히 입증돼 토스뱅크가 목표로 하는 수준의 계좌, 수신 확보는 충분히 가능할 것으로 보인다"고 내다봤다.━건전성 관리, 자본금 확충은 어떻게 ━무엇보다 '지속 가능성'을 위해선 건전성, 자본금 확충이 필요하다는 지적이다. 특히 카카오뱅크, 케이뱅크와 비교해 중금리대출 비중을 높게 잡은 만큼 중·저신용자 확대에 따른 연체율 관리도 요구된다. 부실위험이 높은 중·저신용자에 대한 신용대출 확대는 연체율 상승으로 이어져 재무 건전성을 저하시킬 수 있기 때문이다.한국은행이 지난달 발표한 '금융안정 상황' 보고서에 따르면 인터넷은행 신용대출 연체율을 과거 연체율 변화 등을 활용해 예측해본 결과 지난해 0.7%에서 올해 말 1.3%, 오는 2022과 2023년 중엔 1.7~2.2%로 상승할 것으로 추정됐다. 이와 관련 홍민택 대표는 "감당할 수 있다"며 "저신용자에게 여신을 제공하는 만큼 그에 맞는 사후관리 리스크 관리 체계가 구축돼 있다"고 자신했다.토스뱅크는 현재 2500억원 수준의 자본금을 앞으로 5년동안 1조원까지 키워야 하는 숙제도 안고 있다. 과거 케이뱅크가 자본금 확충을 위한 유상 증자에 연이어 실패하면서 2019년 5월부터 지난해 7월까지 대출 사업을 중단한 바 있다. 토스뱅크의 '지속 가능성'을 위해선 자본금 확충이 절실한 상황이다.홍민택 대표는 "무엇보다 서비스 중단 없이 더 빠르게 증자할 수 있도록 주주사들과 사전 협의가 돼 있다"고 설명했다.서지용 상명대학교 경영학과 교수는 "앞서 5년 동안 1조원이라는 자본금 확충 계획을 밝혔지만 증자를 서두르지 않을 경우 과거 케이뱅크 사례가 나타날 수도 있다"며 "계획한 서비스, 목표한 신용대출 비중 도달 등을 위해선 증자에 속도를 내야할 것으로 보인다"고 진단했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2021.10.04.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>간편송금으로 잘못 보낸 돈, 5년간 130억원…"시스템 개선 필요"</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012654663?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>토스, 카카오페이 간편송금 통한 착오송금 현황(단위 : 건, 천원, 배, %)[윤관석 의원실 제공](서울=연합뉴스) 김유아 기자 = 온라인 금융 플랫폼이 제공하는 간편 송금 서비스로 지난 5년간 약 130억원이 잘못 이체된 것으로 나타났다.    4일 국회 정무위원회 소속 윤관석 더불어민주당 의원이 금융감독원으로부터 제출받은 자료에 따르면 토스, 카카오페이, 네이버페이 3개사의 간편송금 서비스 이용 중 발생한 착오송금 금액은 2017년 2억6천379만원에서 지난해 53억2천334만원으로 19.2배나 증가했다.    금액은 2018년 10억6천126만원, 2019년 29억4천785만원으로 꾸준히 늘었고, 올 1∼6월에는 이미 33억4천547만원을 기록했다. 2017년부터 올 6월까지 발생한 착오송금 금액을 모두 합치면 129억4천173만원에 달한다.    건수로만 보면 착오송금은 5년간 총 5만5천506건 발생했다. 2017년 2천197건, 2018년 6천695건, 2019년 1만3천843건, 2020년 2만1천595건 발생했으며, 올 6월까지는 1만1천176건을 나타냈다.    간편송금은 모바일을 통해 보안카드나 일회용 비밀번호 생성기(OTP) 없이 비밀번호 등 인증수단만으로 손쉽게 돈을 이체하는 서비스다. 최근 간편송금 서비스 이용이 늘어나며 실수로 수취금융회사, 수취인 계좌번호 등을 잘못 입력해 돈을 이체하는 착오송금도 덩달아 증가했다.    한국은행에 따르면 올해 상반기 중 간편송금 서비스의 하루 평균 이용실적은 4천819억원(407만건)으로, 2017년 상반기 대비 21배(7배) 증가했다. 네이버 간편송금 통한 착오송금 현황(단위 : 건, 천원, 배, %)[윤관석 의원실 제공]업체별로 살펴보면, 2015년 간편송금 시장에 처음 진입한 토스(비바리퍼블리카)에서 5년간 3만6천450건(85억3천785만원)의 착오 송금이 발생했다. 2017년 2천197건(2억6천379만원)이던 착오송금은 지난해 1만3천670건(34억7천910만원)으로 5.2배(12.2배) 증가했다.    카카오페이의 경우 4년간 1만8천799건(43억701만원)이, 네이버페이(네이버파이낸셜)에선 1년 반동안 257건(9천686만원)이 잘못 이체됐다.    5년간 발생한 착오송금 중 74%에 해당하는 95억3천319만원(4만2천315건)이 주인에게 돌아가지 못했다.    토스, 카카오페이, 네이버페이에서 미반환된 금액은 각각 63억7천421만원(2만9천386건), 31억1천382만원(1만2천811건), 4천514만원(136건)이다. 다만 고객 간 직접 반환이 이뤄졌을 경우엔 여기에 집계되지 않아 실제 미반환율은 좀 더 낮을 수 있다.    윤관석 의원은 "디지털금융이 발달하고 신종 코로나바이러스 감염증(코로나19)으로 인한 비대면 금융거래가 증가하면서 착오송금 규모도 급격히 증가하고 있다"면서 "간편송금업체는 착오송금과 같은 실수를 줄일 수 있도록 지속해서 시스템을 개선할 필요가 있다"고 지적했다.윤관석 더불어민주당 의원(인천 남동구 을)[윤관석 의원실 제공]    kua@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2021.10.06.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>닻오른 토스뱅크…홍민택 대표 “연 2% 통장, 충분히 지속 가능”</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000058678?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>국내 3호 인터넷전문은행 토스뱅크 5일 공식 출범조건 없는 연 2% 금리 수시 상품 등신용대출 최대 한도 2억7000만원, 은행권 최고 수준사전 신청자 100만명, 이달 내로 통장 제공홍민택 토스뱅크 대표./사진=토스뱅크 제공“연 2% 수신금리(예금금리) 지속, 충분히 감당 가능하다.”국내 3호 인터넷전문은행 토스뱅크가 5일 정식 출범한 가운데 홍민택 토스뱅크 대표는 이날 오전에 열린 온라인 기자간담회에서 이같이 밝혔다. 홍 대표는 “시중은행으로서 건전성, 수익성을 유지하고 정부 규제를 준수하면서 연 2% 지속 가능하게 상품을 만들었다”며 “현재 조달금리를 고려할 때 크게 높지 않고 감당 가능하다고 판단한다”고 말했다.인터넷전문은행 1·2호인 케이뱅크와 카카오뱅크가 1%대의 정기예금을 선보이는 가운데 이날 토스뱅크는 연 2%의 이자를 제공하는 수신 상품을 내보였다. 수시입출금 통장인 ‘토스뱅크 통장’은 만기나 최소 납입 금액 등 아무 조건 없이 연 2% 이자를 지급하는 수시입출금 통장이다. 이자는 금액을 예치한 날부터 일할 계산해 매달 지급한다. 예·적금 구분을 없애고 통장 하나에 ‘나눠서 보관하기’, ‘잔돈 모으기’, ‘목돈 모으기’ 등 기능을 넣어 기존 은행 예금과 적금 상품을 구현했다는 설명이다. 이와 함께 토스뱅크는 사용한 만큼만 이자를 내는 ‘토스뱅크 마이너스통장’과 최대 300만원 한도의 ‘토스뱅크 비상금 대출’도 선보였다.은행권에서 가장 주목하는 것은 신용대출 상품이다. 토스뱅크는 신용대출 상품의 금리를 최저 연 2.76%에서 최고 연 15.00%(5일 기준)로 설정했다. 최대한도는 2억7000만원으로 이는 업계 최고 수준이다. 다만 금융당국이 은행권에 권고한 대로 토스뱅크도 ‘연소득 100% 이내 범위’로 신용대출 한도를 제한할 것으로 보인다. 홍 대표는 “토스뱅크 역시 시중은행으로서 다른 은행들과 동일한 규제 환경에 놓여 있다”며 “이에 따라 정부가 추진하는 정책적 방향에 협력해 나갈 방침”이라고 밝혔다.전세대출 상품과 주택담보대출(주담대) 상품은 내년 이후에 선보일 계획이다. 홍 대표는 “우선 전세대출 상품은 내년 중에 선보이고자 계획을 잡고 있다”며 “주담대의 경우 계약서 등 시장의 전반적인 부분을 비대면화 해야 하기 때문에 법적 검토를 시작한 단계다. 실제 계약서나 오프라인에서 일어나는 모든 활동들을 다 포용할 수 있는 형태의 비대면 프로세스를 완벽히 구축하게 되면 선보일 수 있을 것”이라고 전했다.연내 중금리대출 비중 34.9% 목표치 달성에 대해선 자신감을 내비쳤다. 홍 대표는 “기존 신용평가모형은 1금융권에서 대출을 받았던 이들의 금융데이터를 바탕으로 만들어지기 때문에 대출 이용자 풀이 기존 이용자 이외로 확장되지 않는 문제가 있었다”고 말했다.이어 “토스뱅크의 신용평가모형은 저축은행·카드사·대부업 등 모든 금융권에서 일어난 신용 데이터를 확보해 포용했다는 점과 지출 능력이나 다양한 청구서 납입, 현금, 시스템 모델링 결제 데이터, 이용 가맹점 내역 등 딥러닝·머신러닝을 통해 비금융 데이터를 평가 요소에 포함시켰다는 점이 차별적”이라며 “해당 목표치는 충분히 달성할 수 있다고 본다”고 강조했다.향후 증자 계획에 대해선 “앞서 5년간 1조원 자본증자 계획을 공유했는데 이 부분을 베이스(기본)로 생각하면 된다. 수요와 모객 등 흥행에 성공하면 더 빠르게 큰 금액 증자하도록 토스뱅크의 모든 주주와 사전 협의가 돼 있다”고 말했다.끝으로 홍 대표는 “은행은 ‘원래 그럴 수밖에 없다’는 여러 고정관념에 대해 ‘사용자가 원하는 게 무엇인가’라는 근본적인 물음으로 돌아가 답을 찾고자 했다”며 “고객에 전가됐던 제약을 모두 없애고, 새로운 기술과 데이터를 활용해 가장 좋은 혜택을 돌려드리겠다. 토스뱅크는 조금 더 나은 은행이 아닌 ‘새로운 은행’이 되고자 한다”고 강조했다.한편, 지난달 10일 시작된 토스뱅크 사전 신청에는 약 100만명이 몰렸다. 토스뱅크는 사전 신청자들에 대해 이달 중으로 여·수신·카드 서비스를 순차 오픈한다는 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2021.10.15.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>키움증권, 첫 5년물 공모 회사채 발행 도전</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000629027?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>18일 1500억원 규모 3·5년물 회사채 수요예측 진행…최대 3000억원 증액 계획도키움증권이 1천500억원 규모의 회사채 발행에 나선다. 키움증권의 일반 선순위 회사채 발행은 지난 2018년 이후 3년 만이며, 5년물 발행은 이번이 처음이다.키움증권은 수요예측 결과에 따라 최대 3천억원까지 증액 발행도 계획하고 있다.키움증권이 사상 처음으로 장기물인 5년만기 회사채 발행에 나선다.사진은 키움증권 본사 전경. [사진=키움증권]15일 키움증권에 따르면 오는 18일 일반 회사채 3년물 1천억원, 5년물 500억원 발행을 위한 수요예측을 진행한다.키움증권의 이번 회사채 발행은 지난 2018년 11월 발행한 2천억원의 회사채(3년물)의 만기를 앞두고 이를 상환하기 위한 것이다. 키움증권은 수요예측 결과에 따라 3년물과 5년물을 합쳐 최대 3천억원까지 발행금액을 늘리는 방안도 고려 중이다.키움증권 관계자는 "이번 회사채 발행으로 조달하는 자금은 만기가 돌아오는 2천억원의 회사채를 상환해 자금구조의 안정성을 높이기 위한 것"이라며 "부족 자금은 자체 보유 자금으로 조달하고, 수요예측을 통해 증액 발행이 결정되는 경우에도 채무상환 자금으로 쓸 예정"이라고 설명했다.특히 키움증권이 장기물인 5년 만기 회사채를 처음으로 발행하기로 해 눈길을 끈다. 키움증권은 지난해 6월 1천억원 규모의 만기 7년짜리 후순위채를 발행한 바 있지만, 3년물 외에 일반 선순위 회사채의 장기물 발행은 이번이 처음이어서 수요예측 결과에 이목이 집중된다.후순위채는 선순위채보다 변제 우선 순위가 낮아 투자자 입장에서는 리스크가 높다. 때문에 상대적으로 동일 등급 선순위채보다 금리가 높아 그에 따른 비용이 큰 편이다. 키움증권은 2017년 처음으로 회사채를 발행한 이후 신용등급 'AA-'를 유지해왔다. 그러나 지난해 발행한 후순위채는 발행 당시 신용등급이 한 단계 낮은 'A+'를 받았다.키움증권이 이번 5년물 선순위채 발행에 성공할 경우, 추후에도 장기물 발행을 통해 단기물 위주의 차입구조를 개선하는 등 안정적인 자금 운용과 차입 비용 절감이 가능할 것으로 보인다.최근 증권사들이 연이어 발행 회사채의 '완판'(완전판매)에 성공하고 있다는 점도 키움증권의 회사채 수요예측 흥행에 대한 기대감을 높이고 있다.삼성증권은 전날 진행된 회사채 수요예측에서 모집 물량인 2천억원의 3배 가까운 5천800억원의 자금이 몰렸다. 3년물은 1천억원 모집에 3천억원, 5년물은 1천억원 모집에 2천800억원의 매수 주문이 들어오며 흥행에 성공했다.앞서 진행한 한국투자증권의 회사채 수요예측에는 3년물(1천500억원)과 5년물(500억원)에 각각 3천300억원, 1천900억원의 주문이 들어왔다. 대신증권은 1천억원의 3년 만기 회사채에 총 4천250억원의 자금이 들어왔다. 이에 한국투자증권과 대신증권은 각각 3천억원, 1천500억원으로 증액 발행을 결정했다.최근 키움증권과 같은 신용등급(AA-) 회사채 5년물의 수요예측 결과도 양호하다. KCC와 롯데렌탈, 한국금융지주 등 최근 3개월 사이 수요예측을 진행한 8개사의 5년물 회사채의 경우, 모두 완판에 성공하며 전체 평균 경쟁률 2.12대 1을 기록했다.한국신용평가와 나이스신용평가는 이번 키움증권 선순위 회사채의 신용등급을 'AA-(안정적)'으로 평가했다. 위탁매매부문의 공고한 시장 지위와 안정적인 수익성, 양호한 자본 적정성 등이 긍정적이라는 평가다.이규희 나이스신용평가 선임연구원은 "키움증권은 업계 최고 수준의 위탁매매부문 시장 지위를 유지하고 있고, 자회사 인수와 투자은행(IB) 부문 영업 확대 등으로 수익원을 다각화하고 있다"며 "카카오페이증권·토스증권 등 플랫폼 위주 증권사와의 경쟁은 수익성에 부정적 요인으로 작용할 가능성이 있지만, 선점한 고객 기반과 사업다각화 노력을 감안하면 키움증권의 경쟁력은 지속될 것"이라고 평가했다.오재민 한국신용평가 연구원은 "키움증권의 지난 6월말 기준 조정 영업용순자산비율(NCR)이 2019년보다 74.9%포인트 증가한 256.7%까지 개선됐다"며 "이익 누적과 위험액 관리, 후순위채와 상환전환우선주(RCPS) 발행 등을 통해 양호한 수준에서 자본적정성을 관리하고 있다"고 분석했다.한편, 키움증권은 지난 6월 4천400억원 규모의 RCPS 발행을 통해 자기자본 3조원을 넘어섰다. 키움증권은 이를 바탕으로 종합금융투자사업자(이하 종투사) 지정을 추진 중이다.종투사 자격을 얻으면 기업대출, 보증 등 기업 신용공여 업무를 취급할 수 있어 IB 업무 영역이 이전보다 크게 확장되는 효과가 있다. 특히 신용공여가 현재의 2배인 자기자본의 200%까지 가능해져 키움증권의 수익성 개선에 기여할 수 있을 것으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2021.10.10.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>'네이버·카카오' 규제가 공정? 독과점 폐해는 경쟁으로 막아야[이슈진단]</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004721013?sid=105</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>타다 인수한 금융 플랫폼 토스"카카오모빌리티 독주 막겠다"대형 플랫폼 기업 규제만 해선혁신적 스타트업 싹 못 틔워시장 사업자간 경쟁 활성화를 지난 7일 국회에서 열린 산업통상자원중소벤처기업위원회의 중소벤처기업부 등에 대한 국정감사에서 김범수 카카오 의장(앞줄 왼쪽 첫번째) 등 증인 참석자들이 선서하고 있다. 사진=박범준 기자 정치권이 내년 3월 대선을 앞두고 플랫폼 참여자에 대한 '공정'이라는 명분을 내세워 플랫폼 사업자를 향한 '규제의 칼'을 본격적으로 꺼내 들었다. '카카오 T(택시)'를 예로 들면 택시기사 표심을 잡기 위해 카카오모빌리티를 때리는 모양새다. 이 과정에서 카카오택시 이용자 편익은 외면받고 있다.   국정감사 곳곳에서 나온 규제 키워드는 △시장점유율 제한 △수수료 인하 압박 △인수합병(M&amp;A) 요건 강화 등이다. 하지만 정치권 여론몰이에 주로 사용되는 '골목상권 침해' '갑질' '문어발 확장' 등 실체 없는 프레임만 난무할 뿐 각 키워드에 대한 구체적 정책 대안은 없다.   이와 관련, 업계에서는 지난해 4월 총선을 앞두고 불거졌던 '타다 사태'처럼 혁신적 서비스는 기득권(표심)에 밀려 종료되고, '제2의 타다'는 등장하지 못하는 악순환이 반복될 것이란 우려가 높아지고 있다.   ■시장점유율까지 법으로 제한한다?   10일 국회 및 관련 업계에 따르면 정무위원회, 환경노동위원회(환노위), 산업통상자원중소벤처기업위원회(산자위) 등 각 상임위원회는 국감 내내 네이버, 카카오, 카카오모빌리티, 야놀자, 우아한형제들(배달의민족) 등 플랫폼 사업자들에게 맹공을 펼쳤다. 이와 관련, 각 사업자 대표들은 사과와 해명을 반복하면서도 '플랫폼 경제 활성화'의 중요성을 피력했다.   산자위 소속 정의당 류호정 의원은 카카오 등 대기업의 대리운전 시장점유율을 제한해야 한다는 주장을 내놨고, 카카오 김범수 의장은 "시장점유율을 법으로 제한하는 것이 해결방안으로 적절한지 모르겠다"고 반박했다.   산자위 소속 더불어민주당 이성만 의원이 제기한 카카오 시장 독점이 수수료 인상으로 이어질 수 있다는 우려에 대해서도 김 의장은 "플랫폼이 활성화되면 수수료를 내릴 수 있는 여지가 생긴다"고 강조했다.   다만 플랫폼은 이용자 편익과 공급자 수익을 동시에 높여야 한다는 게 그의 설명이다. 이에 따라 카카오는 택시를 부를 때 배차성공률을 높여주는 '스마트호출' 유료 서비스를 폐지하고, 카카오 플랫폼을 통해 서비스를 공급하는 이들을 위한 추가 상생방안을 내놓을 예정이다.   ■시장경쟁 활성화로 독점폐해 막아야   그럼에도 네이버와 카카오 등 플랫폼 사업자를 향한 정치적 공세는 당분간 지속될 전망이다. 하지만 대형 플랫폼에 대한 견제가 규제 일변도로 갈 경우 '제2, 제3의 네이버, 카카오' 등장을 통한 시장경쟁 촉진은 묘연해진다는 지적이다. 최근 금융 플랫폼 '토스'가 '타다'를 운영하는 VCNC를 인수해 카카오모빌리티 독주에 제동을 걸겠다고 나선 것처럼 규제가 아닌 시장경쟁 활성화로 독과점 폐해를 막아야 한다는 게 업계 중론이다.   또 업계에서는 여야는 물론 공정거래위원회 등 정부가 밝힌 플랫폼 기업 M&amp;A 심사기준 강화 방침에 우려의 목소리를 높이고 있다. M&amp;A에 대한 엄격한 규제가 창업 생태계 활성화에 찬물을 끼얹을 수 있다는 것이다.   연쇄창업가(serial entrepreneur)로 유명한 권도균 프라이머 대표는 "대기업이 스타트업을 인수하면 창업 선순환이 이뤄진다"면서 "혁신적인 스타트업 종사자들이 대기업에 들어가 오픈이노베이션을 하는 리프레시 효과를 기대할 수 있고, 엑시트(투자금 회수) 후 또다시 창업하는 이들도 있다"고 전했다. 이어 "대기업이 소기업이 하는 사업까지 침해해서 자본으로 황폐화시키는 부분에 대해서는 경계하면서도 M&amp;A를 활성화할 수 있는 다각적인 검토가 필요하다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>연 2%대 금리에 최대 2.7억 신용대출…토스뱅크 출범</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003385393?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>3호 인터넷전문은행 토스뱅크가 5일 ‘완전히 새로운 은행’을 선언하며 정식 출범했다. 토스뱅크는 중·저신용자의 대출 상환능력을 정교하게 평가하는 신용평가모형(CSS)을 통해 그동안 1금융권을 이용하지 못한 차주 중 30%에게 중금리대출을 제공한다는 계획이다. 사전신청에 참여한 고객을 시작으로 이날부터 순차적인 서비스 개시에 나선다. 홍민택 토스뱅크 대표가 출범 기자간담회를 하고 있다. (토스뱅크 제공) 2021.10.5/뉴스1‘만기, 한도 등 아무 조건 없이 연 2%의 이자를 주는 예·적금 통장’, ‘은행권에서 가장 낮은 연 2.76% 금리의 신용대출’, ‘월 최대 4만6500원을 돌려주는 체크카드’.  국내 3호 인터넷전문은행 토스뱅크가 이처럼 파격적인 조건의 금융상품을 내세우며 5일 공식 출범했다. 홍민택 토스뱅크 대표는 이날 온라인으로 진행한 출범식에서 “최대한의 혜택을 최소한의 조건으로 받는 것, 이 두 가지를 충족하는 상품을 만들었다”고 강조했다.   그는 “조금 더 나은 은행이 아닌 ‘완전히 새로운 은행’이 되기 위해 수많은 고정관념에 대해 새로운 관점을 가지고 접근했다”고 했다. 카카오뱅크, 케이뱅크와 함께 ‘삼국지 시대’를 연 인터넷은행들의 경쟁이 치열해지면서 금융 혁신을 가속화할 것이라는 전망이 나온다.● 수신·대출상품 모두 연 2%대 파격 금리토스뱅크는 이날부터 사전 신청 고객을 대상으로 예·적금, 신용대출, 체크카드 발급 등 은행 서비스를 순차적으로 시작했다. 지난달 10일 시작된 사전 신청에는 이날 오전 1시까지 총 116만 명이 몰렸다.   ‘토스뱅크 통장’은 납입 금액이나 만기 등의 조건 없이 연 2%의 금리를 준다. 예금과 적금을 따로 구분하지 않고 하나의 통장으로 ‘보관하기’(예금)와 ‘모으기’(적금) 등이 모두 가능한 게 특징이다. 금리도 은행권에서 가장 높다 카카오뱅크와 케이뱅크의 정기예금 최고 금리는 연 1.6%이며, 시중은행의 예금 금리 역시 1%대에 불과하다.  ‘토스뱅크 신용대출’ 상품의 금리는 최저 연 2.76에서 최고 15.00%로 폭넓게 설정됐다. 대출 최저 금리 역시 은행권에서 가장 낮은 수준이다. 대출 한도는 2억7000만 원으로 높은 편이다. 다만 토스뱅크도 금융당국의 규제에 따라 대출 한도를 ‘연소득 이내’로 제한하기로 했다. 특히 신용등급, 직업 등에 따라 대출 상품을 구분하지 않고 단 하나의 상품으로 개별 고객의 신용도를 평가해 한도와 금리를 제공하기로 했다. 조민석 토스뱅크 데이터사이언스팀 리더는 “기존 시장에서 중·저신용자로 분류돼 제1금융권 대출이 어려웠던 사람의 30% 이상이 토스뱅크에서 대출을 받을 수 있을 것”이라고 설명했다. 사용한 만큼 이자가 붙은 한도 1억5000만 원의 ‘마이너스통장’과 최대 300만 원 한도의 ‘비상금대출’도 함께 내놨다.● 내년 전세대출 등 상품 확대… 수익성·대출 관리 우려도이날 공개한 ‘토스뱅크 체크카드’는 전월 실적 등 조건 없이 커피·패스트푸드·편의점·택시·대중교통 등 5개 분야에서 결제하면 매달 최대 4만6500원의 캐시백 혜택을 준다. 해외에서 결제하면 온·오프라인 구분 없이 결제금액의 3%를 캐시백한다.   토스뱅크는 내년 비대면 전세자금대출을 선보이는 데 이어 향후 주택담보대출과 신용카드 사업에도 진출할 계획이다.   토스뱅크의 파격적인 금리 조건을 두고 일각에서는 예금과 대출 금리 차가 적어 수익성과 건전성에 문제가 있을 수 있다는 지적도 나온다. 최근 금융당국의 대출 조이기로 ‘대출 보릿고개’가 심화되면서 돈줄이 막힌 대출자들이 토스뱅크로 몰릴 것이라는 전망도 제기된다.   김대종 세종대 경영학부 교수는 “토스뱅크의 예대금리 차이는 상당히 낮은 편이라 이 수준이 오래 지속되지 않을 가능성이 있다”고 했다. 이에 대해 홍 대표는 “시중은행으로서 준수해야 하는 건전성과 수익성 지표의 규제 수준을 지키면서도 연 2% 금리를 유지할 수 있도록 설계했다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2021.10.10.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>5대 은행 가계대출 이미 5% 육박…'대출 중단' 임박</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000628071?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>"연말까지 상품 중단 않으려 미리 관리"가계부채에 대한 금융당국의 엄격한 관리 기조에 따라 국내 은행들이 '대출 조이기'에 나선 가운데, 시중 은행의 올해 가계대출 증가율이 이미 정부가 제시한 목표치에 육박한 것으로 나타났다.10일 KB국민·신한·하나·우리·NH농협은행 등 국내 5대 은행이 각각 내놓은 가계대출 잔액 등 수치를 종합한 결과, 이들 은행의 가계대출 잔액은 지난 7일 기준 703조4천416억원으로 지난해 12월 말(670조1천539억원)보다 4.97% 늘었다.금융당국은 가계대출이 폭발적으로 늘어나는 상황을 통제하기 위해 각 은행에 대출 잔액의 전년 대비 증가율 상한선을 평균 5∼6%로 제시하고 있다. 각 은행은 정부의 목표치를 지키기 위해 수시로 대출 현황을 모니터링하는 것을 넘어 대출 진입장벽을 높이거나 일부 상품 판매를 중단하는 등 조처에 나서고 있는 상태다. 농협처럼 가계대출 상품 판매를 전면 중단하는 상황에 이르지 않기 위해 '선제 조치'를 한다는 것이다.대출 규제 강화 기조 속에 시중은행 창구에서 대출자가 상담을 받고 있다. [사진=뉴시스]각 은행의 가계대출 잔액 증가율(7일 기준)을 보면, 연말까지 대출 상품 판매를 멈추기로 한 농협이 7.14%로 가장 높았다. 하나(5.23%), 국민(5.06%), 우리(4.24%), 신한(3.16%)은행이 그 뒤를 이었다.가계대출 종류별로는 전세자금대출을 포함한 주택담보대출의 전년 대비 증가율이 5.09%로 나타났다. 특히 전세자금대출은 지난해보다 15.68% 늘어난 상태다. 신용대출도 전년 대비 10.14%나 불어났다.이처럼 가계대출 증가세가 가팔라지자 은행들은 대출 문턱을 높이고 있다. 하나은행은 결국 오는 15일부터 이미 국민은행이 한 것처럼 '전셋값 증액분'만큼만 전세대출을 해주는 방식으로 한도를 조절하기로 했다. 가계대출 증가율 목표치에 다다른 은행들이 국민은행처럼 전방위적인 대출 관리에 들어가느냐를 두고 관심이 쏠렸는데 하나은행도 국민은행의 전철을 밟게 된 것이다. 5대 은행 가운데 증가율이 가장 낮아 상대적으로 여유가 있었던 신한은행은 그동안 대출 모집인을 통한 전세대출의 경우 한도를 5천억원으로 정해 관리해왔는데 한도가 거의 다 차 조만간 중단할 예정이다.은행들의 가계대출 증가율이 당국이 제시한 목표치에 상당히 근접했지만 금융당국이 실수요자가 감당하지 못할 피해를 입게 방치하지는 않겠다는 입장이라 전면적인 대출 중단 사태가 발생하지는 않을 것으로 보인다.정부가 제시한 목표치는 5∼6%인데 은행 평균 7%를 넘기지 않게 미리 관리를 잘 하라는 취지라서다. 은행이 선제 관리에 나선 만큼 당국이 대출 상품 판매를 사실상 중단시킬 정도로 ‘강공 드라이브’를 걸 가능성은 낮다. 대출 중단으로 인한 실수요자 피해는 대선을 앞둔 상황에서 정부에도 상당한 부담이 될 수 있다. 각 은행이 대출 현황을 미리 관리하는 것도 궁극적으로는 판매 중단을 막기 위해서라는 게 은행권의 설명이다.한편 지난 5일 초저금리 대출을 제시하며 화제를 모은 세 번째 인터넷 전문은행 토스뱅크는 출범한 지 일주일도 안 돼 금융당국이 제시한 한도(5천억원)의 60%인 3천억원 가까이 대출이 나갔고, 중저신용자 대출 비중도 25%를 넘어섰다. 정부 기조에 따라 은행들이 속속 대출 한도를 높이는 등 관리에 나서자 '풍선효과'로 토스뱅크에 수요가 쏠린 것으로 보인다. 토스뱅크마저도 대출을 멈추는 게 아니냐는 우려가 나오지만 일단 은행 쪽에서는 순차적으로 서비스 이용 인원을 풀면서 조절을 해나가겠다는 입장이다. 10일 현재 토스뱅크는 사전신청자 45만명을 대상으로 서비스를 연 상태인데 한글날 연휴 동안 추가적인 서비스 개시를 보류하기로 했다.금융당국은 이달 중순께 '가계부채 보완대책'을 발표할 예정이다. 최근 정부는 대책 가운데 하나로 '고(높은) 총부채원리금상환비율(DSR) 대출'의 비중을 줄이는 방안을 두고 시뮬레이션을 돌려본 것으로 알려졌다.다만 검토 결과 이러한 방식이 가계대출 관리에 얼마나 큰 도움이 되는지 효과성이 입증되지 않아 고 DSR 대출 비중 축소가 정부 정책으로 곧바로 이어질 지는 미지수다. DSR은 차주의 상환 능력 대비 원리금 상환 부담을 나타내는 지표로, 돈 빌린 사람의 모든 대출의 연간 원리금 상환액을 연소득으로 나눠 계산한다.금융당국 관계자는 "5∼6%는 올해 초 총량 관리 목표를 잡을 때 처음 설정한 비율이고, 이후 경제 성장률이 예상보다 높아져 금융사와 협의를 거쳐 각사 목표가 6%대에서 정해졌다"며 "각 금융사가 자신의 관리 목표를 알고 있을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2021.10.13.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>두 달 새 반토막난 ‘카카오뱅크’···케이뱅크, 토스뱅크 가치도 영향받나</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003972522?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>'시총 44조 은행주 대장'...두달새 40% 넘게 하락성장주 약세에 당국 플랫폼·대출규제에 영향 받아관심받던 다른 인터넷은행도 규제에 분위기 반전증권가 "강력 규제, 인터넷은행 전략 수정 불가피"[서울경제] 상장 후 고공행진을 하던 인터넷전문은행 카카오뱅크(323410)의 주가가 증시 조정에 부진한 모습을 보이며 다른 인터넷은행의 기업가치에도 관심이 모아진다. 증권가에선 인터넷은행 중 가장 먼저 상장을 한 카카오뱅크의 주가를 인터넷은행의 기업가치 평가의 기준으로 삼고 있기 때문이다.◇시총 44조던 은행 대장주...두달새 40% 하락12일 카카오뱅크는 전날보다 2.98%(1,700원) 하락한 5만5,300원에 장을 마쳤다.지난 8월 5일 공모가 3만9,000원으로 상장해 10거래일 만인 지난 8월 18일 9만4,400원까지 오르며 장중 최고가를 기록했던 카카오뱅크는 이후 40% 이상 하락하며 부진한 모습을 보였다. 같은 기간 44조원을 넘었던 시가총액도 26조원까지 쪼그라들었다.상장 직후 강세의 원동력이던 IT플랫폼으로의 성장주에 해당하는 밸류에이션이 오히려 조정장에서는 악영향을 미친 것으로 풀이된다. 국내 기준 금리 인상과 미국 테이퍼링, 글로벌 인플레이션 우려 등으로 증시가 완연한 조정세를 보인 지난 8월 17일 이후 지난 8일까지 6주간 KRX은행 지수는 소폭 올랐으나 네이버와 카카오, 엔씨소프트, 넷마블, 삼성SDS 등을 담고 있는 BBIG K-뉴딜지수는 3,060.80포인트에서 2,741.70포인트로 10% 가까이 하락했다. 상승장에서 카카오뱅크의 밸류에이션의 단초가 됐던 플랫폼 기업으로서의 성격은 조정장에서 더 큰 하락으로 이어졌다. 모기업인 카카오에 대한 규제와 대출 규제 이슈도 투자심리에 악영향을 줬다.전배승 이베스트투자증권 연구원은 “금융플랫폼에 대한 금소법 적용과 마찬가지로 가계대출 규제조치가 인터넷전문은행에 대해서도 동일하게 적용될 경우 향후 외형성장에 상당한 제약요인으로 작용하고 있다”며 “최근의 카카오뱅크 주가조정에는 이러한 우려감이 상당부분 반영되고 있는 것으로 판단된다”고 말했다.상장 후 급등과 급락을 맛본 카카오뱅크지만, 향후 주가 전망은 엇갈린다.김현기 하이투자증권 연구원은 “카카오톡 앱의 MAU가 아직도 오르고 있는 점을 고려할 때 지금 당장의 수급 이슈나 규제 이슈에도 성장성을 긍정적으로 본다”고 평가했다.반면 구경회 SK증권 연구원은 “글로벌 언택트 은행의 모범사례, 은행업에 개혁을 불러올 기업, 국내 은행주 사상 최고의 기업가치, 성공적인 디지털 금융플랫폼 등 카카오뱅크를 설명하는 문장은 칭찬 일색이지만 문제는 (지나치게 높은) 밸류에이션"이라며 너무 높은 상태인 주가로 인해 상승 여력이 제한될 것으로 평가했다.◇'상장 유망주' 다른 인터넷은행도 두달새 분위기 반전카카오뱅크의 주가에 대한 재평가가 이뤄지며 증권가 관심은 또 다른 인터넷은행인 케이뱅크와 토스뱅크로 모아진다. 케이뱅크는 지난 2분기 처음으로 흑자전환에 성공한 뒤 오는 2023년 상장을 발표한 상태고, 토스뱅크는 이달초 기대감 속에 영업을 개시했다.앞서 지난 5월 1조2,000억원 규모의 유상증자를 단행할 당시 기업가치를 2조4,000억원으로 평가받았던 케이뱅크는 카카오뱅크 상장 이후 가치가 크게 올랐다. 최남곤 유안타증권 연구원은 카카오뱅크 상장 직후 내놓은 보고서에서 “카카오뱅크의 주가순자산비율(PBR)은 상장일 기준 6~7배 정도였는데 이를 그대로 케이뱅크에 적용하면 예상 시총은 10조2000억 원”이라고 평가했다.외국계 투자은행(IB) 골드만삭스도 “케이뱅크는 이번 분기에 수신잔고는 11조원을 넘어섰고, 대출 잔액은 5조원으로 수신과 균형을 맞출 필요가 있지만, 무담보 신용 대출과 전세 대출로 꾸준히 진전을 보이고 있다”며 “보수적으로 봐도 케이뱅크의 가치는 8조원”이라고 진단했다.다만 한때 8배를 넘었던 카카오뱅크의 주가순자산비율(PBR)이 5~6배 수준으로 떨어지며 시장에서 평가하는 케이뱅크의 가치도 정점보다는 떨어진 상태다. 지난달 한때 비상장주식거래플랫폼에서 주당 3만5,000원, 시가총액 13조원에 달했던 케이뱅크의 기업가치는 12일 주당 1만7,000원에 거래되며 시가총액 6조4,000억원 수준을 형성하고 있다.지난 5일 출범한 막내 인터넷은행 토스뱅크는 토스 플랫폼과 한도 최대 2억7,000만원, 최저 2.76%라는 파격적인 신용대출을 내세워 영업을 시작했다.토스를 사용하며 좋은 기억을 가진 이용자들이 많은 만큼 시장의 토스뱅크에 대한 기대감은 크다. 지난 6월 투자자들은 기업가치를 8조2,000억원으로 평가받았던 토스뱅크의 모회사(지분 34%) 비바리퍼블리카의 이날 장외거래가(11만7,000원)을 적용한 시가총액은 19조원에 달한다. 이는 지난 8일 발표한 타다 인수에 대한 기대감도 반영된 가격이긴 하지만 가파른 오름세다.증권가에서는 인터넷은행의 중장기 전망을 여전히 밝게 보고 있다. 다만 최근 금융 당국의 대출 규제가 시중은행에서 인터넷은행으로 확대되고 있는 점은 단기 악재다. 특히 파격적인 신용대출 상품을 내세운 토스의 경우 사업 전략 수정을 피하기 어려울 것이란 분석이다.전배승 이베스트투자증권 연구원은 “인터넷은행의 경우 시중은행과 달리 기업여신 취급이 제한되고 (설립 초기 제시한 목표에 따라) 중금리 대출 의존도가 높아질 수 밖에 없어 가계대출 억제에 따른 부정적 영향이 불가피하다”며 토스뱅크의 고성장 전략 또한 일정 부분 수정이 필요해 보인다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>[일문일답] 홍민택 토스뱅크 대표 "연 2% 수신 지속가능… 전세대출 내년 출시"</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000740476?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크가 대표가 5일 열린 온라인 출범식에서 발언하고 있다./사진=토스뱅크제3호 인터넷전문은행 토스뱅크가 '완전히 새로운 은행'을 선언하며 오늘(5일) 공식 출범했다. 토스뱅크는 최저 연 2.76%의 금리에 최대 2억7000만원의 한도를 제공하는 신용대출을 내놓은 데 이어 내년 전세자금대출을 출시한다는 계획이다.홍민택 토스뱅크 대표는 이날 온라인 출범식에서 아무런 조건 없이 연 2%의  금리를 제공하는 수시입출금통장과 관련해 "다른 은행보다 예금금리가 높은 편이지만 조달금리보다 크게 높은 것은 아니다"며 "감당 가능한 비용으로 판단해 정부 규제를 모두 준수하면서 연 2% 금리를 지속가능한 형태로 제공할 수 있도록 노력하겠다"고 말했다.홍 대표는 최저 금리 2.76%, 최대한도 2억7000만원의 신용대출에 대해서도 "연 2.76%의 금리는 전체 신용대출의 바운더리로 최대 금리 연 15%까지 스펙트럼을 제공하는 하나의 숫자"라며 "고신용자가 많이 유입되고 좋은 혜택을 받을 수 있도록 설계했다"고 설명했다. 이어 그는 "중·저신용자도 더 좋은 한도와 금리를 받을 수 있도록 CSS(신용평가모델)에 따른 금리와 한도를 책정했다"며 "이같은 조건은 일시적인 전략이 아니다"고 덧붙였다.홍 대표는 "우선 신용대출과 마이너스통장 등 여신 상품을 제공한 뒤 전세자금대출은 내년 출시할 계획"이라며 "다만 주택담보대출의 경우 기존 시장에서 전반적인 부분들이 모두 비대면화해야 하므로 정책적인, 법적인 부분의 검토를 시작했다"고 말했다.토스뱅크기 지난달 10일부터 시작한 사전 신청에는 이날 기준 110만명이 넘는 고객이 몰렸다. 토스뱅크는 이날 1만명을 시작으로 순차적으로 은행서비스를 개시할 계획이다.다음은 홍민택 토스뱅크 대표와의 일문일답이다.- 연 2% 금리를 제공하는 통장이 지속 가능한지 의구심이 든다. 언제까지 연 2% 금리 제공할 계획인지? ▶연 2% 금리는 다른 은행보다 금리가 높지만 현재 조달금리보다 크게 높은 수준은 아니고 충분히 감당 가능하다. 토스뱅크는 시중은행으로서 건전성·수익성 등 다양한 사업적 지표에 대해 정부 규제를 준수해야하고 이에 모두 준수하며 연 2% 이자를 지속가능한 형태로 제공할 수 있게 상품을 만들었다. 앞으로도 고객에게 혜택을 이러한 혜택을 지속 제공하도록 최선을 다해 토스뱅크를 운영하고 관리하겠다.-최근 가계대출 조이기 등 정부 규제가 강화되고 있는데 토스뱅크도 이같은 규제를 받는가? 받는다면 신용대출 규모는 얼마인지?▶토스뱅크 역시 시중은행과 동일한 규제 환경에 놓여있다. 이에 따라 정부가 추진하는 정책 방향에 공감하고 협력할 계획이다. 이제 막 영업을 시작하는 시점에서 대출 규모를 구체적으로 예상하기는 어렵다. 영업 과정에서 정부 정책, 시장 상황, 고객 수요에 따라 대출 규모는 유동적으로 바뀔 수 있다.-토스뱅크의 중저신용자 대출 공급 목표가 연내 34.9%로 다른 인터넷은행보다 높다. 달성 가능한 목표인가?▶토스뱅크는 인터넷은행 본연의 임무인 중·저신용자 포용에 중점을 둔다. 기존 인터넷은행이 고신용자(영업에) 치중했다는 시장 평가도 인지하고 있다. 여신상품 운영과정에서 수익성·건전성을 유지하며 정부정책 방향에 보조를 맞추도록 노력하겠다. 금융·비금융정보를 포괄하는 신용평가 모델을 기반으로 가능하며 새로 시작하니까 다른 곳보다 달성하는 것도 유리한 점이 있다고 판단한다. 많은 중·저신용자에게 안정적으로 자금, 여신을 공급할 계획이다.-다른 은행대비 신용대출 금리가 낮고 한도가 높은데 영업 초반의 일회성 전략인가?▶토스뱅크 최저금리 2.76%, 최대한도 2억7000만원은 전체 신용상품 바운더리로 이해해야 한다. 연 2.76%의 금리는 최대 금리 연 15%까지 스펙트럼을 제공하는 하나의 숫자로 고신용자가 많이 유입되고 좋은 혜택을 받을 수 있도록 설계했다. 중·저신용자도 더 좋은 한도와 금리를 받을 수 있도록 CSS(신용평가모델)에 따른 금리와 한도를 책정했으며 이같은 조건은 일시적인 전략이 아니다.-주택담보대출·전세대출도 출시하나?▶전세대출은 내년 중 출시할 계획이다. 주담대는 고객이 대출을 받는 전반적 과정이 비대면화 돼야 해서 정책적인 법적부분 검토를 시작한 단계다. 출시하게 되면 실제 계약서나 오프라인에서 일어나는 활동을 다 포용할 수 있는 비대면 프로세스가 구축된 형태여야한다.-신용카드 출시 계획이 있는지?▶토스뱅크는 신용판매, 카드에서 파생되는 여신상품까지 확장하고 고객에게 더 나은 편익을 제공하는데 관심을 갖고 있다. 라이선스 취득과 관련해 정부와 논의를 진행하고있다. 구체적인 사업 전략을 공유하기는 이르지만 신용카드 사업에 관심을 갖고 있다.-토스뱅크의 자본금확충을 위한 증자시기와 방식은? 상장 계획은?▶앞서 5년간 1조원 규모의 자본 증자 계획을 공유한 바 있다. 토스뱅크 모객이 흥행에 성공하면 무엇보다 서비스 중단없이 시장에 제공하는 것을 우선순위로 두고 있다. 더 빠르게 큰 금액을 증자할 수 있도록 토스뱅크 모든 주주와 사전 협의돼있다. 상장 계획은 확정된 바 없다.-암호화폐 거래소(가상자산 거래소)와 제휴 계획이 있는가?▶아직까지 구체적인 계획이 전혀 없다. 현재는 고객에게 제공되는 여신, 수신, 카드 서비스들이 안착하는데 역량을 기울이고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2021.10.08.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>반려동물 트렌드 덕분에…'강아지대통령' 투자 유치 성공 [VC브리핑]</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004614047?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>[한경 CFO Insight]벤처캐피털(VC) 및 스타트업 정보업체인 'The VC'와 함께 지난주 VC 투자 현황을 요약 정리해드립니다. 오늘의 투자에서 내일의 아이디어를 얻으시기 바랍니다.◆'강아지대통령' 반려동물 플랫폼 펀엔씨, 80억원 투자 유치반려동물 e커머스(전자 상거래) 업체인 펀엔씨가 80억원 규모 벤처투자금 유치에 성공했습니다. 이번 투자에는 위벤처스, KB인베스트먼트, 한국투자증권, IBK기업은행 등이 참여했습니다.펀엔씨는 '강아지대통령'과 '고양이대통령'이라는 반려동물 관련 e커머스 서비스를 하는 회사입니다. 1만5000개 이상의 반려동물 관련 상품을 분류해 팔고 있는데요. 제품별로 유통기한 관리 시스템을 구축해 물류 풀필먼트를 갖췄다는 게 특징입니다. 누적 거래액은 2800억원 이상, 누적 가입고객은 100만명을 넘어섰습니다. 펀엔씨는 반려동물 간식 '츄통령', 배변패드 '흡수혁명' 등의 브랜드를 보유하고 있습니다. 반려동물 전문 훈련사를 매칭 시켜주는 등의 돌봄 서비스와 반려동물 맞춤 보험 상품 비교·가입 중개 서비스, 반려동물 의료·미용 매칭 서비스도 합니다. 반려동물 시장이 커지면서 회사의 성장세도 가파를 것으로 예상됩니다.◆숙박 예약관리 플랫폼 '온다' 프리 시리즈 B 라운드로 95억원 조달숙박 B2B 플랫폼 ‘온다’가 KB인베스트먼트, 캡스톤파트너스, 지앤텍벤처투자, 나우아이비캐피탈, 한국투자파트너스 등으로부터 95억원 규모의 프리 시리즈 B투자를 유치했습니다.온다는 지난 2016년 설립된 호텔 및 숙박 SaaS(서비스형 소프트웨어) 스타트업입니다. 국내에서는 최초로 숙박관리시스템(PMS), 숙박상품판매중개(GDS), 호텔매니지먼트(HM), 숙박 위탁운영브랜드 ‘쏘타컬렉션(SoTA : Collection)’ 사업을 동시에 전개하고 있습니다. 온다는 이번 투자 유치로 호텔, 리조트, 펜션 등 숙박 산업 전반의 디지털 트랜스포메이션에 박차를 가할 예정입니다. 파트너사들이 코로나19로 가속화된 비대면 트렌드에서 앞서갈 수 있도록 ‘온다 PMS 2.0’을 곧 공개할 예정인데요. 구글호텔과 같은 새로운 판매 채널을 연동하고 고객과 직접 소통할 수 있는 D2C 기능이 대폭 강화될 예정이라고 합니다. ◆웹사이트 솔루션 제공 스타트업 '아임웹' 100억원 투자 유치소상공인을 위한 쇼핑몰 솔루션을 제공하는 스타트업 아임웹이 알토스벤처스로부터 100억원을 단독으로 투자받았습니다. 알토스벤처스는 국내에서 쿠팡, 크래프톤, 배달의민족, 직방, 당근마켓, 토스 등 굵직한 플랫폼 회사들을 발굴해냈습니다.아임웹은 개발이나 포토샵, 코딩과 같은 전문 지식이 없어도 개인이 손쉽게 웹사이트나 쇼핑몰을 만들 수 있는 솔루션을 서비스하고 있습니다. 개발자 인건비나 값비싼 외주 비용을 감당하기 어려운 소상공인과 1인 사업자의 호응을 얻고 있다는 평가입니다. 1년 후 고객 유지율은 94%에 달합니다. 지난 8월 기준 고객사 거래액은 1조3000억원, 사이트 개설량은 34만개입니다. 상장사인 카페24에 이어 업계 2위입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2021.10.11.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>저축은행, '대출비교 플랫폼' 통한 대출 2년간 20배 급증</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004981324?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>서울 강남구 토스뱅크 본사. /김현민 기자 kimhyun81@저축은행과 지방은행이 토스·카카오페이·핀다 등 온라인 대출 비교 플랫폼을 통해 취급한 대출 규모가 급증해 빅테크에 대한 의존도가 한층 높아진 것으로 나타났다.11일 국회 정무위원회 소속 윤창현 국민의힘 의원이 금융감독원으로부터 제출받은 자료에 따르면 올해 1∼7월 애큐온·SBI·유진·모아·페퍼·상상인·한국투자·KB·웰컴·OK저축은행 등 10개 저축은행의 누적 신규 개인신용대출 12조2215억원 중 18.9%(2조380억원)가 대출 비교 플랫폼을 통해 취급됐다.2019년 0.7%(871억원), 지난해 6.8%(1조1246억원)에서 많이 늘어난 수치다. 특히 애큐온 저축은행의 개인신용대출 1조422억원 중 절반이 넘는 5397억원(51.8%), 모아저축은행의 경우 3553억원 중 1558억원(43.9%)이 비교 플랫폼을 통해 취급됐다. 시중은행보다 적은 점포 수를 운영하는 금융사가 대출비교 플랫폼으로 옮겨가며 온라인 영업 비중을 확대한 영향으로 풀이된다. 지방은행에서도 마찬가지였다. 올해 1∼7월 전북은행과 광주은행이 취급한 개인 신규대출 각각 1조4563억원 중 18.5%(2703억원), 1조8970억원 중 15%(2874억원)가 플랫폼을 통한 대출이었다. 부산은행에서 비교 플랫폼을 통해 취급된 대출은 지난해 전체 7조6698억원 중 1.4%(1112억원)에서 올 1∼7월 4조3250억원의 5.2%(2278억원)으로 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2021.10.04.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>간편송금 잘못 보낸돈, 5년간 총130억원달해</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004859938?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>온라인 금융 플랫폼이 제공하는 간편송금 서비스로 지난 5년간 약 130억원이 잘못 이체된 것으로 나타났다.4일 국회 정무위원회 소속 윤관석 더불어민주당 의원이 금융감독원에서 제출받은 자료에 따르면 토스, 카카오페이, 네이버페이 등 3개사의 간편송금 서비스를 이용하는 중 발생한 착오송금 금액은 2017년 2억6379만원에서 지난해 53억2334만원으로 20.2배나 증가했다.금액은 2018년 10억6126만원, 2019년 29억4785만원으로 꾸준히 늘었고 올 1~6월에는 이미 33억4547만원을 기록했다. 2017년부터 올 6월까지 착오송금 금액을 모두 합치면 129억4173만원에 달한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2021.10.14.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>[데스크라인]위드 코로나, 데이터 구동사회 준비해야</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002975450?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>금융 산업이 대면 접촉 대신 인공지능(AI), 인터넷, 모바일 등을 활용한 언택트 금융으로 급속히 전환되고 있다. 플레이어들은 이제 위드 코로나 시대를 어떻게 준비할 것인가에 촉각을 곤두세우고 있다.새로운 금융 시대가 열렸다.모바일 기기 대중화와 함께 AI, 응용프로그램개발환경(API), 클라우드컴퓨팅, 블록체인, 사물인터넷(IoT) 등 기술 발전 속도가 빠르기 때문이다. 코로나19 여파가 금융시장에서 핀테크와 빅테크 금융의 진출 확대를 견인했다. 최근 들어 디지털금융 리더십 선점 경쟁이 치열해졌다.금융시장에 다양한 IT 기반의 플레이어가 진입하면서 금융서비스는 다양해지고 고객 만족도는 높아졌다.반면 자금 이동성 증대에 따른 금융사의 유동성 리스크 확대, 출혈 경쟁에 따른 위험투자 증가 등 금융안정성 우려도 아이러니하게 커졌다. 최근 시중 은행이 가계부채 리스크를 최소화하기 위해 신규 대출을 중단하는 등 사회적 문제로 대두되고 있다.새로운 금융환경에 걸맞은 정책 과제 모색이 요구되는 가운데 화두로 떠오른 것이 바로 데이터다.플랫폼 사업자들이 디지털 서비스를 무료로 제공하면서 사용자로부터 개인정보를 제공받는 것이 일반화됐다. 단순히 디지털을 앞세우는 데 그치지 않고 디지털전환 양상을 유심히 분석하는 데이터 분석력이 금융기업의 경쟁력이 될 수 있다.최근 제3 인터넷 전문은행 토스뱅크가 출범했다. 출범하자마자 약 5000억원의 자금은 동이 났고, 대기자만 수만명에 이른다. 그동안 전통 금융에 불편을 느껴 오던 소비자들이 플랫폼 기반 디지털 금융으로 갈아탄 셈이다. 토스를 비롯한 핀테크·빅테크 기업이 다양한 형태로 금융서비스를 제공하면서 금융과 비금융 간 경계가 모호해지고 있다.전자상거래 기업이 자체 간편결제 서비스를 시작했고, 기존 상거래에서 축적한 데이터를 바탕으로 신용평가와 소액대출 등 금융서비스로 외연을 넓히고 있다.반대로 은행 등 전통 금융사가 여러 빅테크와 손잡고 융합 서비스를 선보이는 사례도 늘고 있다.중국 알리바바와 미국 아마존이 대표적이다.소셜미디어와 메시징 기업도 영향력을 확대하고 있다. 이용자 간 네트워크를 활용한 간편송금 서비스를 시작으로 다양한 영역의 부가 금융서비스를 내재화하고 있다. 페이스북과 텐센트가 이 진영에 속한다.검색엔진 기업은 검색 결과를 전자상거래 플랫폼에 연계, 소비자 접점과 금융서비스를 확장하는 모습을 보이고 있다. 구글, 바이두, 네이버 등이 대표적이다.한국의 경우 지급결제 영역 중심으로 빅테그 진출이 가속화했다. 내년에 개화하는 마이 페이먼트, 종합지급결제업 등을 통해 테크기업의 금융업 진출은 더욱 가속될 것으로 전망된다.디지털전환은 데이터 금융 확산과 직결된다. 고객 관리 고도화가 이뤄지고, 정보 통합이나 디지털 채널 활용 등 맞춤형 서비스가 속속 출현하고 있다. 또 금융정보와 비금융정보, 공공정보와 민간정보, 특정 그룹과 일반 정보 통합이 촉진됨으로써 새로운 부가가치가 창출되고 있다.디지털금융의 핵심은 데이터이다. 오픈뱅킹 시행, 데이터 3법 개정, 마이데이터 산업 도입 등이 규제 완화의 촉매로 작용했다. 금융 경영의 전통 방식도 크게 바뀌고 있다.코로나19가 촉발한 언택트 금융의 지형 변화는 기존의 전통 금융사로 하여금 다양한 생존전략을 모색하는 계기로 작용했다. 한 기업이 어느 플랫폼 내 가치사슬에서 어떤 위치를 차지하느냐의 문제는 어떤 데이터를 공급할 수 있는가와 직결된다. 온라인과 오프라인 데이터 결합을 통해 소비자 행태를 더욱 쉽게 이해하고 예측할 수 있다면 소비자 유입을 극대화하고 이를 수익으로 연결시킬 수 있다. 사업자 경쟁력의 원천은 데이터 양과 분석 능력이다.플랫폼 이용자에 대한 데이터를 매우 낮은 한계 비용으로 수집, 축적할 수 있어야만 디지털 금융시장에서 우위를 점할 수 있다.법제와 인프라 정비가 필요한 때다.우리나라도 개인정보보호위원회, 공정거래위원회, 금융위원회 등 정책당국 간에 더욱 긴밀한 협력체계를 구축하고 데이터 진흥에 필요한 각종 입법 노력을 해야 할 때다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2021.10.06.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>울산시 '부유식 해상풍력 국제포럼 2021' 개최</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002973492?sid=102</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>6일 ~ 7일, 온·오프라인 동시 진행정부정책·프로젝트 및 국내외 기업기술 설명의 장부유식 해상풍력 국제포럼 2021 웹사이트울산시가 주최하고 울산테크노파크와 한국수소산업협회가 주관하는 '부유식 해상풍력 국제포럼(FOWF) 2021'이 6일~7일 양일간 울산전시컨벤션센터(UECO)에서 온·오프라인으로 열린다.'울산 부유식 해상풍력발전'을 주제로 기조연설, 정부정책 및 프로젝트 발표, 해상풍력산업 공급망 구축을 위한 특별세션 등을 진행한다.첫날 기조 연설자로 오지원 쉘코리아 사장, 자크 에티엔 미쉘 에퀴노르사우스코리아 대표, 구즈만 피가 오션윈드 아시아태평양지구 사업개발 대표가 나온다. 줄리앙 푸제 지아이지-토탈에너지스 수석부사장, 토스턴 스멧 시아이피에스케이이앤에스 부회장은 영상으로 참석한다.산업통상자원부는 '한국 해상풍력 동향 및 정책방향'을 소개한다.문무바람, 에퀴노르, 지아이지-토탈에너지스, 케이에프윈드, 시아이피에스케이이앤에스, 석유공사는 각각 울산 부유식 해상풍력 발전단지 조성 프로젝트를 발표한다.프로젝트는 현재 풍황 조사용 라이다 설치를 완료하고 발전사업 허가를 취득하고 있는 단계다. 프로젝트 발표에는 향후 사업 추진계획, 지역 파급효과, 인력양성 및 주민과 상생방안 등이 포함돼 있다.둘째날에는 해상풍력산업 공급망 구축을 위한 △부유체(현대중공업) △풍력터빈(두산중공업, 유니슨) △블레이드(휴먼컴퍼지트) △원소재(POSCO, KCC, 조광요턴, 켐프) △케이블(LS전선) △설계 및 엔지니어링(에이스E&amp;T, 동양엔지니어링, 세호엔지니어링) △해상서비스(대상해운) △설치(KT서브마린) △유지보수(바이드뮬러코리아, 대명엘레베이터) △인증(DNV) △계류라인(dsr, 고려제강) △투자(KEB 하나은행) 등 관련 기업의 사업 발표가 이어진다.케이워터크래프트과 한국에머슨은 '풍력발전을 통한 그린 수소 생산'을 주제로 특별세션을 진행한다.송철호 울산시장은 “이 행사는 정부 '2050 탄소중립'에 따라 신재생에너지 육성을 목적으로 마련했다”며 “기업과 관련기관의 네트워크 구축, 해상풍력 관련 기술 개발과 산업 육성으로 일자리 창출과 지역경제 활성화를 이뤄내겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2021.10.01.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>제3 인터넷전문은행 '토스뱅크', 5일 영업시작</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002972716?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>제3 인터넷전문은행 토스뱅크가 정식 출범한다. 파격적인 혜택을 담은 여·수신 상품 경쟁력으로 영업 초기 가입자를 적극 유치한다는 계획이다. 연말까지 금융당국에 약속한 중금리대출 목표치 달성은 풀어야 할 과제다.토스뱅크는 “5일부터 사전 예약자를 대상으로 순차적으로 은행 애플리케이션(앱)을 오픈한다”고 밝혔다.직관적이고 편리한 간편송금서비스인 토스의 혁신적인 사용자경험(UX)과 노하우를 뱅크에도 그대로 구현할 것으로 보인다.토스뱅크는 2000만명이 사용하는 모바일 금융 앱 토스를 기반으로 '원앱'(One-app) 방식 서비스를 제공할 예정이다.별도 앱을 출시하지 않고 기존 토스 앱에 은행 서비스를 담아 소비자 접근성을 높인다.금리가 연 2%이면서도 가입 기간이나 예치 금액 등 별도의 조건 없이 수시로 입출금할 수 있는 토스뱅크 통장을 내놓으며 초반 고객 선점에 나선다.토스뱅크의 신용대출 최저금리는 2%대 후반이 될 것으로 보인다.토스뱅크 홈페이지에 1일 기준 게시된 신용대출 금리는 연 2.76~15.00%이며, 한도는 최소 100만원에서 최대 2억7000만원이다.마이너스통장은 최대 1억5000만원까지, 이자는 연 3.26~11.47% 수준이다. 소액 마이너스통장 형태인 비상금대출은 50만~300만원을 연 3.56~14.92% 금리로 빌릴 수 있다.토스뱅크는 출범과 동시에 '중금리대출 활성화'라는 과제를 풀어야한다.토스뱅크는 연말까지 전체 신용대출에서 차지하는 중금리 대출의 비중을 34.9%로 만들겠다는 계획을 금융당국에 제출한 바 있다. 인터넷은행 3사 가운데 중금리대출 비중 목표를 가장 높게 제시했다. 토스뱅크는 독자적인 신용평가시스템(CSS)을 통해 충분히 가능하다는 입장이다.홍민택 토스뱅크 대표토스뱅크의 신용카드업 진출도 주목할 부분이다.토스뱅크는 하반기 신용카드업 인가를 받기 위한 준비에 들어갔다. 인터넷전문은행의 신용카드업 진출은 처음이다. 카카오뱅크, 케이뱅크 등 인터넷전문은행 가운데 신용카드업 허가권을 획득한 곳은 아직 없다.토스뱅크는 신용카드업 영위를 통해 고객과 가맹점 인프라를 비롯해 막강한 결제 데이터를 쌓을 수 있다.여기에 마이데이터(본인신용정보관리업) 시대에 카드 결제 정보를 빅데이터화하고 분석할 수 있다. 각 개인에게 맞춤형 금융상품 추천이 용이해 경쟁력이 커질 것으로 기대된다.토스뱅크는 신용카드업 허가를 통해 고객의 다양한 소비 패턴을 바탕으로 새로운 서비스를 개발한다는 구상이다. 또 카드 결제계좌로 주 계좌를 연계시킬 수 있는 효과 등도 노리고 있다.한편 출범 당일 토스뱅크는 온라인 기자간담회를 개최한다.토스뱅크가 선보일 비전과 전략, 상품, 증자계획 등을 홍민택 대표가 직접 나서 온라인에서 설명한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2021.10.13.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>이 와중에 DSR 규제 또?…전방위 막힌 대출에 추가 압박</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004615579?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>시중은행, 신용·전세대출 제한 및 축소 움직임토스뱅크는 벌써 대출 한도 60% 소진금융당국, 전세대출에 DSR 규제 적용 고려사진=연합뉴스정부의 가계대출 총량관리에 은행들이 대출 제한에 나서면서 대출 보릿고개가 이어지고 있다. 이런 와중에 정부에서는 전세대출까지 총부채원리금상환비율(DSR) 적용을 고려하고 있어, 대출 가능 금액은 더 줄어들 것으로 예상된다. 13일 금융권에 따르면 시중 은행들은 가계대출 총량 관리를 위한 조치들을 시행하고 있다. 신한은행은 비대면 신용대출 상품엔 예외로 뒀던 중도상환수수료를 이날부터 부과하기로 했다. 최근 공모주 청약으로 신규 대출 및 해지가 잦아지는 등 사실상 '빚투(빚내서 투자)'로 활용돼왔다는 점을 감안한 결정이다. 앞서 우리은행은 지난 7월 모든 신용대출에 중도상환수수료를 부과했다. 전세대출도 제한하고 있다. 하나은행은 15일부터 임대차 계약 갱신시 전세대출 한도를 줄인다. 전셋값 증액뿐, 대출 신청 금액, 증액 후 전셋값의 80%에서 기대출 취급액을 뺀 금액 중 가장 적은 금액을 대출 한도로 인정한다. KB국민은행은 지난달 말부터 전세대출 한도를 전셋값 증액 범위 이내로 축소했다. 여기에 지난 5일 문을 연 토스뱅크도 비상이 걸렸다. 대출이 몰리면서 벌써부터 연간 대출한도의 60%가 소진됐기 때문이다. 지난 8일 기준으로 연간 대출 목표치인 5000억원 중 3000억원이 대출로 실행됐다. 사전 계좌개설 신청자들만 대출을 실행한 결과다. 토스뱅크는 대출 중단을 우려해 사전 신청자 166만명 중 121만명에 대해 한글날 연휴인 지난 9일부터 신규 가입을 중단했다. 카카오뱅크는 지난 8일부터 고신용자 대상 신용대출, 일반 전월세보증금 대출 등 신규 대출을 중단했다. 8월말 기준 전월세대출을 포함해 가계대출 증가율이 이미 20%를 넘겼기 때문이다. 이는 지난 8월 NH농협은행이 신규 담보대출 취급 중단으로 다른 은행권으로 대출이 몰리는 '풍선효과'가 발생했기 때문으로 풀이된다. 지난 7일 기준으로 KB국민·신한·우리·하나·NH농협은행의 가계대출 잔액은 703조4416억원으로, 지난해 말보다 5% 늘어난 수준이다. 금융당국이 제시한 올해 가계대출 증가율 6%에 임박한 수준으로, 단순 계산하면 이들 은행이 추가로 대출해 줄 수 있는 금액은 13조5000억원 정도다. 이사로 전세대출을 받아야하거나 주택 매매 잔금 납부를 앞둔 실수요자들의 불안감이 클 수 밖에 없다. 고승범 금융위원장  /사진=연합뉴스 고승범 위원장, 국정감사서 전세대출 규제도 시사…DSR 규제도 앞당길 듯여기에 금융당국이 '가계부채 추가대책'으로 총부채원리금상환비율(DSR) 규제를 확대할 것으로 예상돼, 대출 가능 금액은 더 줄어들 것으로 예상된다. 당국은 추가 대책으로 전세대출 규제 강화를 고려하고 있는 것으로 알려졌다.고승범 금융위원장은 지난 6일 국정감사에서도 전세대출을 비롯해 실수요자 대출도 규제하겠다는 점을 시사했다. 고 위원장은 "가계대출 증가율 목표치인 6%를 달성하려면 전세대출을 조이고 집단대출도 막아야 하느냐"는 유동수 더불어민주당 의원의 질의에 "예"라고 답했다. 그러면서 "가계대출이 늘어나는 것의 대부분은 실수요자 대출"이라며 "실수요자 대출도 상환 범위 내에서 가능해야 한다"고 밝혔다. 그간 전세대출은 DSR 규제가 적용되지 않아, 전셋값의 80%를 대출로 받을 수 있었다. 만약 DSR이 적용될 경우, 소득 범위 내에서만 대출이 가능해진다. 예를 들어 전세대출이 10년 만기, DSR 적용비율 50%로 규제가 적용되면 연소득 5000만원 직장인은 2억1700만원, 연봉 3000만원 직장인은 1억3000만원까지 대출을 받을 수 있다. 이는 다른 대출이 없다는 가정하에 원리금균등분할상환방식으로 금리 2.85%로 대출 받는다는 점을 가정한 결과다. 만약 기존 신용대출을 사용 중일 경우 대출 한도는 더 줄어들 수 밖에 없다. 추가로 DSR 규제 일정을 앞당기는 방안도 유력하다. 현재 규제지역 내 개인별 DSR 40%(은행 기준) 규제가 적용되고 있다. 내년 7월부터는 전체 대출액이 2억원 초과할 때, 2023년엔 전체 대출액이 1억원 초과 때로 적용 대상이 확대된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2021.10.11.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>“기존 은행 다 꼼짝마”…차별화 속도 내는 ‘뱅뱅뱅’ 삼총사</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003103017?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>[경향신문] 3사 개편된 온라인전문은행간편은 기본, 더 높은 ‘혁신 경쟁’토스뱅크가 지난 5일 출범하면서 국내 인터넷전문은행이 카카오뱅크(카뱅), 케이뱅크 등 3사 체제로 재편됐다. 시중은행과 차별화된 서비스를 앞세운 인터넷은행들의 경쟁이 치열해지고 있다.인터넷은행들은 오프라인 창구가 없는 대신 시중은행에 비해 낮은 대출 금리, 높은 예·적금 금리를 내세워 고객을 끌어들이고 있다. 여기에 거래 편의성을 높인 각종 서비스 출시 경쟁이 이어질 것으로 예상되는데, 금리 조건 외에 얼마나 차별화된 서비스를 내세울 수 있을지에 따라 업계의 판도가 달라질 것으로 예상된다.■ 예금 금리·파킹 통장 한도 강점운영비 없는 장점에 고이자 상품토스 ‘조건 없는 연 2%’ 통장 출시케이뱅크, 파킹통장 한도 3억으로인터넷은행들의 최대 강점은 역시 금리다. 여·수신 모두 주요 시중은행보다 유리한 금리 조건을 내걸고 있다.토스뱅크는 수신상품으로 ‘조건 없는 연 2% 이자’ 통장을 선보였다. 이자는 일할로 계산해 매달 지급한다. 시중은행 수시입출금 통장 이자(0.1%)의 20배다. 하루만 맡겨도 이자를 주는 파킹통장 기능을 갖춘 셈인데, 저축은행 파킹통장 최고 금리와 비슷한 수준이다.케이뱅크는 시중은행 대비 한도가 더 유리하다. 지난해 연 0.5% 이자를 받을 수 있는 파킹통장 ‘플러스박스’를 선보였는데 지난 7월 기존 1억원 한도를 3억원까지 늘렸다. 파킹통장은 은행 입장에선 수시입출금 통장보다 지급 금리가 높아 운용에 부담이 된다. 다른 은행들이 통상 5000만원 이하 한도로 운용하는 것을 감안하면 케이뱅크 한도는 매우 높다.인터넷은행들은 중·저신용자 대상 대출을 늘리겠다는 계획도 밝히고 있다.고도화된 신용평가모형(CSS)을 바탕으로 기존 대출시장에서는 소외됐지만 실제 상환능력이 있는 금융소비자들을 발굴해 대출 문턱을 낮추겠다는 것이다. 카뱅은 지난 6월 새로운 CSS를 적용한 결과, 중신용 고객에게 제공하는 대출 공급량이 2배가량 증가했다고 밝혔다. 새 CSS 적용 이전인 6월1일부터 8일까지 해당 대출 공급액은 147억원이었던 반면, 적용 이후인 9일부터 16일까지 293억원으로 늘어 증가율 99.31%를 기록했다. 카뱅은 중신용 대출 한도를 늘리고 상품도 추가 출시했는데, 지난 6~8월 중·저신용자에게 5000억원 규모의 무보증 대출을 공급했다고 설명했다.토스뱅크도 제2금융권 정보까지 아우르는 신용 데이터와 통신비·공과금 납부내역, 쇼핑이력 등 비금융 대안 데이터까지 고루 분석한 자체 CSS인 ‘TSS’를 통해 대출 상환능력을 더욱 정교하게 평가한다는 계획이다. 토스는 TSS 시뮬레이션 결과 기존 1금융권에서 대출받기 어려웠던 이들 중 약 30%가 건전한 중·저신용자로 새로 발굴됐다고 밝혔다.■ 간결·편리함 승부수플랫폼 기반 신용평가모형 개발카카오 등 대출 문턱 낮춰 공략간결하고 편리한 서비스도 인터넷은행의 강점이다. 토스뱅크는 우선 수신상품에 따라붙는 복잡한 조건들을 없앴다. ‘2% 이자 통장’의 경우 가입 기간이 자유롭고 예치금액에도 한도가 없다. 시중은행이 특판을 통해 고금리 상품을 한정 판매하고, 높은 금리를 받기 위해 급여통장 지정, 카드 사용 등 여러 가지 부대 조건을 만족시키도록 하는 관행도 없앴다.또 차주가 금리인하요구권 대상이 되는지를 확인할 필요 없이 토스에서 먼저 알림을 보내 알 수 있도록 한다는 계획이다. 기존 토스 앱 사용자는 별도의 앱을 설치할 필요 없이 토스 앱의 뱅킹 항목을 클릭해 이 같은 서비스를 이용할 수 있다.카뱅은 카카오톡 초대와 공유 기능을 활용해 통장에서 모임 회비를 관리할 수 있도록 하고 있다. 초대를 받은 모임 멤버는 카뱅 회원으로 가입만 하면 계좌 없이도 모임통장 내역 확인이 가능하다. 2018년 처음 선을 보인 이후 올 상반기 말 기준 887만명이 모임통장을 이용 중이다. 또 카뱅은 연말·연초 비대면 주택담보대출 상품 출시를 앞두고 있으며, 코스피 상장을 기점으로 펀드·보험·마이데이터 등으로의 사업 영역 확대를 추진하고 있다. 케이뱅크는 가상통화 거래소 1위 ‘업비트’와 제휴 효과를 누리고 있다. 최근에는 모회사인 KT와의 시너지를 적용한 여·수신 상품을 잇따라 내놨다.■ 가계대출 관리 ‘역시 과제’당국, 중·저 신용자 비율 규제에토스 등 자본금 확충 내실은 과제다만 인터넷은행이 덩치를 급격히 키우기에는 제약 요인도 남아 있다. 우선 인터넷은행은 신사업 진출 시 제한을 받지 않으려면 당국에 제출한 중·저신용자 대출 비중 목표치를 맞춰야 한다. 인터넷은행들은 2023년까지 전체 가계 신용대출 가운데 중·저신용자 대출 비중을 최소 30%까지 늘리기로 약속했다.이에 따라 고신용자 대출 위주로 수익을 높이기 쉽지 않다. 여기에 최근 금융당국의 가계대출 총량규제 강화에 따라 대출 한도도 엄격하게 관리해야 하는 상황이다. 토스뱅크는 서비스 출시 사흘 만인 지난 7일 총 2000억원 규모 신용대출을 내준 것으로 알려졌다. 토스뱅크가 금융당국과 협의한 연내 대출 한도는 5000억원 수준이라 조만간 대출이 중단될 가능성도 있다.특히 후발주자인 토스뱅크의 경우 대규모 자본금을 확보하는 것도 과제다. 토스뱅크의 자본금은 2500억원으로 국제결제은행(BIS) 자기자본 비율 8.5%를 적용할 때 약 3조원 내외 수신으로 전체 금융상품을 판매하고 관리해야 한다. 토스뱅크는 향후 5년간 최소 1조원 이상 증자할 계획이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2021.10.10.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>국내 첫 '스타트업 다큐멘터리' 만든 권명국 감독 "타다의 도전·좌절 그리고 새출발, 필름에 담았죠"</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004614503?sid=102</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>권명국 감독(영화제작 스튜디오 블루)'타다: 대한민국 스타트업의 초상' 14일 개봉사업 중단·서비스 전환 등 '악전고투' 그려“한동안 운전을 할 수 없어서 ‘타다’를 정말 자주 이용했어요. 제가 제일 좋아하는 서비스가 갑자기 사라졌는데 이 기업이 위기를 어떻게 극복해나갈까 궁금증이 들었습니다. 그래서 카메라를 들었죠.”권명국 감독(블루 대표·사진)은 타다를 열심히 사용한 유저였다. 타다는 2019년 국내 정치권과 정보기술(IT)업계를 뜨겁게 달군 모빌리티 서비스다. 서비스 출범 후 급격히 성장했지만 ‘불법택시’ 논란 속에 이른바 ‘타다금지법’이 국회를 통과하면서 운영사인 VCNC는 결국 가맹택시로 사업을 전환했다.이런 과정을 권 감독이 필름으로 담아낸 다큐멘터리 영화가 바로 ‘타다: 대한민국 스타트업의 초상’이다. 국내에서 스타트업을 다룬 최초의 독립 다큐멘터리 영화로 오는 14일 개봉을 앞두고 있다.수많은 모빌리티 서비스 중 왜 타다를 주인공으로 택했을까? 권 감독은 “타다는 당시 모빌리티 서비스에 대한 사람들의 기대를 상징적으로 보여준다”며 “이들이 겪은 어려움 자체가 하나의 ‘드라마’였다”고 말했다. 지난 8일 서울 홍대입구역 인근 극장에서 시사회를 연 권 감독을 만났다.‘타다: 대한민국 스타트업의 초상’에는 VCNC를 이끄는 박재욱 대표를 비롯해 실제 타다 서비스를 기획·개발한 직원들이 출연한다. 이들이 서비스 중단을 놓고 내린 고민과 가맹택시·대리운전으로 새 출발하며 연 사내 회의, 실제 서비스 개발 과정 등을 생생히 담아냈다.권 감독은 “이번 촬영에서 가장 어려웠던 일은 섭외”라고 꼽았다. 일면식도 없는 박 대표를 찾아가 영화에 출연해달라고 제안했기 때문이다. 박 대표가 한 달간 고민 끝에 출연하기로 결정하면서 영화 촬영이 시작됐다. 권 감독은 “6개월간 VCNC를 내 집처럼 드나들다 보니 대부분의 직원과 친해졌다”고 했다.영화는 전체적으로 VCNC와 그 이용자 입장에서 이야기를 풀어간다. 그렇기에 다소 편향적으로 보일 여지도 있다. 하지만 이런 부분은 개의치 않는다는 것이 권 감독의 설명이다.“타다에 대해 다양한 논점을 다루는 것은 이미 수많은 뉴스 기사에서 보여줬습니다. 메시지를 던지기보다 스타트업 구성원이 겪는 고뇌와 고충을 더욱 자세히 그려보고 싶었어요. 저도 사업체를 운영하는 대표로서 많은 공감도 됐고요.”이 영화는 권 감독의 첫 장편영화 데뷔 작품이다. 대학 졸업 이후 줄곧 상업용 영상 콘텐츠 제작 사업에 매진해온 그에겐 더욱 의미가 깊다. 당초 기획한 극 영화 시나리오가 있었지만 ‘타다금지법’ 사태 이후 다큐멘터리 영화 제작으로 계획을 변경했다.권 감독은 “20대 시절엔 주변에서 알아주는 ‘영화광’이었고 늘 장편영화 데뷔를 꿈꿔왔다”며 “첫 계획과는 달라졌지만 지금이 아니면 스타트업 다큐를 제작할 수 없었기에 과감히 계획을 바꿨다”고 말했다.권 감독을 만난 날은 토스 운영사인 비바리퍼블리카가 VCNC 전격 인수를 발표한 날이기도 했다. 새 출발을 하게 된 타다는 과연 ‘해피엔딩’을 맞을 수 있을까. 그에게서 돌아온 답은 간단했다.“어떤 길을 갈지는 누구도 모르죠. 시장은 냉정하니까요. 가능성은 열려 있으니 앞으로 그들의 행보를 지켜보겠습니다.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2021.10.15.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>실수요자 피해 우려에 전세대출 중단 없을 듯</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011138184?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>[앵커] 최근 금융당국의 강력한 대출 규제에 돈 빌리기 어렵다는 실수요자들의 반발이 이어지고 있는데요. 결국, 금융당국이 나서 올해 연말까지  실수요자를 대상으로 한  전세대출과 집단대출 중단은  없을 것이라고 밝혔습니다. 보도에 김범주 기자입니다. [리포트] 인터넷전문은행 토스뱅크가 신규 대출 중단을 선언했습니다. 대출 시작 열흘 만에 한도 5천억 원이 모두 소진됐고, 금융 당국은 늘려달라는 요청을 거절했습니다.   [토스뱅크 관계자 : "통장 등 수신서비스와 체크카드 등 대출 외 서비스는 정상 제공되며, 대출 상품은 내년 초 다시 재개될 예정입니다."] 정부가 올해 대출 증가율을 6%대에서 묶겠다고 했지만 이미 은행권 증가율은  6.5%를 넘은 상황. 주택담보대출에 이어 신용대출, 전세대출 제한까지 은행별로 이어졌고, 이러다 대출 중단이 현실화하는 것 아니냔 우려까지 나왔습니다. 특히 전셋값이 올랐는데도 관련 대출을 규제하겠다는 방침은 실수요자들의 반발을 불러왔습니다. 결국, 금융당국이 절충안을 제시했습니다. 연말까지 한시적이라는 조건 아래 가계대출 관리 대상에서 전세대출과 집단대출을 제외하겠다고 밝혔습니다. 특히 가계대출 증가율이 목표치 6%대를 넘더라도 용인하겠다는 입장을 통해 탄력적 운용을 시사했습니다.    [고승범/금융위원장 : "실수요 대출이 중단되거나 해서 실수요자분들이 불편함을 겪는 일이 없도록 관리를 하겠습니다."] 이 같은 방침이 확정되자 NH 농협은행은 8월 말부터 중단했던 전세자금 대출을 다음 주 월요일부터 재개한다고 밝혔습니다. 우리은행과 신한은행도 실수요자들을 대상으로 전세대출 한도를 완화하기로 했습니다. KBS 뉴스 김범주입니다. 촬영기자:박세준/영상편집:한찬의/그래픽:최창준 강민수</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>[특징주] 상장 후 역대 최저…카카오뱅크, 토스뱅크 출범에 급락</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001895452?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>[헤럴드경제=정순식 기자] 카카오뱅크의 주가 하락세가 심상치 않다. 최근 급락세를 보이던 카카오뱅크는 토스뱅크 정식 출범일인 5일 큰 폭으로 하락해 시가총액도 30조원선 아래로 떨어졌다.이날 유가증권시장에서 카카오뱅크는 전 거래일보다 8.40% 내린 6만원에 거래를 마쳤다. 종가 기준 상장 이후 역대 최저치다.장중 한때 8.70% 급락한 5만9800원까지 떨어지며 상장일인 지난 8월 6일(5만1000원) 이후 장중 최저가를 기록했다.시가총액도 28조5060억원으로 줄어 상장 후 처음으로 30조원선이 무너졌다. 전 거래일 대비 하루만에 2조6000억원이 증발했다.외국인과 기관이 358억원, 135억원 각각 순매도했고 개인이 483억원 순매수했다.카카오뱅크의 이날 약세는 3호 인터넷전문은행 토스뱅크가 정식 출범한 데 따른 영향으로 풀이된다.토스뱅크는 2017년 1호 인터넷은행 케이뱅크와 2호 인터넷은행 카카오뱅크가 차례로 문을 연 뒤 4년 만에 탄생한 세 번째 인터넷은행이다.토스뱅크가 이날 공개한 신용대출 상품의 최저 금리는 연 2.76%로, 이는 3∼4%대 금리로 올라선 5대 시중은행은 물론이고 카카오뱅크(2.86%), 케이뱅크(2.87%)보다 낮다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2021.10.11.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>저축은행서 대출비교 플랫폼 통한 대출 2년간 20배 급증</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012714255?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>빅테크 의존도 심화…지방은행도 비슷한 추세 (서울=연합뉴스) 서명곤 기자 [연합뉴스 자료사진](서울=연합뉴스) 김유아 기자 = 저축은행과 지방은행이 토스·카카오페이·핀다 등 온라인 대출 비교 플랫폼을 통해 취급한 대출 규모가 급증한 것으로 나타났다.    11일 국회 정무위원회 소속 윤창현 국민의힘 의원이 금융감독원으로부터 제출받은 자료에 따르면 올 1∼7월 애큐온·SBI·유진·모아·페퍼·상상인·한국투자·KB·웰컴·OK저축은행 등 10개 저축은행의 누적 신규 개인신용대출 12조2천215억원 중 18.9%(2조3천80억원)가 대출 비교 플랫폼을 통해 나갔다.    2019년 0.7%(871억원), 2020년 6.8%(1조1천246억원)에서 많이 늘어난 수치다.    특히 애큐온 저축은행의 개인신용대출 1조422억원 중 절반이 넘는 5천397억원(51.8%), 모아저축은행의 경우 3천553억원 중 1천558억원(43.9%)이 비교 플랫폼을 통해 취급됐다.    이는 시중은행에 비해 적은 점포 수를 운영하는 금융사가 대출비교 플랫폼으로 옮겨가며 온라인 영업 비중을 확대한 영향으로 분석된다. 빅테크에 대한 의존도가 한층 높아진 셈이다.    지방은행에서도 이런 추세가 두드러졌다.    올 1∼7월 전북은행과 광주은행이 취급한 개인 신규대출 각각 1조4천563억원 중 18.5%(2천703억원), 1조8천970억원 중 15%(2천874억원)가 플랫폼을 통한 대출이었다.     부산은행에서 비교 플랫폼을 통해 나간 대출은 지난해 전체 7조6천698억원 중 1.4%(1천112억원)에서 올 1∼7월 4조3천250억원의 5.2%(2천278억원)으로 늘었다.     kua@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2021.10.11.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>코리아스타트업포럼, 5주년 캠페인…'THE창업가 페스티벌' 연다</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005650008?sid=105</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>코리아스타트업포럼, 출범 5주년 기념 'THE창업가' 캠페인 추진코리아스타트업포럼, 10월20일 'THE창업가 페스티벌' 개최 (코리아스타트업포럼 제공) © 뉴스1(서울=뉴스1) 송화연 기자 = 코리아스타트업포럼은 출범 5주년을 맞아 스타트업의 사회적 역할과 창업가 정신을 조명하는 'THE창업가' 캠페인을 추진하고, 오는 20일 ‘THE창업가 페스티벌'을 개최한다고 11일 밝혔다.포럼은 지난 2016년 9월 스타트업 생태계 발전을 지원하고 공동의 이익을 대변하기 위해 출범했다. 포럼은 지난 5년간 스타트업에 대한 불합리한 규제 해소와 스타트업 친화적인 정책 제안, 사회적 위상 강화 활동, 스타트업 커뮤니티로서의 다양한 지원 활동을 펼쳐 왔으며, 현재 1700여 개의 스타트업과 혁신 기업이 동참하는 국내 최대 스타트업 단체로 자리매김하며 대표성을 인정받고 있다.출범 5주년을 기념하는 'THE창업가 캠페인'은 대한민국의 혁신을 이끄는 주역인 창업가를 조명하여, 동시대 창업가들에게는 공감과 용기를 건네고 사회적으로는 스타트업에 대한 인식 개선과 도전, 희망의 메시지를 전달하려는 취지로 기획됐다.포럼은 5주년 발자취를 회고하고 스타트업 생태계의 청사진을 그리는 'THE창업가 페스티벌'을 개최하고 창업가 정신을 담은 오리지널 콘텐츠 시리즈인 '미니 다큐멘터리'와 '인터뷰 프로젝트'를 공개한다.오는 10월20일 온라인에서 열리는 'THE창업가 페스티벌'은 오픈 콘퍼런스와 포럼 회원사 대상 네트워킹 이벤트 프로그램으로 구성됐다. 포럼 유튜브 채널에서 중계되는 콘퍼런스에서는 장병규 크래프톤 의장과 이승건 토스 대표의 대담 등이 열린다.이 밖에도 '스타트업하기 좋은나라, 대한민국의 미래'를 주제로 차정훈 중소벤처기업부 실장, 최성진 코리아스타트업포럼 대표, 김도현 국민대학교 교수, 정지은 코딧 대표가 패널토크 시간을 갖는다.이와 동시에 메타버스에서 열리는 네트워킹 이벤트는 포럼 회원사를 대상으로 진행된다. 게더타운 공간에서 열리는 이번 행사는 컬리·직방·토스·프립·비트바이트 등 창업가와 롯데벤처스, 매쉬업엔젤스 등 생태계 구성원이 참여하는 'THE창업가 스몰토크 살롱', 스타트업 피칭 세션 및 전시 부스가 운영된다.최성진 코리아스타트업포럼 대표는 "5년 전 첫발을 내디딘 코리아스타트업포럼이 어느덧 대한민국 스타트업을 대표하는 단체로 성장해 감회가 새롭다"며 "이번 'THE창업가' 캠페인을 통해 혁신의 원동력인 '창업가정신'에 대한 사회적 인식을 강화하고 나아가 스타트업하기 좋은 생태계 만들기에 앞장서겠다"고 말했다.콘퍼런스와 캠페인에 대한 자세한 정보는 'THE창업가' 웹사이트에서 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2021.10.11.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>코스포, 출범 5주년 기념 행사…20일 THE창업가 페스티벌 개최</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004981366?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>코리아스타트업포럼(코스포)은 출범 5주년을 맞아 스타트업의 사회적 역할과 창업가 정신을 조명하는 'THE창업가' 캠페인을 추진한다고 11일 밝혔다. 5주년 기념 미니 다큐멘터리 등 오리지널 콘텐츠 공개와 함께 오는 20일 THE창업가 페스티벌을 개최한다.2016년 9월 출범한 코스포는 지난 5년간 불합리한 규제 해소와 스타트업 친화적인 정책 제안, 사회적 위상 강화 활동, 스타트업 커뮤니티로서의 다양한 지원 활동을 펼쳐왔다. 현재 1700여개의 스타트업과 혁신기업이 동참하는 국내 최대 스타트업 단체로 자리매김하며 대표성을 인정받고 있다.THE창업가 캠페인은 혁신을 이끄는 주역인 창업가를 조명해 공감과 용기를 건네고 사회적으로는 스타트업에 대한 인식 개선과 도전, 희망의 메시지를 전달하려는 취지로 기획됐다. 코스포 5주년 발자취를 회고하고 스타트업 생태계의 청사진을 그리는 ▲THE창업가 페스티벌을 개최하고 ▲창업가 정신을 담은 미니 다큐멘터리 ▲인터뷰 프로젝트를 공개한다.오는 20일 온라인에서 열리는 THE창업가 페스티벌은 오픈 컨퍼런스와 코스포 회원사 대상 네트워킹 이벤트 프로그램으로 구성됐다. 코스포 유튜브 채널에서 중계되는 컨퍼런스는 미니 다큐멘터리 상영을 비롯해 코스포 5주년 스타트업 선언문 발표, 장병규 크래프톤 의장과 이승건 토스 대표의 창업가 정신 주제 대담이 진행된다. '스타트업하기 좋은나라, 대한민국의 미래'를 주제로 차정훈 중소벤처기업부 실장, 최성진 코스포 대표, 김도현 국민대학교 교수, 법률·정책 플랫폼 스타트업 코딧의 정지은 대표가 참여해 패널토크 시간을 갖는다.최 대표는 "5년 전 첫 발을 내디딘 코스포가 어느덧 대한민국 스타트업을 대표하는 단체로 성장해 감회가 새롭다"며 "이번 THE창업가 캠페인을 통해 혁신의 원동력인 창업가정신에 대한 사회적 인식을 강화하고 스타트업하기 좋은 생태계 만들기에 앞장서겠다"고 전했다.코스포 5주년 캠페인에 대한 상세한 정보와 페스티벌의 사전 참가 신청은 THE창업가 웹사이트를 통해 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2021.10.04.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>[DD 주간브리핑] 국내외 주요 플랫폼사업자 총출동…5일, 과방위 국감에 쏠린 눈</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002111126?sid=105</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>개천절(10.3)로 인한 월요일 대체 휴일로 여유롭게 시작된 10월 첫째주다. 백신 국내 접종 속도가 빨라지면서 '위드 코로나' 전환 일정도 점차 구체화되고 있다. IT업계의 대외 활동은 여전히 위축돼있지만 '위드 코로나'에 대한 기대감은 커지고 있다.IT업계의 관심사는 지난주부터 본격적으로 막이오른 10월 국정 감사다. 올해 국정감사는 카카오, 네이버 등 대형 빅테크 기업들에게 그동안 상대적으로 유리하게 전개돼왔던 규제 완화, 즉 '기울어진 운동장' 논란에 대한 발전적 대응 방안이 제시될 것인지 여부가 가장 관심사다. 그러나 올해 국정감사는 대선 정국과 민감하게 맞물린데다 '화천대유'라는 강력한 이슈 블랙홀까지 등장하면서 격렬한 정치 공방의 장으로 변질되고 있다. 국정감사 본연의 기능이 아쉽다. 이런 가운데 특히 주목되는 국정감사는 5일 열리는 국회 과학기술정보방송통신위원회(과방위)의 방송통신위원회(방통위) 국감이다. 국내외 주요 플랫폼 기업의 대표들이 대거 증인으로 출석한다.  김경훈 구글코리아 대표, 정기현 페이스북코리아 대표, 윤구 애플코리아 대표, 연주환 넷플릭스서비시스코리아 팀장 등 주요 해외 IT 기업 책임자들과 박대준 쿠팡 대표, 류긍선 카카오모빌리티 대표, 김범진 우아한형제들 대표 등의 출석이 예정돼 있다. 이번 주 삼성전자 LG전자가 3분기 잠정실적을 8일 공개한다. 증권사 추정 3분기 삼성전자 매출액과 영업이익 예상치는 전년동기대비 각각 10%와 30% 가량 성장한 수치다. LG전자도 매출액과 영업이익 각각 전년동기대비 8%와 20% 정도 확대될 것으로 예상된다. 3번째 인터넷전문은행' 토스뱅크가 5일 공식 출범한다. 토스뱅크는 5일부터 사전 신청자를 대상으로 여·수신 상품 판매, 체크카드 발급 등 뱅킹 서비스를 순차적으로 오픈한다. 대출조이기에 나선 금융당국의 정책 개입이 진행되고 있는 가운데 토스뱅크쪽으로 고객들이 몰릴 것인지 주목된다. ◆ 정기 임원인사 마친 신세계...온라인 사업 집중=신세계그룹이 이른 정기임원인사 실시로 온라인시대 준비에 본격 들어간다. 신세계는 예년 대비 두달이나 빨리 임원인사를 단행했다. 신세계·이마트가 동시에 인사를 진행한 점도 주목할 만한 부분이다. 인사 시기를 앞당긴건 조직 분위기를 쇄신하는 한편 내년을 더욱 탄탄히 준비하기 위해서다. 신세계는 올해 온라인 사업 강화를 위해 올해 이베이코리아, W컨셉 등 e커머스 업체들을 인수했다. 또한 네이버와도 손잡아 온·오프라인 역량을 강화하고 있다. 이번 인사에선 백화점 부문에 상당한 변화를 줬다. 내년 전략 준비도 빠르게 착수할 수 있게 됐다. 본격적인 온오프라인 시너지가 예상된다.◆방통위 국정감사, 온라인플랫폼 시험대 위=국회 과학기술정보방송통신위원회(과방위)는 오는 5일 방송통신위원회(방통위) 국정감사를 진행한다. 과방위는 방통위 증인으로 김경훈 구글코리아 대표, 정기현 페이스북코리아 대표, 윤구 애플코리아 대표, 연주환 넷플릭스서비시스코리아 팀장 등 주요 해외 IT 기업 책임자들과 박대준 쿠팡 대표, 류긍선 카카오모빌리티 대표, 김범진 우아한형제들 대표, 배보찬 야놀자 대표, 김재현 당근마켓 대표, 이강택 TBS 사장 등이 포함됐다.   국내외 주요 플랫폼 기업 대표들이 증인으로 참석하는 만큼 이번 방통위 국감은 온라인플랫폼 사업자에 대한 질의가 집중될 것으로 보인다. 카카오의 골목상권 침해 논란, 해외 플랫폼 사업자의 갑질 의혹 등이 전방위적으로 다뤄질 전망이다. 또한 방통위는 온라인플랫폼으로 인한 이용자 피해를 방지하자는 취지로 플랫폼 사업자 대상 금지행위를 규정한 온라인플랫폼 이용자보호법을 추진하고 있다  ◆크래프톤 라이징윙스, 신작 발표=크래프톤(대표 김창한)의 독립스튜디오인 라이징윙스(대표 김정훈)는 실시간 전략 게임(Real-Time Strategy, RTS) ‘캐슬 크래프트(Castle Craft: World War)’를 오는 5일 글로벌 출시한다. 캐슬 크래프트는 실시간 PvP(Player VS Player) 대전을 통해 전략적으로 건물을 건설하고 병력을 생산해 상대의 진영을 무너트리고 본인의 영역을 확장해 나가는 모바일 실시간 전략 게임이다. 캐슬 크래프트는 지난 6월18일 인도, 인도네시아를 시작으로, 현재 49개국에 소프트 론칭돼 있다.   ◆삼성전자·LG전자, 3분기 잠정실적 8일 공개=삼성전자 LG전자가 3분기 잠정실적을 8일 공개할 전망이다. 양사는 투자자 정보 제공 차원에서 분기 종료 직후 해당 분기 매출액과 영업이익 잠정치를 공시한다. 사업별 실적 등 자세한 내용은 월말 공개한다.   증권사 추정 3분기 삼성전자 매출액과 영업이익 예상치는 각각 73조3600억원과 15조7900억원이다. 전년동기대비 각각 10%와 30% 가량 성장한 수치다. LG전자 3분기 매출액과 영업이익 증권사 예측치는 각각 18조1700억원과 1조1200억원이다. 각각 전년동기대비 8%와 20% 정도 확대한 기록이다.◆토스뱅크 5일 출범=3번째 인터넷전문은행' 토스뱅크가 5일 공식 출범한다. 토스뱅크는 5일부터 사전 신청자를 대상으로 여·수신 상품 판매, 체크카드 발급 등 뱅킹 서비스를 순차적으로 오픈할 예정이다. 토스뱅크는 지난달 가입 기간, 예치 금액 등에 아무런 제한 없이 무조건 연 2% 이자를 지급하는 수시 입출금 통장을 선보여 2일 기준 뱅킹 서비스 사전신청 고객이 100만명을 돌파했다.&lt;편집국 종합&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2021.10.11.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>3분기 실적발표 앞둔 은행권…금리 모멘텀으로 호실적 예고</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004981320?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>금리상승 모멘텀으로 은행권의 3분기 호실적이 예고되고 있다.11일 금융권에 따르면 오는 21일 KB금융을 시작으로 22일 하나금융, 25일 우리금융, 26일 신한금융, 기업은행 등 은행권 3분기 실적발표가 줄줄이 예고돼 있다. 가계대출 총량 관리 강화에 따른 대출 조이기가 나타나고 있지만 이미 대출평잔이 크게 증가한 데다 시장금리 상승으로 인한 마진 확대까지 겹치면서 3분기 호실적이 기대된다.금융정보 제공업체 에프앤가이드가 집계한 4대 금융지주의 지배주주 귀속순이익 시장전망치(컨센서스)는 ▲KB금융 1조2038억원 ▲신한금융 1조1363억원 ▲하나금융 8525억원 ▲우리금융 6725억원 순이다. 올해 1분기 4대 금융지주의 순이익 총합은 3조8651억원 수준으로 지난해 같은기간 3조5499억원 보다 8.8% 증가할 것으로 추정됐다.신용대출과 마이너스통장 한도가 각각 연소득, 5000만원 이내로 축소되고 신규 부동산담보대출 취급 중단 및 한도 축소 등에도 가계대출은 계속 증가추세다. 4대 은행의 가계대출 잔액은 3분기 말 567조3500억원 수준으로 2분기 말 555조4823억원 보다 12조원 가까이 늘었다. 오히려 가계부채 관리를 위한 대출금리 상승이 불가피해 은행권 순이자이익이 증가세를 이어갈 수 밖에 없는 환경이다. 9월 중순부터는 기준금리 인상에 따른 대출금리 상승 효과가 발생하고 있고 유동성커버리지비율(LCR) 완화(100→85%)도 재연장돼 순이자마진(NIM)도 추가 개선될 여지가 높다. 또 중소기업·소상공인에 대한 대출만기 연장 및 원리금 상환유예 프로그램이 진행 중이지만 지난해 기적립한 코로나19 관련 충당금으로 인해 대규모 손실이 발생할 가능성도 낮은 상황이다.이베스트투자증권의 전배승 연구원은 "내년 초 이후로는 은행권 가계대출 취급이 정상화 되겠지만, 내년도 가계부채 증가율 목표가 4%로 설정돼 있어 억제기조 지속은 불가피하다"며 "다만 대출금리와 가산금리 상승 영향으로 은행권 이자이익 확보에는 우호적"이라고 전했다.인터넷전문은행인 토스뱅크 출범 등도 시중은행 실적에는 위협요소가 아니다. 토스뱅크가 확보하려고 하는 중금리 대출 고객은 기존 시중은행의 주요 타깃이 아닌 데다 고신용자 대출은 지금 같은 가계부채 관리 강화 분위기에서 경쟁이 나타날 이유가 없기 때문이다.최정욱 하나금융투자 연구원은 금리 모멘텀이 지속될 수 있는 상황이라며 은행권의 3분기 호실적을 예상했다. 백두산 한국투자증권 연구원도 "3분기 실적은 가계부채 관리 보다 기준금리 상승에 주목해야 한다"며 "1회에 그치지 않을 기준금리 인상, 차입수요와 대출 총량관리의 미스매치에 따른 가격협상력을 고려하면 적어도 내년까지 NIM 상승 추세는 지속될 것"이라고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2021.10.12.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>토스뱅크, 나흘째 신규가입 중단…대기자만 121만명</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000766104?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>서울 강남구 토스뱅크 본사. /연합뉴스        3호 인터넷전문은행 토스뱅크가 나흘째 신규 가입자를 받지 않고 있다.12일 금융권에 따르면 토스뱅크는 한글날 연휴인 9일부터 이날까지 사전 신청자의 신규 가입을 중단하고 있다.‘무조건 연 2%’ 예금통장 사전 신청자 166만명 중 이미 계좌를 개설한 45만명은 신규 계좌 개설, 대출 등 서비스를 정상적으로 쓸 수 있지만, 나머지 121만명은 사전 신청을 했음에도 다시 문이 열리기를 기다려야 하는 상황이다.이 같은 토스뱅크의 조치는 대출 중단 사태 우려 등을 고려한 것으로 풀이된다. 지난 5일 출범한 토스뱅크 대출액은 지난 8일까지 이미 3000억원에 육박한 것으로 전해졌다. 이는 금융당국이 정한 토스뱅크의 올해 대출 총량(5000억원)의 60%에 해당한다. 이 가운데 중저신용자 비중은 25% 이상인 것으로 알려졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2021.10.09.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>카뱅 독주에 '도전장'…토뱅 '완전히 새로운 은행' 될까</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004654625?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>[[이슈속으로]]이슈속으로 /사진=머니투데이제3의 인터넷전문은행인 토스뱅크의 출범으로 '인뱅(인터넷 뱅크) 삼국지'가 시작됐다. 토스뱅크가 인터넷은행 맏형인 카카오뱅크에 어떤 '위협'으로 작용할지, 은행 고객들과 은행 산업에 어떤 영향을 미칠지 주목된다. 전문가들 사이에선 토스뱅크가 '규제 리스크'를 어떻게 극복하고 혁신을 이뤄내는지가 관건이 될 것이라고 분석했다. 9일 은행업계에 따르면, 토스뱅크는 지난 5일 '완전히 새로운 은행'을 슬로건으로 야심차게 출범했다. 은행권 일각에선 선발주자인 카카오뱅크를 다분히 의식한 슬로건이란 얘기가 나왔다. 지난 2017년 출범 당시 카카오뱅크가 내건 '같지만 다른 은행'을 넘어 더 강한 혁신 의지를 슬로건에 녹였다는 것이다.공교롭게도 카카오뱅크 주가 변동성도 토스뱅크 출범 이후 두드러진다. 토스뱅크 출범 당일 8.4% 급락한 카카오뱅크 주가는 여전히 하락세를 벗어나지 못하고 있다. 8일에도 전날보다 5.0% 하락해 5만7000원으로 장을 마감했다. 4대 금융지주의 전날 평균 하락률 1.43%(KB금융 -1.25%, 신한지주 -1.76%, 하나금융지주 -1.87%, 우리금융지주 -0.85%)에 견줘 내림 폭이 훨씬 크다. 전문가들은 다만 토스뱅크 출범 영향이 아주 없지는 않지만 카카오뱅크 주가 하락의 주 요인으로 '가계대출 규제 리스크'를 꼽았다. 카카오뱅크의 경우 주택담보대출 없이 신용대출만 제공하는데 신용대출 한도 축소에 이어 나온 일부 대출 판매 중단이 리스크로 부각됐다는 것이다.  서영수 키움증권 연구원은 "규제 리스크가 카카오뱅크 등 인터넷전문은행에 쏠려있는 측면이 있다"고 했다. 토스뱅크가 슬로건처럼 '완전히 새로운' 상품이나 서비스를 지속적으로 선보일지에 대해선 여전히 미지수라는 지적도 나온다. 토스뱅크의 대고객 접근법은 카카오뱅크 등 기존 은행들과는 확실히 달라 보인다. 무조건 연 2% 이자를 제공하는 예금 통장이 대표적이다. 만기나 금액 조건도 없고, 정기 예금·적금·수시입출금 통장의 구분도 없다. 카카오뱅크의 정기예금은 36개월 만기 조건으로 최대 연 1.6% 금리를 제공한다. 수시입출금 통장 금리는 0.1%다. 토스뱅크는 "돈을 모으고 보관할 때 고객 입장에서 가장 좋은 혜택이 무엇인지 고민한 결과가 (조건 없는) 연 2% 금리"라고 했다. '고객 관점에서 생각한다'는 영업 전략은 앞으로 나올 금융 서비스에도 적용된다. 토스뱅크는 이미 대출을 받은 고객이 보다 높은 한도·낮은 금리 조건의 대출을 이용할 수 있다면 먼저 알람을 보내 가입 기회를 제공할 계획이다. 토스뱅크는 "고객이 노력하고 공부하고 발품을 팔아야 손해를 보지 않는 상품을 찾을 수 있었던 기존의 경험을 가장 단순화한 고객 중심의 형태로 재편할 것"이라고 밝혔다.문제는 파격 상품의 지속 가능성과 규제 리스크, 건전성 관리다. 토스뱅크는 신용대출 최대 한도 2억7000만원에 최저 금리 연 2.76% 등으로 이목을 끌었지만 가계대출 규제로 은행 문을 열자마자 대출 문을 닫아야 할 처지에 몰렸다. 올해 대출 한도가 5000억원인데 출범 사흘 만에 2000억원을 소진했다. 이 속도대로라면 주말을 넘기지 못하고 대출을 종료해야 할 수도 있다. 연 2% 이자를 줘야 하는 예금은 들어오는데 대출은 못 하는 상황에 직면할 수 있다. 수익성 측면에서 큰 타격이다. 한도와 금리 외에 기존 은행 상품과 차별화 지점이 많지 않다는 지적도 있다. 김현기 하이투자증권 연구원은 "카카오뱅크는 '26주 적금', '저금통', '모임통장' 등 차별화한 상품을 지속적으로 출시하고 운영하고 이종업계와의 제휴도 활발하다"고 평가했다. 시중은행 관계자는 "예치 기간을 조건으로 두지 않고 모든 예금에 연 2% 금리를 준다는 건 고객에겐 좋지만 은행에겐 비용도 크고, 위험으로도 연결될 수 있다"며 "균형을 맞춰갈 필요가 있다"고 말했다. 중저신용자 대출 비중이 카카오뱅크보다 높다는 점도 부담 요인으로 지목된다. 토스뱅크는 중저신용자 대출 공급 비중 목표를 연내 34.9%로 잡았다. 카카오뱅크의 연내 목표치인 20.8%보다 훨씬 높다. 은행권 관계자는 "중저신용자 대출 비중이 높다는 건 그만큼 부실 위험도 커진다는 것을 의미한다"며 "자체 신용평가모형을 계속 점검해 상환 능력 평가 정확성을 높여야 할 것"이라고 말했다.토스뱅크</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2021.10.04.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>간편송금 잘못 보낸 돈, 5년간 130억원…74% 미반환</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005635887?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>착오송금 금액은 2017년 2억6379만원에서 지난해 53억2334만원으로 19.2배 증가"비대면 금융거래가 증가하면서 착오송금 규모도 급격히 증가"윤관석 더불어민주당 의원. /뉴스1DB (서울=뉴스1) 손엄지 기자 = 온라인 금융 플랫폼이 제공하는 간편 송금 서비스로 지난 5년간 약 130억원이 잘못 이체된 것으로 나타났다. 착오 송금 규모는 꾸준히 증가 추세다. 시스템 개선이 필요하다는 지적이 나온다. 4일 국회 정무위원회 소속 윤관석 더불어민주당 의원이 금융감독원으로부터 제출받은 자료에 따르면 토스, 카카오페이, 네이버페이 3개사의 간편송금 서비스 이용 중 발생한 착오송금 금액은 2017년 2억6379만원에서 지난해 53억2334만원으로 19.2배나 증가했다.금액은 2018년 10억6126만원, 2019년 29억4785만원으로 꾸준히 늘었고, 올 1∼6월에는 이미 33억4547만원을 기록했다. 2017년부터 올 6월까지 발생한 착오송금 금액을 모두 합치면 129억4173만원에 달한다.착오송금이란 개인이 실수로 수취금융회사, 수취인 계좌번호 등을 잘못 입력해 이체된 거래다. 5년간 발생한 착오송금 129억4174만원 중 74%인 95억3319만원이 주인에게 돌아가지 못했다. 건수로만 보면 착오송금은 5년간 총 5만5506건 발생했다. 2017년 2197건, 2018년 6695건, 2019년 1만3843건, 2020년 2만1595건 발생했고, 올 6월까지는 1만1176건으로 집계됐다.간편송금은 모바일을 통해 보안카드나 일회용 비밀번호 생성기(OTP) 없이 비밀번호 등 인증수단을 이용해 송금하는 서비스다. 최근 간편송금 서비스 이용이 늘어나며 착오송금도 증가하는 추세다.한국은행에 따르면 올해 상반기 중 간편송금 서비스의 하루 평균 이용실적은 4819억원, 407만건으로, 2017년 상반기 대비 각각 21배, 7배 증가했다.업체별로 살펴보면, 2015년 간편송금 시장에 처음 들어온 토스(비바리퍼블리카)에서 5년간 85억3785만원(3만6450건)의 착오 송금이 발생했다. 이중 전체 75%인 63억7422만원이 미반환되었다. 2017년 2억6379만원(2197건)이던 착오송금이 지난해 34억7911만원(1만3670건)으로 12.2배(5.2배) 증가했다.카카오페이의 경우, 4년간 43억701만원(1만8799건)의 착오송금이 발생했고, 이중 31억1382만원(72%)이 미반환되었다. 2018년 3억6504만원(1980건)이던 착오송금이 지난해 11억5541만원(4375건)으로 3.9배(2.9배) 증가했다.네이버페이(네이버파이낸셜)의 경우, 2년간 9686만원(257건)의 착오송금이 발생했고, 이중 47%인 4514만원이 주인에게 돌아가지 못했다.윤관석 의원은 "디지털금융이 발달하고 신종 코로나바이러스 감염증(코로나19)으로 인한 비대면 금융거래가 증가하면서 착오송금 규모도 급격히 증가하고 있다"면서 "간편송금업체는 착오송금과 같은 실수를 줄일 수 있도록 지속해서 시스템을 개선할 필요가 있다"고 지적했다.© 뉴스1</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2021.10.12.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>대출 축소 직격탄 맞은 실수요자들 "대출 막혀 웁니다"</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000628347?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>서울 아파트값 상승세 '둔화'…"실수요자 전세·매매계약 서두르는 경향"금융 당국이 가계대출 증가세에 대한 전방위 억제를 예고하면서 실제 주요 시중은행의 대출 중단 사례가 늘어 서울 아파트값 상승폭도 다소 줄어들었다. 다만, 대출 축소 여파로 실수요자들이 매매나 전세계약을 서두르면서 변동폭은 증가할 것으로 전망된다.12일 부동산R114에 따르면 이달 첫째 주 서울 아파트값은 0.10% 올라 지난주(0.12%)보다 상승폭이 둔화했다. 재건축과 일반 아파트가 각각 0.13%, 0.10% 올랐다. 신도시와 경기·인천이 0.06%로 비슷한 오름폭을 보였다.서울은 일부 구에서 거래가 줄면서 상승폭이 축소되는 움직임이 감지되지만, 중저가 아파트가 밀집한 곳에서의 오름세는 이어졌다. 신도시는 거래가 뜸해진 가운데 호가 중심으로 오름세가 유지됐으며, 경기·인천은 상대적으로 가격부담이 덜한 저평가 지역들이 상승을 이끌었다.전세시장은 물건 부족에도 불구하고 가을 이사철 수요가 꾸준히 유입돼 거래가 이뤄지면서 서울이 0.09%, 신도시가 0.05%, 경기·인천이 0.05% 상승했다.이달 중 정부가 종합적인 가계대출 관리 대책 발표를 앞둔 가운데, 전세는 물론 집단대출 규제강화 가능성까지 거론된다. 이에 업계는 실수요자들이 전세계약과 매매를 서두르는 분위기로 과거보다 주 단위의 매매, 전셋값 변동성이 커질것으로 내다보고 있다.이미 시중 주요 은행들이 신용대출 상품 판매 중단과 한도 축소 등 '대출 조이기'에 나섰다. 카카오뱅크는 신용대출과 마이너스통장의 한도를 줄이고, 대출 판매를 전면 중단했다. 일반 전·월세보증금 대출과 직장인 사잇돌대출도 취급하지 않는다.또한, 국내에서 세 번째로 인터넷전문은행이 된 토스뱅크도 영업 시작 나흘 만에 신용대출 중단 가능성이 커지고 있다. 대출한도의 60%를 빠르게 소진하면서 신용대출이 중단될 것이란 전망이 나오고 있다.서울 도심 아파트 단지 전경. [사진=정소희 기자]시중은행 중심으로 대출 문이 점점 좁아지고 있지만, 금융당국은 대출 증가율이 여전히 높다는 이유로 실수요자 대출인 전세대출도 규제할 수 있다는 입장을 내놨다.지난 6일 고승범 금융위원장은 국회 정무위원회 국정감사에서 "실수요자 대출도 규제할 필요가 있다"며 전세·집단대출 규제 강화 의지를 내비쳤다. 그간 당국과 은행은 전세대출이 실수요자 대출이라며 규제에서 제외했다.이에 앞서 더불어민주당 싱크탱크인 민주연구원은 지난 5일 보도자료를 내고 "이달 공개될 가계대출 추가 대책에서 전세대출 규제가 담길 수 있다는 우려에 은행권의 대출 중단과 한도 축소로 전세 난민이 양산되고 있다"고 지적했다.신용대출에 이어 전세대출까지 옥죌 것이란 부동산 실수요자들의 불안이 가중되자, 문재인 대통령은 지난 6일 청와대 참모회의에서 "가계부채 관리는 불가피한 상황이지만, 전세대출 등 실수요자가 어려움을 겪지 않도록 정책 노력을 기울여 주기 바란다"고 당부했다.그러나 전세대출 규제에 대한 실수요자들의 불안감은 커지고 있다. 청와대 국민청원 게시판에는 '무주택 실수요자 중도금 대출과 잔금 대출 규제 풀어주세요', '실수요자를 위한 대출을 규제하지 말아주세요', '전세대출 규제 제발 생각해주세요', '현재의 대출규제를 적용받는 것은 실수요자에게 매우 불합리하다', '아파트 사전청약으로 입주하는데, 집단대출 막아놓으면 실수요자는 죽어야 하나요', '생애최초주택구입 물거품, 집단대출 막혀 웁니다' 등의 수많은 관련 청원이 올라왔다.한 청원인은 "2년전 신혼부부 특별공급으로 아파트가 당첨됐는데, 지정 은행에서 정부 대출규제에 따라 보금자리론을 중단시켰다"며 "청약 시스템과 지금의 대출규제는 상당히 괴리감이 크다"고 했다.이어 "현재 부동산 가격 안정화를 위한 대출규제에는 동의하고 있지만, 정작 실수요자들이 피해보는 상황이 발생하는 것은 매우 안타깝다"며 "실수요자들이 불합리한 상황에 처해지지 않도록 세부적인 조정이 필요하다"고 토로했다.윤지해 부동산R114 리서치팀 수석연구원은 "투자자와 실수요자 구분 없이 시중은행의 가계 대출 중단 사례가 늘어나면서 현금 자산이 부족한 수요층 유입이 제한된 상황"이라며 "과거와 달리 주택 매매에 나서는 주 수요층이 무주택 실수요자로 재편된 상황인 만큼, 레버리지 축소에 따른 비자발적 수요 이탈 현상이 발생할 것으로 예상된다"고 말했다.이어 "지난달까지 매매, 전세 모두에서 10% 가량 누적 상승폭을 기록할 만큼 과열됐으나, 금리 인상과 가계대출 규제에 따라 주택가격 상승세가 숨 고르기에 들어갈 가능성도 높아졌다"며 "다만, 억눌린 수요가 원활한 주택 공급을 통해 해소되지 않을 경우, 중저가 주택지를 중심으로 대규모 개발 이슈나, 교통 호재, 대선 정책 공약 등에 따라 수요 쏠림과 높은 가격 변동이 반복될 전망"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>케이뱅크 신용대출 한도 1억 줄이고 오늘 출범 토스, 연봉 이내로 묶는다</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003220092?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>인터넷은행도 예외 없이 대출 조이기연말까지 마통 대출 중단한 카뱅 이어총량 압박 덜했던 케이뱅크 한도 축소“중금리 대출·마통도 5000만원 줄여”토스뱅크도 규제 제외 예상 깨고 제한마통 한도는 최대 1억 중반 수준될 듯세 번째 인터넷은행 ‘토스~’ - 세 번째 인터넷전문은행인 토스뱅크의 공식 출범을 하루 앞둔 4일 서울 강남구 본사에서 마무리 공사가 진행되고 있다. 토스뱅크는 5일부터 사전 신청자를 대상으로 여수신 상품을 판매하고 체크카드 등을 발급한다.정연호 기자 tpgod@seoul.co.kr금융 당국이 가계대출 규제의 고삐를 바짝 조이면서 시중은행에 이어 인터넷전문은행들도 속속 한도 축소에 나섰다. 카카오뱅크에 이어 한동안 대출이 전면 중단됐던 터라 상대적으로 총량 압박이 적은 것으로 알려졌던 케이뱅크도 주요 상품의 한도를 줄이기로 했다. 특히 5일 출범하는 세 번째 인터넷전문은행인 토스뱅크도 대출 규제에서 자유로울 수 없을 것으로 예상된다.4일 금융권에 따르면 토스뱅크가 출범과 함께 내놓을 신용대출 상품도 금융 당국의 가계대출 규제를 일부 적용받아 ‘연소득 이내’ 범위로 한도가 제한될 가능성이 높은 것으로 알려졌다.토스뱅크의 신용대출 상품의 경우 홈페이지에 게시된 내용을 토대로 최저금리가 현재 시중은행에서 가장 낮은 수준인 2.7%대, 최대 한도가 2억 7000만원대에서 결정될 것으로 알려지면서 관심을 모았다. 그러나 연소득 이내 제한이 추가되면 사실상 억대 신용대출을 받을 수 있는 경우는 제한적일 것으로 예상된다. 다만 마이너스통장 대출 상품의 최대 한도는 1억원대 중반으로 다른 시중은행 대비 높은 수준에서 결정될 것이라는 전망이다.당초 토스뱅크는 ‘신생 은행’인 만큼 연착륙을 위해 당분간 금융 당국의 고강도 가계대출 규제에서 제외될 것으로 알려졌다. 그럼에도 이러한 한도 제한을 두기로 한 것은 당국의 가계부채 총량 관리 기조가 그만큼 강력하다는 방증이라는 분석이다. - 게다가 토스뱅크는 연말까지 중금리대출 비중을 전체 신용대출의 34.9%로 맞추겠다는 목표치를 당국에 제출한 만큼 공격적으로 고신용자 대상 신용대출을 늘리기가 부담스러운 상황이기도 하다. 토스뱅크 측은 “금융 당국의 시장 안정화 정책에 공감하고 있고, 그러한 방향성에 맞춰 영업을 할 것”이라고 밝혔다.케이뱅크도 지난 2일부터 일반 신용대출, 마이너스통장, 신용대출 플러스 등 신용대출 상품 3개의 최대 한도를 모두 줄였다. 일반 신용대출은 최대 한도를 기존 2억 5000만원에서 1억 5000만원으로 낮췄다. 중금리 대출 성격이 강한 신용대출 플러스 상품과 마이너스통장의 최대 한도는 각각 기존 1억 5000만원에서 1억원으로 축소했다. 케이뱅크는 조만간 이 3개 상품에 대해 개인 연소득 100% 이내로 한도를 제한할 계획이다.케이뱅크는 자본금 확충을 위한 유상 증자에 실패하는 등 내부적인 이유로 2019년 5월부터 1년 넘게 대출을 중단했다가 지난해 7월에서야 대출 영업을 재개했다. 이러한 사정이 고려돼 그동안 주요 시중은행 가운데 가장 높은 수준의 대출 한도를 유지해 왔다. 그러나 최근 전 금융권이 신용대출과 마이너스통장 한도를 줄줄이 줄이자 케이뱅크도 이러한 기조에 동참하는 것으로 보인다.이에 앞서 카카오뱅크는 지난달 30일 “마이너스통장 대출의 신규 신청을 연말까지 중단한다”고 밝혔다. 지난달 초 신용대출 최대 한도를 기존 7000만원에서 5000만원으로, 마이너스통장의 최대 한도는 5000만원에서 3000만원으로 각각 축소한 데 이어 추가 조치를 실행한 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2021.10.14.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>[국감2021] 오징어게임·토스·쿠팡·틱톡··· 국감장 달군 개인정보보호 이슈들</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002111622?sid=105</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>구글 개인정보 처리방침 중 일부[디지털데일리 이종현기자] 국회 국정감사가 이어지는 가운데 정무위원회에서 개인정보보호 관련 이슈가 쏟아졌다.   지난 13일 국회 정무위원회 개인정보보호위원회(이하 개인정보위) 국정감사에서 제기된 개인정보보호 관련 이슈는 ▲쿠팡·틱톡 개인정보 유·노출 가능성 우려 ▲야놀자 외(外) 4개 기업 개인정보유출·열람 ▲오징어게임 연락처 유출 ▲토스뱅크 가입시 토스증권 강제 정보제공 ▲구글 개인 이메일 불법 수집 ▲사건 처리속도 지연 등이다.   김한정 의원(더불어민주당)은 쿠팡이 개인정보 국외 처리 위탁 기업으로 중국 기업을 정한 것을 두고 개인정보 유출 가능성이 있다고 지적했다. 중국 기업이 쿠팡 이용자의 개인정보에 접근할 수 있는 상황인데, 이 경우 중국 법제의 영향을 받음에 따라 개인정보가 유출될 수 있다는 우려다.   개인정보 수집 항목에 이용자 얼굴과 목소리를 포함하고 있는 틱톡은 개인정보 처리방침에 ‘본 플랫폼을 통해 전송되는 귀하의 정보에 대한 보안을 보장할 수 없습니다. 정보 전송의 위험에 따른 책임은 귀하가 부담합니다’라고 안내해 도마 위에 올랐다. 틱톡 개인정보 처리방침 중 일부  틱톡은 작년 7월 만14세 미만 아동의 개인정보를 불법 수집했다는 내용으로 1억8000만원의 과징금을 부과받은 바 있다. 윤관석 의원(더불어민주당)은 “(틱톡은) 개선의 여지가 보이지 않는다”고 비판했다.   지난 9월, 클라우드의 관리자 접근권한(Access Key) 설정 관리소홀로 개인정보 938만여건이 유출·열람된 야놀자, 스타일쉐어, 집꾸미기, 스퀘어랩 등에 대한 비판도 제기됐다.    넷플릭스의 인기 드라마 ‘오징어게임’서 드라마와 관계 없는 제3자의 연락처가 공개된 사안에 대한 재발방지도 주문됐다. 번호가 노출된 피해자는 10년 이상 같은 번호를 사용한 개인사업자로, 하루 수천건 이상의 연락을 받는 등의 피해를 입었다. 당초 오징어게임 제작사 측이 피해보상금을 100만원을 제시했다는 것이 알려지며 비판받은 바 있다.   이용우 의원(더불어민주당)은 지난 5일 출범한 토스뱅크가 가입시 토스(비라리퍼블리카), 토스증권 등 제3자에게 개인정보제공 동의를 요구하는 것을 두고 강하게 비판했다.    고객이 원하지 않는 계열사에 거래정보를 필수로 제공하도록 하며 개인정보보호의 기본원칙이 위배됐다는 것이 이용우 의원의 주장이다. 그는 “금융위원회가 신규 인터넷은행의 출범 성공이라는 진흥 목적을 위해 개인정보보호 원칙을 소홀히 했다”고 꼬집었다.   구글이 불법적으로 이메일을 수집한다는 비판도 나왔다. 구글은 사용자가 작성하거나 수신하는 이메일 등의 정보를 수집하는 중인데, 전재수 의원(더불어민주당)은 지난 2019년 공정거래위원회로부터 지적받은 뒤 약관만 바꾸고 개인정보 처리방침은 유지하는 방식으로 국민을 우롱했다“고 밝혔다.   개인정보위의 업무처리 속도가 늦다는 점도 지적됐다. 김병욱 의원(더불어민주당)은 지난 1년여간 개인정보위의 평균 사건 처리에 소요되는 시간이 402일이라고 꼬집었다. 개인정보 관련 이슈가 증가하는 가운데 개인정보위의 인력, 예산이 이를 충당하지 못하는 상황이라며 대책 마련을 주문했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>'대출 난민' 눈길 끄는 토뱅 2.7억 신용대출, 언젠가는 닫힌다</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004652509?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>[(종합)신생이지만 당국 규제 예외 아냐…돈 맡기기만 하면 연 2% 이자 붙는 통장도 파격]세번째 인터넷전문은행 토스뱅크는.../그래픽=이승현 디자인기자국내 세 번째 인터넷전문은행이자 핀테크가 만든 첫 번째 은행 '토스뱅크'가 공식 출범했다. 사전신청자를 대상으로 먼저 서비스를 선보이는 '순차 오픈' 방식으로 베일을 벗는다. 최대 2억7000만원까지 나오는 최저 2%대 신용대출로 '대출 갈증'에 시달리는 소비자를 끌어모을 전망이다. 당장은 '가뭄에 단비' 같은 대출이지만 언제 닫힐지는 미지수다. 토스뱅크도 예외 없이 '신용대출 연소득 이내'라는 금융당국 가이드라인을 따라야 해서다. 토스뱅크는 5일 '완전히 새로운 은행'을 모토로 서비스를 시작한다고 밝혔다. 사전신청한 순서대로 이날부터 문을 여는데 신청자 110만명은 이달 안에 서비스를 이용할 수 있다. 이날은 1만명에게 먼저 서비스를 공개한다. 이른바 '대출 난민'이 한꺼번에 몰려오는 사태를 방지한 조치로 풀이된다. 시장에서는 무엇보다도 토스뱅크의 대출 금리, 한도 경쟁력에 주목한다. 시중은행 신용대출이 '연소득 이내'로 끊겼고 마이너스통장 한도도 5000만원으로 토막난 시점에서 토스뱅크 한도는 독보적이다. 신용대출 최대 한도는 2억7000만원, 마이너스통장의 경우 1억5000만원이다. 더욱이 카카오뱅크는 한도를 줄인 데 이어 이달 초부터 연말까지 마이너스통장을 팔지 않는 상황이다.금리 경쟁력도 눈여겨 볼 만하다. 신용대출의 경우 최저 연 2.76%로 은행권 최저인 2% 후반대다. 마이너스통장은 쓴 만큼만 이자를 내게 된다. 은행권 대출 규제 강도가 높아진 만큼 당장은 토스뱅크에 소비자가 몰릴 가능성이 높다. 사전신청자 110만명 돌파 기록엔 대출에 대한 갈증이 반영됐다.홍민택 토스뱅크 대표/사진제공=토스뱅크다만 토스뱅크가 '중저신용자 포용'을 당면과제로 삼은 만큼 고신용자가 과도하게 몰릴 경우 대출 한도 축소나 금리 인상 조치가 불가피할 것으로 전망된다. 앞서 카카오뱅크도 비슷한 과정을 밟았다. 토스뱅크는 연말까지 전체 대출에서 중저신용자가 차지하는 비중을 34.9%로 맞추겠다고 금융당국에 약속했다.토스뱅크는 대출뿐만 아니라 예금 상품에서도 금리 혜택을 내세웠다. 수시입출금 통장에 만기, 금액에 상관 없이 돈을 맡기기만 하면 연 2%의 이자가 붙는다. 이자는 일할 계산해 매달 지급한다. 시중은행 입출금 통장의 경우 이자가 0.1% 수준인 것과 비교된다. 일반 은행 정기예금 상품보다도 금리가 높게 책정됐다.일각에서는 금융기관의 수입인 예대마진(대출이자에서 예금이자를 뺀 나머지)면에서 '2% 통장'을 유지하기 어려울 것이란 우려를 내놓는다. 이에 대해 토스뱅크는 "2% 이자는 시중은행보다는 높지만 현재 토스뱅크의 조달금리 대비 크게 높은 수준이 아니라 충분히 감당 가능하다"고 자신감을 보였다.홍민택 토스뱅크 대표는 "조금 더 나은 은행이 아니라 '새로운 은행'이 되려 한다"며 "은행은 '원래 그럴 수밖에 없다'는 고정관념을 깨고 사용자가 원하는 것은 무엇인지 근본적인 물음을 통해 답을 찾았다"고 말했다. 이어 "제약을 모두 없애고 고객에게 가장 좋은 혜택을 주도록 노력하겠다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>[단독] 금융위, 카카오 금융복합그룹 지정 검토 돌입</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001895085?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>시행령이 법 기준 무력화현재 지정 기준 불합리해비주력사 자산 5조→3조이르면 내년 지정 가능성[헤럴드경제=박자연·정경수 기자] 금융 당국이 빅테크의 금융업 진출에 맞춰 금융복합기업집단 지정 기준을 합리화하는 검토를 시작했다. 법규 개정이 이뤄지면 내년께 카카오가 새롭게 금융복합기업집단으로 지정될 수 있다. 금융 부문 급팽창 중인 토스 역시 내후년쯤 지정 대상에 포함될 전망이다.5일 금융권에 따르면 금융위원회는 지난달 말 금융감독원, 외부 전문가 등과 함께 회의를 열고 빅테크의 금융그룹 위험을 점검했다. 빅테크를 금융복합기업집단으로 지정할 필요성이 있는지, 지정한다면 어떤 방식으로 감독할지, 사전 안내작업이 필요할지 등을 검토한 것으로 알려졌다.고승범 금융위원장이 지난달 취임한 직후부터 ‘동일 기능 동일 규제’ 원칙을 강조하면서 나타난 변화다. 은행, 비은행 금융회사, 비금융 빅테크기업을 구분하지 않고 동일한 서비스에 대해서는 동일한 규제를 적용해야 한다는 취지다.금융복합기업집단 감독법 제5조는 여수신업금융투자업보험업 중 2개 이상의 금융업을 영위하면서 국내 금융사 자산총액이 5조원 이상이면 금융복합그룹으로 지정하도록 규정하고 있다. 다만 시행령을 통해 비주력 금융사 자산총액이 5조원 미만이면 지정하지 않을 수 있다.카카오금융그룹은 은행과 증권, 보험업 모두 진출했다. 카카오뱅크 자산총액만 지난해 말 기준 26조6500억원, 올해 6월 말 30조원 수준이다. 다만 카카오뱅크를 제외한 나머지 금융회사의 자산총액이 5조원에 못 미친다. 카카오페이는 8000억원, 카카오페이증권은 5000억원 수준이다.문제는 법에 규정된 지정 조건 5조원과, 시행령과 감독 규정에 위임한 예외 허용 한도 5조원이 같다는 점이다. 주력사가 4조90000억원이고, 비주력사가 4조8000억원이면 총자산이 10조원에 육박해도 지정되지 않는 셈이다. 시행령과 감독 규정 기준이 너무 높아 법적 한도가 사실상 10조원 가까이로 올라가기 때문이다.금융위는 예외 규정을 고치는 방안을 검토하고 있다. 감독 규정은 금융위 의결만으로, 시행령은 국무회의를 거치면 개정할 수 있다.비주력 금융업종의 자산합계 기준을 5조원에서 3조원으로 낮추는 방안이 유력하게 거론된다. 다음달 상장 예정인 카카오페이는 최소 1조원의 자본을 모을 것으로 예상된다. 이 자금은 순차적으로 카카오페이증권과 카카오페이손해보험 등에 투자될 계획이다. 연내 카카오뱅크를 제외한 금융계열사 자산총액이 3조원을 넘길 수 있다.기준이 바뀌면 토스 역시 이르면 내후년께 금융복합기업집단에 지정될 가능성이 크다. 5일 토스뱅크가 출범하면서 내년 중 자산 5조원 기준은 충족될 수 있다. 토스 모태가 된 지급·결제를 금융으로 볼 지와 토스증권이 얼마나 빨리 자산을 불릴지가 변수다.금융위 관계자는 “빅테크를 둘러싼 논란이 있는 만큼 내부적으로 그룹 리스크가 없는지 살피는 단계”라며 “위험 요인이 무엇인지, 어떻게 감독해야 하는지 등을 살피고 전문가들의 의견도 청취하는 중”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2021.10.08.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>비바리퍼블리카, 타다 인수 소식에 비상장주식 가격 '급등'</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004980605?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>토스 운영사인 비바리퍼블리카가 '타다' 운영사 VCNC의 지분을 인수한다는 소식에 비바리퍼블리카의 장외시장 거래가 큰 주목을 받고 있다. 8일 비상장주식 전문 거래 플랫폼인 서울거래소 비상장에 따르면, 현재 비바리퍼블리카(토스) 기준가는 전일 대비 2700원(2.57%) 오른 10만7600원에 거래되고 있다. 이에 비바리퍼블리카의 기업 가치도 17조5665억원까지 올라 어제보다 약 4000억원이 증가했다. 오늘 오후 3시 기준 '팝니다'에 등록된 가장 싼 안전거래 매물은 12만5000원이다.서울거래소 비상장 관계자는 "이번 타다 인수로 비바리퍼블리카의 모빌리티 사업 진출, 그리고 금융서비스와의 시너지에 대한 기대 심리가 주가 상승을 견인하고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2021.10.09.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>타다 인수 소식에…토스 장외거래 주가 ↑</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001897240?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>기업 가치 17조5665억원[헤럴드경제=박자연 기자]토스 운영사인 비바리퍼블리카가 '타다' 운영사 VCNC의 지분 60%를 인수한다는 소식에 장외시장도 요동쳤다.8일 토스의 타다 지분 인수 결정이 알려짐에 따라 이날 비바리퍼블리카의 장외시장 거래는 2%대 상승을 기록했다.비상장주식 전문 거래 플랫폼 '서울거래소 비상장'에 따르면, 8일 오후 3시께 비바리퍼블리카(토스) 기준가는 7일(10만4900원) 대비 2.57% 오른 10만7600원에 거래되다, 마지막 거래는 11만7000원을 기록했다. 이에 비바리퍼블리카의 기업 가치도 전일(7일) 대비 4000억원 가량 증가해17조5665억원까지 불어났다.토스가 모빌리티 기업인 타다 인수를 마무리짓게 되면 은행, 보험, 증권, 결제·송금 등 토스 금융 인프라와 시너지를 내는 서비스를 제공할 수 있을 것으로 보인다.서울거래소 비상장 관계자는 “비바리퍼블리카는 통일주권으로 서울거래소 비상장에서 증권계좌를 통한 안전거래, 바로체결이 가능한 비상장 주식”이라며 “안전하고 빠른 거래가 가능해 많은 투자자들이 큰 관심을 갖는 것으로 보이며, 이번 타다 인수로 비바리퍼블리카의 모빌리티 사업 진출, 그리고 금융서비스와의 시너지에 대한 기대 심리가 주가 상승을 견인하고 있다“고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2021.10.04.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>“리딩 그룹 넘어 최고의 금융플랫폼 기업 도약”</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/382/0000936361?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>창립 13주년 맞은 KB금융윤종규 회장 “지금의 위기를 기회로”비금융 플랫폼 강화해 고객 확대ESG·친환경에너지·클라우드 등혁신 스타트업 지원프로그램 운영창립 13주년을 맞은 KB금융이 ‘최고의 금융플랫폼’을 목표로 제시했다. KB금융 창립 13주년 기념식에서 장기근속직원들과 기념촬영을 하고 있는 윤종규 KB금융 회장(앞줄 오른쪽에서 다섯 번째). 사진제공｜KB금융창립 13주년을 맞은 KB금융이 ‘최고의 금융플랫폼’을 화두로 내세웠다. 빠르고 유연한 조직, 금융과 비금융의 연계, ESG(환경·사회·지배구조) 경영을 통한 사회 안전망으로서의 금융, 전문성을 지닌 최고의 인재 양성 등을 통해 리딩 금융그룹을 넘어 넘버원 디지털 금융플랫폼 기업으로 도약하자는 게 핵심포인트다.“고객에게 편의, 혜택, 즐거움 드리자” 먼저 윤종규 KB금융 회장은 9월 29일 열린 창립 13주년 기념식에서 ‘최고의 금융플랫폼’을 그룹이 추진해야 할 목표로 제시했다. 윤 회장은 “국내 금융업은 디지털과 모바일 중심의 비대면 가속화로 전통 금융회사와의 경쟁을 넘어 플랫폼 기업과의 경쟁이 더욱 심화되고 있다. 케이뱅크와 카카오뱅크에 이어 5일 세 번째 인터넷전문은행인 토스뱅크가 출범하는 등 새로운 도전과 위기에 직면해 있다”고 했다. 그러면서 “지금의 위기를 기회로 받아들이고 새로운 도전과 혁신을 추진한다면 고객으로부터 사랑받는 넘버원 금융 플랫폼 기업으로 변모할 수 있을 것”이라고 했다. 특히 그는 “10월 새롭게 탄생하는 KB국민은행의 ‘뉴 스타뱅킹’ 중심의 넘버원 금융플랫폼을 구축하고, 비금융 플랫폼 경쟁력도 강화해야 한다”며 “리브(Liiv) 부동산, KB차차차, KB헬스케어, 리브 모바일 등 비금융 플랫폼을 강화해 고객 접점을 확대하자”고 했다. 또 “고객중심적 사고, 차별화된 상품과 서비스를 통해 고객에게 편의, 혜택, 즐거움을 드려 경제적으로 행복하게 해드리는 것이 고객의 믿음에 보답하는 길”이라고 강조했다.차세대 유니콘 꿈꾸는 스타트업 응원 넘버원 디지털 금융플랫폼 기업으로 변화하기 위한 움직임으로 ‘KB스타터스’를 시행하고 있다. KB금융이 2015년부터 선발해 육성해온 혁신 스타트업 사업으로, 매년 상·하반기로 나눠 선발한 후 다양한 지원 프로그램을 운영하고 있다. 비즈니스 모델 매력도와 차별성, 기술역량, 협업·성장·글로벌 진출 가능성 등에 주안점을 두고 대상기업을 고른다. 올해 하반기 역시 KB스타터스 16개사를 선정했다. ESG 분야에서는 시각 장애인 등 디지털 소외계층의 온라인쇼핑몰 접근성을 인공지능(AI)기술로 개선한 스타트업인 ‘와들’, 인공지능 농장 모니터링 기술과 가축 건강관리 시스템 등 축산농가의 체계적인 사육 관리를 위한 기술을 보유한 ‘한국축산데이터’, 친환경에너지 관련 스타트업 ‘에너지엑스’가 선정됐다. 또 클라우드 분야에서는 자동화 개인정보 보호 서비스를 제공하는 ‘스파이스웨어’, 금융 디지털 전환 솔루션을 보유한 ‘에어탑클라우드’가 선정됐다. 신규 선정된 KB스타터스는 KB금융 계열사와의 협업, 내·외부 전문가 경영컨설팅, 투자 유치, 글로벌 진출, 채용 지원 등 성장 단계별 스케일업 프로그램으로 경영지원을 받을 수 있다. 또 서울 강남과 관악에 위치한 스타트업 전용 공간에 입주도 가능하다.허인 KB국민은행장(왼쪽에서 다섯 번째), 에스파와 ae-에스파가 등장하는 ‘KB와 에스파의 만남’ 티저 영상. 사진제공｜KB국민은행 걸그룹 에스파와 함께 미래 금융세상 선보여 KB국민은행도 Z세대(1990년대 중반~2000년대 초반에 출생한 이들)를 위해 새롭게 개편하는 모바일플랫폼 ‘리브’ 모델로 걸그룹 에스파를 발탁하는 등 최고의 금융플랫폼 구축을 위해 나섰다. 에스파는 현실과 가상의 경계를 초월한 걸그룹으로 유명세를 탔다. 현실세계의 자아인 에스파와 가상세계의 또 다른 자아인 ae(아이)-에스파가 디지털 세계에서 만나 시공간을 초월해 모험을 펼쳐 나가는 스토리텔링을 펼치고 있다. ‘KB와 에스파의 만남’ 티저 영상은 에스파가 허인 KB국민은행장의 초대를 받으며 시작된다. 에스파는 가상세계 통로를 통해 KB의 디지털 세계로 건너와 메타버스에서 활약 중인 ae-에스파를 소환해 함께 미래 금융세상을 만들어 나간다는 이야기를 선보인다.  KB금융의 디지털 혁신 부문장을 겸임하고 있는 허인 KB국민은행장이 직접 티저 영상에 참여하며 KB금융 전체를 대표해 KB의 디지털 금융플랫폼 혁신 의지를 표현했다. KB국민은행 측은 “미래 금융세상을 향한 새로운 시작과 넘버원 금융플랫폼을 위한 도전을 에스파와 함께 하기로 했다”며 “KB의 디지털 금융플랫폼 혁신 의지를 가장 잘 표현할 수 있는 모델”이라고 했다.정정욱 기자 jjay@donga.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2021.10.04.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>윤관석 의원 "5년간 간편송금으로 잘못 보낸 돈 130억원...74% 미반환"</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002973046?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>윤관석 더불어민주당 의원 (사진=윤관석 의원실)지난 5년간 간편송금에서 발생한 착오송금이 약 130억원 규모(5만6000건)로 발생한 것으로 나타났다.4일 윤관석 더불어민주당 의원(국회 정무위원회)이 금융감독원으로부터 제출받은 자료에 따르면 토스, 카카오페이, 네이버페이 등 간편송금 서비스에서 발생한 착오송금이 2017년 2억6379만원(2197건)에서 지난해 53억2334만원(2만1595건)으로 금액 기준 19.2배, 건수 기준 8.8배로 급격히 증가했다.착오송금이란 개인이 실수로 수취금융회사, 수취인 계좌번호 등을 잘못 입력해 이체된 거래다.5년간 발생한 착오송금 129억4174만원, 5만5506건 중 95억3319만원(74%), 4만2316건(76%)이 주인에게 돌아가지 못했다.간편송금은 모바일에서 보안카드나 OTP 없이 비밀번호 등 간편 인증수단을 이용해 송금하는 서비스다. 한국은행에 따르면 올 상반기중 간편송금 하루 평균 이용실적은 4819억원, 407만건으로 2017년 상반기 대비 21배, 7배 증가했다. 간편송금 이용이 늘어나면서 착오송금도 함께 증가한 것으로 보인다.2015년 간편송금 서비스를 시작한 토스(비바리퍼블리카)의 경우 5년간 85억3786만원(3만6450건) 규모 착오송금이 발생했다. 이중 63억7422만원(75%), 2만9368건(81%)이 미반환됐다. 2017년 2억6379만원, 2197건이던 착오송금은 지난해 34억7911만원, 1만3670건으로 각각 12.2배, 5.2배 증가했다.카카오페이는 4년간 43억701만원(1만8799건) 규모 착오송금이 발생했다. 이중 31억1382만원(72%), 1만2811건(68%)이 미반환됐다. 2018년 대비 금액은 3.9배, 건수는 2.9배 각각 증가했다.네이버페이(네이버파이낸셜)는 2년간 9686만원, 257건 착오송금이 발생다. 이중 4514만원(47%), 136건(53%)이 미반환됐다.윤관석 의원은 “디지털금융이 발달하고 코로나19로 인한 비대면 금융거래가 증가하면서 덩달아 착오송금 규모도 급격하게 증가하고 있다”면서 “간편송금 업체는 금융소비자가 서비스를 이용하는 과정에서 착오송금과 같은 실수를 줄일 수 있도록 지속적으로 시스템을 개선할 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2021.10.06.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>[2021국감]인터넷은행에 맹공…"토스뱅크, 다르다더니 '번호표'?"</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000036525?sid=105</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>(사진=MBC 유튜브채널 국회 정무위원회 국정감사 생중계 갈무리)빅테크와 핀테크 업계의 금융산업 진출에 대한 정치권의 날 선 지적은 6일 정무위원회 국정감사에서도 이어졌다. 특히 전날 출범한 제3인터넷전문은행 '토스뱅크'가 서비스 이용 관련 사전신청을 받은 것에 대해 기존 시중은행의 '번호표'와 다를 바 없다는 지적도 나왔다.이날 국회 정무위원회의 금융위원회 국정감사에서 배진교 의원(정의당)은 "토스뱅크가 출범하고 첫 날부터 많았다. (계좌 개설) 대기자가 110만명이 넘었다고 홍보를 했는데 개설이 안돼서 이용자들 불만이 나왔다"며 "인터넷전문은행은 번호표가 없어야 하는 것 아니냐. 번호표 주고 줄세우기 한거 아니냐"고 지적했다. 배 의원은 또 고승범 금융위원장을 향해 "토스뱅크는 줄서서 먹는 식당에서 지인을 데리고 오면 순번을 앞쪽으로 바꿔주는 식으로 '새치기'를 했다는 조롱을 받았다"며 "이에 대한 입장을 밝혀달라"고 요구했다. 이에 대해 고 위원장은 "이에 대한 내용은 파악을 못해서 확인해보겠다"고 답했다.앞서 토스뱅크는 지난달 10일 조건 없이 연 2%대 금리를 제공하는 수시 입출금 통장을 선보이고, 사전 신청을 받아 출범 직후 계좌 개설 등 뱅킹 서비스를 이용할 수 있도록 선착순 접수를 받았다. 이 과정에서 친구나 지인에게 토스뱅크 사전 신청 페이지를 공유하면 순번을 빠른 번호로 올려주는 이벤트를 진행해 일부 이용자들 사이 불만이 쏟아져 나오기도 했다. 또 기존 은행 지점 창구처럼 번호표를 배부 받아 순서를 기다려야만 계좌 개설 등이 가능하도록 한 것도 '혁신'과는 멀다는 비판을 받고 있다.  또 배 의원은 중신용자를 대상으로 한 중금리대출 비중 확대가 인터넷전문은행 설립 취지와 다르게 움직이고 있다고 꼬집었다.배 의원은 "인터넷은행이 도입되고 3년이 지났다. 하지만 중신용자를 대상으로 한 중금리 대출이 적었다는 지적을 작년에도 했다"면서 "이에 대해 카카오뱅크는 억울하다는 입장을 보이기도 했다"고 말했다.그는 "카카오뱅크가 신용평가기준을 KCB로, 신용대출 외 전세자금대출을 포함하면 시중은행보다 중금리 비중이 높았을 것이라고 주장했다"면서 "카카오뱅크가 언급한 기준에 맞춰서 다시 조사했지만 여전히 고신용자 대상 대출 비율이 높았다"고 설명했다.배 의원이 공개한 조사 결과에 따르면 올해 시중은행 7곳과 카카오뱅크의 신용등급별 대출 현황은 신용점수 900점 이상 고신용자를 대상으로 한 신용·전세자금대출 비중은 카카오뱅크가 잔액기준 74.2%로 시중은행(57.7%)보다 20%포인트 가까이 높았고, 신용점수 700~899점의 중신용자 대상 대출도 카카오뱅크가 21.9%로 시중은행 평균 38.0%보다 낮은 것으로 나타났다. 이 같은 지적에 대해 고 위원장은 "인터넷은행은 '금융 혁신' 이런 부분에서 출발을 했지만 중금리대출은 기대에 못 미친 부분이 있었다"면서 "금융소비자 보호 차원에서도 문제가 생기지 않도록 개선하겠다"고 말했다. 한편 고 위원장은 같은 날 국감에서 업무현황 보고를 통해 "빅테크 기업의 금융 진출 확대 과정에서 경쟁과 안정을 저해할 우려가 없는지, 소비자 보호에 빈틈이 없는지 지속적으로 점검하면서 대응하도록 하겠다"고 밝혔다. 이를 위해 금융위는 빅테크·핀테크발(發) 혁신을 촉진하는 '(가칭)핀테크 육성 지원법'도 추진하고, 금융권 인공지능(AI) 세부 실무지침도 연내에 마련한다는 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2021.10.07.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>가계대출 규제에 몰려갔다… 토스뱅크 대출 이번주 중단할 판</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003644947?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>연말까지 쓸 대출액, 3일만에 절반 소진 '3호 인터넷전문은행' 토스뱅크가 5일 공식 출범하고 여신과 수신 상품 판매를 시작했다. 가계대출 총량 규제의 풍선 효과로 토스뱅크의 대출이 빠르게 소진되고 있는 것으로 알려졌다. 사진은 서울 강남구 토스뱅크 본사. /연합뉴스										정부가 가계대출을 억누르기 위해 규제를 강화하는 가운데 신생 인터넷전문은행인 토스뱅크로 대출이 과다하고 몰리고 있다. 지난 5월 영업을 시작한 토스뱅크는 연말까지 가능한 대출 총량의 약 절반을 3일 만에 소진한 것으로 알려졌다. 지금 속도면 이번 주말쯤 신규 대출을 중단해야 할 가능성도 있다.7일 금융권에 따르면 토스뱅크는 이날 오후까지 대출 약 2000억원을 실행했다. 금융당국은 은행에 올해 가계대출 증가율을 ‘전년 대비 6%’로 제한하도록 요구했고, 토스뱅크는 ‘전년’ 기준이 없는 만큼 연말까지 5000억원을 넘지는 않도록 지도했다.금융계 관계자는 “토스뱅크는 신생 은행이긴 하지만 금융당국이 강력히 추진 중인 가계대출 통제에서 완전히 자유로울 수는 없을 것”이라고 말했다. 금융당국 관계자도 “새로 출범한 은행이라고 해서 무조건 대출을 늘리는 식으로 예외를 적용하긴 어렵다”라고 했다. 토스뱅크는 최대 2억7000만원, 최저 금리 연 2.76%의 신용대출을 출시해 주목을 받았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2021.10.06.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>울산시 부유식 해상풍력 국제포럼.. 6일~7일 UECO</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004718999?sid=102</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>온·오프라인으로 동시 개최정부기관, 국내외 기업체 참석한국 해상풍력 동향 정책방향 소개해상풍력산업 공급망 구축 상황 등 발표  【파이낸셜뉴스 울산=최수상 기자】 울산시가 주최하는 ‘부유식 해상풍력 국제포럼(FOWF) 2021’이 6일~7일 양일간 울산전시컨벤션센터(UECO) 3층에서 온·오프라인으로 동시 개최된다.   5일 울산시에 따르면 이번 행사는 (재)울산테크노파크, (사)한국수소산업협회가 주관하며, 산업통상자원부, (사)한국풍력산업협회가 후원하고, 민간투자사가 함께한다.   주요 행사로는 첫날 기조연설, 정부정책 및 프로젝트 발표 등에 이어 둘쨋날에는 해상풍력산업 공급망 구축을 위한 관련 기관 발표와 특별세션 등이 진행될 예정이다.   첫날 기조연설에는 쉘 코리아(Shell Korea) 사장 오지원, 에퀴노르 사우스 코리아(Equinor South Korea)대표 자크 에티엔 미쉘(Jacques-Etienne Michel), 구즈만 피가(Guzman Figar) 오션 윈드(Ocean Wind) 아시아 태평양지구 사업개발 대표가 직접 발표하며 ,지아이지-토탈에너지스(GIG-TotalEnergies)에서는 수석부사장 줄리앙 푸제(Julien Pouget), 시아이피에스케이 이앤에스(CIP-SK E&amp;S) 부회장 토스턴 스멧(Torsten Lodberg Smed)이 영상으로 참여한다.   이어, 산업통상자원부가 ‘한국 해상풍력 동향 및 정책방향’을 소개하며, 이와 함께 부유식 해상풍력 발전단지를 조성 중인 △문무바람 △에퀴노르(Equinor) △지아이지-토탈에너지스(GIG-TotalEnergies) △케이에프윈드(KFWind) △시아이피에스케이 이앤에스(CIP-SK E&amp;S)와 △석유공사에서 각각 울산 부유식 해상풍력 발전단지조성 프로젝트를 발표한다.   특히 올해 프로젝트 발표에는 해상풍력 사업의 본격 추진을 위한 첫 번째 단계인 풍황 조사용 라이다 설치를 완료하고, 발전사업허가를 취득하고 있는 시점에서 향후 사업 추진계획, 지역에 미치는 파급효과, 지역인재 인력양성사업 및 주민과의 상생방안 등이 포함되어 있다.   둘째날에는 해상풍력산업 공급망 구축을 위해 △부유체(현대중공업) △풍력터빈(두산중공업, 유니슨) △블레이드(휴먼컴퍼지트) △원소재(POSCO, KCC, 조광요턴, 켐프) △케이블(LS전선) △설계 및 엔지니어링(에이스 E&amp;T, 동양엔지니어링, 세호엔지니어링) △해상 서비스(대상해운) △설치(KT Submarine) △유지보수(바이드뮬러코리아, 대명엘레베이터) △인증(DNV) △계류라인(dsr, 고려제강) △KEB 하나은행(투자) 등 관련 기업의 사업 발표가 진행된다.   이어지는 특별세션에서는 케이워터크래프트과 한국에머슨이 ‘풍력발전을 통한 그린 수소 생산’이라는 주제로도 발표한다.송철호 울산시장은 “이번 행사는 정부의 ‘2050 탄소중립’에 따라 신재생에너지 육성을 위해 개최하게 됐다.”며 “기업·관련기관의 네트워크 구축과 해상풍력 관련 기술 개발 및 산업을 육성해 향후 진행될 부유식 해상풍력단지 조성을 통한 일자리 창출과 지역경제 활성화가 이루어지길 기대한다.”라고 밝혔다.   한편 ‘부유식 해상풍력 국제포럼 2021’ 행사는 부유식 해상풍력 국제포럼 2021 누리집과 유튜브를 통해 세부 프로그램과 관련 내용을 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2021.10.06.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>대출 조여도 괜찮아…금융지주 3분기도 장밋빛(종합)</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004979289?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>은행권 대출 증가세 계속...시장금리 상승으로 마진은 확대국내 금융지주사들이 코로나19 확산세가 지속된 올해 3분기에도 역대 최대 수준의 실적을 달성할 전망이다. 가계대출 총량 관리 강화에 따른 대출 조이기가 나타나고 있지만 이미 대출평잔이 크게 증가한 데다 시장금리 상승으로 인한 마진 확대까지 겹치면서다.6일 금융권에 따르면 올해 1분기 4대 금융지주의 순이익은 3조8651억원 수준으로 지난해 같은기간 3조5499억원 보다 8.8% 증가할 것으로 추정됐다. 금융정보 제공업체 에프앤가이드가 집계한 4대 금융지주의 지배주주 귀속순이익 시장전망치(컨센서스)는 ▲KB금융 1조2038억원 ▲신한금융 1조1363억원 ▲하나금융 8525억원 ▲우리금융 6725억원 순이다.KB금융은 지난해 3분기 푸르덴셜생명 인수와 관련된 염가매수차익 1450억원이 반영돼 올해 3분기 순이익 증가율이 크게 높아지기 어려운 환경이었다. 하지만 3.19% 증가율로 지난 1~2분기에 이어 3분기 순이익도 1조2000억원을 돌파할 수 있을 것이란 관측이 우세하다.지난해 3분기 창사 이래 처음으로 분기 순이익이 1조원을 넘어섰던 신한금융 역시 올해 3분기에도 1조원 이상의 순이익 달성이 예고됐다. 이대로라면 KB금융, 신한금융 모두 올해 전체 순이익이 처음으로 4조원을 가뿐히 넘어설 수 있을 것이란 예상이다.하나금융과 우리금융은 3분기 두 자릿수 순이익 증가율이 예상된다. 특히 타 금융지주 대비 은행 비중이 높은 우리금융은 대출금리 상승으로 인한 이자이익 급증과 케이뱅크 유상증자와 관련된 지분법평가이익 700억원 인식 등 영향으로 전년 동기대비 순이익이 40% 가량 증가할 것으로 추산된다.은행권 순이자이익 증가세 계속기준금리 인상에 따른 대출금리 상승 효과도신용대출과 마이너스통장 한도가 각각 연소득, 5000만원 이내로 축소되고 신규 부동산담보대출 취급 중단 및 한도 축소 등에도 가계대출은 계속 증가추세다. 4대 은행의 가계대출 잔액은 3분기 말 567조3500억원 수준으로 2분기 말 555조4823억원 보다 12조원 가까이 늘었다. 오히려 가계부채 관리를 위한 대출금리 상승이 불가피해 은행권 순이자이익이 증가세를 이어갈 수 밖에 없는 환경이다.9월 중순부터는 기준금리 인상에 따른 대출금리 상승 효과가 발생하고 있고 유동성커버리지비율(LCR) 완화(100→85%)도 재연장돼 순이자마진(NIM)도 추가 개선될 여지가 높다. 3분기 은행 NIM이 2분기와 비슷한 수준을 유지하더라도 4분기에는 3~4bp 개선이 가능할 것이란 진단도 나오고 있다. 또 중소기업·소상공인에 대한 대출만기 연장 및 원리금 상환유예 프로그램이 진행 중이지만 지난해 기적립한 코로나19 관련 충당금으로 인해 대규모 손실이 발생할 가능성도 낮은 상황이다.인터넷전문은행인 토스뱅크 출범 등도 시중은행 실적에는 위협요소가 아니다. 토스뱅크가 확보하려고 하는 중금리 대출 고객은 기존 시중은행의 주요 타깃이 아닌 데다 고신용자 대출은 지금 같은 가계부채 관리 강화 분위기에서 경쟁이 나타날 이유가 없기 때문이다.백두산 한국투자증권 연구원은 "경기회복과 이에 동반된 금융불균형 해소를 위한 통화정책 조정이 은행 실적 개선으로 이어질 것"이라며 "3분기 실적은 가계부채 관리 보다 기준금리 상승에 주목해야 한다"고 설명했다. 그러면서 "1회에 그치지 않을 기준금리 인상, 차입수요와 대출 총량관리의 미스매치에 따른 가격협상력을 고려하면 적어도 내년까지 NIM 상승 추세는 지속될 것"이라고 전망했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2021.10.11.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>토스뱅크, 대출한도 60% 소진…이번주 신용대출 중단 가능성</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012713084?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 진연수 기자 = 중저신용자 포용을 내걸고 출범한 3호 인터넷전문은행 토스뱅크가 영업 개시 나흘 만에 대출한도의 60%를 소진하면서 이르면 이번 주 신용대출 중단될 가능성이 거론된다. 금융당국과 금융권에 따르면, 토스뱅크에서 지난 5일 출범 이후 나흘간 실행된 대출액은 3천억 원에 육박해 금융위원회가 제시한 한도 5천억 원의 60%를 소진했다. 이 가운데 중저신용자 비중은 25% 이상인 것으로 알려졌다. 사진은 11일 서울 강남구 토스뱅크 본사. 2021.10.11    jin90@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2021.10.01.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>[데일리안 오늘뉴스 종합] '유동규 뇌물수수 의혹' 뇌관…민주당 당혹감 속 언급 피해, '화천대유' 김만배, 이재명 무죄 전후로 권순일 8차례 만났다</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002534526?sid=100</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>더불어민주당 대선 주자인 이재명 경기도지사가 지난 9월 29일 오전 서울 영등포구 중앙보훈회관에서 열린 개발이익 환수 법제화 긴급토론회에서 발언하고 있다. ⓒ데일리안 홍금표 기자[데일리안 = 이슬기 기자] ▲'유동규 뇌물수수 의혹' 뇌관…민주당 당혹감 속 언급 피해유동규 전 성남도시개발공사 기획본부장이 검찰에 ‘피의자’ 신분으로 체포되면서, 대장동 게이트가 새로운 국면에 접어들었다. 유 전 본부장은 대장동 사업을 기획하고 직접 실무를 담당하는 등 핵심적인 역할을 했던 인사다. 무엇보다 유 전 본부장이 이재명 더불어민주당 대선 경선 후보의 핵심 측근으로 여겨졌던 점에서 파장은 작지 않을 전망이다.▲'화천대유' 김만배, 이재명 무죄 전후로 권순일 8차례 만났다대장동 개발 비리 의혹의 중심에 있는 화천대유 자산관리 주식회사(화천대유)의 대주주인 김만배 씨가 지난해 7월 이재명 경기도지사의 대법원 무죄 취지 판결을 전후해 권순일 전 대법관을 수 차례에 걸쳐 만난 것으로 알려졌다.▲김종인, 윤석열에 힘 싣는다…김근식 등 측근 尹 캠프 추가 합류김종인 전 국민의힘 비상대책위원장의 핵심 측근인 김근식 전 국민의힘 비전전략실장이 윤석열 캠프에 합류한다. 그동안 윤석열 전 총장을 물밑에서 지원해 온 김 전 위원장의 지원사격이 본격화되는 것 아니냐는 관측이다.▲이재명·캠프, 유동규 檢 수사 급물살에 '미묘한 기류 변화'성남시 대장동 개발 특혜 의혹의 핵심 인물인 유동규 전 성남도시개발공사 기획본부장에 대한 검찰 수사가 급물살을 타면서 더불어민주당 대선 경선 후보인 이재명 경기도지사와 캠프의 고민이 깊어지는 모습이다.그동안 유 전 본부장에 대해 강경한 태도로 무작정 선을 긋던 이 지사와 캠프는 9월 30일부터 '미묘한 기류' 변화를 보이고 있다. 유 전 본부장의 비위 의혹이 사실로 드러날 경우 치명타를 피하기 위한 사전 조치에 돌입한 것으로 보인다.▲[단독] 토스·핀크, 결국 대출 중개업 등록…당국 압박에 백기토스와 핀크가 대출 상품 대리·중개업자 등록을 완료했다. 금융당국이 금융소비자보호법 도입과 함께 핀테크 기업에 플랫폼 내 금융상품 비교·분석 서비스를 제공하기 위해서 중개업자 등록을 우선하라고 주문해서다.일각에선 다른 법의 적용을 받아야 하는 보험, 펀드 등에 대한 중개업무가 여전히 답보상태인 만큼 금융당국의 빠른 결단으로 소비자 불편을 최소화해야 한다고 주장하고 있다.▲케인 기 살린 손흥민…이것이 월드클래스 스피드손흥민이 올리고, 해리 케인이 마무리를 짓는 토트넘의 득점 공식이 부활했다. 토트넘은 1일(한국시간), 토트넘 홋스퍼 스타디움에서 열린 ‘2021-22시즌 UEFA 유로파 컨퍼런스리그(UECL)‘ NS 무라와의 G조 2차전서 5-1 대승을 거뒀다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2021.10.01~2021.10.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2021.10.01~2021.10.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>'파격 대출'에 첫날 120만 명 토스뱅크 계좌 신청했다</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/055/0000925270?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>&lt;앵커&gt;국내 세 번째 인터넷 전문은행인 토스 뱅크가 문을 열었습니다. 대출받기가 까다로워진 요즘, 파격적인 금리 조건을 내세우면서 가입자가 이미 120만 명을 넘었습니다.김정우 기자가 취재했습니다.&lt;기자&gt;조건 없는 연 2% 이자율의 예금과 최저 연 2.7% 금리로 2억 7천만 원까지 빌릴 수 있는 신용 대출.국내 세 번째 인터넷 전문은행 토스뱅크가 내건 파격 조건에 출범 첫날, 사전신청을 포함해 120만 명 넘게 계좌 개설 신청을 했습니다.선발 주자인 케이뱅크와 카카오뱅크의 첫날 가입자 수를 능가할 만큼 소비자들이 몰린 것은, 정부 규제로 대출 절벽에 내몰린 대출 난민들이 피난처로 기대하기 때문이라는 분석입니다.기존 금융권에서 돈 빌리기가 상대적으로 어려웠던 중·저신용자 대출 문턱을 낮추고, 마이너스통장 한도도 다른 인터넷 은행보다 많은 최대 1억 5천만 원까지 설정해 대출 수요를 흡수한 것입니다.다만 연말까지 은행별 5천억 원으로 제한된 대출 총량이 변수입니다.[서지용/상명대학교 경영학부 교수 : 경쟁 은행들 같은 경우는 지금 신용대출 규제를 적극적으로 받고 있는데, 조만간 시간이 흐르면서 아마 토스뱅크의 어떤 대출 영업에도 좀 제한이 있을 것 같고요.]토스뱅크 측도 정부 규제를 따르겠다며 신용대출 한도를 연소득 이내로 제한하겠다고 밝혔습니다.[홍민택/토스뱅크 대표 : (토스뱅크도) 다른 은행들과 동일한 규제 환경에 놓여 있습니다. 정부가 추진하는 정책적 방향에 공감하고 협력해나갈 방침입니다.]다른 은행보다 대출 금리는 낮게, 예금 금리는 높게 책정한 사업 방식이 얼마나 지속할 수 있을지도 관심인데, 토스뱅크는 내년 이후 주택담보대출과 전세대출 상품을 추가하며 공격적 경쟁을 확대할 방침입니다.(영상취재 : 김흥식, 영상편집 : 김호진, VJ : 박현우)[네이버홈에서 'SBS 뉴스'를 구독하세요!]https://media.naver.com/channel/promotion.nhn?oid=055</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2021.10.08.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>토스 품에서 부활하는 타다…모빌리티 시장 ‘대격동’</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001896910?sid=105</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>타다 라이트 이미지 [타다 제공][헤럴드경제=최준선 기자] 토스가 타다를 전격 인수하면서 국내 모빌리티 시장 구도가 급변할 전망이다. 2000만명 가입자를 둔 금융 신흥 강자 토스가 타다를 품으면서 카카오모빌리티, 티맵모빌리티와의 경쟁도 더욱 치열해질 것으로 예상된다. ‘타다 금지법’으로 제동이 걸리는 듯했던 국내 모빌리티 산업이 타다의 부활로 활성화될지도 주목된다.토스는 모빌리티 스타트업 타다를 전격 인수한다고 8일 밝혔다. 토스 운영사 비바리퍼블리카가 쏘카가 보유한 타다 운영사 브이씨엔씨 지분 60% 인수하는 방식이다. 토스가 투자한 금액은 모두 타다의 성장을 위해 쓰여질 예정이다. 토스는 이르면 이달 주식인수계약을 마무리하고, 올해 말 새롭게 리뉴얼한 타다 서비스를 선보일 예정이다.토스는 “타다 인수를 통해 토스 결제 등 금융 비즈니스의 외연을 확장하고, 모빌리티 서비스 이용자와 산업 종사자의 선택폭을 넓힘으로써 건전한 성장과 혁신을 이어간다는 전략”이라고 말했다.지난해 10월 가맹 택시 사업을 시작한 타다는 승차 거부 없는 바로 배차, 기사 수수료 면제 등으로 점유율을 확장해 가고 있다. 특히 택시호출 시장 80%를 점유하고 있는 카카오모빌리티를 겨냥해, 보다 저렴한 수수료 모델과 구독형 모델 등을 앞세웠다. 토스로선 연간 매출액 기준 6조원에 달하는 택시 호출 시장을 구독 모델로 끌어안으면서, 기존 핀테크 사업과의 시너지를 도모할 수 있게 된다.국내 모빌리티 시장에 글로벌 자금이 잇따라 투입되며 격변기를 겪고 있다. 올초 카카오모빌리티는 구글인터내셔널을 대상으로 565억원 규모의 투자를 받았고, 7월에도 LG 및 GS그룹으로 1300억원을 추가로 유치했다. 카카오모빌리티는 앞서 미국 경영참여형사모펀드(PEF) 텍사스퍼시픽그룹(TPG), 세계 3대 PEF 운용사인 칼라일그룹으로부터도 투자를 유치했다.국내 모빌리티 시장의 또 다른 핵심 플레이어는 티맵모빌리티다. 국내 스마트폰 내비게이션 시장의 75%를 점유하는 1위 사업자로, 지난해 SK텔레콤으로부터 분사하면서 우버와 손 잡았다. 우버는 티맵모빌리티에 약 5000만달러(약 575억원)을 직접 투자하고, SK텔레콤과 함께 설립하는 별도의 조인트벤처에도 1억달러(약 1150억원)를 투자하는 등 총 1725억원을 베팅했다. 전 세계 900여개 도시에서 축적해 온 우버의 모빌리티 노하우가 ‘국민 내비게이션’과 만나 어떤 혁신을 가져올지가 관전 포인트다.업계는 올해가 모빌리티 혁신의 또다른 변곡점이 될 것으로 보고 있다. 카카오모빌리티, 쏘카 등은 내년 기업공개(IPO)를 목표로 하고 있는데, 상장 성공을 위해서는 향후 성장을 담보할 혁신적 서비스를 올해 및 내년 중에는 내놔야 한다. 지난해 통과된 ‘타다 금지법’이 유예기간을 거쳐 이달부터 시행되는데, 이를 통해 운송 플랫폼 사업이 제도화되면서 일정 부분 규제 불확실성이 사라진 상황이기도 하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2021.10.15.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>출범 열흘만에 대출 중단…혁신 시험대 오른 인터넷뱅크</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0000990579?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>토스뱅크, 출범 열흘 만에 '개점휴업'중·저신용자 대출 목표 사실상 달성 불가'신용대출 중심' 인뱅3사, 대출규제 직격탄&lt;앵커&gt;정부와 금융 당국이 선포한 `가계대출과의 전쟁` 속에 토스뱅크가 출범 열흘 만에 대출 문을 걸어 잠갔습니다.혁신금융과 중·저신용자 대출 증가를 목표로 설립된 인터넷은행들의 사업 확대에도 난항이 예상됩니다.보도에 배성재 기자입니다.&lt;기자&gt;[홍민택 토스뱅크 대표: 시장에서 자금이 필요한 실수요자들에게 꼭 필요한 자금을 공급해나가는 토스뱅크의 역할에 최선 다하고자 합니다.]3호 인터넷은행으로 야심 차게 출범한 토스뱅크.하지만 열흘 만에 예금만 받고 대출은 내주지 못하는 `개점휴업` 상태가 됐습니다.대출 한도를 늘려달라고 요청했지만, 가계대출을 옥죄겠다는 정부의 의지는 단호했습니다.이에 따라 토스뱅크가 내걸었던 각종 사업들도 차질을 빚게 됐습니다.당장 2% 금리의 예금이 큰 인기를 끌었던 만큼, 예대마진을 남기기가 쉽지 않아졌다는 평가입니다.올해 내로 중·저신용자 대출 비중을 34.9%까지 늘리겠다던 목표도 사실상 달성이 불가능해졌습니다.이러한 사업 차질은 비단 토스뱅크 만의 문제는 아닙니다.다른 인터넷뱅크 두 곳의 중·저신용자 대출 비중도 앞선 토스뱅크와 마찬가지로 목표치에 비해 턱없이 부족합니다.각종 대출들도 운용을 멈추거나 한도를 줄였는데, 예대마진에 민감한 인터넷은행들에게 경영적 부담으로 작용 중이라는 분석입니다.[은행업 관계자: 인터넷은행들은 비은행을 거의 안 하잖아요. 당연히 예대마진이 중요할 수밖에 없고, 이런 상황에서는 적자를 감내하면서 갈 수밖에 없는 구조긴 합니다.]더 큰 문제는 내년입니다.정부의 내년 가계대출 잔액 증가율 목표치는 지금보다 2%p 낮은 4%.주택담보대출과 신용대출을 중심으로 규제가 이어질 전망인데, 대출 상품 대부분이 신용대출인 인터넷은행들의 경영적 부담은 커질 수밖에 없습니다.현재로선 신용대출 외에 다른 대출 상품을 출시할 계획도 없거나 미룬 상황.편리함과 파격적인 상품으로 대중적 인기를 얻었지만, 정부의 강력한 가계대출 규제 속에 인터넷뱅크들이 혁신 시험대에 오르게 됐습니다.한국경제TV 배성재입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2021.10.06.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>고승범 "집단대출 실수요자 보호"…대출 상환능력 범위로 제한(종합2보)</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005641543?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>[국감현장]6%대 증가율 준수 의지 밝혀…"은행들, 집단대출 관리가능 수준"화천대유 논란에 "FIU 역할은 수사 아냐"…대환대출 플랫폼 11월 이전 어려워고승범 금융위원장이 6일 서울 여의도 국회에서 열린 정무위원회의 금융위원회에 대한 국정감사에서 의원들의 질의에 답하고 있다. 2021.10.6/뉴스1 © News1 구윤성 기자(서울=뉴스1) 송상현 기자,서상혁 기자,서혜림 기자 = 고승범 금융위원장은 최근 금융당국의 가계대출 총량관리로 아파트 중도금과 잔금에 대한 집단대출이 중단되고 있는데 대해 실수요이기 때문에 보호하겠다는 입장을 밝혔다. 다만 고 위원장은 올해 6%대라는 가계부채 증가율 목표치 준수를 위해선 실수요자 대출도 차주의 상환 능력 범위로 제한하는 등의 정책은 불가피하다고 언급했다. 결국 실수요자 대출에도 추가 규제가 있을 수밖에 없다는 점을 시사한 것으로 풀이된다. 10월 발표할 가계부채 추가대책의 내용과 관련해선 계속해서 방안을 찾고 있다며 고심하는 모습을 보였다.야당 의원들은 화천대유자산관리(화천대유) 논란과 관련해 금융정보분석원(FIU)이 대장동 개발사업의 자금흐름 등을 들여봐야한다고 집중 공격했지만 고 위원장은 FIU의 역할이 의심거래를 수사기관에 제공하는 것뿐이라며 선을 그었다.은행권의 반발로 지연되고 있는 대환대출 플랫폼은 11월 이전에 출범이 어렵다고 설명했다. 고 위원장은 서민들이 주로 이용하는 정책모기지의 중도상환 수수료를 절반으로 낮추는 방안을 추진하겠다고 밝혔다. 그러나 은행들이 받는 수수료를 모두 없애는 건 어렵다고 선을 그었다. 또 금융권 최고경영자(CEO) 징계 문제로 논란이 된 내부통제 개념에 대한 범위를 더 명확히 규정하는 것을 검토하겠다고 했다.고 위원장은 6일 국회 정무위원회에서 열린 금융위원회 국정감사에 출석해 가계부채 총량 관리 방안 등 금융권 주요 현안에 대해 이처럼 답했다.◇ 집단대출 중단에 "실수요 판단, 보호해야"…"상환능력 범위 내로 제한" 추가 규제도 시사고 위원장은 최근 아파트 중도금과 잔금에 대한 집단대출이 중단되고 있다는 전재수 더불어민주당 의원의 지적에 "최근 강북지역 등 수도권에서 광범위하게 (벌어지고) 있는데 대부분이 실수요라고 판단해 보호해야 한다고 생각한다"고 밝혔다.이어 "실수요를 보호하면서 가계부채 관리를 해야 하는 것은 상당히 어려운 과제"라며 "그 부분에 대한 보완책을 만들려고 검토하고 있고 전세대출과 집단대출의 경우 실수요자를 보호해야 하니 세심하게 보겠다"고 했다.고 위원장은 또 ‘최근 집단대출 중단으로 실수요자들의 불만이 거세다. 국민이 수긍할만한 실효성 있는 대책을 다시 내야 한다’는 유의동 국민의힘 의원의 지적에는 “집단대출은 주요 은행 (상황을) 보니 (집단대출 등에 대해) 전체적으로 관리가 가능한 범위 내에 있어 대출해줄 수 있다고 파악하고 있다”고 말했다. 그는 “금감원, 은행연합회, 국토교통부 등과 현장 상황을 모니터링할 것”이라고 덧붙였다.다만 고 위원장은 올해 6%대라는 가계부채 증가율 목표치 준수를 위해 일부 실수요자 대출의 제한도 불가피하다며 추가 규제 가능성을 시사했다. 고 위원장은 ‘6.9%라는 금융당국의 목표치는 지금 하듯이 집단대출도 막고 전세자금 대출도 조여야 달성이 가능한 목표로 보느냐’는 유동수 더불어민주당 의원의 질의에 “투기 수요를 막고 실수요자를 보호해야 하지만 가계대출이 늘어나는 것의 대부분은 실수요자 대출”이라며 “실수요자 대출도 상환 (능력) 범위 내에서 가능해야 한다”고 답했다.고 위원장은 '신임 위원장 취임 이후 제대로된 신호 없이 갑자기 가계부채 관리가 강화하면서 시장이 흔들리고 있다`는 홍성국 더불어민주당 의원의 지적에 대해선 "제가 오기 전부터 (금융당국이) 하반기부터 가계부채 관리를 강화해 나가는 계획을 갖고 있었다"며 "제가 시장 친화적인 정책을 한다고 했지만 가계부채 관리는 강화해야하는 상황"이라고 했다.또한 고 위원장은 '실수요자를 보호하는 방안은 무엇이고, 언제 나오나'라는 김병욱 더불어민주당 의원의 질문에 대해선 "계속해서 찾고 있는 거고, 10월 중순 즈음에 발표하는 것을 목표로 하고 있다"며 고심하는 모습을 보였다.◇야당 화천대유 논란 집중공격…고 위원장 "FIU 역할은 의심거래 통보까지"이날 국감에선 야당 의원들이 화천대유 논란과 관련해 고 위원장에 집중적으로 질의를 했다. 고 위원장은 '비정상거래를 통보만 하는 것은 FIU의 직무유기 아니냐'는 윤두현 국민의힘 의원의 질의에 "의심거래가 있을 때 수사당국에 통보하는 것까지가 금융정보분석원(FIU)의 역할이라며 "수사는 수사 당국에서 한다"고 했다.이어 "의심거래를 분석해서 통보하면 수사결과를 나중에 개략적으로 보고받는다"고 설명했다.김정각 FIU 원장도 "FIU는 금융거래정보를 통보하는 역할을 한다"며 "현행 특정금융정보법(특금법)상 FIU가 수사기관 역할을 모니터링할 장치는 없고, 법 집행기관이 어떻게 처리했는지 최종적으로 마지막 단계에서 대략적인 통보만 받는다"고 밝혔다.고 위원장은 앞서 이날 오전 '대장동 게이트'를 제대로 수사해달라는 박수영 국민의힘 의원의 요구에도 "이번 건은 검·경에서 이미 수사하고 있기 때문에 수사 과정을 지켜보는 것이 맞다고 생각한다"고 답했다.한편 FIU가 지난 4월 수사기관에 화천대유의 이상자금흐름 관련 통보를 했는지 여부를 밝히지 않는 것을 두고 야당의 공세가 이어졌다. 김 원장은 이날 관련 질의에 "특금법상 정보제공 여부를 확인할 수 없다"고만 답했다.강민국 국민의힘 의원은 "국감장에서 특금법을 논하면서 발언을 회피한다는 자체를 용인할 수 없다"며 비판했다. 윤창현 국민의힘 의원도 "경찰에서 받았다고 사실확인을 해줬는데, 왜 준 사람은 확인하지 못하냐"고 지적했다.◇대환대출 플랫폼 11월 출범도 어려워 …정책모기지 중도상환 수수료 인하 검토고 위원장은 이달 출범 예정이었던 대환대출 플랫폼이 지연될 것이라고 했다. 고 위원장은 윤관석 더불어민주당 의원의 `대환대출 플랫폼 진행 상황` 질의에 "핀테크, 빅테크간, 금융회사간 의견도 다르기도 해서 논의를 확실하게 해 추진하자고 했는데 시간이 걸리고 있다"며 "당초 10~11월에 하려던 것은 지연이 될 거 같다"고 말했다.대환대출 플랫폼은 카카오페이와 토스 등 핀테크 플랫폼에서 소비자가 은행 등 각 금융사의 금리 조건을 비교하고, 대출 갈아타기까지 `원스톱`으로 하도록 지원하는 시스템이다. 그러나 협의 과정에서 '빅테크 종속 우려' 등을 이유로 은행권이 거부하고 나서면서 사실상 논의가 전면 중단된 상태다.고 위원장은 서민들이 주로 이용하는 정책모기지의 중도상환 수수료를 낮추는 방안을 추진하겠다고 했다. 다만 은행권의 수수료를 손대는 것에 대해선 선을 그었다.고 위원장은 '정책금융기관을 통한 대출의 중도상환수수료를 폐지할 의향이 있느냐'는 김병욱 더불어민주당 의원의 질의에 "정책모기지 월별 상환액이 크게 감소해 잔액 증가 속도가 빠른 상황"이라며 "정책금융기관, 정책모기지에 대해 중도상환 수수료를 낮추는 게 필요하다고 생각한다"고 말했다. 이어 "최대 1.2%인 수수료를 절반 수준인 0.6%로 낮추는 것을 검토하고 있다"고 했다.그러나 고 위원장은 시중은행의 중도상환 수수료와 관련해서는 "시중은행은 수수료가 없어지면 단기적으로 가계대출이 늘어날 수도 있고 자금 미스매치가 생길 수 있다"며 "한꺼번에 없애기는 쉽지 않다"고 답했다. 그러면서 "금융부담 경감을 위해 불합리한 중도상환 수수료는 지속해서 개선하고 있고, 대출금리 인상 등 소비자에게 (부담이) 전가되는 것은 여러 가지를 보겠다"고 덧붙였다.◇"금융사 내부통제 개선 방안 마련중"…"빅테크도 소비자보호 위한 규제 받아야"고 위원장은 금융권 CEO 무더기 징계로 논란이 된 내부통제제도에 대해서도 "개선하기 위한 방안을 마련하고 있다"고 밝혔다. 고 위원장은 `현행 내부통제제도가 적절하다고 보느냐`는 오기형 더불어민주당 의원의 질의에 "내부통제제도가 실질적으로 작동하는 것이 중요하다고 생각하고 내부통제 개념 범위를 명확히 하는 것을 구체적으로 검토하고 있다"고 말했다.은행·증권·보험·여신·저축은행 등 금융권 협회장들은 지난달 6일 `금융산업 내부통제제도 발전방안`을 내놨다. 금융회사 이사회의 내부통제에 대한 역할을 강화하는 대신 금융당국은 제재 중심의 감독 방식이 아닌 개선 방향 제시 등 원칙 중심으로 감독하는 등의 규제 환경을 조성해달라는 것이 골자다.금융권에 진출한 빅테크(Big Tech)에 대한 동일기능·동일규제 원칙 적용을 시사한 것과 관련한 김한정 더불어민주당 의원의 질의에 대해선 “금융회사와 같이 소비자 보호를 위한 규제를 받아야 한다는 차원으로 금융소비자보호법에 따라 추진하겠다”고 말했다.고 위원장은 빅테크의 간편결제 수수료가 신용카드의 가맹점 수수료보다 높다는 지적에는 “간편결제 수수료에는 결제대행(PG) 수수료가 들어가 있어 이를 단순 비교하기는 어렵다”면서도 “금융감독원에서 간편결제 수수료와 PG 수수료에 대해 실태점검 중이기에 결과를 면밀히 보겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>"혁신 없이 미래 없다"…디지털 대변혁 시대 금융사들 '담대한 비전'</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004612404?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>디지털 혁신 위해 적과의 동맹 불사AI 활용한 신사업 나서"전통적 금융사 넘어 플랫폼 기업으로 진화"사진=김범준 기자지난해부터 이어지고 있는 코로나19 팬데믹은 정치 경제 사회 문화 등 전반에 걸쳐 깊고 구조적인 변화를 촉발하고 있다. 보수적이라던 금융업계도 마찬가지다. 비대면·디지털 전환(Digital Transformation)은 이제 선택이 아니라 금융회사들의 생존과 직결된 과제가 됐다. 네이버 카카오 토스 등 빅테크들이 앞선 기술력과 소비자 편익을 앞세워 금융업에 잇따라 진출하면서 기존 레거시 금융사들도 저마다 이들에 맞서 디지털 혁신에 사활을 걸고 있다. 고객 만족도를 높여 갈수록 격화되는 시장 경쟁에서 살아남기 위해 이종 간 협업은 물론 적과의 동맹까지 불사하는 금융사도 꾸준히 늘고 있다. “디지털 전환 뒤처지면 미래는 없다”조용병 신한금융그룹 회장은 최근 창립 20주년 기념사에서 “철저한 고객 관점의 디지털 전환을 통해 시장의 진정한 리더로 거듭나자”고 강조했다. 핵심 계열사인 신한은행도 이 같은 비전 아래 디지털 기술과 따뜻한 감성을 합치는 새로운 실험에 나섰다. 최근 서울 서소문 등에서 낸 ‘디지로그 브랜치(점포)’가 대표적이다. 신한금융 관계자는 “‘은행 같지 않은 은행’을 표방한 ‘휴먼 터치’ 공간인 디지로그 브랜치는 빅테크와 차별화한 신한은행만의 경쟁력이 될 것”이라고 강조했다.‘디지털 리딩뱅크’를 내건 국민은행도 인공지능(AI) 금융 서비스 개발에 주력하고 있다. 지난 3월 출시된 국민은행의 챗봇 ‘비비’는 개인화된 상담 서비스가 최대 장점이다. 말 한마디에 계좌 조회뿐 아니라 대출 이자율, 펀드 수익률까지 한꺼번에 볼 수 있다. 과거 검색 이력 등을 분석해 가장 적합한 상품을 추천해주기도 한다.우리은행도 올해 최우선 경영 목표를 ‘디지털 퍼스트, 디지털 이니셔티브(Digital First, Digital Initiative)’로 선정했다. 우리은행의 모바일뱅킹 앱 ‘우리WON뱅킹’은 이런 노력이 집약된 결과물이다. 올 1월 실손보험 가입자가 서류 없이 한 번에 보험사로 보험금을 청구할 수 있는 ‘실손보험 빠른 청구 서비스’를 도입한 데 이어 8월에는 택배 배송을 간편하게 예약·결제하고 실시간 조회도 할 수 있는 ‘우리WON뱅킹 마이(My)택배 서비스’를 출시했다. 우리은행 관계자는 “전통적 금융업을 넘어선 새로운 비즈니스 모델을 창출해 디지털 경쟁력을 강화할 것”이라고 했다.농협은행은 ‘비욘드 뱅크, 고객 중심 종합금융 플랫폼 기업으로의 도약’을 목표로 디지털 금융 혁신을 가속화하고 있다. 지난해 손병환 전 행장(현 농협금융지주 회장)이 만든 애자일(Agile) 조직인 ‘셀(Cell)’이 올해 15개로 확대되면서 변화가 본격화되고 있다는 평가다. 대표적인 성과로 중도금대출 프로세스 개선과 모바일 앱인 ‘올원뱅크’가 꼽힌다. 이종 간 협업에 ‘적과의 동맹’도 불사하나은행과 넷마블은 5월 서울 을지로 하나은행 본점에서 업무협약(MOU)을 체결하고 게임과 금융을 결합한 신규 서비스를 만들기로 뜻을 모았다. 양사는 게임 같은 금융 서비스를 받고 싶어 하는 MZ세대(밀레니얼+Z세대)를 겨냥해 △금융과 게임을 연계한 금융 콘텐츠 개발 △디지털 채널을 이용한 공동 마케팅 등에 힘을 합칠 예정이다. 하나은행은 네이버 일본 자회사인 라인과 함께 인도네시아 디지털은행 ‘라인뱅크’를 출범시켰으며 향후 디지털금융과 e커머스를 결합한 신사업도 추진할 계획이다.삼성생명은 6월 네이버클라우드와 MOU를 체결하고 AI 및 클라우드 기술을 활용한 공동 비즈니스 모델 창출에 나서기로 했으며 한화생명은 업계 최초로 보험금 대신 백화점 상품권, 맥주, 와인, 영양제 등으로 혜택을 돌려받을 수 있는 ‘구독보험’을 선보였다. 신한라이프는 AI 스타트업 아이픽셀과 함께 서비스 중인 헬스케어 앱 ‘하우핏’을 확대 개편하기 위해 다음달 별도 자회사를 출범시킬 계획이다. 현대해상은 카카오 플랫폼을 활용한 고객 서비스, 네이버와 함께 운영하는 AI 챗봇 등을 선보이는 등 빅테크와의 협력에도 적극적이란 평가다.신용카드사들도 다양한 디지털 혁신 노력을 펼치고 있다. 신한카드는 기존 간편결제 플랫폼인 ‘신한페이판’을 업그레이드한 새로운 생활금융 플랫폼인 ‘신한플레이’를 선보였고, 삼성카드도 4월 빅데이터 마케팅 플랫폼인 ‘링크 파트너’를 내놨다. 현대카드는 카드 생산 공장인 ‘카드팩토리’에 바리스타 로봇, AI 챗봇 등을 배치하는 등 다양한 실험과 시도를 하고 있다. KB국민카드도 간편결제 플랫폼인 ‘KB페이’와 마이데이터(본인정보신용관리업) 플랫폼인 ‘리브메이트 3.0’을 양대 축으로 디지털 혁신을 추진한다는 전략이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2021.10.14.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>[문답]고승범 금융위원장 "전세대출·집단대출 중단 없다"</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004656498?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>(서울=뉴스1) 구윤성 기자 = 고승범 금융위원장이 6일 서울 여의도 국회에서 열린 정무위원회의 금융위원회에 대한 국정감사에서 의원들의 질의에 답하고 있다. 2021.10.6/뉴스1  고승범 금융위원장이 14일 "올 연말 전세대출 증가로 가계대출이 6%대 이상으로 늘어도 용인하려고 한다"고 밝혔다. 고 위원장은 이날 서울 여의도 금융투자협회에서 열린 '알투플러스' 오픈 기념회 참석 이후 기자들과 만나 "전세대출이 중단되는 일이 없도록 실수요자를 보호하겠다"며 이같이 말했다. 다음은 고 위원장 가계부채 관련 일문일답 내용. -6% 이상으로 허용할 수 있다고 했는데 전세대출 DSR(총부채원리금상환비율) 규제 적용 하지 않는건지. ▶그 부분 발표될 가계대책 보완대책에 포함된다. 가계부채 관리대책에 포함될 내용은 크게 보면 DSR 관리 실효성 관리 강화할 필요가 있다는 것 8월부터 말했다. 전세대출 2금융권 대출 앞으로 관리 효율적으로 어떻게 할지, 금융회사들 자체 가계부채 관리 강화할 수 있는 시스템 어떻게 구축할 수 있을지 실수요자 보호 방안 어떤게 잇을지 포괄적으로 들어갈 것. 앞으로 그 부분 논의할 거다. 기본적으로 앞으로 내년 이후까지도 가계부채 관리 측면에서 보면 상환능력 범위 내에서 가계부채 관리가 이뤄져야 한단 원칙 변함 없고 세부과제들을 검토중에 있다. -전세대출 한시적 용인이 당국 총량 규제 바뀐다는 건지. ▶지금 말한대로 6%대 관리를 목표로 하는 기조는 이어가도록 한다. 다만 전세대출 부분에 있어서. 그 부분에 대해서 유연하게 대응하다 보면 6%대가 넘을 수도 있을 것 같다. 그 부분 용인하려고 한다. -유연성 발휘하는거 내년 상반기까지 하는건지. ▶연말까지 6%대 관리 한다고 했으니 지금 늘어나는 속도 봤을때 4분기 중단되는거 아닌가 우려 말한 것이다. 연말까지 가계부채 관리 얘기한거고. 내년부터 어떻게 할지는 추후 얘기하겠다.-실수요자 피해 안되게 어떻게 할건지. ▶실수요자 피해 관리 방안은 지금 말한 내용이다. 전세대출 집단대출 중단없도록 연말까지 잘 관리하겠다는 거고 그 이외 방안은 다음 발표할 때 얘기하겠다. -토스뱅크 총량 늘려달라고 했는데. ▶금융위 실무자들이 직접 전달받지는 않았는데 면밀히 검토할 것이다. -올해 가계대출 증가세 6% 아니고 7~8%대 목표 수정하나. ▶그 부분 말할 단계 아니다. 6%대 관리 위한 노력 계속 할 것이다. 다만 6%대 관리에 너무 얽매여서 전세대출이라든지 집단대출 같은 실수요자 대출이 중단되거나 하는 일 없도록 관리할 것이다. -예상보다 발표 늦어지는건, 실수요자 대출 부분 기조 변화가 있어서 그런건지. ▶그렇지는 않다. 검토 사안들 여러가지가 있다. 9월에도 말했지만 9월 동향 보고 대책 발표한다고 했다. 9월 동향 본 대로 좀 줄긴 했지만. 7.8조원이면 많이 늘었다. 그것까지 고려해서 연말까지 6%대 관리하겠다고 하면 실수요 대출도 줄여야 되는거 아니냐 우려가 커질 상황이라서 그 부분은 그렇게 하지 않겠다고 얘기한 것이다. 실수요 대출이 중단되거나 해서 실수요자들이 불편함을 겪는 부분이 없도록 관리할 것이다. -9월 은행권 대출 늘었는데. 그건 어떻게 보나. ▶지금 말한대로 주택관련 대출이 크게 줄지 않고 전세대출도 그렇고 기존 추세가 어느정도 이어진 것으로 보인다. 말한대로 은행권 대출 줄지 않았고 2금융권 대출 비교적 큰폭으로 증가세 둔화됐다. 그런 추세 앞으로 보면서 대책 세밀하게 보도록 할 것이다.  -농협은행 같은 경우 총량관리 실패해서 대출 중단 관리 유발했다는 지적 있었는데. 총량관리 실패한 은행 제재 방법 있는지. ▶그 부분 직접 말하기 보다 앞으로 금융회사 스스로 가계부채 관리를 어떻게 더 효율적으로 할 수 있을가 검토하고 있고 다음 발표할 대책에 포함할 것이다. -인터넷 은행 대출 몰리는 풍선효과 어떻게 보는지. ▶전체적으로 큰 방향안에서 관리돼야 한다고 생각한다. 토스뱅크 얘기했는데. 특수한 것들은 검토 더 하지만 기본적으론 전체적으로 큰 틀 안에서 관리될 필요가 있다고 생각한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2021.10.11.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>‘꿀단지’와 함께하니 ‘사이버 임장’도 꿀이네</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/037/0000029844?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>7개월 만에 200만 다운로드, KB은행 리브부동산 앱 직접 써보니누적 다운로드 수 210만 건을 넘긴 리브부동산 애플리케이션. [사진 제공 · KB은행]“현장에 답이 있다”는 말은 기자들 사이에서 많이 사용되지만 부동산시장에서도 널리 쓰인다. 부동산업계에서 ‘임장 간다’고 하면 말 그대로 현장 탐방을 떠올리게 마련. 코로나19 팬데믹으로 자유롭게 지역 답사를 하기 어려워진 요즘은 임장을 비대면으로 하는 이도 늘었다. 발품 대신 ‘손품’ 임장이라 부르기도 하고, ‘사이버 임장’ ‘방구석 임장’ ‘온라인 임장’이라고도 한다. 실제로 이들 키워드로 유튜브에서 검색하면 다양한 영상이 나온다.이런 부동산 인기에 힘입어 최근 210만 다운로드 수를 넘긴 KB은행의 부동산 정보 플랫폼 ‘리브부동산(Liiv부동산)’은 퇴근 후 유튜브로 모델하우스를 구경하고, 다른 이들의 ‘임장 브이로그’를 보면서 부동산 지식을 충전하는 이들에게 도움이 될 만한 애플리케이션(앱)이다. 네이버나 다음에 부동산 탭이 있고, 직방이나 다방 같은 부동산 전문 앱이 있는데도 200만 명 넘는 이가 은행이 만든 부동산 앱을 선택한 이유는 뭘까. 직접 깔고 써보며 장단점을 살펴봤다.꿀분양 정보부터 꿀입지 파악까지리브부동산 앱 화면. 다크 모드가 유용하다. [리브부동산 앱 캡처]리브부동산은 종합 부동산·금융 플랫폼 ‘KB부동산 리브온(Liiv ON)’의 차세대 버전이다. 기존 앱을 개편한 리브부동산은 베타버전을 거쳐 2월 1일 앱 정식 버전 출시와 함께 웹 사이트를 열었다. 9월 29일 기준 누적 다운로드 수는 210만717건. 누적 가입 회원 수는 98만5413명으로 100만 명 돌파를 앞뒀다. 주요 사용층은 3040세대다.첫 화면은 직관적이다. 부동산 앱 중에서는 처음으로 ‘다크 모드’를 지원해 어두운 환경에서도 편하게 ‘사이버 임장’을 즐길 수 있었다. ‘분양 홈’ 버튼을 누르면 청약 정보와 신규 분양 단지 정보 확인 외에도 ‘꿀분양’ 기능을 쓸 수 있는데, 해당 분양지역의 3.3㎡당가(평당가) 데이터를 기준으로 KB시세, 실거래가, 인근 분양 단지와 분양가를 비교·정렬해 보여줬다.‘꿀입지’ 버튼을 누르면 반경 1㎞ 이내 초세권(초등학교), 역세권(지하철역), 의세권(병의원), 학세권(학원), 스세권(스타벅스) 등 테마별 입지 선정 포인트를 보여줬다. 폐쇄회로(CC)TV·경찰서·소방서 위치와 여성안심택배함, 여성안심지킴이집 위치도 클릭하면 지도에서 바로 볼 수 있다.관심 있는 지역 매물을 선택하면 ‘꿀매물’ ‘꿀시세’ ‘꿀단지’ 등 플로팅 버튼이 떴다. ‘꿀매물’은 다양한 지표를 활용해 조건에 맞는 매물을 찾아주는 서비스. 부동산 가격 데이터를 기준으로 공인중개사 등록 매물 가격과 비교해 우선순위에 맞게 정렬됐는데 KB시세, 실거래가, 전세가율, 월세 수익률 대비 저렴한 매물을 비교 분석해줬다.‘꿀시세’는 부동산 가격 정보를 총망라한 서비스. 주요 시세 이외에 AI(인공지능) 시세 플랫폼 ‘부동산 리치고’ 운영사 ㈜데이터노우즈가 제공하는 AI 예측 시세도 확인할 수 있었다. AI가 예측한 6개월, 1년, 2년 뒤 아파트 시세가 계속 오르는 터에 ‘내 집’이 없는 상황이라 살짝 슬퍼졌다.방구석에서도 손쉬운 꿀단지 임장‘꿀단지’ 메뉴를 통해 유튜브, 네이버, 다음, 구글에서 관심 있는 아파트 정보를 한 번에 확인할 수 있다. [리브부동산 앱 캡처]앱을 쓰면서 가장 마음에 든 기능은 ‘꿀단지’다. 단지 사진과 영상, 리뷰를 한 번에 모아보고, 유튜브·구글·네이버·다음 등 포털사이트 곳곳의 아파트 정보를 클릭 몇 번으로 바로 확인할 수 있는 메뉴였다. 예를 들어 ‘압구정동 현대아파트’를 검색하고 ‘꿀단지’를 누르면 단지 톡방이 나오는데, 블로그 버튼을 누르면 네이버와 다음 블로그에서 ‘압구정동 현대아파트’가 언급된 글을, 뉴스 버튼을 누르면 네이버와 구글, 다음 뉴스 중 해당 아파트가 언급된 기사를, 유튜브 버튼을 누르면 해당 아파트가 언급된 영상 검색 결과를 보여줬다. 이 정도면 개인용 컴퓨터(PC)에 창 여러 개를 띄워놓고 이리저리 옮겨가며 키워드를 입력하기 귀찮은 사람도 해볼 만한 ‘사이버 임장’이다.이외에도 단지 내 시설과 현황, 교통, 학군, 주변 환경, 거주 만족도 등을 직접 사진으로 올려 이웃과 공유할 수 있었다. 기자가 사는 집도 리뷰가 달려 있었다. 다만 앱 이용자가 많지 않은 아파트에는 톡이 별로 없어 아쉬웠다.은행에서 만든 서비스라 ‘내 집 마련 플래너’를 통해 곧바로 대출 한도와 세금을 확인하고 필요시 대출 상담을 이어갈 수 있다는 점도 여느 부동산 앱과 달랐다. KB시세로 15억 원 미만 매물이면 이 기능이 활성화됐다. 3억8000만 원 상당 아파트를 눌러보니 “최대 1억9000만 원 대출이 가능하다”는 문구가 떴고, 고정금리로 계산하면 ‘매달 약 71만 원씩’ ‘30년 상환’했을 때 원금과 이자를 갚을 수 있었다. 따로 검색하거나 계산기를 두드려보지 않아도 한 번에 요약 정리되니 ‘부린이’들이 감 잡기에 좋아 보였다.리브부동산은 앞으로 고객 의견을 반영한 플랫폼 고도화를 진행할 계획이다. 리브부동산 관계자는 “고객 참여형 커뮤니티 서비스를 신설하고, 프롭테크 기술을 활용한 자체 매물 확보 및 증대, 매물 제휴사 확대를 통한 매물 확보 등을 해나갈 방침”이라며 “고객의 생애 주기에 맞는 종합 부동산 서비스를 제공해 대한민국 대표 종합 부동산 플랫폼으로 성장해갈 계획”이라고 밝혔다.택배 예약부터 중고차 판매까지, 은행 앱의 진화카카오뱅크, 케이뱅크, 여기에 10월 5일 공식 출범한 토스뱅크까지 인터넷전문은행의 선전으로 위기의식을 느낀 기존 은행들은 다양한 생활 밀착형 서비스를 접목하며 변화를 꾀하고 있다. 은행들이 종합 금융 플랫폼을 지향하며 자사 애플리케이션(앱)에서 다양한 서비스를 제공하는 것도 이 때문이다.KB은행이 ‘리브부동산’으로 부동산 종합 서비스를 제공하는 것처럼, 우리은행은 ‘우리WON뱅킹’ 앱 ‘My 택배’ 서비스를 통해 택배 예약과 결제를 한 번에 할 수 있게 했다. 하나은행은 ‘하나원큐’ 앱 ‘자동차픽’을 통해 차를 정비하거나 사고팔 수 있는 메뉴를 제공한다. 신한은행의 ‘신한 쏠’ 앱에서는 ‘전기차 가격 조회’를 할 수 있다.KB국민은행 관계자는 “지난해 말 ‘NO.1 금융 플랫폼’ 기업으로 도약하기 위한 혁신적인 조직체계 구현을 기조로 조직개편을 단행했다. 금융 플랫폼 기업 대전환의 기틀을 마련하는 게 핵심”이라며 “사업조직(Biz)과 기술조직(Tech)이 함께 일하는 25개 플랫폼 조직을 8개 사업 그룹 내에 신설했고 이를 통해 디지털 혁신을 가속할 것”이라고 말했다.*포털에서 ‘투벤저스’를 검색해 포스트를 팔로잉하시면 다채로운 투자 정보를 만나보실 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2021.10.08.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>토스, 타다 전격 인수…모빌리티·핀테크 손잡았다</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003221070?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>모바일 금융 플랫폼 토스가 모빌리티 스타트업 타다를 전격 인수했다.토스 운영사 비바리퍼블리카는 쏘카가 보유한 타다 운영사 VCNC 지분 60%를 인수하기로 하고 3사 간 양해각서(MOU)를 체결했다고 8일 밝혔다. 양사는 타다가 발행한 신주를 토스가 인수하는 방식으로 이달 중 주식 인수 계약을 마무리한다. 타다 브랜드는 그대로 유지되고 지난 8월 타다의 CEO(최고경영자)로 선임된 이정행 대표이사도 직을 그대로 유지한다.토스는 타다 인수를 통해 모빌리티와 핀테크가 결합된 시너지를 노린다는 전략이다. 당장 직접 모빌리티 시장에 뛰어들기 보다는 토스 결제 등 금융 사업의 외연을 확장하는 쪽에 초점을 맞추고 있는 것으로 전해진다.토스 이승건 대표는 “국내 택시 시장 규모는 연간 매출액 기준 약 12조 원에 달하고 절반 정도가 호출 앱을 통해 이뤄지고 있다”며 “토스의 결제사업 등 여러 금융서비스와 시너지가 기대된다”고 말했다. 박재욱 쏘카 대표는 “금융 혁신을 주도하고 있는 토스와 손잡고 새로운 도전에 나서게 됐다”며 “토스와 함께 기존 산업간 경계를 넘어서는 혁신적인 서비스를 선보여 새롭게 도약하고자 한다”고 말했다.한편 현재 모빌리티 시장은 카카오의 카카오T가 독주하는 가운데 글로벌 모빌리티 기업 우버와 SK텔레콤의 자회사 티맵모빌리티의 합작회사 우티(UT)가 도전장을 내민 상황이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2021.10.10.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>5대 은행 대출 증가율 이미 5%…연쇄 '대출 중단' 임박</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012649282?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>농협·하나 이어 KB도 5% 넘겨…우리도 근접은행들 "당국 지침 5∼6%, 6%대 등 명확하지 않아 혼란"(서울=연합뉴스) 금융팀 = 연말까지 약 3개월이나 남았지만, 주요 시중 은행들의 올해 가계대출 증가율은 이미 연초 억제 목표로 잡은 5%에 이르렀다.    이에 따라 NH농협에 이어 다른 은행들도 연말까지 잇따라 일부 대출 창구를 아예 닫을 가능성이 커지고 있다.    이런 가운데 금융당국이 올해 가계대출 증가율 목표를 '5∼6%', '6%대' 등으로 다양하게 언급하면서, 은행들은 어느 기준에 맞춰 대출 총량을 관리해야 하는지 곤혹스러워하고 있다. 3개월이나 남았는데…증가율 4.97%, 전세대출 15.7%↑    10일 금융권에 따르면 KB국민·신한·하나·우리·NH농협 5대 시중은행의 7일 현재 가계대출 잔액은 703조4천416억원으로 집계됐다.    이는 작년 12월 말(670조1천539억원)과 비교해 4.97% 늘어난 규모다. 연초 당국이 제시한 증가율 목표(5∼6%)의 하단까지 차오른 셈이다.    은행별 증가율을 보면 NH농협(7.14%·126조3천322억→135조3천581억원)이 가장 높고, 하나은행(5.23%·125조3천511억→131조9천115억원)이 뒤를 이었다.    가계대출 규모 1위 KB국민은행(5.06%)도 지난달 말 4.90% 이후 1주일 만에 0.16%포인트 올라 5%를 넘어섰다.    우리은행(4.24%·130조3천528억→135조8천842억원)도 추세대로라면 이달 말이나 다음 달께 5%대에 진입할 전망이다.    그나마 신한은행(3.16%·126조2천621억→130조2천476억원)의 경우 아직 다소 여유가 있는 상황이다.    가계대출 종류별로는 올해 들어 5대 은행의 주택담보대출(전세자금대출 포함)이 5.09%(473조7천849억→497조8천958억원), 신용대출이 10.14%(117조5천13억→129조4천215억원) 불었다.    특히 전세자금대출은 무려 9개월여만에 105조2천127억원에서 121조7천112억원으로 15.68%나 뛰었다.    올해 불어난 가계대출(33조2천877억원) 가운데 약 절반(16조4천985억원·49.56%)이 전세자금대출이라는 얘기다. 은행 "집값 뛰어 대출 증가 불가피…목표 맞추려면 중단 밖에"    이처럼 가계대출 증가세가 쉽게 꺾이지 않자 은행들은 갈수록 대출 문턱을 높이고 있다.    KB국민은행은 앞서 지난달 29일 전세자금대출을 '임차보증금(전셋값) 증액 범위 내'로 제한하는 등 주택담보대출, 집단대출의 한도를 일제히 크게 줄였다. 하지만 결국 증가율이 5%를 넘어서자 이달부터 아예 영업점별로 대출 한도를 정해놓고 가계대출을 조이고 있다.    영업점별로 한 달 내 대출할 수 있는 최대 금액을 정해놓고, 조금이라도 초과하면 월초라도 상관없이 해당 지점의 가계대출을 중단하는 방식이다.    하나은행은 오는 15일부터 KB국민은행과 마찬가지로 전셋값이 오른 만큼만 전세자금을 대출하기로 했다.    하지만 금융권에서는 이런 조치들에도 가계대출 속도가 충분히 떨어지지 않으면, 아예 은행들이 속속 신규 가계대출을 연말까지 중단할 것이라는 전망이 나오고 있다.    한 시중은행 관계자는 "집값, 전셋값 상승으로 주택담보대출, 전세자금대출 수요는 기본적으로 계속 늘어날 수밖에 없다"며 "이런 상황에서 한 은행이 강하게 가계대출을 줄이면, '풍선효과' 탓에 다른 은행들로 수요가 몰려 경쟁적으로 대출을 축소하다가 결국 가계대출을 한시적으로 중단할 수밖에 없을 것"이라고 예상했다.    이미 NH농협은행은 8월 24일 이후 전세자금 대출을 포함한 신규 담보대출을 아예 막고 있고, 은행은 아니지만 상호금융 수협중앙회도 이달부터 모든 조합원·비조합원 대상 신규 가계대출을 멈췄다.    지난 5일 출범한 토스뱅크의 경우 벌써 가계대출 잔액이 당국이 제시한 올해 가계대출 최대 한도(5천억원)의 절반에 이르러 조만간 대출 문을 닫을 것이라는 관측까지 나오고 있다. 당국 "성장률 높아져 6%대로"…은행 "7%까지 늘어도 된다는 건지"    금융권에서는 당국의 가계대출 총량 관리 목표가 뚜렷하지 않아 혼란이 가중된다는 목소리도 나오고 있다.    고승범 금융위원장은 지난 6일 "가계부채가 경제·금융의 위험요인으로 작용하지 않도록 가계부채 증가율을 6%대로 관리하는 노력을 지속하겠다"고 밝혔다.    하지만 앞서 지난 4월 금융위는 가계부채 증가율을 올해 5∼6%대, 내년 4%대로 낮춘다는 '가계부채 관리방안'을 발표한 바 있다.    시중은행 관계자는 "올해 초 분명히 당국이 제시한 5% 증가율 가이드라인에 맞춰 여신담당부서에서 총량 관리 계획을 제출했다"며 "이제 '6%대' 얘기가 나오는데, 이게 7%까지는 늘어도 된다는 말인지 모호할 뿐 아니라 여신담당부서는 정확히 당국으로부터 6%대로 상향조정됐다는 지침을 받은 적도 없다고 한다"고 전했다.    이에 대해 금융당국 관계자는 "5∼6%는 올해 초 총량 관리 목표를 잡을 때 처음 설정한 비율이고, 이후 경제 성장률이 예상보다 높아져 금융사와 협의를 거쳐 각사 목표가 6%대에서 정해졌다"며 "각 금융사가 자신의 관리 목표를 알고 있을 것"이라고 말했다.    shk999@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2021.10.12.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 주요 정보보호 인증 2종 취득</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012714958?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>[토스페이먼츠 제공=연합뉴스]    (서울=연합뉴스) 한혜원 기자 = 토스의 결제기술 계열사 토스페이먼츠는 주요 정보보호 인증인 정보보호관리체계(ISMS) 인증과 지불카드 산업정보 보안표준(PCI-DSS) 인증을 받았다고 12일 밝혔다.     ISMS는 한국인터넷진흥원(KISA)이 주관하는 정보보호 관리체계 인증이다. 기업이 주요 정보자산을 보호하고자 수립·운영하는 관리체계가 적합한지를 총 102개 항목에 따라 심사한다.     PCI-DSS는 PCI 보안표준위원회가 주관한다. 비자, 마스터카드 등 국제 카드사 5곳이 공동 개발한 카드 결제 부문 국제 정보보안 표준 인증이다.     네트워크 보안, 카드 소유자 정보 보호 등 12개 영역에서 415개 항목을 심사한다. 토스페이먼츠는 PCI-DSS 인증 등급 중 가장 높은 '레벨 1'을 받았다.     김승현 토스페이먼츠 정보보호 최고 책임자(CISO)는 "앞으로 국제 표준화기구(ISO) 정보보호 인증인 'ISO/IEC 27001' 취득 등 보안 역량을 강화하는 활동을 이어갈 것"이라고 밝혔다.     hye1@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2021.10.07.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>비아이매트릭스, 토스뱅크 정보계 시스템 구축 성료…금융권 디지털 혁신 지원</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002974038?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>지능화솔루션 기업 비아이매트릭스(대표 배영근)는 AUD(Automated UI Development)플랫폼으로 구축한 토스뱅크의 정보계 시스템을 이달 성공적으로 구축했다고 7일 밝혔다.회사는 토스뱅크 정보계 구축 사업에서 금융감독원 월 제출 금융 보고서·분기보고서 작성 업무 등 데이터 분석·레포트 작성 업무 리소스를 줄이고, 분석 리드 타임을 단축해 업무 생산성을 높이는 것을 목표로 삼았다.이에 △수작업으로 하던 금융감독원 용 대외보고서 작성 업무를 자동화 △현업 담당자들이 직접 분석을 수행하는 셀프-비즈니스인텔리전스(BI) 환경을 구축 △고객, 수신, 여신, 카드분석 등 분산된 여러 업무를 통합분석하는 업무 환경을 구축했다.회사는 새로운 시스템을 도입한 후 담당자들이 기존에 수작업으로 진행했던 업무와의 이질감 없이 업무를 수행할 것으로 기대했다. AUD플랫폼으로 업무시스템을 구축해 각 현업 담당자들이 사용하던 엑셀 문서 양식과 업무 노하우를 그대로 시스템에 반영했기 때문이다.특히, 토스뱅크 정보계 시스템에 현업 담당자가 직접 분석 항목을 자유롭게 배치·분석하는 다차원 분석 기능 외에도 다양한 형식의 파일 다운로드 기능, 차트 기능, 상세 데이터 조회 기능 등을 포함, 사용자 편의성을 높였다.이외 엔드유저컴퓨팅(EUC) 환경을 구축해 분산된 여러 업무를 통합·분석하고 셀프-비즈니스인텔리전스(BI)가 가능한 업무 환경을 제공했다.비아이매트릭스 관계자는 “카카오뱅크, K뱅크 등 인터넷전문은행 3사의 정보계시스템을 모두 구축하는 등 금융권 정보계시스템에서 강세를 보일 뿐 아니라 최근 금융감독원에 보고하는 대외보고서 자동 제작 솔루션 스마트리포트를 출시, 금융업계의 디지털 트랜스포메이션을 적극 지원하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2021.10.04.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>[포토]세번째 인터넷전문은행 토스뱅크, 내일 공식 출범</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005051568?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>[이데일리 방인권 기자] 세번째 인터넷전문은행인 토스뱅크 공식 출범을 하루 앞둔 4일 서울 강남구 역삼동 토스뱅크 본사에서 직원들이 출입을 하고 있다.토스뱅크는 5일부터 사전 신청자를 대상으로 여·수신 상품 판매, 체크카드 발급 등 뱅킹 서비스를 순차적으로 오픈할 예정이다. 토스뱅크는 지난달 가입 기간, 예치 금액 등에 아무런 제한 없이 무조건 연 2% 이자를 지급하는 수시 입출금 통장을 선보인다고 밝히면서. 지난 2일 기준 뱅킹 서비스 사전신청 고객 100만명을 끌어모았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2021.10.11.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>'토스·카카오페이 덕에 웃었다'…대출 비교 플랫폼 통한 저축은행 대출 2년간 20배 급증</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001897655?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>[헤럴드경제] 저축은행과 지방은행이 토스·카카오페이·핀다 등 온라인 대출 비교 플랫폼 덕을 톡톡히 본 것으로 나타났다. 이들 서비스를 통해 취급한 대출 규모가 급증한 것으로 나타났다.11일 국회 정무위원회 소속 윤창현 국민의힘 의원이 금융감독원으로부터 제출받은 자료에 따르면 올 1∼7월 애큐온·SBI·유진·모아·페퍼·상상인·한국투자·KB·웰컴·OK저축은행 등 10개 저축은행의 누적 신규 개인신용대출 12조2215억원 중 18.9%(2조3080억원)가 대출 비교 플랫폼을 통해 나갔다.2019년 0.7%(871억원), 2020년 6.8%(1조1246억원)에서 많이 늘어난 수치다.특히 애큐온 저축은행의 개인신용대출 1조422억원 중 절반이 넘는 5397억원(51.8%), 모아저축은행의 경우 3553억원 중 1558억원(43.9%)이 비교 플랫폼을 통해 취급됐다.이는 시중은행에 비해 적은 점포 수를 운영하는 금융사가 대출비교 플랫폼으로 옮겨가며 온라인 영업 비중을 확대한 영향으로 분석된다. 빅테크에 대한 의존도가 한층 높아진 셈이다.지방은행에서도 이런 추세가 두드러졌다.올 1∼7월 전북은행과 광주은행이 취급한 개인 신규대출 각각 1조4563억원 중 18.5%(2703억원), 1조8970억원 중 15%(2874억원)가 플랫폼을 통한 대출이었다.부산은행에서 비교 플랫폼을 통해 나간 대출은 지난해 전체 7조6698억원 중 1.4%(1112억원)에서 올 1∼7월 4조3250억원의 5.2%(2278억원)으로 늘었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2021.10.13.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>[DBR/Special Report]메타버스 성공, 실감나는 ‘세계관’에 달렸다</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003386888?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>가상-현실 잇는 메타버스 전략가상세계에서 또 다른 나를 의미하는 ‘부캐’는 한 개인의 특성에 집중된 것이지만 메타버스 세계관은 인물뿐 아니라 그를 둘러싼  시공간과 주변인, 사회를 구성하는 상황과 사상을 모두 포함한다. 메타버스가 눈에 보이지 않는 ‘네버랜드’가 아닌 ‘기회의 땅’이  되게 하려면 메타버스가 품고 있는 세계관 전략을 이해해야 한다.지금 대한민국에서 가장 주목받고 있는 회사는 단연 ‘김갑생할머니김’이다. 시가총액 500조 원, 코스피 1위 기업인 김갑생할머니김은 그동안 아시아태평양경제협력체(APEC) 정상회의, 주요 20개국(G20) 정상회의 등 국내외 주요 행사에 빠지지 않고 등장했다. 최근에는 ‘2021 P4G 서울 정상회의’ 사전행사로 기획된 프레젠테이션에서 김갑생할머니김 미래전략실에서 근무하는 재벌 3세 경영인 이호창 본부장이 기업의 ESG(환경, 사회, 지배구조) 전략을 공개하기도 했다.  혹시 이 글을 읽고서야 김갑생할머니김을 검색해봤다면, 대한민국에서 지금 일어나고 있는 커다란 트렌드의 흐름을 놓치고 있는 셈이다. MZ세대 대부분이 알고 있는 김갑생할머니김의 이호창 본부장은 실존하는 인물이 아니다. 유튜브 채널 ‘피식대학’이 운영하는 콘텐츠 중 하나인 ‘김갑생TV’에 존재하는 인물이다. 메타버스에 대한 이해는 바로 김갑생할머니김과 이 본부장에 대한 이해로부터 설명할 수 있다. DBR(동아비즈니스리뷰) 9월 2호(329호)에 실린 메타버스의 세계관 전략을 소개한다. ○ 일상에 스며든 메타버스 전략‘초월하는’의 의미를 가진 ‘메타(meta)’라는 단어와 우주, 세상을 의미하는 ‘유니버스(Universe)’를 조합한 메타버스에 안착하기 위해서는 메타버스 세상을 바라보는 관점, 즉 세계관이 필요하다. 일반적으로 또 다른 나를 의미하는 ‘부캐’는 한 개인의 특성에 집중돼 있다. 반면 세계관은 인물뿐 아니라 그 인물을 둘러싼 시공간 그리고 그 주변인까지 하나의 독자적인 사회를 구성하는 상황과 사상을 모두 다룬다. 이 세계관이 있어야 가상공간에서 전개되는 스토리가 탄탄해지고, 이를 접하는 사람들이 자연스럽게 캐릭터와 그 세계 속으로 빨려 들어갈 수 있다. 이런 세계관은 메타버스 플랫폼만 아니라 메타버스 세상에서 존재하는 모든 캐릭터에게 필요하다. 이호창 본부장은 정말 세상 어디에선가 존재할 것 같은 재벌 3세의 캐릭터와 그가 살고 있을 법한 세상을 완벽하게 그려내고 있다. 실제 김갑생할머니김의 신년사 영상은 정용진 신세계그룹 부회장의 영상을 패러디해 제작됐다.  또한 메타버스 플랫폼은 느슨한 취향 공동체의 구성원들이 다양한 협업을 이룰 수 있도록 구축돼야 한다. 대부분의 기성세대에게 친구는 학연, 지연, 혹은 직장 동료와 같은 실제 삶에서 직접적인 연결고리가 있는 사람들이다. 반면 MZ세대, 특히 Z세대의 친구맺기는 다소 다른 면이 있다. 초등학교 시절부터 페이스북에서 친구의 친구를 타고 소통을 해 왔던 MZ세대들은 온라인에서 소통을 이어가는 사람들과도 오프라인 친구와 같은 연대감을 느끼게 된다. MZ세대의 이러한 친구 맺기는 메타버스 상의 느슨한 연결과 연대를 만들어내는 원동력이 된다. 현실세계에서 무엇을 하는 누구인지 잘 모르지만 메타버스 상에서는 나와 취향, 그리고 감성이 비슷한 사람과 함께 친구를 맺고 활동을 하며 목적한 바를 달성한다. 대표적인 사례가 틱톡에서 만나볼 수 있는 ‘크루(Crew)’ 개념이다. 틱톡 크루는 비슷한 취향과 감성을 갖고 있는 틱토커들을 말하는데 이들은 자신이 제작한 영상이 더 많은 추천과 조회수를 받을 수 있도록 노력한다. 틱톡이 제공하는 듀엣 기능은 하나의 영상 안에서 화면을 분할해 이미 제작된 영상과 컬래버레이션을 할 수 있는 기능인데, 이들의 ‘느슨한 연대’를 지원하는 장치라고 볼 수 있다. ○ 온오프라인 경계 없는 믹스버스메타버스가 지속 가능하게 성장하기 위해서는 다양한 유저들이 직간접적인 상호작용을 통해 가치를 창출할 수 있는 양면 혹은 다면 시장 구조를 가져야 한다. 대부분의 메타버스 플랫폼들은 사용자가 직접 게임이나 아이템을 만들어 파는 등 메타버스 콘텐츠 제작에 유저를 참여시키는 방법으로 자연스러운 경제 생태계를 조성하고 있다. MZ세대는 베이비부머 부모로부터 조기 경제교육을 받고, 당근마켓으로 중고거래를 하고, 토스를 사용해 스스로의 용돈으로 다양한 경제활동에 참여해왔다. 기성세대에 비해 상대적으로 일찍부터 경제관념에 눈을 뜬 MZ 세대에게 자신의 활동이 직접적인 수익 창출로 연결될 수 있다는 사실은 확실히 매력적으로 다가올 수밖에 없다.  이 외에도 메타버스에선 가상과 현실의 공간적 차이를 강조하기보다는 오히려 서로 다른 두 공간에서 얼마나 일체화된 경험을 제안하는지가 더욱 중요하다. 미국의 힙합 스트리트문화 잡지 ‘콤플렉스’는 2020년 12월, 매년 개최해 오던 오프라인 페스티벌을 콤플렉스랜드(ComplexLand)라는 가상의 게임 공간에서 개최했다. 이 페스티벌에서는 가상공간 속 스트리트 패션 브랜드 부스에서 제품을 구매하면 집으로 바로 배송될 수 있도록 했다. 또한 일부 지역 레스토랑과 연결해 게임 속 아바타가 주문한 음식을 집으로 배달받을 수 있게 했다. 메타버스 상의 아바타가 선택한 것을 현실 세상의 내가 사용하는 경계 없는 경험을 기획한 셈이다. 이러한 특성은 메타버스 세상을 더 현실처럼 만들어 유저와의 접점을 더욱 강화시킨다. 메타버스는 이미 우리 일상에 깊숙이 들어와 있으며 코로나 사태로 인해 더욱 빠르게 확산 중이다. 하지만 놀랍게도 메타버스 플랫폼을 사용해 보기는커녕 이름조차 들어보지 못한 사람들이 아직도 많다. 마치 피터팬에 나오는 네버랜드처럼 ‘어른들’의 눈에는 보이지 않는 세상 메타버스, 이 새로운 세계에 MZ세대가 반응하고 열광하는 이유를 파악하는 것은 앞으로의 변화를 예측하고, 미래의 새로운 기회를 잡기 위한 첫걸음이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2021.10.12.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>토스페이먼츠, 보안 인증 취득… 정보보호 관리체계 강화</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000628214?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>전체 IT 예산 18% 정보보호 예산으로 책정토스페이먼츠가 개인정보보호 관리체계를 강화했다.12일 토스페이먼츠는 주요 정보보호 인증인 지불 카드 산업 데이터 보안 표준(PCI-DSS)과 정보보안 경영시스템(ISMS)을 취득했다고 밝혔다.토스페이먼츠 로고. [사진=토스페이먼츠]이번 인증 취득은 토스페이먼츠의 정보보호 관리 체계 고도화의 일환으로 진행됐다.토스페이먼츠가 취득한 ISMS는 한국인터넷진흥원(KISA)이 주관하는 국내 최고 수준의 정보보호 관리체계 인증 중 하나다. 기업이 주요 정보자산을 보호하기 위해 수립·운영하는 정보보호 관리체계가 적합한지에 대해 총 102개 항목을 기준으로 심사하며, 이를 모두 충족해야 취득할 수 있다.PCI-DSS는 PCI보안표준위원회에서 주관하고 있으며, 비자, 마스터카드 등 5개 글로벌 카드사가 공동 개발한 카드 결제 부문 국제 정보보안표준 인증이다. 네트워크 보안, 카드 소유자 데이터 보호 등 12개의 주요 영역에서 415개 항목을 엄격히 심사하고 있으며, 토스페이먼츠는 가장 높은 등급인 Level 1을 받았다.토스페이먼츠는 정보보호 부문도 강화하고 있다고 전했다. 지난해 8월 출범 당시, 2명이었던 관련 인력은 2021년 10월 현재 6명으로 3배 증가했다. 올해 책정된 정보보호 예산은 전체 IT 예산의 18% 수준인 약 24억 원으로, 국내 금융권 대비 높은 편에 속한다는 설명이다.김승현 토스페이먼츠 정보보호 최고 책임자(CISO)는 "토스페이먼츠는 가맹점과 소비자 모두에게 안전한 결제 서비스 제공을 위해 물적, 인적 투자를 지속하고 있다"면서 "앞으로 국제 표준 정보보호 인증 취득 등 보안 역량 강화를 위한 활동을 지속할 계획이다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2021.10.04.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>신용대출 2억7000만원까지?… 토스뱅크, 대출난민 동아줄 될까</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000633110?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>5일 영업 시작... 파격적 대출 조건4일 오후 서울 강남구 토스뱅크 본사 모습. 연합뉴스국내 세 번째 인터넷전문은행 '토스뱅크'가 5일 영업을 시작한다. 특히 영업 개시에 맞춰 다른 은행보다 파격적인 대출 조건을 내걸면서 금융당국의 압박에 난감해진 '대출난민'들의 관심을 모으고 있다. 4일 금융권에 따르면,  토스뱅크는 100만 명에 달하는 사전 신청자를 대상으로 △연 2.0% 금리 수시입출금통장 △신용대출 △마이너스통장 대출 △비상금대출 △체크카드 서비스를 내놓을 예정이다. 별도 앱 없이 기존 토스 앱에서 뱅킹 서비스까지 함께 이용이 가능하다.특히 눈길을 끄는 것은 대출 조건이다. 토스뱅크는 신용대출 최대 한도를 2억7,000만 원으로 설정했다. KB국민은행을 제외한 대부분의 시중은행이 직장인 신용대출 최대 한도를 5,000만~1억5,000만 원으로 줄인 상황에서 파격적인 조건을 제시하고 있는 것이다. 당국의 대출규제 영향을 비교적 적게 받던 케이뱅크도 이달 2일부터 신용대출 한도를 2억5,000만 원에서 1억5,000만 원으로 크게 줄이면서 자연히 대출 수요가 토스뱅크로 몰릴 가능성이 높아졌다.대출 금리도 매력적이다. 토스뱅크가 밝힌 신용대출 최저 금리는 연 2.76% 수준이다.  이는 2%대 대출금리가 사라진 5대 시중은행(3.13~4.21%)은 물론, 카카오뱅크(2.86%)와 케이뱅크(2.87%)보다 낮은 수준이다. 토스뱅크는 수시입출금식 예금통장 금리도 2.0%로 책정하면서 공격적인 영업을 예고하고 있다. 주요 은행 신용대출 한도. 그래픽=김대훈 기자신생 은행인 토스뱅크는 각종 규제를 비교적 느슨하게 적용받을 것으로 보인다. 다만 금융당국이 가계부채 총량관리를 위해 전체 금융권을 강하게 옥죄고 있는 상황인 만큼 대출에 있어서는 토스뱅크도 상당한 부담을 느끼고 있는 것으로 알려졌다.이 때문에 토스뱅크도 '연소득 이내 대출' 등 일부 대출 규제를 받아들일 가능성이 높다. 토스뱅크 관계자도 "정부 당국의 (대출규제 관련) 방향성에서 크게 벗어나지 않을 것"이라고 말했다. 앞서 5대 시중은행을 비롯해 카카오뱅크, 케이뱅크까지 모두 신용대출 한도를 연소득 이내로 줄였고, 마이너스통장 한도는 일제히 5,000만 원 수준으로 낮췄다. 심지어 카카오뱅크는 신규 마이너스통장 대출을 아예 막은 상태다.토스뱅크가 중·저신용자 대출 비중을 높게 잡은 것도 과감한 대출에는 걸림돌이다. 토스뱅크는 앞서 금융당국에 출범 첫해 중·저신용자 대출 비중을 34.9%까지 늘리겠다고 약속했다.  서비스 시작일이 기존 예상보다 한 달가량 늦어진 데다, 케이뱅크(21.5%)·카카오뱅크(20.8%)에 비해 목표치가 높은 편이라 무턱대고 고신용자 대출을 늘리기 어려운 상황이다. 고연봉자라도 다른 은행에 비해 많은 대출한도를 적용받기 어려울 것으로 예상하는 이유다.토스뱅크는 자본금 확충이라는 숙제도 안고 있다. 현재 토스뱅크 자본금(2,500억 원)과 국제결제은행(BIS) 총자본비율 규제(8.5%)를 감안했을 때 최대 대출 규모는 3조 원 수준이다. 대출 규모를 더 늘리려면 향후 유상증자가 필요한데, 케이뱅크의 고전 사례를 보면 단기간에 이뤄지기는 쉽지 않을 것으로 보인다. 토스뱅크 관계자는 "당국에 제출한 목표대로 사업을 추진할 계획"이라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2021.10.06.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>5000억 동나면 증자로 영업연장? [출범 돛올린 토스뱅크 ‘파격상품’ 궁금증 2題]</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001895890?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>상품인기 이달 중 한도소진 유력홍민택 대표 “영업중단 없다”자신고객몰이에 조기 증자 가능성 커금감원은 “정책방향 협조” 메시지“토스뱅크 가입하신 분 있나요? 대출 금리랑 한도 잘 나오나요?”5일 출범한 토스뱅크에 대출 수요자들의 관심이 집중되고 있다. 최저 연 2%의 수신 금리에 억대 연봉자도 소득만큼 대출을 받을 수 있기 때문이다. 하지만 토스뱅크의 올 영업한도는 5000억원이다. 예금도 대출도 5000억원까지만 가능하다. 상품의 파격성을 감안할 때 이달 중 한도가 소진될 가능성이 크다. 토스뱅크의 조기증자 가능성이 크지만 금융당국이 한도를 높여줄 지는 미지수다.인터넷은행 두 곳의 신용대출 증가 추이를 보면 카카오뱅크는 올해 6월까지 월평균 5288억원 가량 늘었고 케이뱅크는 올 8월까지 월평균 3737억원씩 대출이 불어났다. 즉 토스뱅크가 대출 영업을 시작하고 채 한 달도 안돼 대출이 막힐 가능성도 나온다. 토스뱅크는 사전 신청자부터 순차적으로 가입을 받고 있다.금융당국은 올해 토스뱅크에 인가받을 당시 사업계획서에 제출한 금액(4693억원)을 한도로 설정했다. 다른 은행과 달리 전년 대출 실적이 없어 총량 규제 기준이 애매해서다.금감원 관계자는 “강행 규제는 아니고 유도하는 차원이다”라면서 “토스뱅크에 정책 방향에 협조해달라고 메시지를 전했다”고 설명했다.하지만 올해 총량규제 한도를 초과한 시중은행들은 잇따라 신규대출을 줄이거나 중단하고 있는 상황이다. 토스뱅크가 5000억원 한도를 초과해 영업을 지속할 수 있을 지는 미지수다.한 은행권 관계자는 “토스뱅크 입장에서는 영업을 공격적으로 해야하는 시기에 한도 규제가 걸림돌이 될 것”이라고 내대봤다.토스뱅크의 조기 증자 가능성이 대두되고 있다. 은행은 자기자본비율을 맞춰야 해 자본의 크기에 따라 영업가능 자산한도가 제한된다.홍민택 토스뱅크 대표는 출범식에서 “사업계획에서 공유했던 5년간 약 1조원 증자 일정은 기본계획이고, 서비스를 중단 없이 진행하는 것을 우선순위로 보고 있다”면서 “시장 수요와 모객 상황을 고려해 빠르게, 더 큰 금액 증자할 수 있도록 주주사들이랑 사전협의가 됐다”고 자신했다.관건은 전 금융권을 통틀어 가계대출 총량을 관리하려는 금융당국이 이를 인정할 지다.금융당국 관계자는 “시기 상 증자가 연말까지 완료되기 어렵고, 증자가 빨리 이뤄지더라도 토스뱅크가 기존에 한 약속을 지킬 것이라고 믿는다”고 말했다. 박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>제3 인터넷은행 ‘토스뱅크’ 문 열었다</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000764596?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>사전신청자 100만명 대상 우선 서비스 개시  고·중·저신용자 포용… 대출금리 연 2.76~15%  조건 없는 연 2% 금리 수시입출금식 통장 등  홍민택 대표 “기술·데이터 활용해 고객 전가 제약 없앨 것”        토스뱅크가 5일 정식 출범했다. 핀테크 토스 운영사인 비바리퍼블리카가 최대 주주로 있는 토스뱅크는 국내에서 세번째로 문을 연 인터넷전문은행이다.토스뱅크는 출범을 맞아 사전 신청자를 시작으로 순차적인 서비스 개시에 나선다. 지난달 10일 시작된 토스뱅크 사전 신청에는 약 100만명이 몰렸었다. 사전 신청자들은 참여 순서대로 알림 메시지를 받게 되며, 토스뱅크 가입 절차를 거친 뒤 통장 개설과 신용대출 조회·실행, 체크카드 발급까지 서비스를 제한 없이 이용할 수 있다.지난 4일 오후 서울 강남구 토스뱅크 본사 모습. /연합뉴스        우선 토스뱅크는 최대 한도 2억7000만원의 신용대출을 선보였다. 다만 ‘연 소득 이내’라는 조건이 붙는다. 신용대출의 경우 이날 기준 연 2.76~15%의 폭넓은 금리 구간이 특징적이다. 토스뱅크는 고신용자는 물론, 중·저신용자와 1300만 신파일러(금융이력부족자)에게도 합리적인 금리와 대출 한도를 제시하겠다는 계획이다. 토스뱅크는 업권 구분없는 신용·비신용 대안 데이터 분석을 기반으로 한 신용평가 모형을 통해, 기존 1금융권에서 대출받기 어려웠던 이들 중 약 30%를 ‘건전한 중·저신용자’로 발굴할 방침이다. 이와 함께 최대 1억5000만원의 ‘토스뱅크 마이너스통장’과 최대 300만원 한도의 ‘토스뱅크 비상금 대출’도 내놨다.수신 상품인 ‘토스뱅크 통장’은 만기·최소 납입 금액 등 조건 없이 연 2% 이자를 지급하는 수시입출금 통장이다. 토스뱅크는 기존 은행의 예금 상품을 ‘나눠서 보관하기’로, 적금은 ‘잔돈 모으기’·'목돈 모으기’ 기능으로 구현했다. 토스뱅크 통장 하나만 있으면, 필요할 때 언제든 해당 기능을 켜고 끌 수 있다. 이자는 연 2%로 모두 동일하고, 금액을 예치한 날로부터 일할 계산 돼 매달 지급된다.토스뱅크 체크카드도 전월 실적 등의 조건 없이 혜택이 제공된다. 커피·패스트푸드·편의점·택시·대중교통 등 생활밀착형 5대 카테고리에서 결제하면, 매달 최대 4만6500원을 현금으로 돌려받을 수 있다. 해외에서는 온·오프라인 구분 없이 사용액의 3%를 즉시 캐시백한다. NFC(근거리 무선통신) 기술을 활용한 일회용 비밀번호 생성기(OTP) 기능을 탑재해, 휴대폰 뒷면에 체크카드를 접촉하면 안전하고 손쉽게 고액 송금이 가능하도록 했다.홍민택 토스뱅크 대표는 “토스뱅크는 조금 더 나은 은행이 아닌 ‘새로운 은행’이 되고자 한다”며 “은행은 ‘원래 그럴 수밖에 없다’는 여러 고정관념에 대해, ‘사용자가 원하는 것은 무엇인가’라는 근본적인 물음으로 돌아가 답을 찾고자 했다”고 말했다.홍 대표는 “고객에게 전가됐던 제약을 모두 없애고, 새로운 기술과 데이터를 활용해 고객에게 가장 좋은 혜택을 돌려 드릴 수 있도록 앞으로도 노력하겠다”며 “고객이 고민할 필요 없는 가장 단순한 상품을 통해, 고객이 찾지 않아도 최고의 혜택을 먼저 제시하며 기술 혁신을 통해 더 넓은 범위의 고객을 포용하는 은행을 추구한다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2021.10.06.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>“10월 한도 벌써 동났어요” 우리은행 지점들 부동산 대출 속속 소진</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000764930?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>우리은행 9월부터 지점·월별 한도 관리  지점 규모별로 한달 최저 5억원 배정  2영업일 지나 대출창구 가 보니 “한도 없어요”   “2~3인 몫 내주면 1개월 치 대출 끝” 하소연 “10월에 주택담보대출(주담대) 받으시려면 지금 저희 영업점에는 3억원 밖에 안 남았어요. 먼저 상담을 받고 간 분의 대출이 실행되면 월 한도가 모두 소진돼서 여기서 진행하긴 어려울 가능성이 커요. 저희보다 좀더 규모가 큰 센터 쪽을 방문해보시는 게 좋을 것 같아요.서울 우리은행 한 지점 대출상담 창구”우리은행이 지난달부터 지점별로 신규로 내줄 수 있는 부동산 대출 한도를 제한해 관리하고 있다. 지점 규모에 따라 최소 5억원에서 최대 수십억원가량이 1개월 한도로 설정됐다. 10월이 시작된 지 불과 2영업일밖에 지나지 않았지만 벌써부터 한도를 소진했거나, 소진이 예고된 지점이 속출하고 있다.6일 은행권에 따르면 우리은행은 연말까지 남은 전세대출·주담대 등 부동산 관련 대출 한도를 지점·월별로 분배해 관리하고 있다. 9월 말 기준 우리은행의 올해 가계대출 증가율은 4.05%로, 현재 2조5400억원 정도의 여력이 남았다.조선DB        우리은행 관계자는 “연말에 대출이 아예 중단되는 사태를 방지하기 위해 취한 조처”라며 “한도 소진이 예상되는 경우, 추가로 한도를 배정하거나 영업점 간 조정을 통해 진행하고 있기 때문에 한도가 소진된 영업점은 현재로선 없는 상황”이라고 설명했다.하지만 현장에선 명시적으로 ‘대출 중단’이 선언되지 않았을 뿐, 실질적으로는 부동산 대출을 거의 내줄 수 없는 상황이라고 토로한다. 지점별로 부여받은 월 한도는 최저 5억원으로 적은 경우 차주 2~3명 몫에 불과하다 보니, 10월이 시작되자마자 한달 치가 동난 지점이 속출한 것이다.실제로 이날 서울의 한 우리은행 영업점에서 대출 상담을 받아보니, 남은 한도가 얼마 없어 실행이 어렵다는 답변이 돌아왔다. 상담 창구 직원은 “우리 지점의 경우 규모가 작아서 월 한도 6억원 밖에 분배받지 못했는데, 이미 3억원이 실행돼 남은 한도는 3억원에 불과하다”며 “이미 상담을 받고 간 고객 한두분의 대출이 승인되면 바로 모든 한도 소진이다. 다른 지점이나 다른 은행을 알아보는 것이 안전할 것 같다”고 안내했다.대출이 선착순으로 진행되다 보니 대출창구 대기 시간만 1시간 이상 걸리는 현상도 벌어지고 있다. 심지어 영업시간이 개시되는 오전 9시 30분 전부터 은행 앞에서 사람들이 기다리는 풍경까지 연출되고 있다. 직장인 김모(33)씨는 “우리은행이 주거래 은행이기도 하고, MCI(모기지신용보험)·MCG(모기지신용보증)가 아직 막히지 않아 한도 면에서 유리한 지점이 있다”며 “회사에 연차를 내고 주담대 한도가 남아 있는 우리은행 지점을 찾아 종일 헤맸다”고 말했다.우리은행에 이어 KB국민은행도 최근 지점·월별 가계대출 한도 관리에 돌입했다. 하나은행은 아직 이를 고려하고 있지 않은 분위기다. 두 은행은 금융당국이 설정한 상한선 6%까지 한도가 각각 1조7800억원, 1조100억원 정도밖에 남지 않았다. 이 때문에 시간이 갈수록 점점 강한 강도로 대출을 옥죄고 있다. 국민은행과 하나은행은 대환대출(대출 갈아타기)을 중단하고 나섰고, 전세 계약 갱신 건에 대해 전세대출 한도를 이전보다 축소하기로 했다.여타 시중은행도 마찬가지다. 농협은행은 지난 8월 말부터 이미 신규 주택 대출을 중단한 상황이다. 인터넷전문은행인 카카오뱅크는 이달부터 마이너스통장의 신규 취급을 중단했고, 새로 출범한 인터넷은행 토스뱅크마저 가계대출 총량이 5000억원 이내로 묶이는 등 이른바 ‘대출 브레이크’가 걸렸다. 신한은행 만이 당국의 목표치까지 대출 잔액을 3%가량 남겨둔 상황으로 여유가 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2021.10.06.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>난 언제쯤?..토스뱅크 대기열 긴 이유</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005053387?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>시스템 과부하 막기 위한 목적 있지만당국의 여신 제한, 수신까지 지장 여지 충분[이데일리 김유성 기자] 제3의 인터넷전문은행 토스뱅크가 문을 열었지만 실 사용자 수는 기대에 못 미치고 있다. 서비스 신청자가 약 120만명으로 추정되는 가운데 이중 10분의 1 정도가 토스뱅크 통장을 실제 사용하고 있는 것으로 보인다. 대부분의 사용자들은 토스뱅크의 사용 가능 알림 메시지를 기다리고 있다.6일 업계에 따르면 토스뱅크 실제 사용자 수는 10만명에 이른다. 서비스 첫날인 전날(5일) 1만명 정도에게 사용 가능 알림이 왔던 것을 고려하면 둘쨋날 많이 늘었다.토스뱅크 관계자는 “더 많은 사용자들이 토스뱅크 서비스를 쓸 수 있도록 노력하겠다”면서 “조금만 기다려달라”고 말했다. 업계 일각에서는 토스뱅크가 마케팅 효과를 노린 것이라고 추측하고 있다. 토스뱅크는 사용자가 입소문을 내면 서비스 대기 순위를 올려주는 식으로 이벤트를 했다.  이는 가만히 있으면서 대기하는 사용자의 순위를 뒤로 밀리게 하는 결과로 나타난다. 첫날(10월 5일) 토스뱅크 신청 화면(왼쪽)과 둘째날(10월 6일) 화면그러나 시스템 안정을 위해 부득이한 선택이었다는 의견도 있다. 한꺼번에 몇 명의 사용자가 접속할지 모르는 상황에서 서버가 다운되는 등의 사고를 막기 위한 조치라는 얘기다. 시스템 뿐만 아니라 여신과 수신에 한꺼번에 많은 신청자가 몰리는 것을 막기 위한 조치란 추정도 있다. 금융당국이 가계대출 총량을 올해말까지 5000억원으로 제한한 것으로 알려진 가운데, 대출 수요를 다 맞추기 힘들기 때문이다. 이 때문에 토스뱅크가 초반 여수신 서비스를 원활하게 하지 진행하지 못할 수도 있다는 우려도 있다. 100만명이 넘는 사용자들에게 수신(예금)과 여신(대출) 서비스를 감당하기에는 벅찰 것이라는 우려다. 이 같은 설명에도 일부 사용자들은 불만을 터뜨리고 있다. 일부는 토스 측에 직접 이를 토로하기도 했다. 대출 등이 급한 사용자들이다. 업계 관계자는 “금융 당국이 토스뱅크의 대출 제한과 규제를 요구하는 상황에서 원하는 수요만큼 대출이 가능하지 못할 수도 있다”면서 “여신에서 충분한 수요가 확보돼야 2% 통장 등의 수신도 서비스가 가능해질 것”이라고 말했다. 당국의 대출 제한이 2%금리 통장에도 영향을 미친다는 뜻이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2021.10.14.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>[ET] 토스 만난 ‘타다’, 카카오 택시 독주 막을까?</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011137535?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>■ 프로그램명 : 통합뉴스룸ET■ 코너명 : 호모 이코노미쿠스■ 방송시간 : 10월14일(목) 17:50~18:25 KBS2■ 출연자 : 김덕진 한국인사이트연구소 부소장■ &lt;통합뉴스룸ET&gt; 홈페이지 :https://news.kbs.co.kr/vod/program.do?bcd=0076&amp;ref=pMenu#20211014&amp;1 [앵커]경제하는 사람들의 마음을 읽어보는 코너 호모 이코노미쿠스입니다. 스마트폰 앱으로 목적지를 입력하면 11인승 카니발이 문 앞까지 도착하던 서비스 타다, 기억나시죠. 정부와 국회의 규제 법안에 막혀 만 명 넘는 기사가 일자리를 잃었고 타다 카니발은 그렇게 도로에서 사라졌습니다. 잊혀져 가던 이름, 타다가 새로운 주인을 만나 부활에 시동을 걸고 있습니다. 자세한 이야기 한국인사이트연구소 김덕진 부소장과 알아보겠습니다. 어서 오세요. [답변]안녕하세요? 반갑습니다. 김덕진입니다. [앵커]마침 오늘 때맞춰서 타다라는 영화도 개봉한다고 하고. 기억 속에서 타다를 소환하는 이벤트가 많이 있네요, 요즘? [답변]그러니까요. 타다의 다큐멘터리가 나오는 수준인데. 한 스타트업이 다큐멘터리가 나올 정도로 어떻게 보면 타다의 시작에서 끝까지가 참 파란만장했다, 이렇게 볼 수도 있을 거 같아요. 그런 분위기가 최근에 많이 있는 상황이죠. [앵커]사실 지난해 4월에 타다 금지법, 정확한 명칭은 여객자동차 운수사업법. 이 법 국회 통과된 이후에 타다 없어진 줄 알았거든요. 아직 살아있었나요? [답변]살아는 있는데 핵심적인 서비스는 지금 못하고 있고 예전보다 힘이 약해졌다고 표현할 수 있을 거 같아요. 실제로 타다 홈페이지에 보면 여러 개의 서비스들이 존재하는데 일단은 앞서서 얘기하셨던 택시를 포함해서 렌터카는 할 수 없는 상황이고요. 대신에 택시에 일부 가맹을 하는 가맹 택시, 그리고 몇 개의 부가서비스를 하고 있고 그 외에 일부 대리 서비스도 했었습니다. 대리 서비스 같은 경우에는 최근에 10개월 만에 종료했고요. 그만큼 예전보다 상황이 좋지 않은 상황이고 올해만 순손실이 타다에서만 112억 정도 2020년에 났었던 상황이라고 볼 수 있을 것 같습니다. [앵커]영화 개봉 소식에 앞서서 더 깜짝 놀랐던 건 타다가 새로운 주인을 만났다면서요? [답변]그러니까요. 비슷한 타이밍에 나와서 흥미로웠는데 바로 핀테크 회사로 잘 알려져 있는 토스가 타다를 인수한 것이죠. 그렇게 하면서 토스의 운영사인 비바리퍼블리카가 쏘카라는 회사가 보유하고 있었던 타다의 지분 60%를 인수하기로 해서 제삼자 간의 양해각서를 체결한 것이라고 보시면 될 것 같습니다. [앵커]업계에서는 토스의 투자 금액 보면 스몰 딜이다, 이런 얘기도 나오던데 정확한 인수 금액이 공개가 됐나요? [답변]금액 같은 경우는 공개가 되지 않았고요. 형식만 공개됐는데 60%를 어떻게 하는 거냐, 타다가 신주를 발행하고 그것을 토스가 인수하는 형태입니다. 그렇게 되니까 결국엔 투자와 비슷한 형태로 간다고 보시면 될 거 같은데 타다가 인수 후에도 독립법인으로 유지는 되고요. 그다음에 올해 말까지 새로 리뉴얼 한 타다 서비스 선보이겠다, 이렇게 얘기하고 있는 상황입니다. [앵커]어쨌든 토스나 타다나 예비 창업자들의 롤모델 같은 존재였기 때문에 두 회사의 결합이 여러 가지로 흥미롭기는 한데. 먼저 쏘카는요, 타다를 왜 파는 거예요? 더 이상 수익 내기가 어렵다고 본 건가요? [답변]쏘카 같은 경우는 차량 공유 서비스 하고 있는 회사죠. 그리고 원래 자회사처럼 타다를 가지고 있었는데 쏘카가 어떻게 보면 장기적으로 이게 모빌리티 시장이라고 봤을 때 짧은 시간에 타다만으로 수익을 내기는 어려웠다라는 판단을 한 거 같아요. 왜 그러냐면 말씀하셨던 타다 금지법 이후로 원래는 그 법의 취지가 또 다른 타다를 만들겠다. 그래서 플랫폼, 이런 면허 여러 개를 주겠다고 얘기했거든요. 그런데 그게 지금 하나도 되어있지 않은 상황이에요. 결국 지금 상황에선 택시 라이선스로만 뭔가 운영을 할 수 있습니다. 그 틈을 카카오가 가지고 있는 상황이고요. 그렇다면 더 많은 돈을 써야 되는데 그러기는 어려운 부분이다라고 볼 수 있어요. 왜냐하면 쏘카 같은 경우도 타다를 오래 갖고 있으면 결국 본인들에게 큰 영향을 미칠 수 있는 게 내년에 쏘카가 IPO, 기업 공개를 준비하고 있거든요. 실제로 타다의 적자가 크다 보니까 결국에 본인들에게도 불리한 영향을 미칠 수도 있다, 이런 이유들 때문에 판매했다고 볼 수도 있는 것이죠. [앵커]그렇다면 토스는 적자투성이인 타다를 왜 굳이 사려고 하는 거예요? [답변]일단은 토스의 비즈니스 모델을 생각해봐야 되는데요. 토스 하면 역시 결제를 해야 되잖아요. 택시에 결제가 붙는다고 생각했을 때 당연히 카카오T 결제는 카카오가 하겠죠. 그리고 SK나 요즘에 그런 데서 하는 데는 SK 쪽이 할 거 아닙니까? 그렇다면 토스 입장에서는 결제를 붙일 택시가 필요했는데 그런 관점에서 타다를 인수하면 타다가 가지고 있는 가맹 택시에 결제를 붙일 수 있다라고 하는 첫 번째 장점이 있겠죠. 실제로 국내 택시 시장 규모가 연간 매출액 한 11조 원 규모라고 해요. 그중에서 일단은 결제 시장에 대한 게 첫 번째로 있을 거 같고요. 두 번째가 제일 큰데, 핀테크 산업과 모빌리티 산업이 결합됐을 때의 시너지입니다. 실제로 동남아에서 그랩이라고 하는 앱이 있습니다. 그 앱이 동남아에서는 여행가는 앱인데. 왜냐면 그거 하나로 택시도 부르고 배달도 하고 여러 가지를 한단 말이에요. 결국 이 그림을 그린다고 생각하시면 됩니다. 지금은 결제만 있는 어떤 핀테크 회사가 모빌리티라고 하는 것을 합치면서 그 안에서 여러 가지 시너지를 낼 수 있는. 어떻게 보면 카카오가 카카오T와 카카오페이가 같이 합쳐진 그림이라고 보시면 될 거 같고요. 그다음에 마지막으로 토스가 인터넷 은행을 출범하고 있잖아요. 토스뱅크의 주요 고객사로서 쏘카라고 하는 회사가 필요했던 상황입니다. 왜냐하면 쏘카 자체가 지금 보험료를 상당히 많이 내고 있거든요. 그 보험료를 쏘카가 아니라 토스를 통해서 내거나 토스의 보험을 쓴다라고 한다면 이것 역시 상당한 금액이 될 수 있는 이런 세 가지 정도로 볼 수 있을 것 같습니다. [앵커]토스가 선보일 새로운 타다가 연말쯤 공개가 될 거라고 했는데. 물론 그동안 토스가 금융 분야에서 여러 가지 혁신을 내놓긴 했지만 어떤 모습일까요? 새로운 서비스는? [답변]일단은 역시 결제 등의 연동성은 당연히 편하겠죠. 제가 생각했던 몇 가지는 예를 들면 택시를 탔을 때 2명이 반반씩 금액을 나눠 낸다라고 할 때 서비스에서 쉽게 반반씩 나눠준다거나. 기대할 수 있는 것 중에 하나는 웹서비스, 어떤 사용자 경험 자체를 특별하게 할 수 있지 않을까라는 기대를 할 수 있어요. 예를 들면 최근에 증권 서비스를 만들었는데 증권 앱 같은 경우에도 기존 은행 방식하곤 전혀 다른 방식으로 구현을 했거든요. 그러니까 우리가 알고 있는 카카오T의 형태가 아닌, 카카오가 지금까지 보여준 것이 아닌 다른 형태로서 어떤 앱을 제공해줄까 이런 것들에 대한 기대감을 내보일 수 있을 거 같습니다. [앵커]토스가 그동안 금융 시장에서 잘했던 걸 인정한다고 하더라도 사실 택시 시장은 그 이상이잖아요. 워낙 경쟁 강도도 강하고 택시 단체라는 복잡한 이해관계도 있고 무엇보다 카카오 택시라는 워낙 강력한 구도로 형성이 돼 있기 때문에 이걸 과연 토스가 정말 대단한 히든카드가 아니면 과연 이걸 깰 수 있을까 하는 생각도 들거든요. [답변]그렇죠. 실제 물리적으로 보면 지금 상황에서 택시 관련 비즈니스를 하려면 택시 가맹을 하거나 택시 라이선스를 인수해야 됩니다. 그런데 그게 돈이 한두 푼 드는 게 아니죠. 상당히 큰돈이 들 것이고 거기서 이미 카카오가 많은 부분을 차지하고 있기 때문에 결국 이들이 이른바 현금을 얼마나 태우냐 아니면 그 안에서 정말 실탄을 많이 쓰느냐 이런 표현을 쓰는데. 그 돈을 얼마나 투자하냐가 결국에는 이 서비스에 대해서 지금 토스가 얼만큼 관심을 갖고 있느냐, 신경을 쓰고 있느냐라고 보시면 될 거 같고요. 가맹 택시뿐만 아니라 우리가 부르는 호출 택시 같은 경우에 보시는 것처럼 카카오가 상당히 압도하고 있는 상황이에요. 저 상황에서 결국에는 9만 명밖에 되지 않는 타다를 가지고 어떻게 승부를 볼 것인가라는 부분에서 얼만큼의 투자가 들어갈 것인지에 대한 관심을 분명히 지켜봐야 된다고 생각할 수 있을 것 같습니다. 왜냐면 이게 만약에 투자를 너무 적게 한다 그러면 결국에는 지금 상황에서 일종의 보여주기 혹은 덩치 키우기로서 보여지는 것이 아니냐라는 우려들도 분명히 존재하거든요. 그래서 향후 방향을 지켜봐야 된다고 볼 수 있을 것 같습니다. [앵커]토스 특유의 화려한 마케팅이 더해지면 꽤 흥미로운 경쟁이 펼쳐질 것 같긴 한데 이런 두 회사의 경쟁이 소비자들 관점에서 보면 이게 득이 되는 겁니까, 실이 되는 겁니까? 어떻게 보세요? [답변]일단은 당연히 사업자끼리 경쟁이 치열해지면 이용자나 택시업계에서는 나쁠 게 없죠. 왜냐면 이렇게 되면 택시 라이선스 금액이 올라갈 거고 이용자 입장에서는 다양한 프로모션이 나올 거니까요. 특히나 지금 독점이 거의 다 돼 가고 있는, 카카오가 독점하고 있는 시장을 어떻게 보면 3강 체제라고 할 수 있는, SK 쪽이 있고 그다음에 토스 쪽이 있다고 하면 이들이 과연 어떠한 경쟁을 보여줄지. 그리고 그 안에서 금융과의 혁신이 어떻게 일어날지 이런 걸 지켜보면 흥미로운 부분이 될 것 같습니다. [앵커]지금 시장 분위기 보면 머니게임으로 플랫폼 지배력을 높이는 데 대해서 여론이 곱지가 않잖아요. 카카오 같은 경우도 지금 정부 규제 맞고 몸을 사리는 상황인데 토스도 그런 카카오처럼 가게 되는 거 아닌지. 앞으로 미래를 어떻게 보세요? [답변]이 부분에서 토스 대표가 재밌는 얘기를 했는데 본인들의 비즈니스가 어떤 거냐면 창업 후에 지속적으로 사업모델이 고착된 시장에 진출해서 거기에 대한 편리하고 혁신적인 서비스를 제공하겠다고 했거든요. 이걸 해석해보면 이미 독점화되어있는 시장에 우리가 들어가서 개선하겠다는 거니까 분명한, 지금의 방향성은 좋아 보이고요. 하지만 말씀하신 대로 장기적으로 볼 때 과연 머니게임에서 승리하는 자들이 또 하나의 독점을 이룰 수 있는 가능성은 충분히 존재하는 것 같습니다. [앵커]과연 토스가 이 게임을 어떻게 풀어갈지 곧 뚜껑이 열린다고 하니까 지켜보도록 하죠. 오늘 호모 이코노미쿠스 김덕진 부소장 함께했습니다. 고맙습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2021.10.07.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>포니정재단, 올해의 영리더상에 김연경·이승건 선정</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010757984?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>기사내용 요약내달 5일 시상식 개최 예정[서울=뉴시스] 홍세희 기자 = 포니정재단은 우리 사회의 젊은 혁신가에게 수여하는 제2회 '포니정 영리더상' 수상자로 배구선수 김연경과 이승건 비바리퍼블리카 대표를 선정했다고 7일 밝혔다.한국 배구의 에이스를 넘어 세계 무대에서도 최정상급으로 손꼽히는 김연경 선수는, 1988년생으로 2004년부터 청소년 국가대표로 발탁된 이후 계속해서 정상의 자리를 지키며 한국 배구의 새 역사를 쓰고 있다. 국내 최대 핀테크 서비스인 토스를 제공하는 비바리퍼블리카의 이승건 대표이사는 1982년생으로 서울대학교 치의학과를 졸업 후 안정적인 치과의사 생활을 포기하고 새로운 창업 시도를 거듭해 온 일화로 유명하다. 김철수 포니정재단 이사장은 "김연경 선수는 한국 배구를 넘어 세계적으로 인정받는 실력과 함께 리더십을 갖추어 청년 세대의 귀감이 되며, 이승건 대표는 국내 최대 핀테크 서비스인 토스를 통해 기존에 없던 핀테크 분야를 개척한 놀라운 혁신을 보여줬다"고 선정 이유를 밝혔다.한편 포니정 영리더상은 젊은 혁신가를 응원하기 위해 지난해 신설된 제2의 포니정 혁신상이다. 현대자동차 설립자인 'PONY 鄭(포니정)' 故 정세영 HDC그룹(전 현대산업개발) 명예회장의 혁신과 도전 정신을 이어가기 위해, 우리 사회에 긍정적인 변화를 일으킨 만 40세 이하의 혁신가 2인을 선정해 상금 5000만 원과 상패를 수여하고 있다. 시상식은 내달 5일 서울 삼성동 아이파크타워 포니정홀에서 열릴 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2021.10.01.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>[현장에서]“금소법에 핀테크 업계 혼란…보험 서비스는 내년에나 가능?”</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005049794?sid=105</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>카카오페이·핀크, 일부 서비스 중단…“회사마다 서비스 달라 혼선”보험업 등록 허용한다지만…"구체적 내용 없어 무턱대고 준비 못해"펀드 추천, 법인은 불가…"가능한 길은 열어주고 규제해야"마이테이터 준비 올인할 시점에…“사업계획 전면 수정 불가피”(사진=이데일리DB)[이데일리 이후섭 기자] 지난 9월 25일부터 본격 제재가 시작된 금융소비자보호법을 준수하기 위해 핀테크 업계는 보험, 대출, 카드추천 등의 서비스를 일부 중단하거나 조정하느라 여념이 없다. 오는 12월부터 본격화되는 마이데이터(본인신용정보관리업) 서비스 준비에 집중해야 할 시점에 당장 눈앞의 금소법 위반소지를 없애기 위해 동분서주하는 형국이다.플랫폼 사업자가 보험 비교 서비스나 펀드 추천이 가능한 길을 제대로 마련해주지 않아 사업계획을 전면 수정하는 것이 불가피하다는 하소연 마저 나온다. 혁신 금융을 대표하는 마이데이터 사업이 곧 시행되지만, 막상 사업자들은 규제의 울타리에 갇혀 고객에게 제대로 된 맞춤형 금융상품 추천 서비스를 제공할 수 없을 것이라는 우려가 커진다.카카오페이·핀크, 일부 서비스 중단…“회사마다 서비스 달라 혼선”카카오페이는 지난 9월 자동차 보험료 비교 서비스, 운전자 보험, 반려동물 보험, 해외여행자 보험 등 일부 보험 상품 판매를 잠정 중단했고, 핀크도 보험 추천 서비스를 잠정 중단했다. 금소법에 따른 리스크를 선제적으로 해소하기 위한 조치로, 금융당국은 지난달 초 핀테크업체의 금융상품 소개 서비스를 광고가 아닌 `중개`로 봐야 하며 핀테크업체가 중개행위를 하려면 금소법에 따른 인허가를 받아야 한다고 해석한 여파다.토스는 보험업 관련 라이선스를 확보하고 있는 계열사 토스인슈어런스를 통해 `내보험 분석`이나 `보험 상담사 연결` 등의 서비스를 여전히 제공하고는 있지만, 앱 내 메인화면의 금융상품 안내 문구 등을 수정해야 했다.뱅크샐러드는 카드사들과의 모집제휴 계약을 통해 기존 제휴사 중 2개를 제외한 나머지 카드추천 서비스를 유지하고 있고, 대출 모집법인 등록을 완료해 대출 비교 서비스도 계속 제공할 수 있게 됐다. 한 핀테크 업체 관계자는 “회사마다 제공하는 서비스가 조금씩 다 다른 만큼, 개별적으로 금융당국에 유권해석을 추가 요청해 확인을 받고 있지만 쉽지 않다”며 “혹시라도 모를 소지를 없애기 위해 계속 서비스를 수정하고 신경 쓰느라 정신이 없다”고 푸념했다.보험·펀드 서비스 길은 막혀…“사업계획 전면 수정 불가피”문제는 금융당국의 지침대로 라이선스를 확보하려고 해도 보험 관련 서비스나 펀드 추천을 위한 길이 막혀있는 상황이다. 보험업법 시행령상 전자금융업자를 포함한 금감원 검사대상기관은 보험대리점 등록을 제한하고 있다. 이에 금융당국은 지난 8월 온라인 플랫폼의 보험대리점 등록을 허용하겠다고 발표했지만, 사업자 입장에서는 마냥 기다릴 수 만은 없는 노릇이다.다른 핀테크 업체 관계자는 “보험대리점 등록을 허용해준다고 했지만, 관련 구체적인 내용이 아직 나오지 않은 상황에서 무턱대고 라이선스를 따기 위한 준비에 나설 수도 없는 실정이다. 사실상 내년에나 가능할 수도 있다”며 “등록을 하기 위해서는 그에 맞는 기술력, 시스템 등을 갖춰야 하는 금전적 부담도 있는데, 마이데이터 준비에 여력이 없는 상황에서 추가 투자에 나서기는 버거운 곳들도 많다. 사업계획을 완전히 다시 수정해야 할 판”이라고 말했다.결국 토스나 카카오페이처럼 보험 자회사가 있는 곳들만 현재는 가능한 상황인데, 최근 정부가 빅테크의 무분별한 확장을 비판하는 상황에서 오히려 그들만 사업이 가능하게 만들어준 꼴이다. 펀드 추천의 경우 자본시장법상 투자권유대행인 등록은 개인만 허용하고 있어 법인은 아예 중개가 불가능하다. 업계에서는 “서비스 재개를 위해서는 라이선스를 빨리 받을 수 있도록 제도를 마련해줘야 하는데, 길도 열어주지 않고 무조건 하지 말라고만 하면 어쩌라는 것이냐”는 볼멘 소리가 나온다.금소법이 마이데이터 사업과 상충되는 느낌을 받는다는 얘기 마저 나온다. 마이데이터는 정보주체에게 데이터 주권을 돌려주는 것으로, 이를 위탁받은 업체가 금융정보, 비금융정보를 분석해 개인 맞춤형 금융상품을 추천해 주는 서비스가 핵심이기 때문이다. 하나의 플랫폼에서 모든 금융상품을 해결할 수 있는 편의성이 경쟁력을 좌우할 것으로 여겨진다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2021.10.04.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>패션업에 투자 러시… 아임웹 100억 유치 [주간 VC 동향]</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004717881?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>패션 관련 스타업계의 투자 유치가 이어지고 있다. 쇼핑몰 창업 솔루션을 제공하는 '아임웹'과 키즈패션 플랫폼 '차일디'가 각각 투자 유치에 성공했다.   4일 벤처캐피탈(VC)업계에 따르면 소상공인을 위한 쇼핑몰 솔루션 스타트업 아임웹이 100억원 규모의 시리즈A 투자 라운드를 완료했다. 이번 투자는 실리콘밸리 소재 알토스벤처스가 단독으로 참여했다. 알토스벤처스는 앞서 쿠팡, 크래프톤, 우아한형제들(배민), 직방, 당근마켓, 비바리퍼블리카(토스) 등에 투자한 바 있다.   아임웹은 개발, 포토샵, 코딩 같은 지식이 없어도 쉽게 쇼핑몰을 만들 수 있는 솔루션을 제공하고 있다. 간단한 마우스 조작만으로 구축 및 운영이 가능하기 때문에 중·소상공인과 1인 셀러의 호응을 얻고 있다.   이번 투자를 바탕으로 아임웹은 인력을 대규모 증원할 방침이다. 단기적으로는 가맹점의 판매 채널 연동과 구매자 편의성 향상 등 이커머스 서비스 부문 고도화를 추진하며 시장 내 입지를 강화한다는 계획이다. 올 초 런칭한 소상공인 고객을 위한 자동화 마케팅 서비스 '아임웹 애드'와 지난해 런칭한 '아임웹 대만 서비스'를 통해 시장 확대도 모색하고 있는 것으로 알려졌다.   이수모 아임웹 대표는 "이번 투자 유치를 계기로 우수 인재를 적극 채용해 소상공인의 온라인 안착을 돕는 선두 주자가 되겠다"며 "셀러들의 글로벌 확장을 도울 수 있는 성공 파트너로 자리매김할 계획"이라고 전했다.   키즈 패션 플랫폼 스타트업 차일디도 지난 달 30일 17억 규모의 프리 시리즈A 투자 유치에 성공했다.   이번 투자에는 재무적 투자자(FI)로 위벤처스가 참여했다. 전략적 투자자(SI)로는 무신사파트너스, 패션 브랜드 '커버낫'을 운영하는 배럴즈, 글로벌 브랜드 라이센싱 전문기업 성윤PNP커뮤니케이션이 참여했다.   2020년 3월 설립된 차일디는 서비스 출시 후 1년만에 65개 브랜드 입점, 누적 회원수 21만명, 거래액 10배 증가 등 빠른 성장세를 보이고 있다.   차일디는 전략적 투자자인 배럴즈를 통해 커버낫 키즈, Lee 키즈, 마크곤잘레스 키즈 등의 아동복 제조 라이선스를 제공받게 됐다. 오는 2022년 상반기부터 신규 브랜드들을 순차적으로 선보일 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>우리銀 대출한도, 지점당 최저 5억부터 배정…인터넷은행들도 문턱 높아져</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003385240?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>산림조합-지방은행도 대출 축소케이뱅크 대출 한도 1억원 줄여카뱅은 연말까지 마통 대출 중단토스뱅크도 연소득 이내로 제한금융당국의 가계대출 조이기가 전방위로 확산되는 가운데 우리은행이 영업점에 따라 월별 신규 가계대출 한도를 최저 5억부터 제한하기로 했다. 인터넷전문은행과 산림조합, 지방은행의 대출 문턱도 갈수록 높아지면서 ‘대출 보릿고개’는 더욱 심해질 것으로 전망된다. 4일 금융권에 따르면 우리은행은 분기별로 해오던 가계대출 총량 관리를 최근 영업점별, 월별로 변경했다. 우리은행 관계자는 "대출이 중단되는 상황을 막기 위해 대출 실적에 따라 연말까지 월별 최저 5억 원부터 신규 취급한도를 배정해 대출 관리를 강화하기로 했다"고 말했다. 연말까지 남은 대출 한도 2조5000억 원을 한꺼번에 소진하지 않고 월별·지점별로 관리해 대출 중단 사태를 방지하기 위한 조치다. 일부 수도권 지역의 영업점에선 1일 주택담보대출과 전세대출의 10월 한도가 바닥 난 것으로 전해졌다. 시중은행뿐 아니라 산림조합, 지방은행에서도 대출 받기가 더욱 어려워질 것으로 보인다. 산림조합중앙회는 비조합원에 대한 신규 전세자금대출과 주택담보대출을 중단하는 방안을 검토하고 있다. 앞서 농·축협도 이 같은 조치에 나선 바 있다. 산림조합중앙회 관계자는 “이번 주 내로 비·준조합원 대출을 일부 중단하는 쪽으로 결정 날 가능성이 높다”고 했다. 이는 당국이 1일 산림조합중앙회에 올해 가계대출 증가율 목표치를 지켜 달라고 재차 요청한 데 따른 것이다. 당국은 가계대출 증가율이 높은 일부 지방은행에도 철저한 총량 관리를 주문할 예정이다. 6월 말 현재 경남은행과 부산은행의 대출 증가율은 각각 11.8%, 9.9%에 이른다. 인터넷전문은행의 대출 문턱도 높아지고 있다. 케이뱅크는 마이너스통장 등 신용대출 상품의 한도를 일제히 줄였다. 케이뱅크는 2일부터 일반 신용대출 상품의 최대 한도를 기존 2억5000만 원에서 1억5000만 원으로 1억 원 축소했다. 또 마이너스통장 대출과 신용대출 플러스 상품의 최대 한도를 각각 1억5000만 원에서 1억 원으로 줄였다. 케이뱅크는 3개 신용대출 상품의 한도를 조만간 ‘대출자의 연소득 이내’로 제한할 방침이다. 카카오뱅크는 이달 1일부터 연말까지 마이너스통장 신규 대출을 중단하기로 했다. 5일 문을 여는 토스뱅크에서도 연봉 이상으로 신용대출을 받을 수 없을 것으로 보인다. 토스뱅크 관계자는 “신생 은행이지만 기존 은행과 동일하게 가계대출 총량 관리, 총부채상환비율(DTI) 규제 등 금융당국의 규제를 따르기로 했다”고 말했다. 당국이 올해 가계대출 증가율을 연 6%대로 억제하면서 시중은행들은 일제히 신용대출 한도를 연소득 이내로 제한했다. 토스뱅크는 5일부터 사전 신청자 중 일부를 대상으로 신용대출을 실시한다. 이날 토스뱅크 홈페이지에 게시된 신용대출 최저 금리는 연 2.76%(4일 기준)이며 최대 2억7000만 원까지 빌릴 수 있다. 금융권에서는 토스뱅크가 아무 조건 없이 연 2% 이자를 주는 수시입출금 통장으로 고객들의 눈길을 잡는 데 성공했다는 평가가 나온다. 지난달 10일 접수를 시작한 사전 신청자는 4일 오후 106만 명을 넘어섰다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2021.10.14.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>토스뱅크, 결국 대출 중단…5000억 한도 소진</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010769774?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>기사내용 요약올해 연간 대출 한도 5000억 소진추가 증액 요청 받아들여지지 않아대신 남은 115만명 대상 전면 오픈다음주부터는 신청 상관 없이 가입[서울=뉴시스] 박은비 기자 = 인터넷전문은행 토스뱅크가 연간 가계대출 한도 소진으로 연말까지 신규 대출을 중단한다. 지난 5일 출범한 지 9일 만이다.토스뱅크는 대출 서비스의 신규 상품 판매를 정부의 가계부채 안정화 정책에 따라 연말까지 중단한다고 14일 밝혔다. 신용대출, 마이너스통장을 비롯해 정책금융상품인 사잇돌대출, 비상금대출도 포함이다.토스뱅크는 올해 한도인 5000억원을 8000억원까지 늘려달라고 금융당국에 요청했지만 받아들여지지 않은 것으로 전해졌다. 대신 사전신청 고객 170만명 모두 토스뱅크 서비스를 이용할 수 있게 된다. 현재 토스뱅크 서비스를 이용 중인 고객은 55만명이다. 이날 오후 12시부터 대기고객 115만명을 대상으로 서비스를 전면 오픈한다. 그동안 대출 속도 조절을 위해 제한적 영업을 해왔지만, 대출을 한시 중단하게 된 만큼 더 이상 그럴 필요가 없다는 판단이다. 토스뱅크는 '누구나 대기 없이 은행을 이용할 수 있어야 한다'고 봤다. 다음주 월요일인 18일부터는 사전신청 여부와 상관 없이 누구나 토스뱅크 계좌를 개설 가능하다.가입자들은 연 2% 금리 토스뱅크통장과 전월 실적 조건 없는 체크카드 상품 등은 기존 혜택 그대로 이용할 수 있다. 토스뱅크 관계자는 "정부의 가계부채 안정화 정책을 준수하고, 시장 상황을 모두 고려한 결정"이라며 "여러 사업적 제약 속에서도 고객이 가장 원하는 가치가 무엇인지 고민해 대고객 오픈을 결정했다"고 설명했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2021.10.14.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>文, 전세대출 규제 브레이크 걸었다</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002701004?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>지방은행·토스뱅크까지 중단文 "실수요 세심 관리" 주문에6%대 대출 총량 규제서 제외가계부실 우려… 신뢰도 잃어고승범 금융위원회 위원장이 14일 오전 서울 여의도 금융투자협회에서 열린 투자자 교육 플랫폼 '알투플러스' 오픈 기념회에 참석한 뒤 취재진 질문에 답하고 있다./ 연합뉴스 제공    대출 절벽과 전세난민 발생 우려에 전세대출 실수요자까지 옥죄려던 금융당국이 결국 한발 물러났다. 금융당국이 전세 대출과 집단대출 등 실수요자에 대해서는 대출 총량 규제의 예외를 적용하기로 했다. 부동산 가격 급등에 따른 피해를 서민층 등 실수요자에게 떠넘긴다는 반발이 갈수록 거세지면서 문재인 대통령까지 나서 "실수요자 보호"를 주문한 때문이다.다만 가계대출 폭증에 따른 가계부실 우려는 여전히 남게 됐다. 여기에 가계대출 총액규제 감독방향이 흔들리면서 "부동산 정책이 오락가락하면서 시장 신뢰를 잃더니 이번에는 무리한 가계부채 대책을 추진하려다 후퇴해 금융 감독정책마저 신뢰에 금이 가고 있다"는 지적이 나오고 있다.문재인 대통령은 14일 "서민 실수요자 대상 전세 대출과 잔금 대출이 일선 은행 지점 등에서 차질 없이 공급되도록 금융당국은 세심하게 관리하라"고 말했다.문 대통령의 발언은 이날 서민 실수요자 전세 대출이 중단되지 않도록 하겠다는 금융위원장의 발언과 관련해 이 같이 언급했다고 박경미 청와대 대변인이 서면 브리핑에서 전했다.이날 고승범 금융위원장은 기자들과 만나 "전세나 집단 대출이 중단되지 않도록 실수요자를 보호하겠다"며 "실수요자 전세 대출이 중단되는 일이 없도록 올해 4분기 중 전세 대출에 대해서는 유연하게 대응할 생각"이라고 밝혔다. 고 위원장은 "실수요자가 이용하는 전세대출이 중단되는 일이 없도록 올해 4분기 중 전세 대출에 대해서는 총량 관리를 하는 데 있어 유연하게 대응하도록 할 생각"이라고 설명했다. 그는 "전세 대출 증가로 인해 가계대출 잔액 증가율이 관리 목표(6%대)를 초과하더라도 용인하려고 한다"고 했다.이 같은 발언은 실수요자에 대해서도 상환능력 범위 내에서 대출을 받도록 하겠다는 종전 입장에서 크게 물러난 것이다.고 위원장은 지난 6일 국정감사에서 '가계부채 증가율 목표를 달성하려면 전세대출을 조이고 집단대출도 막아야 하느냐'는 질문에 수긍하면서 "6.9%를 달성하려면 굉장한 노력이 필요한 상황이고 그렇게 노력하지 않으면 목표 달성이 현실적으로 어렵다"고 답했다.그렇지만 시중은행에 이어 지방은행, 토스뱅크 등으로 대출 중단 도미노 우려가 고조되자 전세대출을 포함하는 6%대 총량 관리 목표를 수정한 것이다.금융위는 이날 오후 주요 시중은행 여신담당 부행장들과 가계대출 관리 대책을 논의하기로 했다. 금융위는 이르면 다음 주 중 실수요자 보호 방안을 포함하는 가계부채 관리 대책을 내놓을 예정이다.임재섭·김수현기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2021.10.04.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>간편송금으로 잘못 보낸 돈…5년간 130억원에 달해</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000259639?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>금융 플랫폼에서 제공하는 간편 송금 서비스로 지난 5년간 약 130억원이 잘못 이체된 것으로 나타났습니다.국회 정무위원회 소속 윤관석 더불어민주장 의원이 금융감독원으로부터 제출받은 자료에 따르면 토스와 카카오페이, 네이버페이 3사의 간편송금 서비스 이용 중 발생한 착오송금 금액은 2017년부터 올해 6월까지 총 129억4173만원에 달하는 것으로 오늘(4일) 집계됐습니다.연도별로 보면 착오송금 금액은 2017년 2억6379만원에서 지난해 53억2334만원으로 20배 가까이 증가했습니다.건수로 보면 착오송금은 5년간 총 5만5506건 발생했고 이 또한 꾸준히 늘고 있습니다.2018년에는 10억6126만원, 2019년 29억4785만원으로 꾸준히 늘었고, 올해 1∼6월에는 이미 33억4547만원을 기록했습니다.간편송금은 모바일을 통해 손쉽게 돈을 이체할 수 있는 서비스인데, 이 때문에 실수로 금액이나 계좌번호를 잘못 입력해 돈을 이체하는 착오송금도 늘었습니다.윤관석 의원은 "간편송금업체는 착오송금과 같은 실수를 줄일 수 있도록 지속해서 시스템을 개선할 필요가 있다"고 지적했습니다. [네이버에서 SBS Biz 뉴스 구독하기!]https://media.naver.com/channel/promotion?oid=374</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2021.10.15.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>[단독]토스發 쩐의전쟁…타다, 대형택시 기사 1인당 최대 4천만원 쏜다</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005658788?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>운행 첫 해 '가입 지원금 1500만원+운행지원금 2400만원+기타지원금 100만원' 지급경쟁사서 넘어오면 500만원 일괄 지급…내달 시범운행 거쳐 12월 서비스 개시2020.3.4/뉴스1 © News1 허경 기자(서울=뉴스1) 장도민 기자 = 비바리퍼블리카(토스 운영사)에 인수되는 모빌리티 스타트업 '타다'가 오는 12월 선보일 대형택시(승합차) 기사를 모집하기 위해 1인당 지원금 4000만원을 1년간 분할지급하는 것으로 확인됐다.15일 모빌리티업계에 따르면 타다는 지난 6일과 7일에 이어 13일 개인택시 기사들을 대상으로 진행한 사업설명회에서 대형택시 기사로 등록하면 최대 4000만원의 지원금을 제공한다고 밝혔다.타다는 지원금 4000만원을 일괄지급 대신 분할지급하기로 했다. 우선 초기 홍보비 명목으로 '가입 지원금' 1500만원을 지급한 뒤 운행 일수, 운행 매출 등이 일정 기준에 도달하기만 하면 매월 200만원(가입 첫 해 12개월, 총 2400만원)씩 '운행지원금'을 인센티브 형태로 지급한다.또 나머지 100만원은 기타지원금(타다 플러스 기사에도 지급 중) 명목으로 분할지급한다. 이와 별개로 타사에서 넘어오는 경우 500만원을 한 번에 지급한다.앞서 타다가 올해 초 '타다 플러스' 기사를 모집할 때 선착순 50명에 한해 차량지원금 명목으로 최대 150만원(100만원+신차 구매시 추가 지원금)을 지급한 것에 비하면 파격적인 지원이다. 타다는 지난해 3월 '타다 금지법'(개정 여객자동차법) 통과로 렌터카 기반의 '타다 베이직' 서비스는 접고 가맹택시 '타다 라이트', 준고급 택시 '타다 플러스' 사업을 펼쳐왔다. 하지만 택시 기반의 가맹 택시 사업으로 급성장한 카카오모빌리티와 달리 존재감이 미미했다. 최근 토스에 매각되면서 자금력을 확보하게 된 타다는 과거 '타다의 전성기'를 이끈 카니발 등 대형 차량을 활용한 택시 서비스로 재기를 위한 공격적인 행보에 나선 것으로 풀이된다. 타다는 11월 시범운행 기간을 거쳐 12월 중 대형택시 서비스를 본격적으로 시작할 계획이다. 타다의 대형 택시 서비스는 과거 '타다 베이직(기사와 렌터카 동시 호출)'과 달리 법적인 문제가 없도록 렌터카가 아닌 택시 면허를 기반으로 서비스할 계획이다. 카카오모빌리티의 대형택시 서비스인 카카오T 벤티'와 유사한 방식이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2021.10.13.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>[사설] 靑 게시판 도배한 대출난민들의 호소…정부는 안 보이나</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004615494?sid=110</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>정부의 전방위 대출 규제로 전세대출이나 아파트 중도금대출이 막힌 실수요자들의 불만이 폭발하고 있다. 온라인 커뮤니티와 청와대 국민청원 게시판에는 “무주택 서민들의 피울음이 들리지 않는가” “대출 규제를 풀어달라”는 글이 줄을 잇고 있다. 대통령에게 대출 규제 토론회를 제안하는 청원까지 등장했다. ‘묻지마 규제’의 부작용이 얼마나 심각한지 실감케 한다.서민·중산층 실수요자들의 불만은 크게 두 가지다. 우선 규제대상이 잘못됐다는 것이다. 정부는 가계부채 증가속도와 규모, 불안정한 국내외 금융시장 상황 등을 감안할 때 대출 총량규제가 불가피하다고 강조한다. 그러나 실수요자들은 정부의 부동산정책 실패로 집값과 전셋값이 급등해 가계대출이 늘어났는데, 그 책임을 왜 무주택자들에게 떠넘기느냐고 비판하고 있다. 집값·전셋값을 올려 ‘월세→전세→내집’으로 이어지는 ‘주거 사다리’를 끊어 놓더니, 이제는 대출까지 막아 ‘전세난민’ ‘월세난민’으로 내몰고 있다는 분노다. 틀린 말이 하나도 없다.거칠고 무딘 규제방식도 문제가 심각하다. 총량 규제로 1·2·3 금융권을 동시에 꽁꽁 묶어, 급히 목돈이 필요한 실수요자들은 갈 곳이 없다. 최근 인터넷은행 토스뱅크가 출범하면서 내놓은 신용대출이 1주일 만에 한도(5000억원)의 절반을 소진하고 수십만 명이 대기 중일 정도다. 그만큼 급전 수요가 많다는 반증이다. “고금리 사채(私債)는 지옥이라지만 지금은 사채라도 생명의 은인 같다”는 하소연까지 나온다.이런 현장 상황을 정부가 제대로 인지하고 있는지 의문이다. 말로는 실수요자 피해를 최소화하는 쪽으로 추가 대책을 내놓겠다고 한다. 그러나 “대출규제로 부동산 오름세가 꺾였다”(홍남기 부총리 겸 기획재정부 장관)거나 “실수요자 대출도 가능한 한 상환능력 범위 내에서 종합 관리돼야 한다”(고승범 금융위원장)는 등의 발언이 나오고 있다. 대출 규제의 부작용을 줄이려는 노력보다 여전히 규제 불가피성을 강변하기에 급급하다. 게다가 대출 통제를 하면서도 금융회사에 공문 한 장 없이 전화·대면 행정지도로 일관하고 있다.정부의 가계부채 관리 대책은 ‘첫 단추’부터 잘못 끼웠다. 가계부채 관리가 그토록 시급한 현안이라면 집값·전셋값 급등에 책임이 있는 정부가 먼저 국민에게 사과하고 양해를 구했어야 했다. 무주택 실수요자에게 주거고통에 이어 대출고통까지 전가하고도 미안한 기색조차 없다. 특단의 대책을 서둘러야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2021.10.04.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>케뱅도 대출한도 1억원 낮춘다···대출 조이기 전방위 확산</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003969028?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>신용대출 1.5억·마통 1억으로 '뚝'5일 출범 토뱅은 최대 2.7억 예고대기자 100만명···수요 폭발 우려[서울경제] 시중은행의 잇따른 대출 조이기에도 기존 한도를 유지해온 케이뱅크가 대출 한도를 최대 1억 원 낮추기로 했다. 금융 당국은 산림조합·지방은행 등에도 총량 규제를 압박하며 대출 고삐를 더욱 강하게 죄고 있다. 한도 축소를 넘어 아예 대출이 차단된 실수요자의 불만이 확산되는 가운데 금융권 최대 규모로 대출 한도를 책정한 토스뱅크가 출범하면 수요가 단기간에 쏠릴 수 있다는 전망이 나온다.4일 은행권에 따르면 케이뱅크는 지난 2일부터 일반 신용대출 상품의 최대 한도를 기존 2억 5,000만 원에서 1억 5,000만 원으로 1억원 줄였다. 마이너스통장 대출 한도 역시 기존 최대 1억 5,000만 원에서 1억 원으로 낮췄다. 중금리 신용대출 상품인 ‘신용대출 플러스’의 한도 역시 기존 1억 5,000만 원에서 1억 원으로 축소했다. 케이뱅크는 이들 상품에 ‘연소득 100% 이내’ 조건도 적용할 계획이다.시중은행의 연쇄 대출 한도 축소 조치에도 케이뱅크는 그동안 한도 조절을 미뤄왔다. 국민·신한·하나·우리·농협 등 5대 시중은행은 물론 동종 인터넷은행인 카카오뱅크(323410)는 신용대출의 한도를 연봉 이내, 최대 5,000만 원으로 축소한 상태다. 카카오뱅크는 추가적으로 지난 1일부터 마이너스통장 신규 대출을 연말까지 전면 중단했다. 케이뱅크는 시중은행과 다른 별도의 기준을 적용 받아왔으나 최대 5배인 대출 한도를 더는 유지하기 힘들어 일부 축소한 것으로 보인다.금융 당국의 총량 규제 압박은 전방위로 확산되고 있다. 금융위원회는 1일 산림조합중앙회 여신 담당자를 불러 산림조합의 가계대출 총량 증가 목표를 준수해달라고 당부했다. 올해 전국 130개 산림조합의 가계대출 증가율 목표치는 평균 4%대지만 현재 5%대를 넘은 것으로 알려졌다. 은행권과 농·축협 상호금융의 대출 문턱이 높아지자 수요가 옮겨간 것으로 풀이된다.금융 당국은 지방은행에도 모니터링을 강화하고 있다. 지방은행의 가계자금대출 잔액은 이미 6월 말에 지난해 말보다 6.5% 증가했다. 특히 BNK금융그룹 소속 경남은행과 부산은행의 증가율은 6월 말 기준 11.8%와 9.9%로 집계됐다. 금융위 관계자는 “가계대출이 많이 늘어난 BNK 계열 은행에 총량 목표 준수를 요청할 예정”이라고 말했다.이처럼 대출을 받기 힘들어진 상황에 새롭게 출범하는 토스뱅크에 실수요자들의 눈이 쏠리고 있다. 토스뱅크는 5일 본격적인 영업에 나서며 여·수신 상품을 내놓는다. 예금 상품은 ‘연 2% 수시 입출금통장’이 공개됐고 대출 상품은 신용대출이 업계 최저 금리, 최대 한도로 도입될 예정이다. 토스뱅크 홈페이지에 게시된 일반 신용대출 금리는 3일 기준 연 2.76∼15.00%, 한도는 최소 100만 원, 최대 2억 7,000만 원이다. 주요 시중은행의 신용대출 금리가 3∼4%대 수준이고 최대 한도는 케이뱅크(1억 5,000만 원)를 제외하면 5,000만 원 수준이라 대출 희망자의 눈은 토스뱅크로 쏠릴 수밖에 없다. 현재 토스뱅크의 서비스를 사전 신청한 고객은 이미 100만 명을 돌파한 상태로 영업 개시와 함께 대출 수요도 집중될 것으로 전망된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2021.10.11.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>대출한도 60% 소진한 토스뱅크</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012713101?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>(서울=연합뉴스) 진연수 기자 = 중저신용자 포용을 내걸고 출범한 3호 인터넷전문은행 토스뱅크가 영업 개시 나흘 만에 대출한도의 60%를 소진하면서 이르면 이번 주 신용대출 중단될 가능성이 거론된다. 금융당국과 금융권에 따르면, 토스뱅크에서 지난 5일 출범 이후 나흘간 실행된 대출액은 3천억 원에 육박해 금융위원회가 제시한 한도 5천억 원의 60%를 소진했다. 이 가운데 중저신용자 비중은 25% 이상인 것으로 알려졌다. 사진은 11일 서울 강남구 토스뱅크 본사. 2021.10.11    jin90@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2021.10.04.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>토스뱅크 나온다…'조건없는 연 2% 금리 통장' 인기</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0000988114?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>'3호 인터넷전문은행' 토스뱅크가 5일 공식 출범하고 여신과 수신 상품 판매를 시작한다.금융당국의 가계대출 규제 강화로 한층 더 주목받고 있는 신용대출 상품의 최저금리는 시중은행에서 가장 낮은 2.7%대, 최대 한도는 2억7천만원가량으로 각각 책정될 전망이다. 다만, 토스뱅크도 은행권에 공통으로 적용되고 있는 신용대출 한도 '연소득 이내' 제한 조치를 도입할 것으로 보인다.토스뱅크는 5일부터 사전 신청자를 대상으로 여·수신 상품 판매, 체크카드 발급 등 뱅킹 서비스를 순차적으로 오픈할 예정이다.토스뱅크는 지난달 가입 기간, 예치 금액 등에 아무런 제한 없이 무조건 연 2% 이자를 지급하는 수시 입출금 통장을 선보여 2일 기준 뱅킹 서비스 사전신청 고객이 100만명을 돌파했다.예금, 적금, 수시입출금 등 구분을 없애고 단순하고 직관적이면서 파격적인 조건을 제공하는 수신 상품을 선보여 시선을 사로잡겠다는 전략이 어느 정도 성공한 셈이다.토스뱅크 체크카드도 전월 실적 조건 없이 매달 최대 4만6천500원의 캐시백을 제공하고 해외에서는 사용금액의 3%를 즉시 캐시백하는 조건을 내걸었다.5일 공개될 신용대출 상품도 다른 은행에 비해 금리와 한도가 경쟁력 있는 수준으로 책정될 전망이다.토스뱅크는 별도 중금리 대출 상품 없이 일반 신용대출과 마이너스통장 두 종류의 여신 상품을 우선 내놓고, 정책금융 상품인 '사잇돌 대출'은 시차를 두고 출시할 것으로 알려졌다.토스뱅크 홈페이지에 게시된 신용대출 금리는 3일 기준 연 2.76∼15.00%, 한도는 최소 100만∼최대 2억7천만원이다. 신용대출 금리와 한도는 차주(대출자) 개개인 조건에 따라 달라지겠지만 이 범위 내에서 산정될 가능성이 큰 것으로 알려졌다.최근 주요 시중은행의 일반 신용대출 금리가 3∼4%대 수준으로 이미 올라섰고 최대 한도가 '반토막' 수준으로 크게 줄어들어 사실상 은행에서 '억 단위' 대출을 받기가 힘들어진 상황에서 이같은 조건은 금융소비자들의 눈길을 끌기에 충분하다는 게 은행권 평가다.다만, 토스뱅크도 금융당국의 가계대출 규제를 일부 적용받아 신용대출 상품 자체 한도는 2억7천만원으로 정하되 '연소득 이내 범위'로 제한하는 방안을 도입할 가능성이 큰 것으로 알려졌다. 연간 가계대출 증가율 총량 규제에서 기존 은행보다 자유롭긴 하지만, 가계부채 억제를 우선시하는 금융당국 방침도 함께 고려할 수밖에 없기 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>카카오, 금융그룹 지정되면 사업 확장에 제동</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001895178?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>자본부담 늘고 내부거래 통제공격적인 영업 확장 불가능[헤럴드경제=박자연·정경수 기자] 카카오가 금융복합기업집단으로 지정된다면 플랫폼을 기반으로 한 공격적인 사업 확장에 제동이 걸리게 된다.5일 금융당국에 따르면 금융위원회는 고승범 위원장의 지시로 업계 전반에 퍼진 업권 간 ‘기울어진 운동장’ 상황을 점검하고 있다. 각 부서가 뛰어들어 해외 사례부터 국내 공정거래위원회 규제 등까지 종합적으로 보고 있다.그 중 하나의 카드가 금융복합기업집단 지정이다. 현재는 삼성, 한화, 미래에셋 등 6개 금융복합기업집단 소속 219개 전통 금융사만 적용받고 있다. 빅테크는 법이 아닌 금융위 자체 규정에 따라 빠져있다.금융복합기업집단 감독법은 공정거래법에 이은 ‘제2의 재벌규제’로 불린다. 각 업권법에서 규율하지 못하는 각종 규제들이 담겨있다.금융복합그룹으로 지정되면 일단 자본부담이 크게 늘어난다. 금융그룹 차원의 위험을 매년 평가하고, 평가 결과에 따라 추가자본을 적립(위험가산자본)해야 한다. 내부통제위험관리를 통해 집단차원의 위험을 스스로 관리하는 한편 3년마다 금융당국의 위험관리실태평가를 받아야 한다.50억원 이상의 그룹 내 내부거래는 매번 이사회 승인을 받아야 하고, 각종 주요 내용을 주기적으로 공시해야 한다. 당국 평가에서 낙제점을 받을 경우 건전성을 높일 수 있는 경영개선 계획을 제출해야 하고, 이 과정에서 의무를 소홀히 한다면 1억원 이하의 과태료를 받을 수 있다.이러한 규제가 적용되면 카카오는 손발이 묶이게 된다. 카카오페이손해보험은 사업 초기부터 소액보험의 손해율 관리와 그룹 차원의 자본 규제를 동시에 지켜야 한다. 모빌리티, 쇼핑 등 내부 서비스에 적용하려던 소액단기보험도 내부거래 이슈에 부딪친다. 자본금 부담이 큰 자동차보험이나 저축성보험 등은 시도조차 어려워질 수 있다.카카오뱅크는 중·저신용자에 대한 중금리대출을 늘리고 있어 부실위험을 관리하는 데 어려움을 겪을 수 밖에 없다. 토스뱅크와 초기 출혈 경쟁에서도 불리한 입지에 설 수 밖에 없다.[금융연구원 제공]국회와 시민단체, 전통 금융권에선 카카오도 금융복합기업집단으로 지정하자고 요구하고 있다. 명목은 개별 금융회사 차원을 넘어 집단 차원의 위험을 체계적으로 관리해야 한다는 취지지만 실제론 카카오의 행보에 족쇄를 달기 위한 목적이다.빅테크는 빠른 성장세를 보이며 지배력을 확대하고 있지만 각종 규제로부터 예외를 인정받고 있다. 수십년 간 지켜온 금산분리 규제(금융-산업 자본)를 완화해 빅테크에 인터넷전문은행을 열어줬고, 대출모집인이 한 금융사 대출 상품만 취급하는 '일사 전속주의' 규제도 핀테크만 예외적으로 허용하기도 했다.다만 여러 고민이 있다. 금융위 입장에선 감독규정을 시행한지 1년도 되지 않아 고치는 것에 대한 부담이 있다. 익명의 전문가는 “빅테크는 전통 금융사와는 다른 사업 구조를 갖고 있어 그룹 차원의 리스크를 평가하는 것이 어떤 의미가 있는지 먼저 살펴봐야 한다”며 신중한 입장을 보였다.금융복합기업집단 감독법은 상법, 공정거래법 개정안과 함께 이른바 ‘공정경제 3법’ 중 하나로 정부 국정과제로 추진돼 지난해 12월 국회를 통과했다. 2000년 대우그룹, 2014년 동양그룹 사태와 같이 기업집단 내의 부실 전이로 소비자 피해가 야기되는 것을 막기 위한 조치다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2021.10.08.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>2금융서도 돈 못빌린다…시중銀·인뱅·상호금융 '대출중단' 릴레이(종합)</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0004980571?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>신한銀, 대출모집인 통한 전세대출 제한'한도 없음’에서 '5000억원'으로 축소인뱅도 한도 줄이고 신규 취급 전면 중단상호금융에 몰리자 조합원 대출 막는 곳도정치권 "갑자기 조이면서 대출대란 발생"11월 말 전세퇴거자금이 필요한 1주택자 김정민(45·가명)씨는 최근 돈 구할 걱정에 밤잠을 설치기 일쑤다. 지난해 은행 신용대출을 받아 주식시장에 투자한 자금을 빼 충당할 계획이었지만 주가가 급락하면서 조달이 어려워진 탓이다. 급한 마음에 찾은 주거래은행인 우리은행은 예상했던 한도의 3분의1수준만 가능할 것이란 답변을 받았다. 김 씨는 결국 부동산에서 소개해준 신한은행이나 금리가 높은 제2금융권을 찾아갈 생각이다.은행권 초유의 대출 절벽 사태에 돈 줄 급한 서민들이 2금융권으로 몰려들고 있다. 시중은행에 이어 인터넷전문은행까지 대출 창구를 줄줄이 닫고 있는 데다 빚투(빚내서 투자)한 주식과 가상화폐 시장이 급변동하면서 자금 융통이 어려워진 영향이다.은행에서 자금 조달이 어려워진 실수요자들이 타 금융사로 몰리는 ‘풍선효과’가 뚜렷해지면서 당국도 이달에 발표할 추가 대책에 관련 내용을 포함할 예정이다. 당장 돈이 급한 서민들과 자영업자들의 자금줄은 조만간 끊길 가능성이 높다는 우려가 나온다.8일 금융권에 따르면 신한은행은 이달부터 대출 모집인을 통한 전세대출 한도를 기존 ‘한도없음’에서 5000억원으로 제한했다. 하지만 타행에서 대출이 막힌 수요자가 몰리면서 이미 한도 소진 직전인 상황이다. 모집인 대출중단은 은행 전체 대출 중단의 전 단계로 인식된다.신한은행도 연말까지 대출 제한·중단을 시도할 가능성이 높다는 관측이 나오는 이유다. 신한은행의 전날 기준 가계대출 증가율은 3.15%. 금융당국의 가이드라인(5~6%)까지는 여유가 있지만 은행 중 가장 대출 여력이 많다는 소문이 퍼지면서 실수요자가 몰리고 있다.시중은행 대비 대출금리는 높지만 넉넉한 한도를 부여했던 인터넷은행도 정부 압박에 무릎을 꿇었다. 앞서 마이너스통장 신규 취급을 중단했던 카카오뱅크는 이날부터 고신용자 대상 신용·사잇돌·전월세보증금대출의 신규 취급을 연말까지 전면 중단한다. 케이뱅크는 신용대출 한도를 2억5000만원에서 1억5000만원으로 축소했고, 출범한 지 3일된 토스뱅크는 연간 대출한도의 40%를 이미 소진했다. 문 열자마자 대출 영업을 중단할 처지에 놓인 셈이다.5일 출범 예정인 세 번째 인터넷은행 토스뱅크에 은행권의 관심이 쏠리고 있다. 연 2% 은행권 최대 예금금리와 연 2% 후반 최소 대출금리 등 출범 전부터 파격적인 금리 상품 출시를 밝혀 같은 인터넷은행뿐 아니라 시중은행들까지 긴장하는 모양새다. 특히 금융당국의 가계대출 규제가 더욱 거세지면서 대출 금리 상승, 대출 한도 제한이 이어지는 가운데 최대 한도 2억 7000만 원에 달하는 신용대출을 예고하면서 ‘대출 난민’들의 수요가 몰릴 것이라는 전망도 나온다. 사진은 4일 서울 강남구 토스뱅크 본사 모습./김현민 기자 kimhyun81@2금융도 총량규제 후폭풍…연말 대출창구 문 닫는다2금융권 상황도 여의치 않다. 산림조합은 다음주부터 준조합원과 비조합원을 대상으로 하는 가계대출을 전면 중단할 예정이다. 신용대출과 주택담보대출을 포함해 토지나 임야를 담보로 하는 비주택담보대출 상품 운영까지 중단된다. 타 금융권보다 비주택담보대출이 차지하는 비중이 커 내린 결정이다.금융당국은 지난 1일 산림조합 여신담당자를 불러 가계대출 총량 목표를 준수해달라고 요구한 바 있다. 전국 130여개 산림조합 가계대출 증가율이 5%대를 웃돌면서다. 올해 증가율 목표치는 평균 4%대로 이미 넘긴 상황이다.수협은 이달 1일부터 신규 가계대출을 전면 중단한 상태다. 비·준조합원은 물론 조합원도 신규 주택담보대출과 전세자금대출, 중도금 집단대출을 받을 수 없다. 조합원이면서 어업경영에 필요한 자금일 때만 제한적으로 실행하고 있다. 상호금융업권 중 규모가 제일 큰 농협중앙회는 지난 8월 전국 농·축협에서 비조합원과 준조합원의 신규 집단대출, 전세자금대출, 주택담보대출을 중단한 바 있다.상호금융권은 연간 가계대출을 전년 말 대비 4.1%로 묶어야 한다. 민형배 더불어민주당 의원이 각 상호금융 중앙회로부터 제출받은 자료에 따르면 올 상반기 상호금융업권의 가계대출 잔액은 249조3085억원에 달한다. 지난해보다 3.78%(9조830억원) 늘어 총량까지는 0.32%(7689억원) 남았다.주로 중·저신용자가 이용하던 상호금융권에 고신용자가 몰려드는 정황도 포착됐다. 필요한 만큼 시중은행에서 돈을 빌리지 못한 차주가 2금융권으로 넘어오는 ‘풍선효과’다. 올 상반기 가계대출 신규취급액은 37조7165억원이다. 이중 17조5499억원이 1~2 신용등급을 보유한 고신용자다. 2018년 18.71%에 불과하던 고신용자비율이 지난해 26.75%까지 늘었고 올 들어 46.53%로 치솟았다.가계대출 관리가 양호한 상호금융권도 잇따라 대출중단 특별관리에 돌입했다. 한 신협 관계자는 “신협으로 대출수요가 반드시 넘어올 거라고 예단하기 어렵다”면서도 “대출 비율이 전년치보다 상회하는 조합을 모니터링하고 있고 개별적으로 특별관리 지도하고 있다”고 설명했다.생활비 등 급전이 필요한 자영업자 중에서는 고금리 카드론에 발길을 돌리는 이들도 있다. 최근 카드론을 새로 신청하거나 기존 한도를 늘리는 수요가 크게 늘어난 것. 하지만 카드사 역시 금융당국의 관리 주문에 전체 카드론 규모 줄이기에 돌입한 상황이라 제도권에서 돈을 구하기 어려운 취약차주들은 불법 사금융으로 내몰릴 수 밖에 없을 것이란 우려도 제기된다.정치권에서는 지금의 대출중단 사태가 도를 넘어섰다는 반응도 나오고 있다. 유의동 국민의힘 의원은 "은행권이 연간 가계대출 총량 목표를 언제나 초과했고 금융당국도 이에 대해 문제를 제기하지 않다가 갑자기 가계대출을 조이면서 대란이 발생했다"며 "무식한 가계대출 총량규제인 데다 수단도 비정상적"이라고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2021.10.08.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>‘카뱅’ 신규 대출 일부 중단… ‘토뱅’ 사흘 만에 2000억 소진</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003220968?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>카카오뱅크 중신용·사업자 대출은 유지토스뱅크 올 허용된 5000억 곧 끝나갈 듯좁아진 대출의 문  - 3일 서울 시내 시중은행 외벽에 붙은 대출상품 안내문 앞을 한 시민이 지나가고 있다. 최근 한 달 새 시중은행 대출금리는 0.4% 포인트 오르고, 대출 한도는 절반 가까이 줄어 서민들이 대출받기가 까다로워졌다.연합뉴스금융 당국의 가계대출 조이기가 이어지면서 사상 초유의 대출 절벽이 현실화되고 있다. 시중은행에 이어 인터넷전문은행, 상호금융도 잇따라 신규 대출 문을 걸어 잠그는 추세다.카카오뱅크는 오는 12월 31일까지 고신용자 대상 신용대출, 일반 전월세보증금대출, 직장인 사잇돌대출의 신규 대출을 중단한다고 7일 밝혔다. 마이너스통장 신규 대출 취급을 잠정 중단한 데 이은 추가 조치다. 다만 청년 전월세보증금대출 상품의 경우 일일 신청 건수를 제한해 대출을 해 준다. 중신용대출과 중신용플러스대출, 햇살론 등 중·저신용 고객을 위한 대출상품과 개인사업자 대출은 기존과 동일하게 유지한다. 카카오뱅크 관계자는 “일부 대출 상품의 신규 대출 중단은 연간 가계대출 증가율 관리 차원”이라며 “대출 증가 속도를 고려해 추가 조치를 진행할 수 있다”고 말했다.지난 5일 영업을 시작한 토스뱅크도 출범 사흘 만에 대출 실행 금액이 2000억원을 넘어섰다. 연말까지 토스뱅크에 허용된 대출 총량은 5000억원 수준이다. 이 속도대로라면 토스뱅크는 출범 한 달도 안 돼 대출을 중단해야 할 처지다. 이에 앞서 상호금융인 수협중앙회도 지난 1일부터 연말까지 모든 조합원·비조합원을 대상으로 한 가계대출 신규 취급 중단을 결정했다. 조합원 가운데 생업인 어업에 쓸 용도로 자금을 대출하는 사람에게만 신규 대출을 내줄 예정이다. 이미 농협중앙회도 지난 8월 말부터 전국 농·축협에서 비조합원과 준조합원의 신규 집단대출, 전세자금대출, 주택담보대출 취급을 모두 중단한 상태다.문제는 은행들이 속속 대출 중단이라는 고강도 조치를 꺼내 들면서 전방위로 확산될 가능성이 높아졌다는 점이다. 은행권 관계자는 “한 은행에서 대출이 막히면 그 수요가 다른 은행으로 몰리는 풍선효과 때문에 어느 한곳이 규제를 선택하면 다른 은행들도 대응책을 고심할 수밖에 없는 상황”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2021.10.12.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>카뱅, 카카오에 낸 브랜드사용료 5년간 10배로</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004722104?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>영업익 0.3% 브랜드 사용료로 지급0.2% 수준 시중은행보다 높은비율  4대 시중은행과 3대 인터넷은행의 브랜드 사용료율을 조사한 결과, 카카오뱅크가 모기업인 카카오에 지급하는 브랜드 사용료율이 0.3%로 가장 높은 것으로 나타났다.   12일 농협을 제외한 4대 시중은행과 카카오뱅크·케이뱅크·토스뱅크 등 인터넷은행의 브랜드 사용료율을 비교해본 결과 가장 사용료율이 높은 곳은 인터넷은행인 카카오뱅크로 나타났다.   출범 초기인 2017년 모기업 카카오에 2억2200만원의 브랜드 사용료를 지급했던 카카오뱅크는 이듬 해인 2018년에는 약 7배에 해당하는 13억2500만원을 브랜드 사용료로 냈다. 이어 2019년 21억9400만원, 2020년엔 26억5400만원의 사용료를 지급했다. 카카오뱅크가 카카오에 지급한 브랜드 사용료가 약 5년 만에 10배 이상 뛴 것이다.   브랜드 사용료는 대표적으로 수익률을 갉아먹는 요인으로 꼽힌다. 한 은행권 관계자는 "브랜드 사용료의 경우 각 사가 결정하는 것"이라면서 "은행마다 사용료율이 통일될 필요는 없지만 신생 은행이 시중은행보다 높은 수수료율을 적용했다는 점은 충분히 실적에도 영향을 줄 수 있는 요인"이라고 말했다.   이는 여타 시중은행 사용료율보다도 높은 수준이다. 신한·KB·하나·우리 등 주요 금융지주사와 은행들이 그룹 계열사들로부터 받는 '명칭 사용료'는 신한과 우리가 매출의 약 0.2%, 국민이 0.17% 선으로 파악됐다. 하나는 수수료를 부과하지 않는 것으로 확인됐다.   은행권에서 지주사가 브랜드 사용료를 수취하는 곳은 신한금융지주가 유일하다. 신한금융은 신한은행 등 16개 계열사로부터 지난해 619억원의 브랜드 사용료를 받았다. 신한금융은 2년마다 브랜드 가치를 산정한 후 계열사에 사용료를 부과하고 있다. 2018년과 2019년엔 각각 497억원의 사용료를 수취했다. 신한금융 관계자는 "계열사별로 자본 규모와 손익 현황 등을 토대로 사용료를 금액으로 산정해 부과하고 있다"고 말했다.   반면 KB국민·KEB하나·우리 등 은행들은 자신들이 브랜드 소유권을 가지고 있다. 은행이 먼저 생긴 뒤 뒤늦게 지주 체제로 전환하면서 아직 은행이 소유하고 있는 것이다.   KB국민은행은 KB손해보험 등 16개 계열사에 브랜드 사용료율 0.17%를 적용하고 있다. 2019년 413억원의 브랜드 사용료를 걷어 처음 400억원이 넘는 이익을 남겼다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2021.10.12.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>카카오뱅크, 대출 규제 등 악재에 2%대 하락…시초가 위협</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004615125?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>(사진=뉴스1)카카오뱅크 주가가 2% 넘게 하락하며 시초가를 위협하고 있다.12일 오전 11시3분 기준 카카오뱅크는 전 거래일 대비 1500원(2.63%) 하락한 5만5500원에 거래 중이다.앞서 카카오뱅크는 지난 9월 1일 8만8800원을 기록한 이후 줄곧 하락 기조를 이어가고 있다. 앞서 상장 당일 시작한 가격인 5만3700원까지 위협받고 있다.이는 금융당국이 강하게 가계 대출을 압박하면서 카카오뱅크가 일부 대출 상품의 신규 취급을 중단했다는 소식이 영향을 받은 것으로 풀이된다.뿐만 아니라 제3호 인터넷전문은행인 토스뱅크가 정식 출범해 공격적인 영업을 펼치고 있는 점도 투자자들의 심리를 자극한 것으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2021.10.08.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>토스, 타다 인수… 모빌리티시장 진출</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002488143?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>타다 운영사 지분 60% 인수 “결제사업과 시너지효과 기대”핀테크(정보기술(IT)과 금융이 결합된 회사) 서비스 회사인 토스가 타다를 전격 인수하고 모빌리티 시장에 진출한다. 토스의 금융결제 서비스를 모빌리티 사업에 접목하겠다는 구상에 따른 전략적 인수로 해당 시장에 지각변동이 예고된다.8일 토스의 운영사 비바리퍼블리카는 쏘카가 보유한 타다의 운영사 VCNC 지분 60%를 인수하기로 하고 3사 간 양해 각서(MOU)를 체결했다고 밝혔다. 토스 측은 “타다 인수를 통해 토스 결제 등 금융 비즈니스의 외연을 확장하고 모빌리티 서비스 이용자와 산업 종사자의 선택폭을 넓힘으로써 건전한 성장과 혁신을 이어간다는 전략”이라고 밝혔다. 양사는 타다가 신주를 발행하면 토스가 인수하는 방식으로 이달 중 주식 인수 계약을 마무리할 계획이다. 회사 관계자는 “토스가 투자한 금액은 모두 타다의 성장을 위해 쓰여질 예정”이라고 말했다.토스 이승건 대표는 “국내 택시 시장 규모는 연간 매출액 기준 약 12조 원에 달하고 절반 정도가 호출 앱을 통해 이뤄지고 있다”며 “토스의 결제사업 등 여러 금융서비스와 시너지가 기대된다”고 말했다. 박재욱 쏘카 대표는 “금융 혁신을 주도하고 있는 토스와 손잡고 새로운 도전에 나서게 됐다”며 “토스와 함께 기존 산업간 경계를 넘어서는 혁신적인 서비스를 선보여 새롭게 도약하고자 한다”고 말했다. 타다는 현재 개인·법인 택시 플랫폼 가맹사업 ‘타다 라이트’를 운영 중이다. 타다는 포털사이트 다음의 창업자인 이재웅 쏘카 대표가 시스템 개발에 나선 뒤 2018년 승합차 호출 서비스를 선보이며 세간에 이름을 알렸다. 하지만 지난해 4월 이른바 ‘타다 금지법’으로 불린 여객자동차운송사업법 개정을 계기로 서비스를 중단한 상황이다. 토스의 타다 인수 후에도 타다 브랜드와 이정행 대표는 그대로 유지된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2021.10.11.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>코리아스타트업포럼, 출범 5주년 기념 ‘THE창업가’ 캠페인</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005057395?sid=105</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>코스포 출범 5주년 1,700여 개 스타트업 동참창업가 정신에 주목하는 컨퍼런스, 미니 다큐멘터리, 인터뷰 등혁신의 원동력인 ‘창업가 정신’에 대한 사회적 인식 강화 의지스타트업하기 좋은 나라 만들기에 앞장 설 것[이데일리 김현아 기자] 코리아스타트업포럼(의장 김슬아·안성우·이승건, 이하 코스포)이 출범 5주년을 맞아 스타트업의 사회적 역할과 창업가 정신을 조명하는 ‘THE창업가’ 캠페인을 추진한다. 5주년 기념 미니 다큐멘터리 등 오리지널 콘텐츠 공개와 함께 오는 20일 ‘THE창업가 페스티벌’을 연다.코스포는 2016년 9월, 스타트업 생태계 발전을 지원하고 공동의 이익을 대변하기 위해 출범했다. 현재 1,700여 개의 스타트업과 혁신 기업이 동참하는 국내 최대 스타트업 단체로 자리매김하며 대표성을 인정받고 있다.출범 5주년을 기념하는 ‘THE창업가 캠페인’은 대한민국의 혁신을 이끄는 주역인 창업가를 조명하여, 동시대 창업가들에게는 공감과 용기를 건네고 사회적으로는 스타트업에 대한 인식 개선과 도전, 희망의 메시지를 전달하려는 취지로 기획됐다. 코스포 5주년 발자취를 회고하고 스타트업 생태계의 청사진을 그리는 ▲THE창업가 페스티벌 개최와, 창업가 정신을 담은 오리지널 콘텐츠 시리즈인 ▲미니 다큐멘터리, ▲인터뷰 프로젝트를 공개한다.오는 10월 20일 온라인에서 열리는 ‘THE창업가 페스티벌’은 오픈 컨퍼런스와 코스포 회원사 대상 네트워킹 이벤트 프로그램으로 구성됐다. 코스포 유튜브 채널에서 중계되는 컨퍼런스는 미니 다큐멘터리 상영을 비롯하여 코스포 5주년 스타트업 선언문 발표, 크래프톤 장병규 의장과 토스 이승건 대표의 ‘창업가 정신‘ 주제 대담(FIRESIDE CHAT)이 진행된다.‘스타트업하기 좋은나라, 대한민국의 미래’를 주제로 중소벤처기업부 차정훈 실장, 코스포 최성진 대표, 국민대학교 김도현 교수, 법률·정책 플랫폼 스타트업 ‘코딧’의 정지은 대표가 스피커로 참여해 패널토크 시간을 갖는다.이와 동시에 메타버스에서 열리는 네트워킹 이벤트는 코스포 회원사를 대상으로 진행된다. 우주정거장의 여행자 컨셉으로 꾸며진 게더타운 공간에서 컬리·직방·토스·프립·비트바이트 등 창업가와 롯데벤처스, 매쉬업엔젤스 등 생태계 구성원이 참여하는 THE창업가 스몰토크 살롱, 스타트업 피칭 세션 및 전시 부스가 운영되며, 오리지널 콘텐츠 전시관과 네트워킹 존 등 다양한 프로그램이 마련됐다.한편 THE창업가 캠페인의 일환으로 제작된 오리지널 콘텐츠를 순차적으로 공개하며 화제를 모으고 있다. 지난 9일 부산국제영화제 커뮤니티비프에서 첫 상영회를 연 &lt;코스포 5주년 기념 미니 다큐멘터리 : THE창업가&gt;는 다양한 배경과 경험을 가진 창업가 7인의 고민과 노력, 시행착오의 여정을 따라 진솔하고 생생한 이야기를 담아내어 큰 호응을 얻고 있다. 스타트업 창업가 50인의 세계관과 창업가 정신을 기록하는 ‘인터뷰 프로젝트’에는 육아·교육·헬스케어·펫·핀테크 등 다양한 산업군과 지역 및 청년 창업 등의 배경을 가진 창업가들이 인터뷰이로 참여하며 매주 인터뷰 콘텐츠를 공개하고 있다.코리아스타트업포럼 최성진 대표는 “5년 전 첫 발을 내디딘 코스포가 어느덧 대한민국 스타트업을 대표하는 단체로 성장해 감회가 새롭다“며, “이번 ‘THE창업가’ 캠페인을 통해 혁신의 원동력인 ‘창업가정신‘에 대한 사회적 인식을 강화하고 나아가 스타트업하기 좋은 생태계 만들기에 앞장서겠다”고 전했다.코스포 5주년 캠페인에 대한 상세한 정보와 페스티벌의 사전 참가 신청은 THE창업가 웹사이트를 통해 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2021.10.08.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>토스, 타다 지분 60% 인수…“연내 새로운 서비스 출시”</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000260175?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>[(자료: 토스)]토스가 모빌리티 스타트업 타다를 전격 인수합니다.토스 운영사 비바리퍼블리카는 쏘카가 보유한 타다 운영사 브이씨엔씨 지분 60% 인수를 결정하고 3사간 양해 각서를 체결했다고 오늘(8일) 밝혔습니다.토스는 타다 인수를 통해 토스 결제 등 금융 비즈니스 외연을 확장하고, 모빌리티 서비 이용자와 산업 종사자의 선택 폭을 넓혀 성장과 혁신을 이어간다는 계획입니다.이번 인수는 타다가 신주를 발행하고, 토스가 인수하는 방식으로 이뤄집니다. 토스 관계자는 "모빌리티와 핀테크가 결합된 새로운 가치를 창출하는 것이 목표"라며 "2천만 토스 고객과 900만 쏘카-타다 고객을 대상으로 확장된 멤버십 서비스 및 다양한 혜택을 제공할 계획"이라고 밝혔습니다.토스는 이르면 이달 주식인수계약을 마무리하고, 올해 말 새롭게 개편된 타다 서비스를 선보일 예정입니다.타다 브랜드는 물론, 지난 8월 타다 신규 대표이사에 선임된 전 이정행 CTO의 대표이사직도 그대로 유지됩니다.모빌리티 산업은 세계적으로 핀테크와 결합이 활발한 분야입니다. 차량 호출 서비스로 시작해 동남아 주요국에서 결제 및 금융사업을 확장하고 있는 그랩(Grab)이 대표적인 사례입니다.타다는 지난 2018년 11인승 승합차를 통해 국내 '승차 호출' 서비스를 처음 선보인 뒤 사용자 170만명을 확보하는 등 빠르게 성장했습니다.하지만 지난해 4월 여객자동차운송사업법 개정으로 기존 서비스를 중단하고, 현재 '타다 라이트'를 통해 개인 및 법인 택시 면허 보유자를 대상으로 플랫폼 가맹사업을 운영하고 있습니다. 이승건 토스 대표는 "국내 택시시장 규모는 연간 매출액 기준 약 12조 원에 달하고 절반 정도가 호출 앱을 통해 이뤄지고 있다"며 "토스의 결제사업 등 여러 금융서비스와 시너지가 기대된다"고 말했습니다.그러면서 "토스는 창업 이후 지속적으로 사업 모델이 고착화된 시장에 진출해 기업과 소비자 모두에게 편리하고 혁신적인 서비스를 제시해왔다"며 "이번 인수 역시 같은 맥락"이라고 강조했습니다.박재욱 쏘카 대표는 "금융 혁신을 주도하고 있는 토스와 손 잡고 새로운 도전에 나서게 됐다"며 "토스와 함께 기존 산업 간 경계를 넘어서는 혁신적인 서비스를 선보여 새롭게 도약하고자 한다"고 말했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2021.10.10.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>금융당국, 빅테크 규제 '정조준'…"금융소비자 보호에 예외 없다"</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005647925?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>정은보 금감원장 "빅테크 영업행위 규제 등 감독 방안 마련"결제 수수료도 도마…금감원, 수수료 산정 근거 등 모니터링© News1 DB(서울=뉴스1) 민선희 기자 = 네이버·카카오 등 빅테크 기업의 금융 진출이 가속화하고 있는 가운데 금융당국이 '동일기능 동일규제' 원칙을 강조하며 빅테크 규제를 공언했다. 금융소비자보호법(금소법) 시행에 맞춰 핀테크 플랫폼에 대한 금융당국 규제도 시작됐다는 평가가 나오는 가운데 빅테크 업체들의 결제수수료도 도마에 올랐다.금융당국은 금융소비자 보호 측면에 있어서는 빅테크에도 규제 예외는 없다고 밝혔다. 고승범 금융위원장은 지난 6일 국회 정무위원회의 금융위원회 국정감사에 출석해 "빅테크와 핀테크의 발전이 디지털 혁신을 위해 필요하지만 금융소비자 보호·금융안정 차원에서는 빅테크나 핀테크도 금융회사와 같은 소비자 보호 규제를 받아야 한다"고 말했다. 특히 금소법 계도기간이 지난달 25일 종료됨에 따라 핀테크 플랫폼에도 금융소비자 보호 관련 규제가 본격적으로 적용됐다. 금융당국은 지난달 권역별로 금소법 준비상황을 점검하면서 핀테크 플랫폼의 금융상품 정보제공·비교 서비스가 금소법 위반 우려가 있다고 판단했다. 카카오페이, 토스 등 플랫폼 업체들은 금융당국과 논의하면서 위법소지를 해소하는 식으로 서비스를 대폭 개편했다. 금융당국의 방침을 인지하지 못했던 일부 영세업체들은 연내 시정 의견을 당국에 제출하고 시정해야 한다. 금융당국은 금융사에 금소법 이행상황 자체 점검·자율 시정을 유도하는 한편 금융소비자 보호를 위해 빅테크 플랫폼의 영업행위 규제 방안을 마련하겠다는 입장이다. 정은보 금융감독원장은 지난 7일 금감원 국정감사에서 "빅테크의 금융 진출이 가속화함에 따라 영업행위 규제 등 합리적인 감독 방안을 마련할 것"이라며 "디지털 플랫폼과 금융사 간 공정한 경쟁 질서가 확립되도록 노력하겠다"고 했다.고승범 금융위원장이 6일 서울 여의도 국회에서 열린 정무위원회의 금융위원회에 대한 국정감사에서 의원들의 질의에 답하고 있다. 2021.10.6/뉴스1 © News1 구윤성 기자빅테크 결제 수수료도 금융사와 빅테크간 '기울어진 운동장'의 대표적인 쟁점이다. 김한정 더불어민주당 의원은 국정감사에서 "영세상인 수수료율 구조를 보면, 신용카드 수수료와 결제수수료 차이가 상당하다"며 "이는 부당한 것 아니냐"고 지적했다. 금융사는 같은 결제 기능을 하는데도, 3년마다 적격비용을 산정하는 신용카드 수수료와 달리 빅테크는 수수료 규제에서 벗어나 있다는 것이다. 이에 대해 빅테크는 간편결제 수수료와 신용카드 수수료는 동일선상에서 비교할 수 없다고 맞선다. 금융당국은 신용카드 수수료와 간편결제 수수료를 단순비교하기는 어렵다는 데 동의한다. 고승범 금융위원장은 "신용카드 수수료와 간편결제 수수료에 차이가 있긴 하지만 단순 비교하기는 어렵다"며 "간편결제 수수료에는 카드수수료와 달리 PG수수료 등이 들어간다"고 말했다. 빅테크, 유통사들의 간편결제 수수료율 구조에 문제가 있다는 지적도 있다. 이정문 더불어민주당 의원은 "온라인 거래 수수료 구조가 불투명하다"며 "카드수수료가 인하되면 PG수수료를 포함한 전체 수수료도 낮아져야하는데 일괄적으로 적용하는 곳들이 있다"고 꼬집었다. 금융당국은 빅테크의 결제 수수료율을 규제할 법상 근거는 없다면서도, 수수료 세부내용과 산정 근거 등을 계속 모니터링하겠다는 입장이다. 정은보 금감원장은 신용카드 수수료가 낮아져도 결제 수수료가 일괄적으로 적용되는 구조에 대해 "합리적이지 않다고 생각한다"며 플랫폼사의 결제 수수료 구조와 플랫폼사의 하위가맹점 수수료차액 환급 실태 등을 들여다보겠다고 했다. 고승범 위원장도 "금융감독원에서 수수료 실태를 점검하고 있다"며 "점검 결과를 면밀히 보겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>[토스뱅크 출범] 고승범 금융위원장 “토스뱅크, 금융소외계층 포용해달라”</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002256174?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>고승범 금융위원장 “금융소외계층 포용에 힘써달라”윤재옥 국회 정무위원장 “큰 책임을 앞장서 맡아달라” ◆…고승범 금융위원장이 30일 금융투자협회에서 자본시장 유관기관 간담회에 참석해 발언하고 있다. 사진=연합뉴스     고승범 금융위원장은 5일 출범한 토스뱅크를 향해 “금융소외계층 포용에 힘써달라”고 당부했다.   고승범 위원장은 이날 토스뱅크 출범식에서 축사를 통해 “토스뱅크는 ‘혁신과 포용의 챌린저뱅크’라는 초심을 유지하며 혁신적인 상품, 서비스와 신용평가모델(CSS)을 기반으로 금융소외계층까지 끌어안기를 바란다”고 전했다.   이어 “혁신과 포용이 시장의 호응을 받기 위해서는 신뢰를 얻는 게 가장 중요하다”면서 “국민들이 언제나 믿고 거래할 수 있도록 소비자 보호, 금융보안에 유념해 달라”고 당부했다.   끝으로 고 위원장은 “토스뱅크의 의사결정이 금융안정과 금융산업 발전에 미치는 영향을 항상 염두에 두길 바란다”면서 “앞으로 정부도 시장친화적이고 현장감 있는 금융정책을 통해 금융권의 자율과 창의, 혁신을 적극 지원해 나가겠다”고 밝혔다.   윤재옥 국회 정무위원장 역시 이날 축사를 통해 “토스뱅크가 큰 책임을 앞장서 맡아달라”며 “모기업인 토스가 이뤄왔던 혁신금융의 연장선에서 토스뱅크가 우리나라 금융산업의 중요한 이정표를 세우길 바란다”고 전했다.   윤 위원장은 “토스뱅크의 기술혁신으로 소외받는 금융소비자를 포용하고, 소중한 자산을 믿고 맡길 수 있는 안전한 금융을 달성하길 기대한다”면서 “국회와 정무위원회도 더 나은 금융을 위해 노력하겠다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2021.10.08.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>토스, '타다' 전격 인수...지분 60% 확보</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002235639?sid=105</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>10월중 계약 마무리...이승건 대표 "여러 금융 서비스와 시너지 기대"토스가 모빌리티 스타트업 타다를 인수한다.토스 운영사 비바리퍼블리카는 쏘카가 보유한 타다 운영사 브이씨엔씨(VCNC)지분 60% 인수를 결정하고, 3사 간 양해 각서(MOU)를 체결했다고 8일 밝혔다.인수는 타다가 신주를 발행하고, 토스가 인수하는 방식으로 이뤄진다.토스는 타다를 인수해 토스 결제 등 금융 비즈니스의 외연을 확장하고, 모빌리티 서비스 이용자와 산업 종사자의 선택폭을 넓힌다는 전략이다.토스 이승건대표오는 10월 중 토스는 주식 인수 계약을 마무리하고, 2021년말 리뉴얼한 타다 서비스를 선보일 예정이다. 다만, 타다 브랜드와 이정행 대표이사직은 그대로 유지한다.토스 이승건 대표는 "국내 택시시장 규모는 연간 매출액 기준 약 12조 원에 달하고, 절반 정도가 호출 애플리케이션(앱)을 통해 이뤄져 토스의 결제사업 등 여러 금융서비스와 시너지가 기대된다"고 인수 배경을 설명했다.쏘카 측은 "토스와 함께 기존 산업간 경계를 넘어서는 혁신적인 서비스를 선보여 새롭게 도약하고자 한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2021.10.10.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>연쇄 대출 중단 오나···5대 은행 대출 증가율 이미 5%</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0003971423?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>[서울경제] 연말까지 약 3개월이나 남았지만, 주요 시중 은행들의 올해 가계대출 증가율이 이미 연초 억제 목표로 잡은 5%에 이르렀다. 이에 따라 NH농협에 이어 다른 은행들도 연말까지 잇따라 일부 대출 창구를 아예 닫을 가능성이 커지고 있다.10일 금융권에 따르면 KB국민·신한·하나·우리·NH농협 5대 시중은행의 7일 현재 가계대출 잔액은 703조4,416억원으로 집계됐다. 이는 지난해 12월 말(670조1,539억원)과 비교해 4.97% 늘어난 규모다. 연초 당국이 제시한 증가율 목표(5∼6%)의 턱밑까지 온 셈이다.은행별 증가율을 보면 NH농협(7.14%·126조3,322억→135조3,581억원)이 가장 높고, 하나은행(5.23%·125조3,511억→131조9,115억원)이 뒤를 이었다. 가계대출 규모 1위 KB국민은행(5.06%)도 지난달 말 4.90% 이후 1주일 만에 0.16%포인트 올라 5%를 넘어섰다. 우리은행(4.24%·130조3,528억→135조8,842억원)도 추세대로라면 이달 말이나 다음 달께 5%대에 진입할 전망이다.이처럼 가계대출 증가세가 쉽게 꺾이지 않자 은행들은 갈수록 대출 문턱을 높이고 있다. 하지만 이런 조치에도 가계대출 속도가 충분히 떨어지지 않으면, 아예 은행들이 속속 신규 가계대출을 연말까지 중단할 것이라는 전망이 나오고 있다.이미 NH농협은행은 8월 24일 이후 전세자금 대출을 포함한 신규 담보대출을 아예 막고 있고, 은행은 아니지만 상호금융 수협중앙회도 이달부터 모든 조합원·비조합원 대상 신규 가계대출을 멈췄다. 지난 5일 출범한 토스뱅크의 경우 벌써 가계대출 잔액이 당국이 제시한 올해 가계대출 최대 한도(5,000억원)의 절반에 이르러 조만간 대출 문을 닫을 것이라는 관측까지 나오고 있다.가계 대출이 급격히 늘어나자 정부에서는 가계 부채 증가율을 상향 조정한 바 있다. 하지만 기준이 명확치 않아 시중은행에서는 혼란을 겪고 있다. 시중은행 관계자는 "올해 초 분명히 당국이 제시한 5% 증가율 가이드라인에 맞춰 여신담당부서에서 총량 관리 계획을 제출했다"며 "이제 '6%대' 얘기가 나오는데, 이게 7%까지는 늘어도 된다는 말인지 모호할 뿐 아니라 여신담당부서는 정확히 당국으로부터 6%대로 상향조정됐다는 지침을 받은 적도 없다고 한다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2021.10.14.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>금감원, 토스페이먼츠에 '경영유의'…카드단말기 관리 미흡</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002537928?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>내부통제 미흡, 개선 조치도서울 강남구 소재 토스 본사 내부 전경 ⓒ비바리퍼블리카[데일리안 = 김민석 기자] 금융감독원이 토스 결제기술 계열사 토스페이먼츠에 경영유의 조치를 내렸다. 신용카드 단말기 관리에 미흡했다는 이유에서다.14일 금융권에 따르면 금융감독원은 지난 8일 토스페이먼츠에 신용카드 단말기 관리 체계 강화를 주문하면서 경영유의 조치를 의결했다.토스페이먼츠는 신용카드 단말기 정보를 전산으로 수집·관리하는 기업이다. 금감원은 토스페이먼츠가 ▲신용카드 단말기 식별 코드 ▲기종 ▲수량 ▲입출고 현황 등을 전산시스템에 통합 관리하지 않았다는 사실을 우려했다. 이와 관련한 시스템을 체계적으로 구축할 필요성이 있다는 지적이다.금감원은 토스페이먼츠에 업무 보고서 제출과 관련한 내부통제 미흡으로 인한 개선 조치도 함께 부과했다. 지난해 8월 부가통신업자에 등록한 뒤 자료 검증 절차 미흡으로 지난해 3분기 말부터 올해 1분기 말 기준 업무 보고서를 제출하는 과정에서 오류 데이터를 입력한 사례가 있어서다.금감원은 향후 유사한 사례 재발 방지를 위해 담당자에 대한 연수를 실시하고 자료 검증 체계를 수립하는 등 내부통제제도를 개선할 것을 요구했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2021.10.01.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>5일 출범하는 토스뱅크, 대출 가뭄 속 단비 될까</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004611210?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>오는 5일 3호 인터넷전문은행 토스뱅크가 출범한다. 정부가 금융권 가계대출을 전방위로 조이면서 ‘대출 난민’이 속출하는 가운데 파격적인 조건을 내건 토스뱅크가 대출 수요를 받아낼 수 있을지 관심이 몰리고 있다. 토스뱅크는 오는 5일부터 90만명에 달하는 사전 예약자를 대상으로 토스앱에서 예금·대출 등의 은행 서비스를 시작할 예정이다. 토스뱅크는 출범과 동시에 연 2.0% 금리의 수시입출금식통장, 신용대출, 마이너스통장대출, 비상금대출 등을 출시하기로 했다.  토스뱅크가 공개한 금융상품의 혜택은 파격적이다 .신용대출의 최대 한도는 은행권에서 가장 많은 2억7000만원이다. 케이뱅크가 내건 2억5000만원보다도 많다. 토스뱅크 신용대출 금리는 최저 연 2.76%로 지난 8월말 기준 5대 시중은행의 신용대출 평균 최저금리(연 3.07%)보다 0.3%포인트 가까이 낮다. 은행권에서는 통상 0% 초반대에 불과한 수시입출금식통장 예금금리도 연 2.0%로 책정하면서 금융소비자들의 많은 관심을 끌었다. 정부의 가계대출 총량 규제로 인해 시중은행들이 신용대출을 중단하거나 제한하는 사태가 이어지는 것도 토스뱅크가 주목받는 이유다. 앞서 국민·신한·하나·농협·우리은행은 신용대출 한도를 연 소득 이내로 줄였고, 마이너스통장도 일제히 5000만원까지 제한했다. 카카오뱅크는 전날 신규 마이너스통장 대출을 연말까지 중단하기로 했다.  하지만 토스뱅크가 보유한 자본금을 고려하면 대출을 늘리는 덴 한계가 있다는 시각도 있다. 현재 토스뱅크의 자본금은 2500억원이다. BIS(국제결제은행) 총자본비율 규제(8.5%)를 감안하면 최대 대출 규모는 자본금의 12배를 조금 웃도는 3조원 정도다. 올초부터 지난 8월말까지 카카오뱅크의 가계대출 증가액이 4조2000억원이었다는 점을 고려하면 대출을 크게 늘릴 수 있는 여지가 많지 않다는 분석이다. 당국에 약속한 중신용대출 비중 목표치(34.9%)도 고신용자의 신용대출 확대에 ‘걸림돌’로 작용할 전망이다. 부실가능성이 높은 중신용대출 공급 비중을 높게 유지해야하는 만큼 고신용자 대출을 무턱대고 늘리기는 어려울 것으로 예상된다. 토스뱅크는 고신용자 신용대출 상품과 중신용대출을 분리하지 않고, 하나의 신용대출 상품으로 내놓을 것으로 전해졌다. 신용대출 최대 한도가 2억7000만원으로 내걸었지만, 실제로 고신용자에게 시중은행 대비 많은 한도를 내주긴 어려울 것이란 지적이다. 박진우 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2021.10.10.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>[이슈진단] 정치권 ‘네카오 때리기=공정하다는 착각’에 빠지다</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004720968?sid=105</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>국정감사 곳곳에서 네이버-카카오 등 플랫폼 사업자 공격시장 점유율 제한, 수수료 인하 압박, M&amp;A 요건 강화 등플랫폼 경제 활성화가 아닌 기득권(표심) 지키기에 급급해  [파이낸셜뉴스]정치권이 내년 3월 대선을 앞두고 플랫폼 참여자에 대한 ‘공정’이라는 명분을 내세워 플랫폼 사업자를 향한 ‘규제의 칼’을 본격적으로 꺼내들었다. ‘카카오 T(택시)’를 예로 들면, 택시기사 표심을 잡기 위해 카카오모빌리티를 때리는 모양새다. 이 과정에서 카카오택시 이용자 편익은 외면 받고 있다.   국정감사 곳곳에서 나온 규제 키워드는 △시장점유율 제한 △수수료 인하 압박 △인수합병(M&amp;A) 요건 강화 등이다. 하지만 정치권 여론몰이에 주로 사용되는 ‘골목상권 침해’, ‘갑질’, ‘문어발 확장’ 등 실체 없는 프레임만 난무할 뿐 각 키워드에 대한 구체적 정책 대안은 없다.   이와 관련 업계에서는 지난해 4월 총선을 앞두고 불거졌던 ‘타다 사태’처럼 혁신적 서비스는 기득권(표심)에 밀려 종료되고, ‘제2의 타다’는 등장하지 못하는 악순환이 반복될 것이란 우려가 높아지고 있다.  지난 7일 국회에서 열린 산업통상자원중소벤처기업위원회의 중소벤처기업부 등에 대한 국정감사에서 김범수 카카오 의장(왼쪽 첫번째) 등 증인 참석자들이 선서하고 있다. 사진=박범준 기자  ■시장 점유율까지 법으로 제한한다? 10일 국회 및 관련 업계에 따르면 정무위원회, 환경노동위원회(환노위), 산업통상자원중소벤처기업위원회(산자위) 등 각 상임위원회는 국감 내내 네이버, 카카오, 카카오모빌리티, 야놀자, 우아한형제들(배달의민족) 등 플랫폼 사업자들에게 맹공을 펼쳤다. 이와 관련 각 사업자 대표들은 사과와 해명을 반복하면서도 ‘플랫폼 경제 활성화’에 대한 중요성을 피력했다.   산자위 소속 정의당 류호정 의원은 카카오 등 대기업의 대리운전 시장점유율을 제한해야 한다는 주장을 내놨고, 카카오 김범수 의장은 “시장점유율을 법으로 제한하는 것이 해결방안으로 적절한지 모르겠다”고 반박했다.   산자위 소속 더불어민주당 이성만 의원이 제기한 카카오 시장 독점이 수수료 인상으로 이어질 수 있다는 우려에 대해서도 김 의장은 “플랫폼이 활성화되면 수수료를 내릴 수 있는 여지가 생긴다”고 강조했다.   다만 플랫폼은 이용자 편익과 공급자 수익을 동시에 높여야 한다는 게 그의 설명이다. 이에 따라 카카오는 택시를 부를 때 배차성공률을 높여주는 ‘스마트호출’ 유료 서비스를 폐지하고, 카카오 플랫폼을 통해 서비스를 공급하는 이들을 위한 추가 상생방안을 내놓을 예정이다.    ■시장경쟁 활성화로 독점폐해 막아야 그럼에도 네이버와 카카오 등 플랫폼 사업자를 향한 정치적 공세는 당분간 지속될 전망이다. 하지만 대형 플랫폼에 대한 견제가 규제일변도로 갈 경우 ‘제2 제3의 네이버, 카카오’ 등장을 통한 시장경쟁 촉진은 묘연해진다는 지적이다. 최근 금융 플랫폼 ‘토스’가 ‘타다’를 운영하는 VCNC를 인수해 카카오모빌리티 독주에 제동을 걸겠다고 나선 것처럼, 규제가 아닌 시장경쟁 활성화로 독과점 폐해를 막아야 한다는 게 업계 중론이다.   또 업계에서는 여야는 물론 공정거래위원회 등 정부가 밝힌 플랫폼 기업 M&amp;A 심사기준 강화 방침에 우려의 목소리를 높이고 있다. M&amp;A에 대한 엄격한 규제가 창업 생태계 활성화에 찬물을 끼얹을 수 있다는 것이다.   연쇄창업가(serial entrepreneur)로 유명한 권도균 프라이머 대표는 “대기업이 스타트업을 인수하면 창업 선순환이 이뤄진다”면서 “혁신적인 스타트업 종사자들이 대기업에 들어가 오픈이노베이션을 하는 리프레쉬 효과를 기대할 수 있고, 엑싯(투자금 회수) 후 또 다시 창업을 하는 이들도 있다”고 전했다. 이어 “대기업이 소기업이 하는 사업까지 침해해서 자본으로 황폐화시키는 부분에 대해서는 경계하면서도 M&amp;A를 활성화할 수 있는 다각적인 검토가 필요하다”고 덧붙였다. #카카오 #네이버 #네카오 #플랫폼경제 #M&amp;A활성화</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2021.10.05.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>IoT 서비스 3000만명 가입…디지털 일상 가속</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004612418?sid=105</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>과기정통부 '4차 산업혁명 지표'인터넷銀 계좌도 3100만개 돌파인터넷전문은행 계좌 3103만 개, 사물인터넷(IoT) 서비스 가입 3098만 개….케이뱅크, 카카오뱅크 등 인터넷전문은행 계좌가 올 들어 3100만 개를 돌파한 것으로 나타났다. 원격 검침과 같은 IoT 서비스 가입 수도 3000만 개를 넘었다.과학기술정보통신부는 5일 이런 내용을 담은 ‘4차 산업혁명 지표’를 발표했다. 데이터, 네트워크, 인공지능(AI), 핀테크 등 디지털 전환이 얼마나 성과를 내고 있는지 주요 지표를 정리한 것이다.금융 분야에서는 인터넷전문은행의 성장이 두드러졌다. 인터넷전문은행 계좌 수는 올 3월 3103만 개로, 1년 전 2400만 개보다 29.3% 증가했다. 같은 기간 인터넷전문은행 고객 수는 1327만 명에서 1807만 명으로 36.2% 늘었다. 인터넷전문은행은 금융회사가 아닌 정보기술(IT) 기업이 오프라인 점포 없이 온라인으로 사업을 벌이는 은행이다. 케이뱅크, 카카오뱅크에 이어 국내 3호 인터넷전문은행 토스뱅크가 5일 서비스를 시작했다.IoT 서비스 가입 수는 올 6월 3098만 개에 이르렀다. 전년 동기 대비 18.8% 증가했다. 원격 검침, 사물 간 통신, 홈네트워크 가입 수를 합친 숫자다.국내 데이터산업 시장 규모는 지난해 말 기준 19조2736억원이었다. 전년보다 14.3% 성장했다. 작년 AI산업 매출은 전년보다 16.3% 증가한 6895억원으로 집계됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2021.10.07.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>토스뱅크에 대출자 몰렸다...사흘만에 2000억원 나가</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005054778?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>금융당국이 요구한 대출총량 절반에 가까워이 속도라면 다음주 대출 모두 소진될 듯[이데일리 전선형 기자] 금융당국의 대출 규제가 이어지는 가운데, 신생 인터넷은행인 토스뱅크에 대출 실수요자들이 대거 몰린 것으로 나타났다. 연말까지 금융당국이 요구한 대출총량(5000억원)에 절반 가까운 금액이 사흘만에 소진된 것이다.7일 토스뱅크에 따르면 지난 5일부터 이날까지 2000억원 수준의 대출이 실행됐다. 이는 금융당국으로부터 요구받은 대출 총량 5000억원의 절반에 가까운 수준이다. 현재 토스뱅크는 금융권 대출 규제에 따라 금융당국으로부터 연말까지 대출총량이 5000억원을 넘지 않도록 요구받고 있다. 5000억원은 중ㆍ저신용자 대출을 포함한 금액이다. 이는 금융당국이 대출 증가세를 잡기 위해 시중은행들에 올해 대출 증가율 전년 대비 6%로 유지하도록 요구하는 것과 같은 맥락이다.토스뱅크 측은 “정확한 수치는 오픈하긴 어렵지만 이날까지 2000억원 정도 나갔다”며 “매일 10만명씩 가입이 가능하게끔 열면서 속도를 조절하고 있지만, 그럼에도 불구하고 빠르게 나가고 있는 편”이라고 말했다. 토스뱅크의 대출 소진율은 토스뱅크가 당초 예상한 것보다 빠른 속도다. 이 속도라면 이르면 다음주 금융당국에서 요구받은 총 대출금을 모두 소진해 대출창구 문을 닫아야 하는 상황이 발생할 것으로 예상된다. 사실상 입출금 통장 및 체크카드 발급 등 수신업무 위주로만 영업이 가능하게 되는 것이다. 오픈 한달도 안돼 반쪽짜리 운영을 하게 되는 셈이다. 토스뱅크는 지난 5일 공식 출범한 국내 세 번째 인터넷은행이다. 신용대출 연 최저금리 2.76%, 최대한도 2억7000만원을 내세우며 금융업계에서 주목을 받았다. 토스뱅크는 지난달부터 사전신청을 받으며 고객을 모았다. 토스뱅크 출범 첫날 사전 신청자(116만명)를 포함해 120만명이 몰렸다.토스뱅크에 대출자들이 몰린 이유는 최근 카카오뱅크 등 인터넷뱅크를 비롯해 시중은행들이 대출을 줄줄이 중단하고 있는 데 따른 것으로 보인다. 카카오뱅크는 연말까지 마이너스통장 대출을 중단키로 했으며, 신용대출을 비롯해 사잇돌대출, 전월세보증금 대출 등 일부 대출 상품의 신규 신청을 추가로 막기로 했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
